--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -30366,7 +30366,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>4587838</v>
+        <v>4591717</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30378,13 +30378,13 @@
         <v>44747.58333333334</v>
       </c>
       <c r="F336" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G336" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H336">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336">
         <v>0</v>
@@ -30393,43 +30393,43 @@
         <v>53</v>
       </c>
       <c r="K336">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="L336">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M336">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="N336">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O336">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P336">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q336">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R336">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S336">
+        <v>1.825</v>
+      </c>
+      <c r="T336">
+        <v>2.5</v>
+      </c>
+      <c r="U336">
+        <v>2</v>
+      </c>
+      <c r="V336">
         <v>1.85</v>
       </c>
-      <c r="T336">
-        <v>2.75</v>
-      </c>
-      <c r="U336">
-        <v>1.975</v>
-      </c>
-      <c r="V336">
-        <v>1.875</v>
-      </c>
       <c r="W336">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X336">
         <v>-1</v>
@@ -30438,16 +30438,16 @@
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA336">
         <v>-1</v>
       </c>
       <c r="AB336">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC336">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30455,7 +30455,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>4591717</v>
+        <v>4587838</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30467,13 +30467,13 @@
         <v>44747.58333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G337" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I337">
         <v>0</v>
@@ -30482,61 +30482,61 @@
         <v>53</v>
       </c>
       <c r="K337">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="L337">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M337">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="N337">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O337">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P337">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q337">
+        <v>-1.25</v>
+      </c>
+      <c r="R337">
+        <v>2</v>
+      </c>
+      <c r="S337">
+        <v>1.85</v>
+      </c>
+      <c r="T337">
+        <v>2.75</v>
+      </c>
+      <c r="U337">
+        <v>1.975</v>
+      </c>
+      <c r="V337">
+        <v>1.875</v>
+      </c>
+      <c r="W337">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X337">
+        <v>-1</v>
+      </c>
+      <c r="Y337">
+        <v>-1</v>
+      </c>
+      <c r="Z337">
+        <v>1</v>
+      </c>
+      <c r="AA337">
+        <v>-1</v>
+      </c>
+      <c r="AB337">
+        <v>0.4875</v>
+      </c>
+      <c r="AC337">
         <v>-0.5</v>
-      </c>
-      <c r="R337">
-        <v>2.025</v>
-      </c>
-      <c r="S337">
-        <v>1.825</v>
-      </c>
-      <c r="T337">
-        <v>2.5</v>
-      </c>
-      <c r="U337">
-        <v>2</v>
-      </c>
-      <c r="V337">
-        <v>1.85</v>
-      </c>
-      <c r="W337">
-        <v>1</v>
-      </c>
-      <c r="X337">
-        <v>-1</v>
-      </c>
-      <c r="Y337">
-        <v>-1</v>
-      </c>
-      <c r="Z337">
-        <v>1.025</v>
-      </c>
-      <c r="AA337">
-        <v>-1</v>
-      </c>
-      <c r="AB337">
-        <v>-1</v>
-      </c>
-      <c r="AC337">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -31078,7 +31078,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>4591716</v>
+        <v>4587840</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31090,40 +31090,40 @@
         <v>44754.58333333334</v>
       </c>
       <c r="F344" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G344" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H344">
         <v>2</v>
       </c>
       <c r="I344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J344" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K344">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="L344">
         <v>3.4</v>
       </c>
       <c r="M344">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N344">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O344">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P344">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="Q344">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R344">
         <v>1.95</v>
@@ -31132,7 +31132,7 @@
         <v>1.9</v>
       </c>
       <c r="T344">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U344">
         <v>1.85</v>
@@ -31141,19 +31141,19 @@
         <v>2</v>
       </c>
       <c r="W344">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X344">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA344">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB344">
         <v>0.8500000000000001</v>
@@ -31167,7 +31167,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>4587840</v>
+        <v>4591716</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31179,40 +31179,40 @@
         <v>44754.58333333334</v>
       </c>
       <c r="F345" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G345" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H345">
         <v>2</v>
       </c>
       <c r="I345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J345" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K345">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="L345">
         <v>3.4</v>
       </c>
       <c r="M345">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N345">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O345">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P345">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="Q345">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R345">
         <v>1.95</v>
@@ -31221,7 +31221,7 @@
         <v>1.9</v>
       </c>
       <c r="T345">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U345">
         <v>1.85</v>
@@ -31230,19 +31230,19 @@
         <v>2</v>
       </c>
       <c r="W345">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X345">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA345">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB345">
         <v>0.8500000000000001</v>
@@ -31790,7 +31790,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>4587976</v>
+        <v>4587843</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31802,10 +31802,10 @@
         <v>44761.58333333334</v>
       </c>
       <c r="F352" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G352" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H352">
         <v>1</v>
@@ -31817,40 +31817,40 @@
         <v>55</v>
       </c>
       <c r="K352">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="L352">
         <v>3.4</v>
       </c>
       <c r="M352">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N352">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O352">
         <v>3.6</v>
       </c>
       <c r="P352">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q352">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R352">
+        <v>1.8</v>
+      </c>
+      <c r="S352">
+        <v>2.05</v>
+      </c>
+      <c r="T352">
+        <v>3</v>
+      </c>
+      <c r="U352">
+        <v>2.025</v>
+      </c>
+      <c r="V352">
         <v>1.825</v>
-      </c>
-      <c r="S352">
-        <v>2.025</v>
-      </c>
-      <c r="T352">
-        <v>2.5</v>
-      </c>
-      <c r="U352">
-        <v>1.975</v>
-      </c>
-      <c r="V352">
-        <v>1.875</v>
       </c>
       <c r="W352">
         <v>-1</v>
@@ -31862,16 +31862,16 @@
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA352">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB352">
         <v>-1</v>
       </c>
       <c r="AC352">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31879,7 +31879,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>4587843</v>
+        <v>4587976</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31891,10 +31891,10 @@
         <v>44761.58333333334</v>
       </c>
       <c r="F353" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G353" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H353">
         <v>1</v>
@@ -31906,40 +31906,40 @@
         <v>55</v>
       </c>
       <c r="K353">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="L353">
         <v>3.4</v>
       </c>
       <c r="M353">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="N353">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O353">
         <v>3.6</v>
       </c>
       <c r="P353">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q353">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R353">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S353">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T353">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U353">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V353">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W353">
         <v>-1</v>
@@ -31951,16 +31951,16 @@
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA353">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB353">
         <v>-1</v>
       </c>
       <c r="AC353">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -33214,7 +33214,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>4587851</v>
+        <v>4587854</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33226,76 +33226,76 @@
         <v>44773.41666666666</v>
       </c>
       <c r="F368" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G368" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J368" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K368">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L368">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M368">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N368">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O368">
         <v>3.5</v>
       </c>
       <c r="P368">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q368">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R368">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S368">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T368">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U368">
+        <v>2.025</v>
+      </c>
+      <c r="V368">
         <v>1.825</v>
       </c>
-      <c r="V368">
-        <v>2.025</v>
-      </c>
       <c r="W368">
         <v>-1</v>
       </c>
       <c r="X368">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y368">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z368">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA368">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB368">
+        <v>-1</v>
+      </c>
+      <c r="AC368">
         <v>0.825</v>
-      </c>
-      <c r="AC368">
-        <v>-1</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33303,7 +33303,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>4587854</v>
+        <v>4587851</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33315,76 +33315,76 @@
         <v>44773.41666666666</v>
       </c>
       <c r="F369" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G369" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J369" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K369">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L369">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M369">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N369">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O369">
         <v>3.5</v>
       </c>
       <c r="P369">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q369">
+        <v>0.25</v>
+      </c>
+      <c r="R369">
+        <v>1.925</v>
+      </c>
+      <c r="S369">
+        <v>1.925</v>
+      </c>
+      <c r="T369">
+        <v>2.5</v>
+      </c>
+      <c r="U369">
+        <v>1.825</v>
+      </c>
+      <c r="V369">
+        <v>2.025</v>
+      </c>
+      <c r="W369">
+        <v>-1</v>
+      </c>
+      <c r="X369">
+        <v>2.5</v>
+      </c>
+      <c r="Y369">
+        <v>-1</v>
+      </c>
+      <c r="Z369">
+        <v>0.4625</v>
+      </c>
+      <c r="AA369">
         <v>-0.5</v>
       </c>
-      <c r="R369">
-        <v>1.95</v>
-      </c>
-      <c r="S369">
-        <v>1.9</v>
-      </c>
-      <c r="T369">
-        <v>2.75</v>
-      </c>
-      <c r="U369">
-        <v>2.025</v>
-      </c>
-      <c r="V369">
-        <v>1.825</v>
-      </c>
-      <c r="W369">
-        <v>-1</v>
-      </c>
-      <c r="X369">
-        <v>-1</v>
-      </c>
-      <c r="Y369">
-        <v>2.75</v>
-      </c>
-      <c r="Z369">
-        <v>-1</v>
-      </c>
-      <c r="AA369">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB369">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC369">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33392,7 +33392,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>4587856</v>
+        <v>4587940</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33404,76 +33404,76 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F370" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G370" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H370">
+        <v>1</v>
+      </c>
+      <c r="I370">
         <v>0</v>
       </c>
-      <c r="I370">
-        <v>1</v>
-      </c>
       <c r="J370" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K370">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L370">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M370">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N370">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O370">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P370">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q370">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R370">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S370">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T370">
         <v>2.75</v>
       </c>
       <c r="U370">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V370">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W370">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X370">
         <v>-1</v>
       </c>
       <c r="Y370">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z370">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA370">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AB370">
         <v>-1</v>
       </c>
       <c r="AC370">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33481,7 +33481,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>4587940</v>
+        <v>4587858</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33493,76 +33493,76 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F371" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G371" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J371" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K371">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="L371">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M371">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N371">
-        <v>1.45</v>
+        <v>3.25</v>
       </c>
       <c r="O371">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P371">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q371">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R371">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S371">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T371">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U371">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V371">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W371">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X371">
         <v>-1</v>
       </c>
       <c r="Y371">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z371">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA371">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB371">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC371">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33570,7 +33570,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>4587858</v>
+        <v>4587856</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33582,56 +33582,56 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F372" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G372" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H372">
         <v>0</v>
       </c>
       <c r="I372">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J372" t="s">
         <v>54</v>
       </c>
       <c r="K372">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L372">
         <v>3.4</v>
       </c>
       <c r="M372">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="N372">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O372">
         <v>3.4</v>
       </c>
       <c r="P372">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q372">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R372">
+        <v>1.925</v>
+      </c>
+      <c r="S372">
+        <v>1.925</v>
+      </c>
+      <c r="T372">
+        <v>2.75</v>
+      </c>
+      <c r="U372">
         <v>2.025</v>
       </c>
-      <c r="S372">
+      <c r="V372">
         <v>1.825</v>
       </c>
-      <c r="T372">
-        <v>2.5</v>
-      </c>
-      <c r="U372">
-        <v>1.85</v>
-      </c>
-      <c r="V372">
-        <v>2</v>
-      </c>
       <c r="W372">
         <v>-1</v>
       </c>
@@ -33639,19 +33639,19 @@
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="Z372">
         <v>-1</v>
       </c>
       <c r="AA372">
+        <v>0.925</v>
+      </c>
+      <c r="AB372">
+        <v>-1</v>
+      </c>
+      <c r="AC372">
         <v>0.825</v>
-      </c>
-      <c r="AB372">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC372">
-        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33659,7 +33659,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4591712</v>
+        <v>4587993</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33671,10 +33671,10 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F373" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G373" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H373">
         <v>2</v>
@@ -33686,44 +33686,44 @@
         <v>53</v>
       </c>
       <c r="K373">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L373">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M373">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N373">
+        <v>2.75</v>
+      </c>
+      <c r="O373">
+        <v>3.5</v>
+      </c>
+      <c r="P373">
+        <v>2.3</v>
+      </c>
+      <c r="Q373">
+        <v>0.25</v>
+      </c>
+      <c r="R373">
+        <v>1.8</v>
+      </c>
+      <c r="S373">
+        <v>2.05</v>
+      </c>
+      <c r="T373">
+        <v>2.5</v>
+      </c>
+      <c r="U373">
+        <v>1.825</v>
+      </c>
+      <c r="V373">
+        <v>2.025</v>
+      </c>
+      <c r="W373">
         <v>1.75</v>
       </c>
-      <c r="O373">
-        <v>3.75</v>
-      </c>
-      <c r="P373">
-        <v>3.8</v>
-      </c>
-      <c r="Q373">
-        <v>-0.75</v>
-      </c>
-      <c r="R373">
-        <v>2</v>
-      </c>
-      <c r="S373">
-        <v>1.85</v>
-      </c>
-      <c r="T373">
-        <v>3</v>
-      </c>
-      <c r="U373">
-        <v>1.975</v>
-      </c>
-      <c r="V373">
-        <v>1.875</v>
-      </c>
-      <c r="W373">
-        <v>0.75</v>
-      </c>
       <c r="X373">
         <v>-1</v>
       </c>
@@ -33731,16 +33731,16 @@
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA373">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB373">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC373">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33748,7 +33748,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>4587993</v>
+        <v>4591712</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33760,10 +33760,10 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F374" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G374" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H374">
         <v>2</v>
@@ -33775,43 +33775,43 @@
         <v>53</v>
       </c>
       <c r="K374">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L374">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M374">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N374">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="O374">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P374">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q374">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R374">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S374">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T374">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U374">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V374">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W374">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="X374">
         <v>-1</v>
@@ -33820,16 +33820,16 @@
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AA374">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB374">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC374">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -37308,7 +37308,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>4587949</v>
+        <v>4587951</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37320,13 +37320,13 @@
         <v>44809.58333333334</v>
       </c>
       <c r="F414" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G414" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I414">
         <v>2</v>
@@ -37335,41 +37335,41 @@
         <v>54</v>
       </c>
       <c r="K414">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L414">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M414">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="N414">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="O414">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P414">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q414">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R414">
+        <v>2</v>
+      </c>
+      <c r="S414">
+        <v>1.85</v>
+      </c>
+      <c r="T414">
+        <v>2.5</v>
+      </c>
+      <c r="U414">
+        <v>1.825</v>
+      </c>
+      <c r="V414">
         <v>2.025</v>
       </c>
-      <c r="S414">
-        <v>1.825</v>
-      </c>
-      <c r="T414">
-        <v>2.75</v>
-      </c>
-      <c r="U414">
-        <v>1.8</v>
-      </c>
-      <c r="V414">
-        <v>2.05</v>
-      </c>
       <c r="W414">
         <v>-1</v>
       </c>
@@ -37377,19 +37377,19 @@
         <v>-1</v>
       </c>
       <c r="Y414">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Z414">
         <v>-1</v>
       </c>
       <c r="AA414">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB414">
         <v>0.825</v>
       </c>
-      <c r="AB414">
-        <v>-1</v>
-      </c>
       <c r="AC414">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415" spans="1:29">
@@ -37397,7 +37397,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>4587951</v>
+        <v>4587949</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37409,13 +37409,13 @@
         <v>44809.58333333334</v>
       </c>
       <c r="F415" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G415" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415">
         <v>2</v>
@@ -37424,41 +37424,41 @@
         <v>54</v>
       </c>
       <c r="K415">
+        <v>3.6</v>
+      </c>
+      <c r="L415">
+        <v>3.6</v>
+      </c>
+      <c r="M415">
+        <v>1.833</v>
+      </c>
+      <c r="N415">
+        <v>3.75</v>
+      </c>
+      <c r="O415">
+        <v>3.75</v>
+      </c>
+      <c r="P415">
+        <v>1.8</v>
+      </c>
+      <c r="Q415">
+        <v>0.5</v>
+      </c>
+      <c r="R415">
+        <v>2.025</v>
+      </c>
+      <c r="S415">
+        <v>1.825</v>
+      </c>
+      <c r="T415">
+        <v>2.75</v>
+      </c>
+      <c r="U415">
+        <v>1.8</v>
+      </c>
+      <c r="V415">
         <v>2.05</v>
       </c>
-      <c r="L415">
-        <v>3.3</v>
-      </c>
-      <c r="M415">
-        <v>3.3</v>
-      </c>
-      <c r="N415">
-        <v>2.2</v>
-      </c>
-      <c r="O415">
-        <v>3.3</v>
-      </c>
-      <c r="P415">
-        <v>3</v>
-      </c>
-      <c r="Q415">
-        <v>-0.25</v>
-      </c>
-      <c r="R415">
-        <v>2</v>
-      </c>
-      <c r="S415">
-        <v>1.85</v>
-      </c>
-      <c r="T415">
-        <v>2.5</v>
-      </c>
-      <c r="U415">
-        <v>1.825</v>
-      </c>
-      <c r="V415">
-        <v>2.025</v>
-      </c>
       <c r="W415">
         <v>-1</v>
       </c>
@@ -37466,19 +37466,19 @@
         <v>-1</v>
       </c>
       <c r="Y415">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Z415">
         <v>-1</v>
       </c>
       <c r="AA415">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB415">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC415">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="416" spans="1:29">
@@ -37486,7 +37486,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>4587950</v>
+        <v>4587876</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37498,76 +37498,76 @@
         <v>44810.58333333334</v>
       </c>
       <c r="F416" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G416" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416">
         <v>1</v>
       </c>
       <c r="J416" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K416">
+        <v>1.7</v>
+      </c>
+      <c r="L416">
         <v>3.8</v>
       </c>
-      <c r="L416">
-        <v>3.5</v>
-      </c>
       <c r="M416">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N416">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="O416">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P416">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q416">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R416">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S416">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T416">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U416">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V416">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W416">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X416">
         <v>-1</v>
       </c>
       <c r="Y416">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z416">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA416">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB416">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC416">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -37575,7 +37575,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>4587876</v>
+        <v>4587950</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37587,76 +37587,76 @@
         <v>44810.58333333334</v>
       </c>
       <c r="F417" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G417" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417">
         <v>1</v>
       </c>
       <c r="J417" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K417">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="L417">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M417">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N417">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O417">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P417">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q417">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R417">
+        <v>2.05</v>
+      </c>
+      <c r="S417">
+        <v>1.8</v>
+      </c>
+      <c r="T417">
+        <v>2.25</v>
+      </c>
+      <c r="U417">
         <v>1.875</v>
       </c>
-      <c r="S417">
+      <c r="V417">
         <v>1.975</v>
       </c>
-      <c r="T417">
-        <v>3.25</v>
-      </c>
-      <c r="U417">
-        <v>1.925</v>
-      </c>
-      <c r="V417">
-        <v>1.925</v>
-      </c>
       <c r="W417">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X417">
         <v>-1</v>
       </c>
       <c r="Y417">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z417">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA417">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB417">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC417">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418" spans="1:29">
@@ -38198,7 +38198,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>4587880</v>
+        <v>4587952</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,73 +38210,73 @@
         <v>44817.58333333334</v>
       </c>
       <c r="F424" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G424" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H424">
+        <v>2</v>
+      </c>
+      <c r="I424">
         <v>3</v>
       </c>
-      <c r="I424">
-        <v>0</v>
-      </c>
       <c r="J424" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K424">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L424">
         <v>3.5</v>
       </c>
       <c r="M424">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N424">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O424">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P424">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q424">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R424">
         <v>2.05</v>
       </c>
       <c r="S424">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T424">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U424">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V424">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W424">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X424">
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z424">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA424">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB424">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC424">
         <v>-1</v>
@@ -38287,7 +38287,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>4587952</v>
+        <v>4587880</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38299,73 +38299,73 @@
         <v>44817.58333333334</v>
       </c>
       <c r="F425" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G425" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425" t="s">
+        <v>53</v>
+      </c>
+      <c r="K425">
         <v>3</v>
-      </c>
-      <c r="J425" t="s">
-        <v>54</v>
-      </c>
-      <c r="K425">
-        <v>2.45</v>
       </c>
       <c r="L425">
         <v>3.5</v>
       </c>
       <c r="M425">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N425">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O425">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P425">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q425">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R425">
         <v>2.05</v>
       </c>
       <c r="S425">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T425">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U425">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V425">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W425">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X425">
         <v>-1</v>
       </c>
       <c r="Y425">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z425">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA425">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB425">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC425">
         <v>-1</v>
@@ -41758,7 +41758,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>4587961</v>
+        <v>4591701</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41770,76 +41770,76 @@
         <v>44859.58333333334</v>
       </c>
       <c r="F464" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G464" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H464">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J464" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K464">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L464">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M464">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N464">
         <v>1.5</v>
       </c>
       <c r="O464">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P464">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q464">
         <v>-1</v>
       </c>
       <c r="R464">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S464">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T464">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U464">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V464">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W464">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X464">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y464">
         <v>-1</v>
       </c>
       <c r="Z464">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA464">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB464">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC464">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -41847,7 +41847,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>4591701</v>
+        <v>4587961</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41859,76 +41859,76 @@
         <v>44859.58333333334</v>
       </c>
       <c r="F465" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G465" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I465">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J465" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K465">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L465">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M465">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N465">
         <v>1.5</v>
       </c>
       <c r="O465">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P465">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q465">
         <v>-1</v>
       </c>
       <c r="R465">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S465">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T465">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U465">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V465">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W465">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X465">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y465">
         <v>-1</v>
       </c>
       <c r="Z465">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA465">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB465">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC465">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -43538,7 +43538,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>5992047</v>
+        <v>6450192</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43550,34 +43550,34 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F484" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G484" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H484">
+        <v>1</v>
+      </c>
+      <c r="I484">
         <v>0</v>
       </c>
-      <c r="I484">
-        <v>1</v>
-      </c>
       <c r="J484" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K484">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L484">
+        <v>3.3</v>
+      </c>
+      <c r="M484">
+        <v>3</v>
+      </c>
+      <c r="N484">
+        <v>1.833</v>
+      </c>
+      <c r="O484">
         <v>3.4</v>
-      </c>
-      <c r="M484">
-        <v>3.6</v>
-      </c>
-      <c r="N484">
-        <v>1.909</v>
-      </c>
-      <c r="O484">
-        <v>3.1</v>
       </c>
       <c r="P484">
         <v>4</v>
@@ -43586,40 +43586,40 @@
         <v>-0.5</v>
       </c>
       <c r="R484">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S484">
+        <v>1.975</v>
+      </c>
+      <c r="T484">
+        <v>2.75</v>
+      </c>
+      <c r="U484">
+        <v>2</v>
+      </c>
+      <c r="V484">
         <v>1.85</v>
       </c>
-      <c r="T484">
-        <v>2.25</v>
-      </c>
-      <c r="U484">
-        <v>1.95</v>
-      </c>
-      <c r="V484">
-        <v>1.9</v>
-      </c>
       <c r="W484">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X484">
         <v>-1</v>
       </c>
       <c r="Y484">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z484">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA484">
+        <v>-1</v>
+      </c>
+      <c r="AB484">
+        <v>-1</v>
+      </c>
+      <c r="AC484">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB484">
-        <v>-1</v>
-      </c>
-      <c r="AC484">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="485" spans="1:29">
@@ -43627,7 +43627,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>6450192</v>
+        <v>5992047</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43639,34 +43639,34 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F485" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G485" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H485">
+        <v>0</v>
+      </c>
+      <c r="I485">
         <v>1</v>
       </c>
-      <c r="I485">
-        <v>0</v>
-      </c>
       <c r="J485" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K485">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L485">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M485">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N485">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O485">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P485">
         <v>4</v>
@@ -43675,40 +43675,40 @@
         <v>-0.5</v>
       </c>
       <c r="R485">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S485">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T485">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U485">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V485">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W485">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X485">
         <v>-1</v>
       </c>
       <c r="Y485">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z485">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA485">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB485">
         <v>-1</v>
       </c>
       <c r="AC485">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="486" spans="1:29">
@@ -52438,7 +52438,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>5992140</v>
+        <v>5992137</v>
       </c>
       <c r="C584" t="s">
         <v>28</v>
@@ -52450,76 +52450,76 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F584" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G584" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H584">
+        <v>1</v>
+      </c>
+      <c r="I584">
         <v>0</v>
       </c>
-      <c r="I584">
-        <v>3</v>
-      </c>
       <c r="J584" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K584">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L584">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M584">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N584">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O584">
         <v>3.4</v>
       </c>
       <c r="P584">
+        <v>3.3</v>
+      </c>
+      <c r="Q584">
+        <v>-0.5</v>
+      </c>
+      <c r="R584">
+        <v>2.05</v>
+      </c>
+      <c r="S584">
+        <v>1.8</v>
+      </c>
+      <c r="T584">
         <v>2.25</v>
       </c>
-      <c r="Q584">
-        <v>0.25</v>
-      </c>
-      <c r="R584">
-        <v>1.8</v>
-      </c>
-      <c r="S584">
-        <v>2.05</v>
-      </c>
-      <c r="T584">
-        <v>2.5</v>
-      </c>
       <c r="U584">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V584">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W584">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X584">
         <v>-1</v>
       </c>
       <c r="Y584">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z584">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA584">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB584">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC584">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="585" spans="1:29">
@@ -52527,7 +52527,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>5992137</v>
+        <v>5992140</v>
       </c>
       <c r="C585" t="s">
         <v>28</v>
@@ -52539,76 +52539,76 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F585" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G585" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J585" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K585">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L585">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M585">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N585">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O585">
         <v>3.4</v>
       </c>
       <c r="P585">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q585">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R585">
+        <v>1.8</v>
+      </c>
+      <c r="S585">
         <v>2.05</v>
       </c>
-      <c r="S585">
-        <v>1.8</v>
-      </c>
       <c r="T585">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U585">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V585">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W585">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X585">
         <v>-1</v>
       </c>
       <c r="Y585">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z585">
+        <v>-1</v>
+      </c>
+      <c r="AA585">
         <v>1.05</v>
       </c>
-      <c r="AA585">
-        <v>-1</v>
-      </c>
       <c r="AB585">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC585">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="586" spans="1:29">
@@ -59291,7 +59291,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>5992215</v>
+        <v>5992209</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59303,40 +59303,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F661" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G661" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H661">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I661">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J661" t="s">
         <v>53</v>
       </c>
       <c r="K661">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="L661">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M661">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="N661">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="O661">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P661">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q661">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R661">
         <v>1.925</v>
@@ -59345,16 +59345,16 @@
         <v>1.925</v>
       </c>
       <c r="T661">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U661">
+        <v>1.875</v>
+      </c>
+      <c r="V661">
         <v>1.975</v>
       </c>
-      <c r="V661">
-        <v>1.875</v>
-      </c>
       <c r="W661">
-        <v>2.25</v>
+        <v>0.444</v>
       </c>
       <c r="X661">
         <v>-1</v>
@@ -59369,10 +59369,10 @@
         <v>-1</v>
       </c>
       <c r="AB661">
+        <v>-1</v>
+      </c>
+      <c r="AC661">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC661">
-        <v>-1</v>
       </c>
     </row>
     <row r="662" spans="1:29">
@@ -59380,7 +59380,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>5992209</v>
+        <v>5992213</v>
       </c>
       <c r="C662" t="s">
         <v>28</v>
@@ -59392,40 +59392,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F662" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G662" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J662" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K662">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L662">
+        <v>4.2</v>
+      </c>
+      <c r="M662">
+        <v>1.45</v>
+      </c>
+      <c r="N662">
         <v>5</v>
       </c>
-      <c r="M662">
-        <v>6.5</v>
-      </c>
-      <c r="N662">
-        <v>1.444</v>
-      </c>
       <c r="O662">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P662">
-        <v>6.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q662">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R662">
         <v>1.925</v>
@@ -59434,34 +59434,34 @@
         <v>1.925</v>
       </c>
       <c r="T662">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U662">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V662">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W662">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X662">
         <v>-1</v>
       </c>
       <c r="Y662">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z662">
+        <v>-1</v>
+      </c>
+      <c r="AA662">
         <v>0.925</v>
       </c>
-      <c r="AA662">
-        <v>-1</v>
-      </c>
       <c r="AB662">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC662">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="663" spans="1:29">
@@ -59469,7 +59469,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5992213</v>
+        <v>5992215</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59481,40 +59481,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F663" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G663" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I663">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J663" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K663">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="L663">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M663">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="N663">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="O663">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P663">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="Q663">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R663">
         <v>1.925</v>
@@ -59523,31 +59523,31 @@
         <v>1.925</v>
       </c>
       <c r="T663">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U663">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V663">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W663">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X663">
         <v>-1</v>
       </c>
       <c r="Y663">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z663">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA663">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB663">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC663">
         <v>-1</v>
@@ -59736,7 +59736,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>5992222</v>
+        <v>5992219</v>
       </c>
       <c r="C666" t="s">
         <v>28</v>
@@ -59748,49 +59748,49 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F666" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G666" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H666">
         <v>1</v>
       </c>
       <c r="I666">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J666" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K666">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="L666">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M666">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="N666">
-        <v>1.444</v>
+        <v>4.75</v>
       </c>
       <c r="O666">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P666">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="Q666">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R666">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S666">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T666">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U666">
         <v>1.9</v>
@@ -59802,22 +59802,22 @@
         <v>-1</v>
       </c>
       <c r="X666">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y666">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z666">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA666">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB666">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC666">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="667" spans="1:29">
@@ -59825,7 +59825,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>5992219</v>
+        <v>5992222</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59837,49 +59837,49 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F667" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G667" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H667">
         <v>1</v>
       </c>
       <c r="I667">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J667" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K667">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="L667">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M667">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="N667">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="O667">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P667">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="Q667">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R667">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S667">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T667">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U667">
         <v>1.9</v>
@@ -59891,22 +59891,22 @@
         <v>-1</v>
       </c>
       <c r="X667">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y667">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z667">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA667">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB667">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC667">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="668" spans="1:29">
@@ -60893,7 +60893,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>5992227</v>
+        <v>5993423</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60905,76 +60905,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F679" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G679" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J679" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K679">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L679">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M679">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="N679">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="O679">
         <v>3.8</v>
       </c>
       <c r="P679">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q679">
+        <v>0.75</v>
+      </c>
+      <c r="R679">
+        <v>1.875</v>
+      </c>
+      <c r="S679">
+        <v>1.975</v>
+      </c>
+      <c r="T679">
+        <v>2.75</v>
+      </c>
+      <c r="U679">
+        <v>1.825</v>
+      </c>
+      <c r="V679">
+        <v>2.025</v>
+      </c>
+      <c r="W679">
+        <v>-1</v>
+      </c>
+      <c r="X679">
+        <v>-1</v>
+      </c>
+      <c r="Y679">
+        <v>0.75</v>
+      </c>
+      <c r="Z679">
         <v>-0.5</v>
       </c>
-      <c r="R679">
-        <v>1.9</v>
-      </c>
-      <c r="S679">
-        <v>1.95</v>
-      </c>
-      <c r="T679">
-        <v>3</v>
-      </c>
-      <c r="U679">
-        <v>1.925</v>
-      </c>
-      <c r="V679">
-        <v>1.925</v>
-      </c>
-      <c r="W679">
-        <v>-1</v>
-      </c>
-      <c r="X679">
-        <v>2.8</v>
-      </c>
-      <c r="Y679">
-        <v>-1</v>
-      </c>
-      <c r="Z679">
-        <v>-1</v>
-      </c>
       <c r="AA679">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB679">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC679">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -60982,7 +60982,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>5993423</v>
+        <v>5992227</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -60994,76 +60994,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F680" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G680" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J680" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K680">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L680">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M680">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N680">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="O680">
         <v>3.8</v>
       </c>
       <c r="P680">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q680">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R680">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S680">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T680">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U680">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V680">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W680">
         <v>-1</v>
       </c>
       <c r="X680">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y680">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z680">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA680">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB680">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC680">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="681" spans="1:29">

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -27963,7 +27963,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>4587827</v>
+        <v>4591720</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27975,13 +27975,13 @@
         <v>44704.58333333334</v>
       </c>
       <c r="F309" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G309" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -27990,61 +27990,61 @@
         <v>53</v>
       </c>
       <c r="K309">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="L309">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M309">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N309">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O309">
         <v>4</v>
       </c>
       <c r="P309">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q309">
+        <v>-0.75</v>
+      </c>
+      <c r="R309">
+        <v>2.025</v>
+      </c>
+      <c r="S309">
+        <v>1.825</v>
+      </c>
+      <c r="T309">
+        <v>3.25</v>
+      </c>
+      <c r="U309">
+        <v>1.9</v>
+      </c>
+      <c r="V309">
+        <v>1.95</v>
+      </c>
+      <c r="W309">
+        <v>0.8</v>
+      </c>
+      <c r="X309">
+        <v>-1</v>
+      </c>
+      <c r="Y309">
+        <v>-1</v>
+      </c>
+      <c r="Z309">
+        <v>0.5125</v>
+      </c>
+      <c r="AA309">
         <v>-0.5</v>
       </c>
-      <c r="R309">
-        <v>1.95</v>
-      </c>
-      <c r="S309">
-        <v>1.9</v>
-      </c>
-      <c r="T309">
-        <v>2.75</v>
-      </c>
-      <c r="U309">
-        <v>2</v>
-      </c>
-      <c r="V309">
-        <v>1.85</v>
-      </c>
-      <c r="W309">
-        <v>0.909</v>
-      </c>
-      <c r="X309">
-        <v>-1</v>
-      </c>
-      <c r="Y309">
-        <v>-1</v>
-      </c>
-      <c r="Z309">
+      <c r="AB309">
+        <v>-1</v>
+      </c>
+      <c r="AC309">
         <v>0.95</v>
-      </c>
-      <c r="AA309">
-        <v>-1</v>
-      </c>
-      <c r="AB309">
-        <v>-1</v>
-      </c>
-      <c r="AC309">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28052,7 +28052,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>4591720</v>
+        <v>4587827</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28064,13 +28064,13 @@
         <v>44704.58333333334</v>
       </c>
       <c r="F310" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G310" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310">
         <v>0</v>
@@ -28079,43 +28079,43 @@
         <v>53</v>
       </c>
       <c r="K310">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="L310">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M310">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N310">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O310">
         <v>4</v>
       </c>
       <c r="P310">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q310">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R310">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S310">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T310">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U310">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V310">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W310">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X310">
         <v>-1</v>
@@ -28124,16 +28124,16 @@
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA310">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB310">
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -29654,7 +29654,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>5125022</v>
+        <v>5125020</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29666,76 +29666,76 @@
         <v>44740.58333333334</v>
       </c>
       <c r="F328" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G328" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H328">
         <v>2</v>
       </c>
       <c r="I328">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J328" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K328">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L328">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M328">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="N328">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O328">
         <v>3.6</v>
       </c>
       <c r="P328">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q328">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R328">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S328">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T328">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U328">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V328">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W328">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X328">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA328">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB328">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC328">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29743,7 +29743,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>5125020</v>
+        <v>5125022</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29755,76 +29755,76 @@
         <v>44740.58333333334</v>
       </c>
       <c r="F329" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G329" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H329">
         <v>2</v>
       </c>
       <c r="I329">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J329" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K329">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L329">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M329">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="N329">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O329">
         <v>3.6</v>
       </c>
       <c r="P329">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q329">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R329">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S329">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T329">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U329">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V329">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W329">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X329">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y329">
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA329">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29832,7 +29832,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>4587836</v>
+        <v>4587974</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29844,55 +29844,55 @@
         <v>44744.41666666666</v>
       </c>
       <c r="F330" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G330" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H330">
         <v>0</v>
       </c>
       <c r="I330">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J330" t="s">
         <v>54</v>
       </c>
       <c r="K330">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L330">
         <v>3.5</v>
       </c>
       <c r="M330">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N330">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O330">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P330">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q330">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R330">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S330">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T330">
         <v>2.5</v>
       </c>
       <c r="U330">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V330">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W330">
         <v>-1</v>
@@ -29901,19 +29901,19 @@
         <v>-1</v>
       </c>
       <c r="Y330">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="Z330">
         <v>-1</v>
       </c>
       <c r="AA330">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB330">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC330">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29921,7 +29921,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>4587974</v>
+        <v>4587836</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29933,55 +29933,55 @@
         <v>44744.41666666666</v>
       </c>
       <c r="F331" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G331" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H331">
         <v>0</v>
       </c>
       <c r="I331">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J331" t="s">
         <v>54</v>
       </c>
       <c r="K331">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L331">
         <v>3.5</v>
       </c>
       <c r="M331">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N331">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O331">
+        <v>3.5</v>
+      </c>
+      <c r="P331">
         <v>3.4</v>
       </c>
-      <c r="P331">
-        <v>2.2</v>
-      </c>
       <c r="Q331">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R331">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S331">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T331">
         <v>2.5</v>
       </c>
       <c r="U331">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V331">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W331">
         <v>-1</v>
@@ -29990,19 +29990,19 @@
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB331">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC331">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30366,7 +30366,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>4591717</v>
+        <v>4587838</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30378,13 +30378,13 @@
         <v>44747.58333333334</v>
       </c>
       <c r="F336" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G336" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I336">
         <v>0</v>
@@ -30393,61 +30393,61 @@
         <v>53</v>
       </c>
       <c r="K336">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="L336">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M336">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="N336">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O336">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P336">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q336">
+        <v>-1.25</v>
+      </c>
+      <c r="R336">
+        <v>2</v>
+      </c>
+      <c r="S336">
+        <v>1.85</v>
+      </c>
+      <c r="T336">
+        <v>2.75</v>
+      </c>
+      <c r="U336">
+        <v>1.975</v>
+      </c>
+      <c r="V336">
+        <v>1.875</v>
+      </c>
+      <c r="W336">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X336">
+        <v>-1</v>
+      </c>
+      <c r="Y336">
+        <v>-1</v>
+      </c>
+      <c r="Z336">
+        <v>1</v>
+      </c>
+      <c r="AA336">
+        <v>-1</v>
+      </c>
+      <c r="AB336">
+        <v>0.4875</v>
+      </c>
+      <c r="AC336">
         <v>-0.5</v>
-      </c>
-      <c r="R336">
-        <v>2.025</v>
-      </c>
-      <c r="S336">
-        <v>1.825</v>
-      </c>
-      <c r="T336">
-        <v>2.5</v>
-      </c>
-      <c r="U336">
-        <v>2</v>
-      </c>
-      <c r="V336">
-        <v>1.85</v>
-      </c>
-      <c r="W336">
-        <v>1</v>
-      </c>
-      <c r="X336">
-        <v>-1</v>
-      </c>
-      <c r="Y336">
-        <v>-1</v>
-      </c>
-      <c r="Z336">
-        <v>1.025</v>
-      </c>
-      <c r="AA336">
-        <v>-1</v>
-      </c>
-      <c r="AB336">
-        <v>-1</v>
-      </c>
-      <c r="AC336">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30455,7 +30455,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>4587838</v>
+        <v>4591717</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30467,13 +30467,13 @@
         <v>44747.58333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G337" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H337">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337">
         <v>0</v>
@@ -30482,43 +30482,43 @@
         <v>53</v>
       </c>
       <c r="K337">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="L337">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M337">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="N337">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O337">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P337">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q337">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R337">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S337">
+        <v>1.825</v>
+      </c>
+      <c r="T337">
+        <v>2.5</v>
+      </c>
+      <c r="U337">
+        <v>2</v>
+      </c>
+      <c r="V337">
         <v>1.85</v>
       </c>
-      <c r="T337">
-        <v>2.75</v>
-      </c>
-      <c r="U337">
-        <v>1.975</v>
-      </c>
-      <c r="V337">
-        <v>1.875</v>
-      </c>
       <c r="W337">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X337">
         <v>-1</v>
@@ -30527,16 +30527,16 @@
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA337">
         <v>-1</v>
       </c>
       <c r="AB337">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC337">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -32502,7 +32502,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>4587938</v>
+        <v>4587847</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32514,61 +32514,61 @@
         <v>44768.58333333334</v>
       </c>
       <c r="F360" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G360" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H360">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J360" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K360">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L360">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M360">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N360">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="O360">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P360">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q360">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R360">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S360">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T360">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U360">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V360">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W360">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X360">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y360">
         <v>-1</v>
@@ -32580,10 +32580,10 @@
         <v>-0</v>
       </c>
       <c r="AB360">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC360">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32591,7 +32591,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>4587847</v>
+        <v>4587938</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32603,61 +32603,61 @@
         <v>44768.58333333334</v>
       </c>
       <c r="F361" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G361" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J361" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K361">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L361">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M361">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N361">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="O361">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P361">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q361">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R361">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S361">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T361">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U361">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V361">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W361">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X361">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y361">
         <v>-1</v>
@@ -32669,10 +32669,10 @@
         <v>-0</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC361">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -33214,7 +33214,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>4587854</v>
+        <v>4587851</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33226,76 +33226,76 @@
         <v>44773.41666666666</v>
       </c>
       <c r="F368" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G368" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J368" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K368">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L368">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M368">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N368">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O368">
         <v>3.5</v>
       </c>
       <c r="P368">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q368">
+        <v>0.25</v>
+      </c>
+      <c r="R368">
+        <v>1.925</v>
+      </c>
+      <c r="S368">
+        <v>1.925</v>
+      </c>
+      <c r="T368">
+        <v>2.5</v>
+      </c>
+      <c r="U368">
+        <v>1.825</v>
+      </c>
+      <c r="V368">
+        <v>2.025</v>
+      </c>
+      <c r="W368">
+        <v>-1</v>
+      </c>
+      <c r="X368">
+        <v>2.5</v>
+      </c>
+      <c r="Y368">
+        <v>-1</v>
+      </c>
+      <c r="Z368">
+        <v>0.4625</v>
+      </c>
+      <c r="AA368">
         <v>-0.5</v>
       </c>
-      <c r="R368">
-        <v>1.95</v>
-      </c>
-      <c r="S368">
-        <v>1.9</v>
-      </c>
-      <c r="T368">
-        <v>2.75</v>
-      </c>
-      <c r="U368">
-        <v>2.025</v>
-      </c>
-      <c r="V368">
-        <v>1.825</v>
-      </c>
-      <c r="W368">
-        <v>-1</v>
-      </c>
-      <c r="X368">
-        <v>-1</v>
-      </c>
-      <c r="Y368">
-        <v>2.75</v>
-      </c>
-      <c r="Z368">
-        <v>-1</v>
-      </c>
-      <c r="AA368">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB368">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC368">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33303,7 +33303,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>4587851</v>
+        <v>4587854</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33315,76 +33315,76 @@
         <v>44773.41666666666</v>
       </c>
       <c r="F369" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G369" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J369" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K369">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L369">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M369">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N369">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O369">
         <v>3.5</v>
       </c>
       <c r="P369">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q369">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R369">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S369">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T369">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U369">
+        <v>2.025</v>
+      </c>
+      <c r="V369">
         <v>1.825</v>
       </c>
-      <c r="V369">
-        <v>2.025</v>
-      </c>
       <c r="W369">
         <v>-1</v>
       </c>
       <c r="X369">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y369">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z369">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA369">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB369">
+        <v>-1</v>
+      </c>
+      <c r="AC369">
         <v>0.825</v>
-      </c>
-      <c r="AC369">
-        <v>-1</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33392,7 +33392,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>4587940</v>
+        <v>4587858</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33404,76 +33404,76 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F370" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G370" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J370" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K370">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="L370">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M370">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N370">
-        <v>1.45</v>
+        <v>3.25</v>
       </c>
       <c r="O370">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P370">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q370">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R370">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S370">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T370">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U370">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V370">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W370">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X370">
         <v>-1</v>
       </c>
       <c r="Y370">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z370">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA370">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB370">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC370">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33481,7 +33481,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>4587858</v>
+        <v>4587856</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33493,56 +33493,56 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F371" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G371" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H371">
         <v>0</v>
       </c>
       <c r="I371">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J371" t="s">
         <v>54</v>
       </c>
       <c r="K371">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L371">
         <v>3.4</v>
       </c>
       <c r="M371">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="N371">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O371">
         <v>3.4</v>
       </c>
       <c r="P371">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q371">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R371">
+        <v>1.925</v>
+      </c>
+      <c r="S371">
+        <v>1.925</v>
+      </c>
+      <c r="T371">
+        <v>2.75</v>
+      </c>
+      <c r="U371">
         <v>2.025</v>
       </c>
-      <c r="S371">
+      <c r="V371">
         <v>1.825</v>
       </c>
-      <c r="T371">
-        <v>2.5</v>
-      </c>
-      <c r="U371">
-        <v>1.85</v>
-      </c>
-      <c r="V371">
-        <v>2</v>
-      </c>
       <c r="W371">
         <v>-1</v>
       </c>
@@ -33550,19 +33550,19 @@
         <v>-1</v>
       </c>
       <c r="Y371">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="Z371">
         <v>-1</v>
       </c>
       <c r="AA371">
+        <v>0.925</v>
+      </c>
+      <c r="AB371">
+        <v>-1</v>
+      </c>
+      <c r="AC371">
         <v>0.825</v>
-      </c>
-      <c r="AB371">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC371">
-        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33570,7 +33570,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>4587856</v>
+        <v>4587940</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33582,76 +33582,76 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F372" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G372" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372">
         <v>0</v>
       </c>
-      <c r="I372">
-        <v>1</v>
-      </c>
       <c r="J372" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K372">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L372">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M372">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N372">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O372">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P372">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q372">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R372">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S372">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T372">
         <v>2.75</v>
       </c>
       <c r="U372">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V372">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W372">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA372">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AB372">
         <v>-1</v>
       </c>
       <c r="AC372">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33659,7 +33659,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4587993</v>
+        <v>4591712</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33671,10 +33671,10 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F373" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G373" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H373">
         <v>2</v>
@@ -33686,43 +33686,43 @@
         <v>53</v>
       </c>
       <c r="K373">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L373">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M373">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N373">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="O373">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P373">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q373">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R373">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S373">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T373">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U373">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V373">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W373">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="X373">
         <v>-1</v>
@@ -33731,16 +33731,16 @@
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AA373">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB373">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC373">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33748,7 +33748,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>4591712</v>
+        <v>4587993</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33760,10 +33760,10 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F374" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G374" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H374">
         <v>2</v>
@@ -33775,44 +33775,44 @@
         <v>53</v>
       </c>
       <c r="K374">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L374">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M374">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N374">
+        <v>2.75</v>
+      </c>
+      <c r="O374">
+        <v>3.5</v>
+      </c>
+      <c r="P374">
+        <v>2.3</v>
+      </c>
+      <c r="Q374">
+        <v>0.25</v>
+      </c>
+      <c r="R374">
+        <v>1.8</v>
+      </c>
+      <c r="S374">
+        <v>2.05</v>
+      </c>
+      <c r="T374">
+        <v>2.5</v>
+      </c>
+      <c r="U374">
+        <v>1.825</v>
+      </c>
+      <c r="V374">
+        <v>2.025</v>
+      </c>
+      <c r="W374">
         <v>1.75</v>
       </c>
-      <c r="O374">
-        <v>3.75</v>
-      </c>
-      <c r="P374">
-        <v>3.8</v>
-      </c>
-      <c r="Q374">
-        <v>-0.75</v>
-      </c>
-      <c r="R374">
-        <v>2</v>
-      </c>
-      <c r="S374">
-        <v>1.85</v>
-      </c>
-      <c r="T374">
-        <v>3</v>
-      </c>
-      <c r="U374">
-        <v>1.975</v>
-      </c>
-      <c r="V374">
-        <v>1.875</v>
-      </c>
-      <c r="W374">
-        <v>0.75</v>
-      </c>
       <c r="X374">
         <v>-1</v>
       </c>
@@ -33820,16 +33820,16 @@
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA374">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB374">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC374">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -38198,7 +38198,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>4587952</v>
+        <v>4587880</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,73 +38210,73 @@
         <v>44817.58333333334</v>
       </c>
       <c r="F424" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G424" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424" t="s">
+        <v>53</v>
+      </c>
+      <c r="K424">
         <v>3</v>
-      </c>
-      <c r="J424" t="s">
-        <v>54</v>
-      </c>
-      <c r="K424">
-        <v>2.45</v>
       </c>
       <c r="L424">
         <v>3.5</v>
       </c>
       <c r="M424">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N424">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O424">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P424">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q424">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R424">
         <v>2.05</v>
       </c>
       <c r="S424">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T424">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U424">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V424">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W424">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X424">
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z424">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA424">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB424">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC424">
         <v>-1</v>
@@ -38287,7 +38287,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>4587880</v>
+        <v>4587952</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38299,73 +38299,73 @@
         <v>44817.58333333334</v>
       </c>
       <c r="F425" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G425" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H425">
+        <v>2</v>
+      </c>
+      <c r="I425">
         <v>3</v>
       </c>
-      <c r="I425">
-        <v>0</v>
-      </c>
       <c r="J425" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K425">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L425">
         <v>3.5</v>
       </c>
       <c r="M425">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N425">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O425">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P425">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q425">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R425">
         <v>2.05</v>
       </c>
       <c r="S425">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T425">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U425">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V425">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W425">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X425">
         <v>-1</v>
       </c>
       <c r="Y425">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z425">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA425">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB425">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC425">
         <v>-1</v>
@@ -39889,7 +39889,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>4587893</v>
+        <v>4587894</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39901,76 +39901,76 @@
         <v>44842.41666666666</v>
       </c>
       <c r="F443" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G443" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H443">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J443" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K443">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="L443">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M443">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N443">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O443">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P443">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q443">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R443">
+        <v>1.8</v>
+      </c>
+      <c r="S443">
         <v>2.05</v>
-      </c>
-      <c r="S443">
-        <v>1.8</v>
       </c>
       <c r="T443">
         <v>2.75</v>
       </c>
       <c r="U443">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V443">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W443">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X443">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y443">
         <v>-1</v>
       </c>
       <c r="Z443">
+        <v>-1</v>
+      </c>
+      <c r="AA443">
         <v>1.05</v>
       </c>
-      <c r="AA443">
-        <v>-1</v>
-      </c>
       <c r="AB443">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC443">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -39978,7 +39978,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>4587894</v>
+        <v>4587893</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39990,76 +39990,76 @@
         <v>44842.41666666666</v>
       </c>
       <c r="F444" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G444" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J444" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K444">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="L444">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M444">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N444">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O444">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P444">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q444">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R444">
+        <v>2.05</v>
+      </c>
+      <c r="S444">
         <v>1.8</v>
-      </c>
-      <c r="S444">
-        <v>2.05</v>
       </c>
       <c r="T444">
         <v>2.75</v>
       </c>
       <c r="U444">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V444">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W444">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X444">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y444">
         <v>-1</v>
       </c>
       <c r="Z444">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA444">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB444">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC444">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -43805,7 +43805,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>5993412</v>
+        <v>5992044</v>
       </c>
       <c r="C487" t="s">
         <v>28</v>
@@ -43817,49 +43817,49 @@
         <v>45019.58333333334</v>
       </c>
       <c r="F487" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G487" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J487" t="s">
         <v>55</v>
       </c>
       <c r="K487">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L487">
         <v>3.4</v>
       </c>
       <c r="M487">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="N487">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O487">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P487">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q487">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R487">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S487">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T487">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U487">
         <v>1.975</v>
@@ -43871,22 +43871,22 @@
         <v>-1</v>
       </c>
       <c r="X487">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y487">
         <v>-1</v>
       </c>
       <c r="Z487">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA487">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB487">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC487">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="488" spans="1:29">
@@ -43894,7 +43894,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>5992044</v>
+        <v>5993412</v>
       </c>
       <c r="C488" t="s">
         <v>28</v>
@@ -43906,49 +43906,49 @@
         <v>45019.58333333334</v>
       </c>
       <c r="F488" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G488" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J488" t="s">
         <v>55</v>
       </c>
       <c r="K488">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L488">
         <v>3.4</v>
       </c>
       <c r="M488">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N488">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O488">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P488">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="Q488">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R488">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S488">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T488">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U488">
         <v>1.975</v>
@@ -43960,22 +43960,22 @@
         <v>-1</v>
       </c>
       <c r="X488">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y488">
         <v>-1</v>
       </c>
       <c r="Z488">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA488">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB488">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC488">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="489" spans="1:29">
@@ -52438,7 +52438,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>5992137</v>
+        <v>5992140</v>
       </c>
       <c r="C584" t="s">
         <v>28</v>
@@ -52450,76 +52450,76 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F584" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G584" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J584" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K584">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L584">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M584">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N584">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O584">
         <v>3.4</v>
       </c>
       <c r="P584">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q584">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R584">
+        <v>1.8</v>
+      </c>
+      <c r="S584">
         <v>2.05</v>
       </c>
-      <c r="S584">
-        <v>1.8</v>
-      </c>
       <c r="T584">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U584">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V584">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W584">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X584">
         <v>-1</v>
       </c>
       <c r="Y584">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z584">
+        <v>-1</v>
+      </c>
+      <c r="AA584">
         <v>1.05</v>
       </c>
-      <c r="AA584">
-        <v>-1</v>
-      </c>
       <c r="AB584">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC584">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="585" spans="1:29">
@@ -52527,7 +52527,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>5992140</v>
+        <v>5992137</v>
       </c>
       <c r="C585" t="s">
         <v>28</v>
@@ -52539,76 +52539,76 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F585" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G585" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H585">
+        <v>1</v>
+      </c>
+      <c r="I585">
         <v>0</v>
       </c>
-      <c r="I585">
-        <v>3</v>
-      </c>
       <c r="J585" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K585">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L585">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M585">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N585">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O585">
         <v>3.4</v>
       </c>
       <c r="P585">
+        <v>3.3</v>
+      </c>
+      <c r="Q585">
+        <v>-0.5</v>
+      </c>
+      <c r="R585">
+        <v>2.05</v>
+      </c>
+      <c r="S585">
+        <v>1.8</v>
+      </c>
+      <c r="T585">
         <v>2.25</v>
       </c>
-      <c r="Q585">
-        <v>0.25</v>
-      </c>
-      <c r="R585">
-        <v>1.8</v>
-      </c>
-      <c r="S585">
-        <v>2.05</v>
-      </c>
-      <c r="T585">
-        <v>2.5</v>
-      </c>
       <c r="U585">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V585">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W585">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X585">
         <v>-1</v>
       </c>
       <c r="Y585">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z585">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA585">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB585">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC585">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="586" spans="1:29">
@@ -59291,7 +59291,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>5992209</v>
+        <v>5992215</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59303,40 +59303,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F661" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G661" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I661">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J661" t="s">
         <v>53</v>
       </c>
       <c r="K661">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="L661">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M661">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="N661">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="O661">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P661">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q661">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R661">
         <v>1.925</v>
@@ -59345,16 +59345,16 @@
         <v>1.925</v>
       </c>
       <c r="T661">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U661">
+        <v>1.975</v>
+      </c>
+      <c r="V661">
         <v>1.875</v>
       </c>
-      <c r="V661">
-        <v>1.975</v>
-      </c>
       <c r="W661">
-        <v>0.444</v>
+        <v>2.25</v>
       </c>
       <c r="X661">
         <v>-1</v>
@@ -59369,10 +59369,10 @@
         <v>-1</v>
       </c>
       <c r="AB661">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC661">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="662" spans="1:29">
@@ -59380,7 +59380,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>5992213</v>
+        <v>5992209</v>
       </c>
       <c r="C662" t="s">
         <v>28</v>
@@ -59392,40 +59392,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F662" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G662" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H662">
+        <v>2</v>
+      </c>
+      <c r="I662">
         <v>0</v>
       </c>
-      <c r="I662">
-        <v>6</v>
-      </c>
       <c r="J662" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K662">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L662">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M662">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="N662">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="O662">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P662">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q662">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R662">
         <v>1.925</v>
@@ -59434,34 +59434,34 @@
         <v>1.925</v>
       </c>
       <c r="T662">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U662">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V662">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W662">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X662">
         <v>-1</v>
       </c>
       <c r="Y662">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z662">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA662">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB662">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC662">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="663" spans="1:29">
@@ -59469,7 +59469,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5992215</v>
+        <v>5992213</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59481,40 +59481,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F663" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G663" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H663">
+        <v>0</v>
+      </c>
+      <c r="I663">
+        <v>6</v>
+      </c>
+      <c r="J663" t="s">
+        <v>54</v>
+      </c>
+      <c r="K663">
+        <v>6</v>
+      </c>
+      <c r="L663">
+        <v>4.2</v>
+      </c>
+      <c r="M663">
+        <v>1.45</v>
+      </c>
+      <c r="N663">
         <v>5</v>
       </c>
-      <c r="I663">
+      <c r="O663">
+        <v>4.5</v>
+      </c>
+      <c r="P663">
+        <v>1.533</v>
+      </c>
+      <c r="Q663">
         <v>1</v>
-      </c>
-      <c r="J663" t="s">
-        <v>53</v>
-      </c>
-      <c r="K663">
-        <v>2.875</v>
-      </c>
-      <c r="L663">
-        <v>3.3</v>
-      </c>
-      <c r="M663">
-        <v>2.25</v>
-      </c>
-      <c r="N663">
-        <v>3.25</v>
-      </c>
-      <c r="O663">
-        <v>3.4</v>
-      </c>
-      <c r="P663">
-        <v>2.15</v>
-      </c>
-      <c r="Q663">
-        <v>0.25</v>
       </c>
       <c r="R663">
         <v>1.925</v>
@@ -59523,31 +59523,31 @@
         <v>1.925</v>
       </c>
       <c r="T663">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U663">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V663">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W663">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X663">
         <v>-1</v>
       </c>
       <c r="Y663">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z663">
+        <v>-1</v>
+      </c>
+      <c r="AA663">
         <v>0.925</v>
       </c>
-      <c r="AA663">
-        <v>-1</v>
-      </c>
       <c r="AB663">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC663">
         <v>-1</v>
@@ -59736,7 +59736,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>5992219</v>
+        <v>5992222</v>
       </c>
       <c r="C666" t="s">
         <v>28</v>
@@ -59748,49 +59748,49 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F666" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G666" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H666">
         <v>1</v>
       </c>
       <c r="I666">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J666" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K666">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="L666">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M666">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="N666">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="O666">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P666">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="Q666">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R666">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S666">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T666">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U666">
         <v>1.9</v>
@@ -59802,22 +59802,22 @@
         <v>-1</v>
       </c>
       <c r="X666">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y666">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z666">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA666">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB666">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC666">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="667" spans="1:29">
@@ -59825,7 +59825,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>5992222</v>
+        <v>5992219</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59837,49 +59837,49 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F667" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G667" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H667">
         <v>1</v>
       </c>
       <c r="I667">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J667" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K667">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="L667">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M667">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="N667">
-        <v>1.444</v>
+        <v>4.75</v>
       </c>
       <c r="O667">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P667">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="Q667">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R667">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S667">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T667">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U667">
         <v>1.9</v>
@@ -59891,22 +59891,22 @@
         <v>-1</v>
       </c>
       <c r="X667">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y667">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z667">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA667">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB667">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC667">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="668" spans="1:29">
@@ -60893,7 +60893,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>5993423</v>
+        <v>5992227</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60905,76 +60905,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F679" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G679" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J679" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K679">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L679">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M679">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N679">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="O679">
         <v>3.8</v>
       </c>
       <c r="P679">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q679">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R679">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S679">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T679">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U679">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V679">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W679">
         <v>-1</v>
       </c>
       <c r="X679">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y679">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z679">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA679">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB679">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC679">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -60982,7 +60982,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>5992227</v>
+        <v>5993423</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -60994,76 +60994,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F680" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G680" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J680" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K680">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L680">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M680">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="N680">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="O680">
         <v>3.8</v>
       </c>
       <c r="P680">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q680">
+        <v>0.75</v>
+      </c>
+      <c r="R680">
+        <v>1.875</v>
+      </c>
+      <c r="S680">
+        <v>1.975</v>
+      </c>
+      <c r="T680">
+        <v>2.75</v>
+      </c>
+      <c r="U680">
+        <v>1.825</v>
+      </c>
+      <c r="V680">
+        <v>2.025</v>
+      </c>
+      <c r="W680">
+        <v>-1</v>
+      </c>
+      <c r="X680">
+        <v>-1</v>
+      </c>
+      <c r="Y680">
+        <v>0.75</v>
+      </c>
+      <c r="Z680">
         <v>-0.5</v>
       </c>
-      <c r="R680">
-        <v>1.9</v>
-      </c>
-      <c r="S680">
-        <v>1.95</v>
-      </c>
-      <c r="T680">
-        <v>3</v>
-      </c>
-      <c r="U680">
-        <v>1.925</v>
-      </c>
-      <c r="V680">
-        <v>1.925</v>
-      </c>
-      <c r="W680">
-        <v>-1</v>
-      </c>
-      <c r="X680">
-        <v>2.8</v>
-      </c>
-      <c r="Y680">
-        <v>-1</v>
-      </c>
-      <c r="Z680">
-        <v>-1</v>
-      </c>
       <c r="AA680">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB680">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC680">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="681" spans="1:29">

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -31078,7 +31078,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>4587840</v>
+        <v>4591716</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31090,40 +31090,40 @@
         <v>44754.58333333334</v>
       </c>
       <c r="F344" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G344" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H344">
         <v>2</v>
       </c>
       <c r="I344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J344" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K344">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="L344">
         <v>3.4</v>
       </c>
       <c r="M344">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N344">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O344">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P344">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="Q344">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R344">
         <v>1.95</v>
@@ -31132,7 +31132,7 @@
         <v>1.9</v>
       </c>
       <c r="T344">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U344">
         <v>1.85</v>
@@ -31141,19 +31141,19 @@
         <v>2</v>
       </c>
       <c r="W344">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X344">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA344">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB344">
         <v>0.8500000000000001</v>
@@ -31167,7 +31167,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>4591716</v>
+        <v>4587840</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31179,40 +31179,40 @@
         <v>44754.58333333334</v>
       </c>
       <c r="F345" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G345" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H345">
         <v>2</v>
       </c>
       <c r="I345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J345" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K345">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="L345">
         <v>3.4</v>
       </c>
       <c r="M345">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N345">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O345">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P345">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="Q345">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R345">
         <v>1.95</v>
@@ -31221,7 +31221,7 @@
         <v>1.9</v>
       </c>
       <c r="T345">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U345">
         <v>1.85</v>
@@ -31230,19 +31230,19 @@
         <v>2</v>
       </c>
       <c r="W345">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X345">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA345">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
         <v>0.8500000000000001</v>
@@ -32502,7 +32502,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>4587847</v>
+        <v>4587938</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32514,61 +32514,61 @@
         <v>44768.58333333334</v>
       </c>
       <c r="F360" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G360" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J360" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K360">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L360">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M360">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N360">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="O360">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P360">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q360">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R360">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S360">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T360">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U360">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V360">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W360">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X360">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y360">
         <v>-1</v>
@@ -32580,10 +32580,10 @@
         <v>-0</v>
       </c>
       <c r="AB360">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC360">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32591,7 +32591,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>4587938</v>
+        <v>4587847</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32603,61 +32603,61 @@
         <v>44768.58333333334</v>
       </c>
       <c r="F361" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G361" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H361">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I361">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J361" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K361">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L361">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M361">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N361">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="O361">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P361">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q361">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R361">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S361">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T361">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U361">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V361">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W361">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X361">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y361">
         <v>-1</v>
@@ -32669,10 +32669,10 @@
         <v>-0</v>
       </c>
       <c r="AB361">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC361">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -33392,7 +33392,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>4587858</v>
+        <v>4587856</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33404,56 +33404,56 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F370" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G370" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H370">
         <v>0</v>
       </c>
       <c r="I370">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J370" t="s">
         <v>54</v>
       </c>
       <c r="K370">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L370">
         <v>3.4</v>
       </c>
       <c r="M370">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="N370">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O370">
         <v>3.4</v>
       </c>
       <c r="P370">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q370">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R370">
+        <v>1.925</v>
+      </c>
+      <c r="S370">
+        <v>1.925</v>
+      </c>
+      <c r="T370">
+        <v>2.75</v>
+      </c>
+      <c r="U370">
         <v>2.025</v>
       </c>
-      <c r="S370">
+      <c r="V370">
         <v>1.825</v>
       </c>
-      <c r="T370">
-        <v>2.5</v>
-      </c>
-      <c r="U370">
-        <v>1.85</v>
-      </c>
-      <c r="V370">
-        <v>2</v>
-      </c>
       <c r="W370">
         <v>-1</v>
       </c>
@@ -33461,19 +33461,19 @@
         <v>-1</v>
       </c>
       <c r="Y370">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="Z370">
         <v>-1</v>
       </c>
       <c r="AA370">
+        <v>0.925</v>
+      </c>
+      <c r="AB370">
+        <v>-1</v>
+      </c>
+      <c r="AC370">
         <v>0.825</v>
-      </c>
-      <c r="AB370">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC370">
-        <v>-1</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33481,7 +33481,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>4587856</v>
+        <v>4587940</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33493,76 +33493,76 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F371" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G371" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H371">
+        <v>1</v>
+      </c>
+      <c r="I371">
         <v>0</v>
       </c>
-      <c r="I371">
-        <v>1</v>
-      </c>
       <c r="J371" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K371">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="L371">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M371">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N371">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O371">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P371">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="Q371">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R371">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S371">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T371">
         <v>2.75</v>
       </c>
       <c r="U371">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V371">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W371">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X371">
         <v>-1</v>
       </c>
       <c r="Y371">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA371">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AB371">
         <v>-1</v>
       </c>
       <c r="AC371">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33570,7 +33570,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>4587940</v>
+        <v>4587858</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33582,76 +33582,76 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F372" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G372" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J372" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K372">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="L372">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M372">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N372">
-        <v>1.45</v>
+        <v>3.25</v>
       </c>
       <c r="O372">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P372">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q372">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R372">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S372">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T372">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U372">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V372">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W372">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z372">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC372">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -35350,7 +35350,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>4591710</v>
+        <v>4587864</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35362,76 +35362,76 @@
         <v>44789.58333333334</v>
       </c>
       <c r="F392" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G392" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I392">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J392" t="s">
         <v>55</v>
       </c>
       <c r="K392">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L392">
+        <v>3.5</v>
+      </c>
+      <c r="M392">
+        <v>2.75</v>
+      </c>
+      <c r="N392">
+        <v>2.15</v>
+      </c>
+      <c r="O392">
         <v>3.75</v>
       </c>
-      <c r="M392">
-        <v>5.25</v>
-      </c>
-      <c r="N392">
-        <v>1.65</v>
-      </c>
-      <c r="O392">
-        <v>3.6</v>
-      </c>
       <c r="P392">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q392">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R392">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S392">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T392">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U392">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V392">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W392">
         <v>-1</v>
       </c>
       <c r="X392">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y392">
         <v>-1</v>
       </c>
       <c r="Z392">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA392">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB392">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC392">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -35439,7 +35439,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>4587864</v>
+        <v>4591710</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35451,76 +35451,76 @@
         <v>44789.58333333334</v>
       </c>
       <c r="F393" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G393" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H393">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I393">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J393" t="s">
         <v>55</v>
       </c>
       <c r="K393">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L393">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M393">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="N393">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O393">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P393">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q393">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R393">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S393">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T393">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U393">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V393">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W393">
         <v>-1</v>
       </c>
       <c r="X393">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y393">
         <v>-1</v>
       </c>
       <c r="Z393">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA393">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AB393">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC393">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="394" spans="1:29">
@@ -37486,7 +37486,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>4587876</v>
+        <v>4587950</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37498,76 +37498,76 @@
         <v>44810.58333333334</v>
       </c>
       <c r="F416" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G416" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416">
         <v>1</v>
       </c>
       <c r="J416" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K416">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="L416">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M416">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N416">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O416">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P416">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q416">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R416">
+        <v>2.05</v>
+      </c>
+      <c r="S416">
+        <v>1.8</v>
+      </c>
+      <c r="T416">
+        <v>2.25</v>
+      </c>
+      <c r="U416">
         <v>1.875</v>
       </c>
-      <c r="S416">
+      <c r="V416">
         <v>1.975</v>
       </c>
-      <c r="T416">
-        <v>3.25</v>
-      </c>
-      <c r="U416">
-        <v>1.925</v>
-      </c>
-      <c r="V416">
-        <v>1.925</v>
-      </c>
       <c r="W416">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X416">
         <v>-1</v>
       </c>
       <c r="Y416">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z416">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA416">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB416">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC416">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -37575,7 +37575,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>4587950</v>
+        <v>4587876</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37587,76 +37587,76 @@
         <v>44810.58333333334</v>
       </c>
       <c r="F417" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G417" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417">
         <v>1</v>
       </c>
       <c r="J417" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K417">
+        <v>1.7</v>
+      </c>
+      <c r="L417">
         <v>3.8</v>
       </c>
-      <c r="L417">
-        <v>3.5</v>
-      </c>
       <c r="M417">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N417">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="O417">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P417">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q417">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R417">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S417">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T417">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U417">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V417">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W417">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X417">
         <v>-1</v>
       </c>
       <c r="Y417">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z417">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA417">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB417">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC417">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="418" spans="1:29">
@@ -38910,7 +38910,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>4587883</v>
+        <v>4587885</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -38922,76 +38922,76 @@
         <v>44822.41666666666</v>
       </c>
       <c r="F432" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G432" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H432">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I432">
         <v>2</v>
       </c>
       <c r="J432" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K432">
+        <v>2.25</v>
+      </c>
+      <c r="L432">
+        <v>3.3</v>
+      </c>
+      <c r="M432">
+        <v>2.875</v>
+      </c>
+      <c r="N432">
+        <v>2.3</v>
+      </c>
+      <c r="O432">
+        <v>3.3</v>
+      </c>
+      <c r="P432">
         <v>2.8</v>
       </c>
-      <c r="L432">
-        <v>3.2</v>
-      </c>
-      <c r="M432">
-        <v>2.375</v>
-      </c>
-      <c r="N432">
-        <v>2.55</v>
-      </c>
-      <c r="O432">
-        <v>3</v>
-      </c>
-      <c r="P432">
-        <v>2.7</v>
-      </c>
       <c r="Q432">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R432">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S432">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T432">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U432">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V432">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W432">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X432">
         <v>-1</v>
       </c>
       <c r="Y432">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z432">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA432">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB432">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AC432">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="433" spans="1:29">
@@ -38999,7 +38999,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>4587885</v>
+        <v>4587883</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39011,76 +39011,76 @@
         <v>44822.41666666666</v>
       </c>
       <c r="F433" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G433" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I433">
         <v>2</v>
       </c>
       <c r="J433" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K433">
+        <v>2.8</v>
+      </c>
+      <c r="L433">
+        <v>3.2</v>
+      </c>
+      <c r="M433">
+        <v>2.375</v>
+      </c>
+      <c r="N433">
+        <v>2.55</v>
+      </c>
+      <c r="O433">
+        <v>3</v>
+      </c>
+      <c r="P433">
+        <v>2.7</v>
+      </c>
+      <c r="Q433">
+        <v>0</v>
+      </c>
+      <c r="R433">
+        <v>1.875</v>
+      </c>
+      <c r="S433">
+        <v>1.975</v>
+      </c>
+      <c r="T433">
         <v>2.25</v>
       </c>
-      <c r="L433">
-        <v>3.3</v>
-      </c>
-      <c r="M433">
-        <v>2.875</v>
-      </c>
-      <c r="N433">
-        <v>2.3</v>
-      </c>
-      <c r="O433">
-        <v>3.3</v>
-      </c>
-      <c r="P433">
-        <v>2.8</v>
-      </c>
-      <c r="Q433">
-        <v>-0.25</v>
-      </c>
-      <c r="R433">
-        <v>2.05</v>
-      </c>
-      <c r="S433">
-        <v>1.8</v>
-      </c>
-      <c r="T433">
-        <v>2.75</v>
-      </c>
       <c r="U433">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V433">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W433">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X433">
         <v>-1</v>
       </c>
       <c r="Y433">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z433">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA433">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB433">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AC433">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434" spans="1:29">
@@ -39889,7 +39889,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>4587894</v>
+        <v>4587893</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39901,76 +39901,76 @@
         <v>44842.41666666666</v>
       </c>
       <c r="F443" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G443" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J443" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K443">
-        <v>1.55</v>
+        <v>2.375</v>
       </c>
       <c r="L443">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M443">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N443">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O443">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P443">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q443">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R443">
+        <v>2.05</v>
+      </c>
+      <c r="S443">
         <v>1.8</v>
-      </c>
-      <c r="S443">
-        <v>2.05</v>
       </c>
       <c r="T443">
         <v>2.75</v>
       </c>
       <c r="U443">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V443">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W443">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X443">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y443">
         <v>-1</v>
       </c>
       <c r="Z443">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA443">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB443">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC443">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -39978,7 +39978,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>4587893</v>
+        <v>4587894</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39990,76 +39990,76 @@
         <v>44842.41666666666</v>
       </c>
       <c r="F444" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G444" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H444">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J444" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K444">
-        <v>2.375</v>
+        <v>1.55</v>
       </c>
       <c r="L444">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M444">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N444">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O444">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P444">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q444">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R444">
+        <v>1.8</v>
+      </c>
+      <c r="S444">
         <v>2.05</v>
-      </c>
-      <c r="S444">
-        <v>1.8</v>
       </c>
       <c r="T444">
         <v>2.75</v>
       </c>
       <c r="U444">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V444">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W444">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X444">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y444">
         <v>-1</v>
       </c>
       <c r="Z444">
+        <v>-1</v>
+      </c>
+      <c r="AA444">
         <v>1.05</v>
       </c>
-      <c r="AA444">
-        <v>-1</v>
-      </c>
       <c r="AB444">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC444">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40334,7 +40334,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>4587956</v>
+        <v>4587892</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40346,76 +40346,76 @@
         <v>44845.58333333334</v>
       </c>
       <c r="F448" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G448" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I448">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J448" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K448">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="L448">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M448">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N448">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="O448">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P448">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q448">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R448">
+        <v>1.95</v>
+      </c>
+      <c r="S448">
         <v>1.9</v>
-      </c>
-      <c r="S448">
-        <v>1.95</v>
       </c>
       <c r="T448">
         <v>2.5</v>
       </c>
       <c r="U448">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V448">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W448">
         <v>-1</v>
       </c>
       <c r="X448">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y448">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z448">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA448">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB448">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC448">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -40423,7 +40423,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>4587892</v>
+        <v>4587956</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40435,76 +40435,76 @@
         <v>44845.58333333334</v>
       </c>
       <c r="F449" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G449" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449">
+        <v>1</v>
+      </c>
+      <c r="J449" t="s">
+        <v>55</v>
+      </c>
+      <c r="K449">
+        <v>2.6</v>
+      </c>
+      <c r="L449">
+        <v>3.5</v>
+      </c>
+      <c r="M449">
+        <v>2.5</v>
+      </c>
+      <c r="N449">
+        <v>2.1</v>
+      </c>
+      <c r="O449">
+        <v>3.5</v>
+      </c>
+      <c r="P449">
         <v>3</v>
       </c>
-      <c r="J449" t="s">
-        <v>54</v>
-      </c>
-      <c r="K449">
-        <v>1.45</v>
-      </c>
-      <c r="L449">
-        <v>4.333</v>
-      </c>
-      <c r="M449">
-        <v>6.5</v>
-      </c>
-      <c r="N449">
-        <v>1.55</v>
-      </c>
-      <c r="O449">
-        <v>4</v>
-      </c>
-      <c r="P449">
-        <v>5.5</v>
-      </c>
       <c r="Q449">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R449">
+        <v>1.9</v>
+      </c>
+      <c r="S449">
         <v>1.95</v>
-      </c>
-      <c r="S449">
-        <v>1.9</v>
       </c>
       <c r="T449">
         <v>2.5</v>
       </c>
       <c r="U449">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V449">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W449">
         <v>-1</v>
       </c>
       <c r="X449">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y449">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z449">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA449">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB449">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC449">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="450" spans="1:29">
@@ -40868,7 +40868,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>4591702</v>
+        <v>4587896</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40880,40 +40880,40 @@
         <v>44851.58333333334</v>
       </c>
       <c r="F454" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G454" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J454" t="s">
         <v>53</v>
       </c>
       <c r="K454">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L454">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M454">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="N454">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O454">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P454">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q454">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R454">
         <v>1.925</v>
@@ -40925,13 +40925,13 @@
         <v>3</v>
       </c>
       <c r="U454">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V454">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W454">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="X454">
         <v>-1</v>
@@ -40946,10 +40946,10 @@
         <v>-1</v>
       </c>
       <c r="AB454">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC454">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -40957,7 +40957,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>4587897</v>
+        <v>4591702</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40969,10 +40969,10 @@
         <v>44851.58333333334</v>
       </c>
       <c r="F455" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G455" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H455">
         <v>2</v>
@@ -40984,43 +40984,43 @@
         <v>53</v>
       </c>
       <c r="K455">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="L455">
+        <v>3.4</v>
+      </c>
+      <c r="M455">
+        <v>3.3</v>
+      </c>
+      <c r="N455">
+        <v>2.15</v>
+      </c>
+      <c r="O455">
         <v>3.5</v>
       </c>
-      <c r="M455">
-        <v>2.1</v>
-      </c>
-      <c r="N455">
-        <v>3.6</v>
-      </c>
-      <c r="O455">
-        <v>3.8</v>
-      </c>
       <c r="P455">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q455">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R455">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S455">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T455">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U455">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V455">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W455">
-        <v>2.6</v>
+        <v>1.15</v>
       </c>
       <c r="X455">
         <v>-1</v>
@@ -41029,16 +41029,16 @@
         <v>-1</v>
       </c>
       <c r="Z455">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA455">
         <v>-1</v>
       </c>
       <c r="AB455">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC455">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -41046,7 +41046,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>4587896</v>
+        <v>4587897</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41058,49 +41058,49 @@
         <v>44851.58333333334</v>
       </c>
       <c r="F456" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G456" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H456">
+        <v>2</v>
+      </c>
+      <c r="I456">
         <v>1</v>
-      </c>
-      <c r="I456">
-        <v>0</v>
       </c>
       <c r="J456" t="s">
         <v>53</v>
       </c>
       <c r="K456">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L456">
         <v>3.5</v>
       </c>
       <c r="M456">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="N456">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O456">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P456">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q456">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R456">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S456">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T456">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U456">
         <v>1.95</v>
@@ -41109,7 +41109,7 @@
         <v>1.9</v>
       </c>
       <c r="W456">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="X456">
         <v>-1</v>
@@ -41118,16 +41118,16 @@
         <v>-1</v>
       </c>
       <c r="Z456">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA456">
         <v>-1</v>
       </c>
       <c r="AB456">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC456">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="457" spans="1:29">
@@ -42292,7 +42292,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>4587903</v>
+        <v>4587987</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42304,76 +42304,76 @@
         <v>44863.41666666666</v>
       </c>
       <c r="F470" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G470" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I470">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J470" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K470">
-        <v>3.9</v>
+        <v>1.75</v>
       </c>
       <c r="L470">
+        <v>3.5</v>
+      </c>
+      <c r="M470">
+        <v>4.2</v>
+      </c>
+      <c r="N470">
+        <v>2</v>
+      </c>
+      <c r="O470">
+        <v>3.3</v>
+      </c>
+      <c r="P470">
         <v>3.4</v>
       </c>
-      <c r="M470">
-        <v>1.85</v>
-      </c>
-      <c r="N470">
-        <v>4.2</v>
-      </c>
-      <c r="O470">
-        <v>3.6</v>
-      </c>
-      <c r="P470">
-        <v>1.727</v>
-      </c>
       <c r="Q470">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R470">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S470">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T470">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U470">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V470">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W470">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X470">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y470">
         <v>-1</v>
       </c>
       <c r="Z470">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA470">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB470">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC470">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471" spans="1:29">
@@ -42381,7 +42381,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>4587987</v>
+        <v>4587903</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42393,76 +42393,76 @@
         <v>44863.41666666666</v>
       </c>
       <c r="F471" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G471" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H471">
+        <v>2</v>
+      </c>
+      <c r="I471">
+        <v>0</v>
+      </c>
+      <c r="J471" t="s">
+        <v>53</v>
+      </c>
+      <c r="K471">
+        <v>3.9</v>
+      </c>
+      <c r="L471">
+        <v>3.4</v>
+      </c>
+      <c r="M471">
+        <v>1.85</v>
+      </c>
+      <c r="N471">
+        <v>4.2</v>
+      </c>
+      <c r="O471">
+        <v>3.6</v>
+      </c>
+      <c r="P471">
+        <v>1.727</v>
+      </c>
+      <c r="Q471">
+        <v>0.5</v>
+      </c>
+      <c r="R471">
+        <v>1.975</v>
+      </c>
+      <c r="S471">
+        <v>1.875</v>
+      </c>
+      <c r="T471">
         <v>3</v>
       </c>
-      <c r="I471">
-        <v>3</v>
-      </c>
-      <c r="J471" t="s">
-        <v>55</v>
-      </c>
-      <c r="K471">
-        <v>1.75</v>
-      </c>
-      <c r="L471">
-        <v>3.5</v>
-      </c>
-      <c r="M471">
-        <v>4.2</v>
-      </c>
-      <c r="N471">
-        <v>2</v>
-      </c>
-      <c r="O471">
-        <v>3.3</v>
-      </c>
-      <c r="P471">
-        <v>3.4</v>
-      </c>
-      <c r="Q471">
-        <v>-0.25</v>
-      </c>
-      <c r="R471">
-        <v>1.8</v>
-      </c>
-      <c r="S471">
-        <v>2.05</v>
-      </c>
-      <c r="T471">
-        <v>2.5</v>
-      </c>
       <c r="U471">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V471">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W471">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X471">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y471">
         <v>-1</v>
       </c>
       <c r="Z471">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA471">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB471">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC471">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="472" spans="1:29">
@@ -43538,7 +43538,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>6450192</v>
+        <v>5992047</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43550,34 +43550,34 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F484" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G484" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H484">
+        <v>0</v>
+      </c>
+      <c r="I484">
         <v>1</v>
       </c>
-      <c r="I484">
-        <v>0</v>
-      </c>
       <c r="J484" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K484">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L484">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M484">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N484">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O484">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P484">
         <v>4</v>
@@ -43586,40 +43586,40 @@
         <v>-0.5</v>
       </c>
       <c r="R484">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S484">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T484">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U484">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V484">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W484">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X484">
         <v>-1</v>
       </c>
       <c r="Y484">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z484">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA484">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB484">
         <v>-1</v>
       </c>
       <c r="AC484">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="485" spans="1:29">
@@ -43627,7 +43627,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>5992047</v>
+        <v>6450192</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43639,34 +43639,34 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F485" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G485" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H485">
+        <v>1</v>
+      </c>
+      <c r="I485">
         <v>0</v>
       </c>
-      <c r="I485">
-        <v>1</v>
-      </c>
       <c r="J485" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K485">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L485">
+        <v>3.3</v>
+      </c>
+      <c r="M485">
+        <v>3</v>
+      </c>
+      <c r="N485">
+        <v>1.833</v>
+      </c>
+      <c r="O485">
         <v>3.4</v>
-      </c>
-      <c r="M485">
-        <v>3.6</v>
-      </c>
-      <c r="N485">
-        <v>1.909</v>
-      </c>
-      <c r="O485">
-        <v>3.1</v>
       </c>
       <c r="P485">
         <v>4</v>
@@ -43675,40 +43675,40 @@
         <v>-0.5</v>
       </c>
       <c r="R485">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S485">
+        <v>1.975</v>
+      </c>
+      <c r="T485">
+        <v>2.75</v>
+      </c>
+      <c r="U485">
+        <v>2</v>
+      </c>
+      <c r="V485">
         <v>1.85</v>
       </c>
-      <c r="T485">
-        <v>2.25</v>
-      </c>
-      <c r="U485">
-        <v>1.95</v>
-      </c>
-      <c r="V485">
-        <v>1.9</v>
-      </c>
       <c r="W485">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X485">
         <v>-1</v>
       </c>
       <c r="Y485">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z485">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA485">
+        <v>-1</v>
+      </c>
+      <c r="AB485">
+        <v>-1</v>
+      </c>
+      <c r="AC485">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB485">
-        <v>-1</v>
-      </c>
-      <c r="AC485">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="486" spans="1:29">
@@ -63296,7 +63296,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>5992259</v>
+        <v>5992262</v>
       </c>
       <c r="C706" t="s">
         <v>28</v>
@@ -63308,76 +63308,76 @@
         <v>45234.375</v>
       </c>
       <c r="F706" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G706" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I706">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J706" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K706">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="L706">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M706">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="N706">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O706">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P706">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q706">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R706">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S706">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T706">
         <v>2.75</v>
       </c>
       <c r="U706">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V706">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W706">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X706">
         <v>-1</v>
       </c>
       <c r="Y706">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z706">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA706">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB706">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC706">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="707" spans="1:29">
@@ -63385,7 +63385,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>5992262</v>
+        <v>5992259</v>
       </c>
       <c r="C707" t="s">
         <v>28</v>
@@ -63397,76 +63397,76 @@
         <v>45234.375</v>
       </c>
       <c r="F707" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G707" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I707">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J707" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K707">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L707">
+        <v>3.6</v>
+      </c>
+      <c r="M707">
+        <v>3.4</v>
+      </c>
+      <c r="N707">
+        <v>2</v>
+      </c>
+      <c r="O707">
         <v>3.75</v>
       </c>
-      <c r="M707">
-        <v>1.571</v>
-      </c>
-      <c r="N707">
-        <v>4.5</v>
-      </c>
-      <c r="O707">
-        <v>3.5</v>
-      </c>
       <c r="P707">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q707">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R707">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S707">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T707">
         <v>2.75</v>
       </c>
       <c r="U707">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V707">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W707">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X707">
         <v>-1</v>
       </c>
       <c r="Y707">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z707">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA707">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB707">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC707">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="708" spans="1:29">

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -38910,7 +38910,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>4587885</v>
+        <v>4587883</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -38922,76 +38922,76 @@
         <v>44822.41666666666</v>
       </c>
       <c r="F432" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G432" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I432">
         <v>2</v>
       </c>
       <c r="J432" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K432">
+        <v>2.8</v>
+      </c>
+      <c r="L432">
+        <v>3.2</v>
+      </c>
+      <c r="M432">
+        <v>2.375</v>
+      </c>
+      <c r="N432">
+        <v>2.55</v>
+      </c>
+      <c r="O432">
+        <v>3</v>
+      </c>
+      <c r="P432">
+        <v>2.7</v>
+      </c>
+      <c r="Q432">
+        <v>0</v>
+      </c>
+      <c r="R432">
+        <v>1.875</v>
+      </c>
+      <c r="S432">
+        <v>1.975</v>
+      </c>
+      <c r="T432">
         <v>2.25</v>
       </c>
-      <c r="L432">
-        <v>3.3</v>
-      </c>
-      <c r="M432">
-        <v>2.875</v>
-      </c>
-      <c r="N432">
-        <v>2.3</v>
-      </c>
-      <c r="O432">
-        <v>3.3</v>
-      </c>
-      <c r="P432">
-        <v>2.8</v>
-      </c>
-      <c r="Q432">
-        <v>-0.25</v>
-      </c>
-      <c r="R432">
-        <v>2.05</v>
-      </c>
-      <c r="S432">
-        <v>1.8</v>
-      </c>
-      <c r="T432">
-        <v>2.75</v>
-      </c>
       <c r="U432">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V432">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W432">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X432">
         <v>-1</v>
       </c>
       <c r="Y432">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z432">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA432">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB432">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AC432">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433" spans="1:29">
@@ -38999,7 +38999,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>4587883</v>
+        <v>4587885</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39011,76 +39011,76 @@
         <v>44822.41666666666</v>
       </c>
       <c r="F433" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G433" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H433">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I433">
         <v>2</v>
       </c>
       <c r="J433" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K433">
+        <v>2.25</v>
+      </c>
+      <c r="L433">
+        <v>3.3</v>
+      </c>
+      <c r="M433">
+        <v>2.875</v>
+      </c>
+      <c r="N433">
+        <v>2.3</v>
+      </c>
+      <c r="O433">
+        <v>3.3</v>
+      </c>
+      <c r="P433">
         <v>2.8</v>
       </c>
-      <c r="L433">
-        <v>3.2</v>
-      </c>
-      <c r="M433">
-        <v>2.375</v>
-      </c>
-      <c r="N433">
-        <v>2.55</v>
-      </c>
-      <c r="O433">
-        <v>3</v>
-      </c>
-      <c r="P433">
-        <v>2.7</v>
-      </c>
       <c r="Q433">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R433">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S433">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T433">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U433">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V433">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W433">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X433">
         <v>-1</v>
       </c>
       <c r="Y433">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z433">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA433">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB433">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AC433">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="434" spans="1:29">
@@ -43538,7 +43538,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>5992047</v>
+        <v>6450192</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43550,34 +43550,34 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F484" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G484" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H484">
+        <v>1</v>
+      </c>
+      <c r="I484">
         <v>0</v>
       </c>
-      <c r="I484">
-        <v>1</v>
-      </c>
       <c r="J484" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K484">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L484">
+        <v>3.3</v>
+      </c>
+      <c r="M484">
+        <v>3</v>
+      </c>
+      <c r="N484">
+        <v>1.833</v>
+      </c>
+      <c r="O484">
         <v>3.4</v>
-      </c>
-      <c r="M484">
-        <v>3.6</v>
-      </c>
-      <c r="N484">
-        <v>1.909</v>
-      </c>
-      <c r="O484">
-        <v>3.1</v>
       </c>
       <c r="P484">
         <v>4</v>
@@ -43586,40 +43586,40 @@
         <v>-0.5</v>
       </c>
       <c r="R484">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S484">
+        <v>1.975</v>
+      </c>
+      <c r="T484">
+        <v>2.75</v>
+      </c>
+      <c r="U484">
+        <v>2</v>
+      </c>
+      <c r="V484">
         <v>1.85</v>
       </c>
-      <c r="T484">
-        <v>2.25</v>
-      </c>
-      <c r="U484">
-        <v>1.95</v>
-      </c>
-      <c r="V484">
-        <v>1.9</v>
-      </c>
       <c r="W484">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X484">
         <v>-1</v>
       </c>
       <c r="Y484">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z484">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA484">
+        <v>-1</v>
+      </c>
+      <c r="AB484">
+        <v>-1</v>
+      </c>
+      <c r="AC484">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB484">
-        <v>-1</v>
-      </c>
-      <c r="AC484">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="485" spans="1:29">
@@ -43627,7 +43627,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>6450192</v>
+        <v>5992047</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43639,34 +43639,34 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F485" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G485" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H485">
+        <v>0</v>
+      </c>
+      <c r="I485">
         <v>1</v>
       </c>
-      <c r="I485">
-        <v>0</v>
-      </c>
       <c r="J485" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K485">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L485">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M485">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N485">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O485">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P485">
         <v>4</v>
@@ -43675,40 +43675,40 @@
         <v>-0.5</v>
       </c>
       <c r="R485">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S485">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T485">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U485">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V485">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W485">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X485">
         <v>-1</v>
       </c>
       <c r="Y485">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z485">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA485">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB485">
         <v>-1</v>
       </c>
       <c r="AC485">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="486" spans="1:29">
@@ -43805,7 +43805,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>5992044</v>
+        <v>5993412</v>
       </c>
       <c r="C487" t="s">
         <v>28</v>
@@ -43817,49 +43817,49 @@
         <v>45019.58333333334</v>
       </c>
       <c r="F487" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G487" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J487" t="s">
         <v>55</v>
       </c>
       <c r="K487">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L487">
         <v>3.4</v>
       </c>
       <c r="M487">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N487">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O487">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P487">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="Q487">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R487">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S487">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T487">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U487">
         <v>1.975</v>
@@ -43871,22 +43871,22 @@
         <v>-1</v>
       </c>
       <c r="X487">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y487">
         <v>-1</v>
       </c>
       <c r="Z487">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA487">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB487">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC487">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488" spans="1:29">
@@ -43894,7 +43894,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>5993412</v>
+        <v>5992044</v>
       </c>
       <c r="C488" t="s">
         <v>28</v>
@@ -43906,49 +43906,49 @@
         <v>45019.58333333334</v>
       </c>
       <c r="F488" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G488" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J488" t="s">
         <v>55</v>
       </c>
       <c r="K488">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L488">
         <v>3.4</v>
       </c>
       <c r="M488">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="N488">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O488">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P488">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q488">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R488">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S488">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T488">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U488">
         <v>1.975</v>
@@ -43960,22 +43960,22 @@
         <v>-1</v>
       </c>
       <c r="X488">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y488">
         <v>-1</v>
       </c>
       <c r="Z488">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA488">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB488">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC488">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="489" spans="1:29">
@@ -49323,7 +49323,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>5992108</v>
+        <v>5992111</v>
       </c>
       <c r="C549" t="s">
         <v>28</v>
@@ -49335,58 +49335,58 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F549" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G549" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H549">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I549">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J549" t="s">
         <v>53</v>
       </c>
       <c r="K549">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L549">
         <v>3.5</v>
       </c>
       <c r="M549">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N549">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O549">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P549">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q549">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R549">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S549">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T549">
         <v>2.75</v>
       </c>
       <c r="U549">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V549">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W549">
-        <v>1.75</v>
+        <v>0.8</v>
       </c>
       <c r="X549">
         <v>-1</v>
@@ -49395,16 +49395,16 @@
         <v>-1</v>
       </c>
       <c r="Z549">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA549">
         <v>-1</v>
       </c>
       <c r="AB549">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC549">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="550" spans="1:29">
@@ -49412,7 +49412,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>5992111</v>
+        <v>5992108</v>
       </c>
       <c r="C550" t="s">
         <v>28</v>
@@ -49424,76 +49424,76 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F550" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G550" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I550">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J550" t="s">
         <v>53</v>
       </c>
       <c r="K550">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="L550">
         <v>3.5</v>
       </c>
       <c r="M550">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N550">
+        <v>2.75</v>
+      </c>
+      <c r="O550">
+        <v>3.4</v>
+      </c>
+      <c r="P550">
+        <v>2.3</v>
+      </c>
+      <c r="Q550">
+        <v>0.25</v>
+      </c>
+      <c r="R550">
         <v>1.8</v>
       </c>
-      <c r="O550">
-        <v>3.8</v>
-      </c>
-      <c r="P550">
-        <v>3.8</v>
-      </c>
-      <c r="Q550">
-        <v>-0.5</v>
-      </c>
-      <c r="R550">
-        <v>1.825</v>
-      </c>
       <c r="S550">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T550">
         <v>2.75</v>
       </c>
       <c r="U550">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V550">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W550">
+        <v>1.75</v>
+      </c>
+      <c r="X550">
+        <v>-1</v>
+      </c>
+      <c r="Y550">
+        <v>-1</v>
+      </c>
+      <c r="Z550">
         <v>0.8</v>
       </c>
-      <c r="X550">
-        <v>-1</v>
-      </c>
-      <c r="Y550">
-        <v>-1</v>
-      </c>
-      <c r="Z550">
-        <v>0.825</v>
-      </c>
       <c r="AA550">
         <v>-1</v>
       </c>
       <c r="AB550">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC550">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551" spans="1:29">
@@ -50302,7 +50302,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>5992116</v>
+        <v>5992113</v>
       </c>
       <c r="C560" t="s">
         <v>28</v>
@@ -50314,10 +50314,10 @@
         <v>45078.58333333334</v>
       </c>
       <c r="F560" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G560" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H560">
         <v>0</v>
@@ -50329,46 +50329,46 @@
         <v>55</v>
       </c>
       <c r="K560">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L560">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M560">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="N560">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O560">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P560">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q560">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R560">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S560">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T560">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U560">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V560">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W560">
         <v>-1</v>
       </c>
       <c r="X560">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y560">
         <v>-1</v>
@@ -50377,13 +50377,13 @@
         <v>-1</v>
       </c>
       <c r="AA560">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB560">
         <v>-1</v>
       </c>
       <c r="AC560">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:29">
@@ -50391,7 +50391,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>5992113</v>
+        <v>5992116</v>
       </c>
       <c r="C561" t="s">
         <v>28</v>
@@ -50403,10 +50403,10 @@
         <v>45078.58333333334</v>
       </c>
       <c r="F561" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G561" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H561">
         <v>0</v>
@@ -50418,46 +50418,46 @@
         <v>55</v>
       </c>
       <c r="K561">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L561">
+        <v>3.4</v>
+      </c>
+      <c r="M561">
         <v>4</v>
       </c>
-      <c r="M561">
-        <v>5.25</v>
-      </c>
       <c r="N561">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O561">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P561">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q561">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R561">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S561">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T561">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U561">
+        <v>2</v>
+      </c>
+      <c r="V561">
         <v>1.85</v>
       </c>
-      <c r="V561">
-        <v>2</v>
-      </c>
       <c r="W561">
         <v>-1</v>
       </c>
       <c r="X561">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y561">
         <v>-1</v>
@@ -50466,13 +50466,13 @@
         <v>-1</v>
       </c>
       <c r="AA561">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB561">
         <v>-1</v>
       </c>
       <c r="AC561">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="562" spans="1:29">
@@ -51192,7 +51192,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>5992129</v>
+        <v>5993416</v>
       </c>
       <c r="C570" t="s">
         <v>28</v>
@@ -51204,58 +51204,58 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F570" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G570" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H570">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I570">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J570" t="s">
         <v>53</v>
       </c>
       <c r="K570">
+        <v>4.75</v>
+      </c>
+      <c r="L570">
+        <v>3.5</v>
+      </c>
+      <c r="M570">
+        <v>1.615</v>
+      </c>
+      <c r="N570">
+        <v>5.25</v>
+      </c>
+      <c r="O570">
+        <v>3.75</v>
+      </c>
+      <c r="P570">
         <v>1.5</v>
       </c>
-      <c r="L570">
-        <v>4</v>
-      </c>
-      <c r="M570">
-        <v>5</v>
-      </c>
-      <c r="N570">
-        <v>1.4</v>
-      </c>
-      <c r="O570">
-        <v>4.333</v>
-      </c>
-      <c r="P570">
-        <v>5.75</v>
-      </c>
       <c r="Q570">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R570">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S570">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T570">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U570">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V570">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W570">
-        <v>0.3999999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="X570">
         <v>-1</v>
@@ -51264,13 +51264,13 @@
         <v>-1</v>
       </c>
       <c r="Z570">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA570">
         <v>-1</v>
       </c>
       <c r="AB570">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC570">
         <v>-1</v>
@@ -51281,7 +51281,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>5993416</v>
+        <v>5992129</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51293,58 +51293,58 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F571" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G571" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H571">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I571">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J571" t="s">
         <v>53</v>
       </c>
       <c r="K571">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L571">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M571">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N571">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="O571">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P571">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q571">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R571">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S571">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T571">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U571">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V571">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W571">
-        <v>4.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X571">
         <v>-1</v>
@@ -51353,13 +51353,13 @@
         <v>-1</v>
       </c>
       <c r="Z571">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA571">
         <v>-1</v>
       </c>
       <c r="AB571">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC571">
         <v>-1</v>
@@ -52438,7 +52438,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>5992140</v>
+        <v>5992137</v>
       </c>
       <c r="C584" t="s">
         <v>28</v>
@@ -52450,76 +52450,76 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F584" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G584" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H584">
+        <v>1</v>
+      </c>
+      <c r="I584">
         <v>0</v>
       </c>
-      <c r="I584">
-        <v>3</v>
-      </c>
       <c r="J584" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K584">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L584">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M584">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N584">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O584">
         <v>3.4</v>
       </c>
       <c r="P584">
+        <v>3.3</v>
+      </c>
+      <c r="Q584">
+        <v>-0.5</v>
+      </c>
+      <c r="R584">
+        <v>2.05</v>
+      </c>
+      <c r="S584">
+        <v>1.8</v>
+      </c>
+      <c r="T584">
         <v>2.25</v>
       </c>
-      <c r="Q584">
-        <v>0.25</v>
-      </c>
-      <c r="R584">
-        <v>1.8</v>
-      </c>
-      <c r="S584">
-        <v>2.05</v>
-      </c>
-      <c r="T584">
-        <v>2.5</v>
-      </c>
       <c r="U584">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V584">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W584">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X584">
         <v>-1</v>
       </c>
       <c r="Y584">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z584">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA584">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB584">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC584">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="585" spans="1:29">
@@ -52527,7 +52527,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>5992137</v>
+        <v>5992140</v>
       </c>
       <c r="C585" t="s">
         <v>28</v>
@@ -52539,76 +52539,76 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F585" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G585" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J585" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K585">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L585">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M585">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N585">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O585">
         <v>3.4</v>
       </c>
       <c r="P585">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q585">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R585">
+        <v>1.8</v>
+      </c>
+      <c r="S585">
         <v>2.05</v>
       </c>
-      <c r="S585">
-        <v>1.8</v>
-      </c>
       <c r="T585">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U585">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V585">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W585">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X585">
         <v>-1</v>
       </c>
       <c r="Y585">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z585">
+        <v>-1</v>
+      </c>
+      <c r="AA585">
         <v>1.05</v>
       </c>
-      <c r="AA585">
-        <v>-1</v>
-      </c>
       <c r="AB585">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC585">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="586" spans="1:29">
@@ -52794,7 +52794,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>5992144</v>
+        <v>5992143</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52806,19 +52806,19 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F588" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G588" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H588">
         <v>1</v>
       </c>
       <c r="I588">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J588" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K588">
         <v>1.909</v>
@@ -52830,52 +52830,52 @@
         <v>3.6</v>
       </c>
       <c r="N588">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O588">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P588">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q588">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R588">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S588">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T588">
         <v>2.75</v>
       </c>
       <c r="U588">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V588">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W588">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X588">
         <v>-1</v>
       </c>
       <c r="Y588">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z588">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA588">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB588">
+        <v>0.5125</v>
+      </c>
+      <c r="AC588">
         <v>-0.5</v>
-      </c>
-      <c r="AB588">
-        <v>-1</v>
-      </c>
-      <c r="AC588">
-        <v>0.925</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52883,7 +52883,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>5992143</v>
+        <v>5992144</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52895,19 +52895,19 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F589" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G589" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H589">
         <v>1</v>
       </c>
       <c r="I589">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J589" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K589">
         <v>1.909</v>
@@ -52919,52 +52919,52 @@
         <v>3.6</v>
       </c>
       <c r="N589">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O589">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P589">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q589">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R589">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S589">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T589">
         <v>2.75</v>
       </c>
       <c r="U589">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V589">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W589">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X589">
         <v>-1</v>
       </c>
       <c r="Y589">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z589">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA589">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB589">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC589">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -54841,7 +54841,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>5992170</v>
+        <v>5992167</v>
       </c>
       <c r="C611" t="s">
         <v>28</v>
@@ -54853,76 +54853,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F611" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G611" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J611" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K611">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="L611">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M611">
+        <v>3.1</v>
+      </c>
+      <c r="N611">
         <v>2.15</v>
       </c>
-      <c r="N611">
+      <c r="O611">
         <v>3.2</v>
       </c>
-      <c r="O611">
-        <v>3.4</v>
-      </c>
       <c r="P611">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q611">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R611">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S611">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T611">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U611">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V611">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W611">
+        <v>-1</v>
+      </c>
+      <c r="X611">
+        <v>-1</v>
+      </c>
+      <c r="Y611">
         <v>2.2</v>
       </c>
-      <c r="X611">
-        <v>-1</v>
-      </c>
-      <c r="Y611">
-        <v>-1</v>
-      </c>
       <c r="Z611">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA611">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB611">
         <v>-1</v>
       </c>
       <c r="AC611">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="612" spans="1:29">
@@ -54930,7 +54930,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>5992167</v>
+        <v>5992170</v>
       </c>
       <c r="C612" t="s">
         <v>28</v>
@@ -54942,76 +54942,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F612" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G612" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H612">
+        <v>2</v>
+      </c>
+      <c r="I612">
         <v>0</v>
       </c>
-      <c r="I612">
+      <c r="J612" t="s">
+        <v>53</v>
+      </c>
+      <c r="K612">
+        <v>3</v>
+      </c>
+      <c r="L612">
+        <v>3.4</v>
+      </c>
+      <c r="M612">
+        <v>2.15</v>
+      </c>
+      <c r="N612">
+        <v>3.2</v>
+      </c>
+      <c r="O612">
+        <v>3.4</v>
+      </c>
+      <c r="P612">
+        <v>2.05</v>
+      </c>
+      <c r="Q612">
+        <v>0.25</v>
+      </c>
+      <c r="R612">
+        <v>2</v>
+      </c>
+      <c r="S612">
+        <v>1.85</v>
+      </c>
+      <c r="T612">
+        <v>2.75</v>
+      </c>
+      <c r="U612">
+        <v>2.025</v>
+      </c>
+      <c r="V612">
+        <v>1.825</v>
+      </c>
+      <c r="W612">
+        <v>2.2</v>
+      </c>
+      <c r="X612">
+        <v>-1</v>
+      </c>
+      <c r="Y612">
+        <v>-1</v>
+      </c>
+      <c r="Z612">
         <v>1</v>
       </c>
-      <c r="J612" t="s">
-        <v>54</v>
-      </c>
-      <c r="K612">
-        <v>2.15</v>
-      </c>
-      <c r="L612">
-        <v>3.3</v>
-      </c>
-      <c r="M612">
-        <v>3.1</v>
-      </c>
-      <c r="N612">
-        <v>2.15</v>
-      </c>
-      <c r="O612">
-        <v>3.2</v>
-      </c>
-      <c r="P612">
-        <v>3.2</v>
-      </c>
-      <c r="Q612">
-        <v>-0.25</v>
-      </c>
-      <c r="R612">
-        <v>1.9</v>
-      </c>
-      <c r="S612">
-        <v>1.95</v>
-      </c>
-      <c r="T612">
-        <v>2.25</v>
-      </c>
-      <c r="U612">
-        <v>1.925</v>
-      </c>
-      <c r="V612">
-        <v>1.925</v>
-      </c>
-      <c r="W612">
-        <v>-1</v>
-      </c>
-      <c r="X612">
-        <v>-1</v>
-      </c>
-      <c r="Y612">
-        <v>2.2</v>
-      </c>
-      <c r="Z612">
-        <v>-1</v>
-      </c>
       <c r="AA612">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB612">
         <v>-1</v>
       </c>
       <c r="AC612">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="613" spans="1:29">
@@ -59291,7 +59291,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>5992215</v>
+        <v>5992209</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59303,40 +59303,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F661" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G661" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H661">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I661">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J661" t="s">
         <v>53</v>
       </c>
       <c r="K661">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="L661">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M661">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="N661">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="O661">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P661">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q661">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R661">
         <v>1.925</v>
@@ -59345,16 +59345,16 @@
         <v>1.925</v>
       </c>
       <c r="T661">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U661">
+        <v>1.875</v>
+      </c>
+      <c r="V661">
         <v>1.975</v>
       </c>
-      <c r="V661">
-        <v>1.875</v>
-      </c>
       <c r="W661">
-        <v>2.25</v>
+        <v>0.444</v>
       </c>
       <c r="X661">
         <v>-1</v>
@@ -59369,10 +59369,10 @@
         <v>-1</v>
       </c>
       <c r="AB661">
+        <v>-1</v>
+      </c>
+      <c r="AC661">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC661">
-        <v>-1</v>
       </c>
     </row>
     <row r="662" spans="1:29">
@@ -59380,7 +59380,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>5992209</v>
+        <v>5992213</v>
       </c>
       <c r="C662" t="s">
         <v>28</v>
@@ -59392,40 +59392,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F662" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G662" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J662" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K662">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L662">
+        <v>4.2</v>
+      </c>
+      <c r="M662">
+        <v>1.45</v>
+      </c>
+      <c r="N662">
         <v>5</v>
       </c>
-      <c r="M662">
-        <v>6.5</v>
-      </c>
-      <c r="N662">
-        <v>1.444</v>
-      </c>
       <c r="O662">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P662">
-        <v>6.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q662">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R662">
         <v>1.925</v>
@@ -59434,34 +59434,34 @@
         <v>1.925</v>
       </c>
       <c r="T662">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U662">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V662">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W662">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X662">
         <v>-1</v>
       </c>
       <c r="Y662">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z662">
+        <v>-1</v>
+      </c>
+      <c r="AA662">
         <v>0.925</v>
       </c>
-      <c r="AA662">
-        <v>-1</v>
-      </c>
       <c r="AB662">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC662">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="663" spans="1:29">
@@ -59469,7 +59469,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5992213</v>
+        <v>5992215</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59481,40 +59481,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F663" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G663" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I663">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J663" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K663">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="L663">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M663">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="N663">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="O663">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P663">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="Q663">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R663">
         <v>1.925</v>
@@ -59523,31 +59523,31 @@
         <v>1.925</v>
       </c>
       <c r="T663">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U663">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V663">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W663">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X663">
         <v>-1</v>
       </c>
       <c r="Y663">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z663">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA663">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB663">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC663">
         <v>-1</v>
@@ -59736,7 +59736,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>5992222</v>
+        <v>5992219</v>
       </c>
       <c r="C666" t="s">
         <v>28</v>
@@ -59748,49 +59748,49 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F666" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G666" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H666">
         <v>1</v>
       </c>
       <c r="I666">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J666" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K666">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="L666">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M666">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="N666">
-        <v>1.444</v>
+        <v>4.75</v>
       </c>
       <c r="O666">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P666">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="Q666">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R666">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S666">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T666">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U666">
         <v>1.9</v>
@@ -59802,22 +59802,22 @@
         <v>-1</v>
       </c>
       <c r="X666">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y666">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z666">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA666">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB666">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC666">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="667" spans="1:29">
@@ -59825,7 +59825,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>5992219</v>
+        <v>5992222</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59837,49 +59837,49 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F667" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G667" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H667">
         <v>1</v>
       </c>
       <c r="I667">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J667" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K667">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="L667">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M667">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="N667">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="O667">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P667">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="Q667">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R667">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S667">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T667">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U667">
         <v>1.9</v>
@@ -59891,22 +59891,22 @@
         <v>-1</v>
       </c>
       <c r="X667">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y667">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z667">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA667">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB667">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC667">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="668" spans="1:29">
@@ -60893,7 +60893,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>5992227</v>
+        <v>5993423</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60905,76 +60905,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F679" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G679" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J679" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K679">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L679">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M679">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="N679">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="O679">
         <v>3.8</v>
       </c>
       <c r="P679">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q679">
+        <v>0.75</v>
+      </c>
+      <c r="R679">
+        <v>1.875</v>
+      </c>
+      <c r="S679">
+        <v>1.975</v>
+      </c>
+      <c r="T679">
+        <v>2.75</v>
+      </c>
+      <c r="U679">
+        <v>1.825</v>
+      </c>
+      <c r="V679">
+        <v>2.025</v>
+      </c>
+      <c r="W679">
+        <v>-1</v>
+      </c>
+      <c r="X679">
+        <v>-1</v>
+      </c>
+      <c r="Y679">
+        <v>0.75</v>
+      </c>
+      <c r="Z679">
         <v>-0.5</v>
       </c>
-      <c r="R679">
-        <v>1.9</v>
-      </c>
-      <c r="S679">
-        <v>1.95</v>
-      </c>
-      <c r="T679">
-        <v>3</v>
-      </c>
-      <c r="U679">
-        <v>1.925</v>
-      </c>
-      <c r="V679">
-        <v>1.925</v>
-      </c>
-      <c r="W679">
-        <v>-1</v>
-      </c>
-      <c r="X679">
-        <v>2.8</v>
-      </c>
-      <c r="Y679">
-        <v>-1</v>
-      </c>
-      <c r="Z679">
-        <v>-1</v>
-      </c>
       <c r="AA679">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB679">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC679">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -60982,7 +60982,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>5993423</v>
+        <v>5992227</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -60994,76 +60994,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F680" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G680" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J680" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K680">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L680">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M680">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N680">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="O680">
         <v>3.8</v>
       </c>
       <c r="P680">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q680">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R680">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S680">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T680">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U680">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V680">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W680">
         <v>-1</v>
       </c>
       <c r="X680">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y680">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z680">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA680">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB680">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC680">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -62317,7 +62317,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5992244</v>
+        <v>5992247</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62329,49 +62329,49 @@
         <v>45223.58333333334</v>
       </c>
       <c r="F695" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G695" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695">
         <v>1</v>
       </c>
       <c r="J695" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K695">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L695">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M695">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N695">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O695">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P695">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q695">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R695">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S695">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T695">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U695">
         <v>1.95</v>
@@ -62380,25 +62380,25 @@
         <v>1.9</v>
       </c>
       <c r="W695">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X695">
         <v>-1</v>
       </c>
       <c r="Y695">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z695">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA695">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB695">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC695">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="696" spans="1:29">
@@ -62406,7 +62406,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>5992247</v>
+        <v>5992244</v>
       </c>
       <c r="C696" t="s">
         <v>28</v>
@@ -62418,49 +62418,49 @@
         <v>45223.58333333334</v>
       </c>
       <c r="F696" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G696" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696">
         <v>1</v>
       </c>
       <c r="J696" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K696">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L696">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M696">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="N696">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O696">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P696">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q696">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R696">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S696">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T696">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U696">
         <v>1.95</v>
@@ -62469,25 +62469,25 @@
         <v>1.9</v>
       </c>
       <c r="W696">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X696">
         <v>-1</v>
       </c>
       <c r="Y696">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z696">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA696">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB696">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC696">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="697" spans="1:29">

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -23157,7 +23157,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>4587796</v>
+        <v>4587798</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23169,40 +23169,40 @@
         <v>44662.58333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G255" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H255">
         <v>1</v>
       </c>
       <c r="I255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J255" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K255">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="L255">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M255">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N255">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O255">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P255">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q255">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R255">
         <v>2.05</v>
@@ -23211,22 +23211,22 @@
         <v>1.8</v>
       </c>
       <c r="T255">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U255">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V255">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W255">
         <v>-1</v>
       </c>
       <c r="X255">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z255">
         <v>-1</v>
@@ -23235,10 +23235,10 @@
         <v>0.8</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC255">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>4587798</v>
+        <v>4587796</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,40 +23258,40 @@
         <v>44662.58333333334</v>
       </c>
       <c r="F256" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G256" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H256">
         <v>1</v>
       </c>
       <c r="I256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K256">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="L256">
+        <v>3.25</v>
+      </c>
+      <c r="M256">
+        <v>2.75</v>
+      </c>
+      <c r="N256">
+        <v>1.85</v>
+      </c>
+      <c r="O256">
         <v>3.75</v>
       </c>
-      <c r="M256">
-        <v>3.8</v>
-      </c>
-      <c r="N256">
-        <v>1.95</v>
-      </c>
-      <c r="O256">
-        <v>3.3</v>
-      </c>
       <c r="P256">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q256">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R256">
         <v>2.05</v>
@@ -23300,22 +23300,22 @@
         <v>1.8</v>
       </c>
       <c r="T256">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U256">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V256">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W256">
         <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y256">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
         <v>-1</v>
@@ -23324,10 +23324,10 @@
         <v>0.8</v>
       </c>
       <c r="AB256">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC256">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -26361,7 +26361,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>4587820</v>
+        <v>4591722</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26373,58 +26373,58 @@
         <v>44695.33333333334</v>
       </c>
       <c r="F291" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G291" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H291">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J291" t="s">
         <v>53</v>
       </c>
       <c r="K291">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L291">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M291">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N291">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O291">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P291">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q291">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R291">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S291">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T291">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U291">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V291">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W291">
-        <v>0.909</v>
+        <v>1.55</v>
       </c>
       <c r="X291">
         <v>-1</v>
@@ -26433,16 +26433,16 @@
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA291">
         <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC291">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26450,7 +26450,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>4591722</v>
+        <v>4587820</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26462,58 +26462,58 @@
         <v>44695.33333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G292" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J292" t="s">
         <v>53</v>
       </c>
       <c r="K292">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L292">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M292">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N292">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O292">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P292">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q292">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R292">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S292">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T292">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U292">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V292">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W292">
-        <v>1.55</v>
+        <v>0.909</v>
       </c>
       <c r="X292">
         <v>-1</v>
@@ -26522,16 +26522,16 @@
         <v>-1</v>
       </c>
       <c r="Z292">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA292">
         <v>-1</v>
       </c>
       <c r="AB292">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AC292">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -27963,7 +27963,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>4591720</v>
+        <v>4587827</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27975,13 +27975,13 @@
         <v>44704.58333333334</v>
       </c>
       <c r="F309" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G309" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -27990,43 +27990,43 @@
         <v>53</v>
       </c>
       <c r="K309">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="L309">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M309">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N309">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O309">
         <v>4</v>
       </c>
       <c r="P309">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q309">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R309">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S309">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T309">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U309">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V309">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W309">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X309">
         <v>-1</v>
@@ -28035,16 +28035,16 @@
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA309">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28052,7 +28052,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>4587827</v>
+        <v>4591720</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28064,13 +28064,13 @@
         <v>44704.58333333334</v>
       </c>
       <c r="F310" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G310" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310">
         <v>0</v>
@@ -28079,61 +28079,61 @@
         <v>53</v>
       </c>
       <c r="K310">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="L310">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M310">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N310">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O310">
         <v>4</v>
       </c>
       <c r="P310">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q310">
+        <v>-0.75</v>
+      </c>
+      <c r="R310">
+        <v>2.025</v>
+      </c>
+      <c r="S310">
+        <v>1.825</v>
+      </c>
+      <c r="T310">
+        <v>3.25</v>
+      </c>
+      <c r="U310">
+        <v>1.9</v>
+      </c>
+      <c r="V310">
+        <v>1.95</v>
+      </c>
+      <c r="W310">
+        <v>0.8</v>
+      </c>
+      <c r="X310">
+        <v>-1</v>
+      </c>
+      <c r="Y310">
+        <v>-1</v>
+      </c>
+      <c r="Z310">
+        <v>0.5125</v>
+      </c>
+      <c r="AA310">
         <v>-0.5</v>
       </c>
-      <c r="R310">
-        <v>1.95</v>
-      </c>
-      <c r="S310">
-        <v>1.9</v>
-      </c>
-      <c r="T310">
-        <v>2.75</v>
-      </c>
-      <c r="U310">
-        <v>2</v>
-      </c>
-      <c r="V310">
-        <v>1.85</v>
-      </c>
-      <c r="W310">
-        <v>0.909</v>
-      </c>
-      <c r="X310">
-        <v>-1</v>
-      </c>
-      <c r="Y310">
-        <v>-1</v>
-      </c>
-      <c r="Z310">
+      <c r="AB310">
+        <v>-1</v>
+      </c>
+      <c r="AC310">
         <v>0.95</v>
-      </c>
-      <c r="AA310">
-        <v>-1</v>
-      </c>
-      <c r="AB310">
-        <v>-1</v>
-      </c>
-      <c r="AC310">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -29565,7 +29565,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>5125021</v>
+        <v>5125022</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29577,76 +29577,76 @@
         <v>44740.58333333334</v>
       </c>
       <c r="F327" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G327" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I327">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J327" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K327">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="L327">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M327">
+        <v>5.25</v>
+      </c>
+      <c r="N327">
+        <v>1.65</v>
+      </c>
+      <c r="O327">
+        <v>3.6</v>
+      </c>
+      <c r="P327">
         <v>4.75</v>
       </c>
-      <c r="N327">
-        <v>1.45</v>
-      </c>
-      <c r="O327">
-        <v>4.1</v>
-      </c>
-      <c r="P327">
-        <v>5.5</v>
-      </c>
       <c r="Q327">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R327">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S327">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T327">
         <v>2.5</v>
       </c>
       <c r="U327">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V327">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W327">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X327">
         <v>-1</v>
       </c>
       <c r="Y327">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z327">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA327">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB327">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC327">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29743,7 +29743,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>5125022</v>
+        <v>5125021</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29755,76 +29755,76 @@
         <v>44740.58333333334</v>
       </c>
       <c r="F329" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G329" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J329" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K329">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="L329">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M329">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N329">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O329">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="P329">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q329">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R329">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S329">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T329">
         <v>2.5</v>
       </c>
       <c r="U329">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V329">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W329">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X329">
         <v>-1</v>
       </c>
       <c r="Y329">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z329">
+        <v>-1</v>
+      </c>
+      <c r="AA329">
+        <v>0.875</v>
+      </c>
+      <c r="AB329">
         <v>0.825</v>
       </c>
-      <c r="AA329">
-        <v>-1</v>
-      </c>
-      <c r="AB329">
-        <v>-1</v>
-      </c>
       <c r="AC329">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29832,7 +29832,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>4587974</v>
+        <v>4587836</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29844,55 +29844,55 @@
         <v>44744.41666666666</v>
       </c>
       <c r="F330" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G330" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H330">
         <v>0</v>
       </c>
       <c r="I330">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J330" t="s">
         <v>54</v>
       </c>
       <c r="K330">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L330">
         <v>3.5</v>
       </c>
       <c r="M330">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N330">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O330">
+        <v>3.5</v>
+      </c>
+      <c r="P330">
         <v>3.4</v>
       </c>
-      <c r="P330">
-        <v>2.2</v>
-      </c>
       <c r="Q330">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R330">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S330">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T330">
         <v>2.5</v>
       </c>
       <c r="U330">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V330">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W330">
         <v>-1</v>
@@ -29901,19 +29901,19 @@
         <v>-1</v>
       </c>
       <c r="Y330">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="Z330">
         <v>-1</v>
       </c>
       <c r="AA330">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB330">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC330">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29921,7 +29921,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>4587836</v>
+        <v>4587974</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29933,55 +29933,55 @@
         <v>44744.41666666666</v>
       </c>
       <c r="F331" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G331" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H331">
         <v>0</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J331" t="s">
         <v>54</v>
       </c>
       <c r="K331">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L331">
         <v>3.5</v>
       </c>
       <c r="M331">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N331">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O331">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P331">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q331">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R331">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S331">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T331">
         <v>2.5</v>
       </c>
       <c r="U331">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V331">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W331">
         <v>-1</v>
@@ -29990,19 +29990,19 @@
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB331">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC331">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30366,7 +30366,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>4587838</v>
+        <v>4591717</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30378,13 +30378,13 @@
         <v>44747.58333333334</v>
       </c>
       <c r="F336" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G336" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H336">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336">
         <v>0</v>
@@ -30393,43 +30393,43 @@
         <v>53</v>
       </c>
       <c r="K336">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="L336">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M336">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="N336">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O336">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P336">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q336">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R336">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S336">
+        <v>1.825</v>
+      </c>
+      <c r="T336">
+        <v>2.5</v>
+      </c>
+      <c r="U336">
+        <v>2</v>
+      </c>
+      <c r="V336">
         <v>1.85</v>
       </c>
-      <c r="T336">
-        <v>2.75</v>
-      </c>
-      <c r="U336">
-        <v>1.975</v>
-      </c>
-      <c r="V336">
-        <v>1.875</v>
-      </c>
       <c r="W336">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X336">
         <v>-1</v>
@@ -30438,16 +30438,16 @@
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA336">
         <v>-1</v>
       </c>
       <c r="AB336">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC336">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30455,7 +30455,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>4591717</v>
+        <v>4587838</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30467,13 +30467,13 @@
         <v>44747.58333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G337" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I337">
         <v>0</v>
@@ -30482,61 +30482,61 @@
         <v>53</v>
       </c>
       <c r="K337">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="L337">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M337">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="N337">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O337">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P337">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q337">
+        <v>-1.25</v>
+      </c>
+      <c r="R337">
+        <v>2</v>
+      </c>
+      <c r="S337">
+        <v>1.85</v>
+      </c>
+      <c r="T337">
+        <v>2.75</v>
+      </c>
+      <c r="U337">
+        <v>1.975</v>
+      </c>
+      <c r="V337">
+        <v>1.875</v>
+      </c>
+      <c r="W337">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X337">
+        <v>-1</v>
+      </c>
+      <c r="Y337">
+        <v>-1</v>
+      </c>
+      <c r="Z337">
+        <v>1</v>
+      </c>
+      <c r="AA337">
+        <v>-1</v>
+      </c>
+      <c r="AB337">
+        <v>0.4875</v>
+      </c>
+      <c r="AC337">
         <v>-0.5</v>
-      </c>
-      <c r="R337">
-        <v>2.025</v>
-      </c>
-      <c r="S337">
-        <v>1.825</v>
-      </c>
-      <c r="T337">
-        <v>2.5</v>
-      </c>
-      <c r="U337">
-        <v>2</v>
-      </c>
-      <c r="V337">
-        <v>1.85</v>
-      </c>
-      <c r="W337">
-        <v>1</v>
-      </c>
-      <c r="X337">
-        <v>-1</v>
-      </c>
-      <c r="Y337">
-        <v>-1</v>
-      </c>
-      <c r="Z337">
-        <v>1.025</v>
-      </c>
-      <c r="AA337">
-        <v>-1</v>
-      </c>
-      <c r="AB337">
-        <v>-1</v>
-      </c>
-      <c r="AC337">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -32502,7 +32502,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>4587938</v>
+        <v>4587847</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32514,61 +32514,61 @@
         <v>44768.58333333334</v>
       </c>
       <c r="F360" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G360" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H360">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J360" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K360">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L360">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M360">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N360">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="O360">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P360">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q360">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R360">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S360">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T360">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U360">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V360">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W360">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X360">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y360">
         <v>-1</v>
@@ -32580,10 +32580,10 @@
         <v>-0</v>
       </c>
       <c r="AB360">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC360">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32591,7 +32591,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>4587847</v>
+        <v>4587938</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32603,61 +32603,61 @@
         <v>44768.58333333334</v>
       </c>
       <c r="F361" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G361" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J361" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K361">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L361">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M361">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N361">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="O361">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P361">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q361">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R361">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S361">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T361">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U361">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V361">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W361">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X361">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y361">
         <v>-1</v>
@@ -32669,10 +32669,10 @@
         <v>-0</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC361">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -33214,7 +33214,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>4587851</v>
+        <v>4587854</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33226,76 +33226,76 @@
         <v>44773.41666666666</v>
       </c>
       <c r="F368" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G368" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J368" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K368">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L368">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M368">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N368">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O368">
         <v>3.5</v>
       </c>
       <c r="P368">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q368">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R368">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S368">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T368">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U368">
+        <v>2.025</v>
+      </c>
+      <c r="V368">
         <v>1.825</v>
       </c>
-      <c r="V368">
-        <v>2.025</v>
-      </c>
       <c r="W368">
         <v>-1</v>
       </c>
       <c r="X368">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y368">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z368">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA368">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB368">
+        <v>-1</v>
+      </c>
+      <c r="AC368">
         <v>0.825</v>
-      </c>
-      <c r="AC368">
-        <v>-1</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33303,7 +33303,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>4587854</v>
+        <v>4587851</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33315,76 +33315,76 @@
         <v>44773.41666666666</v>
       </c>
       <c r="F369" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G369" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J369" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K369">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L369">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M369">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N369">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O369">
         <v>3.5</v>
       </c>
       <c r="P369">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q369">
+        <v>0.25</v>
+      </c>
+      <c r="R369">
+        <v>1.925</v>
+      </c>
+      <c r="S369">
+        <v>1.925</v>
+      </c>
+      <c r="T369">
+        <v>2.5</v>
+      </c>
+      <c r="U369">
+        <v>1.825</v>
+      </c>
+      <c r="V369">
+        <v>2.025</v>
+      </c>
+      <c r="W369">
+        <v>-1</v>
+      </c>
+      <c r="X369">
+        <v>2.5</v>
+      </c>
+      <c r="Y369">
+        <v>-1</v>
+      </c>
+      <c r="Z369">
+        <v>0.4625</v>
+      </c>
+      <c r="AA369">
         <v>-0.5</v>
       </c>
-      <c r="R369">
-        <v>1.95</v>
-      </c>
-      <c r="S369">
-        <v>1.9</v>
-      </c>
-      <c r="T369">
-        <v>2.75</v>
-      </c>
-      <c r="U369">
-        <v>2.025</v>
-      </c>
-      <c r="V369">
-        <v>1.825</v>
-      </c>
-      <c r="W369">
-        <v>-1</v>
-      </c>
-      <c r="X369">
-        <v>-1</v>
-      </c>
-      <c r="Y369">
-        <v>2.75</v>
-      </c>
-      <c r="Z369">
-        <v>-1</v>
-      </c>
-      <c r="AA369">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB369">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC369">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33481,7 +33481,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>4587940</v>
+        <v>4587858</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33493,76 +33493,76 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F371" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G371" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J371" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K371">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="L371">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M371">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N371">
-        <v>1.45</v>
+        <v>3.25</v>
       </c>
       <c r="O371">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P371">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q371">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R371">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S371">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T371">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U371">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V371">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W371">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X371">
         <v>-1</v>
       </c>
       <c r="Y371">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z371">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA371">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB371">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC371">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33570,7 +33570,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>4587858</v>
+        <v>4587940</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33582,76 +33582,76 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F372" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G372" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372">
         <v>0</v>
       </c>
-      <c r="I372">
+      <c r="J372" t="s">
+        <v>53</v>
+      </c>
+      <c r="K372">
+        <v>1.6</v>
+      </c>
+      <c r="L372">
         <v>4</v>
       </c>
-      <c r="J372" t="s">
-        <v>54</v>
-      </c>
-      <c r="K372">
-        <v>3.25</v>
-      </c>
-      <c r="L372">
-        <v>3.4</v>
-      </c>
       <c r="M372">
+        <v>4.75</v>
+      </c>
+      <c r="N372">
+        <v>1.45</v>
+      </c>
+      <c r="O372">
+        <v>4.333</v>
+      </c>
+      <c r="P372">
+        <v>5.75</v>
+      </c>
+      <c r="Q372">
+        <v>-1.25</v>
+      </c>
+      <c r="R372">
         <v>2.05</v>
       </c>
-      <c r="N372">
-        <v>3.25</v>
-      </c>
-      <c r="O372">
-        <v>3.4</v>
-      </c>
-      <c r="P372">
-        <v>2.05</v>
-      </c>
-      <c r="Q372">
-        <v>0.25</v>
-      </c>
-      <c r="R372">
-        <v>2.025</v>
-      </c>
       <c r="S372">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T372">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U372">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V372">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W372">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA372">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB372">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC372">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33659,7 +33659,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4591712</v>
+        <v>4587993</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33671,10 +33671,10 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F373" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G373" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H373">
         <v>2</v>
@@ -33686,44 +33686,44 @@
         <v>53</v>
       </c>
       <c r="K373">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L373">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M373">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N373">
+        <v>2.75</v>
+      </c>
+      <c r="O373">
+        <v>3.5</v>
+      </c>
+      <c r="P373">
+        <v>2.3</v>
+      </c>
+      <c r="Q373">
+        <v>0.25</v>
+      </c>
+      <c r="R373">
+        <v>1.8</v>
+      </c>
+      <c r="S373">
+        <v>2.05</v>
+      </c>
+      <c r="T373">
+        <v>2.5</v>
+      </c>
+      <c r="U373">
+        <v>1.825</v>
+      </c>
+      <c r="V373">
+        <v>2.025</v>
+      </c>
+      <c r="W373">
         <v>1.75</v>
       </c>
-      <c r="O373">
-        <v>3.75</v>
-      </c>
-      <c r="P373">
-        <v>3.8</v>
-      </c>
-      <c r="Q373">
-        <v>-0.75</v>
-      </c>
-      <c r="R373">
-        <v>2</v>
-      </c>
-      <c r="S373">
-        <v>1.85</v>
-      </c>
-      <c r="T373">
-        <v>3</v>
-      </c>
-      <c r="U373">
-        <v>1.975</v>
-      </c>
-      <c r="V373">
-        <v>1.875</v>
-      </c>
-      <c r="W373">
-        <v>0.75</v>
-      </c>
       <c r="X373">
         <v>-1</v>
       </c>
@@ -33731,16 +33731,16 @@
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA373">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB373">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC373">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33748,7 +33748,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>4587993</v>
+        <v>4591712</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33760,10 +33760,10 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F374" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G374" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H374">
         <v>2</v>
@@ -33775,43 +33775,43 @@
         <v>53</v>
       </c>
       <c r="K374">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L374">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M374">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N374">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="O374">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P374">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q374">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R374">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S374">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T374">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U374">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V374">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W374">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="X374">
         <v>-1</v>
@@ -33820,16 +33820,16 @@
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AA374">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB374">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC374">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -35884,7 +35884,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>4587945</v>
+        <v>4587869</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35896,76 +35896,76 @@
         <v>44794.41666666666</v>
       </c>
       <c r="F398" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G398" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I398">
+        <v>1</v>
+      </c>
+      <c r="J398" t="s">
+        <v>55</v>
+      </c>
+      <c r="K398">
+        <v>1.55</v>
+      </c>
+      <c r="L398">
+        <v>4.2</v>
+      </c>
+      <c r="M398">
+        <v>5.5</v>
+      </c>
+      <c r="N398">
+        <v>1.444</v>
+      </c>
+      <c r="O398">
+        <v>4.5</v>
+      </c>
+      <c r="P398">
+        <v>6.5</v>
+      </c>
+      <c r="Q398">
+        <v>-1.25</v>
+      </c>
+      <c r="R398">
+        <v>1.975</v>
+      </c>
+      <c r="S398">
+        <v>1.875</v>
+      </c>
+      <c r="T398">
         <v>3</v>
       </c>
-      <c r="J398" t="s">
-        <v>54</v>
-      </c>
-      <c r="K398">
-        <v>2.7</v>
-      </c>
-      <c r="L398">
-        <v>3.4</v>
-      </c>
-      <c r="M398">
-        <v>2.45</v>
-      </c>
-      <c r="N398">
-        <v>3</v>
-      </c>
-      <c r="O398">
+      <c r="U398">
+        <v>2.025</v>
+      </c>
+      <c r="V398">
+        <v>1.825</v>
+      </c>
+      <c r="W398">
+        <v>-1</v>
+      </c>
+      <c r="X398">
         <v>3.5</v>
       </c>
-      <c r="P398">
-        <v>2.2</v>
-      </c>
-      <c r="Q398">
-        <v>0.25</v>
-      </c>
-      <c r="R398">
-        <v>1.875</v>
-      </c>
-      <c r="S398">
-        <v>1.975</v>
-      </c>
-      <c r="T398">
-        <v>2.5</v>
-      </c>
-      <c r="U398">
-        <v>1.9</v>
-      </c>
-      <c r="V398">
-        <v>1.95</v>
-      </c>
-      <c r="W398">
-        <v>-1</v>
-      </c>
-      <c r="X398">
-        <v>-1</v>
-      </c>
       <c r="Y398">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z398">
         <v>-1</v>
       </c>
       <c r="AA398">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB398">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC398">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -35973,7 +35973,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>4587869</v>
+        <v>4587945</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35985,76 +35985,76 @@
         <v>44794.41666666666</v>
       </c>
       <c r="F399" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G399" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J399" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K399">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="L399">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M399">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N399">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O399">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P399">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q399">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R399">
+        <v>1.875</v>
+      </c>
+      <c r="S399">
         <v>1.975</v>
       </c>
-      <c r="S399">
-        <v>1.875</v>
-      </c>
       <c r="T399">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U399">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V399">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W399">
         <v>-1</v>
       </c>
       <c r="X399">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y399">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z399">
         <v>-1</v>
       </c>
       <c r="AA399">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB399">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC399">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -37486,7 +37486,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>4587950</v>
+        <v>4587876</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37498,76 +37498,76 @@
         <v>44810.58333333334</v>
       </c>
       <c r="F416" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G416" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416">
         <v>1</v>
       </c>
       <c r="J416" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K416">
+        <v>1.7</v>
+      </c>
+      <c r="L416">
         <v>3.8</v>
       </c>
-      <c r="L416">
-        <v>3.5</v>
-      </c>
       <c r="M416">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N416">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="O416">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P416">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q416">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R416">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S416">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T416">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U416">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V416">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W416">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X416">
         <v>-1</v>
       </c>
       <c r="Y416">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z416">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA416">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB416">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC416">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -37575,7 +37575,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>4587876</v>
+        <v>4587950</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37587,76 +37587,76 @@
         <v>44810.58333333334</v>
       </c>
       <c r="F417" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G417" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417">
         <v>1</v>
       </c>
       <c r="J417" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K417">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="L417">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M417">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N417">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O417">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P417">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q417">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R417">
+        <v>2.05</v>
+      </c>
+      <c r="S417">
+        <v>1.8</v>
+      </c>
+      <c r="T417">
+        <v>2.25</v>
+      </c>
+      <c r="U417">
         <v>1.875</v>
       </c>
-      <c r="S417">
+      <c r="V417">
         <v>1.975</v>
       </c>
-      <c r="T417">
-        <v>3.25</v>
-      </c>
-      <c r="U417">
-        <v>1.925</v>
-      </c>
-      <c r="V417">
-        <v>1.925</v>
-      </c>
       <c r="W417">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X417">
         <v>-1</v>
       </c>
       <c r="Y417">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z417">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA417">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB417">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC417">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418" spans="1:29">
@@ -38198,7 +38198,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>4587880</v>
+        <v>4587952</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,73 +38210,73 @@
         <v>44817.58333333334</v>
       </c>
       <c r="F424" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G424" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H424">
+        <v>2</v>
+      </c>
+      <c r="I424">
         <v>3</v>
       </c>
-      <c r="I424">
-        <v>0</v>
-      </c>
       <c r="J424" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K424">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L424">
         <v>3.5</v>
       </c>
       <c r="M424">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N424">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O424">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P424">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q424">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R424">
         <v>2.05</v>
       </c>
       <c r="S424">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T424">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U424">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V424">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W424">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X424">
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z424">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA424">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB424">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC424">
         <v>-1</v>
@@ -38287,7 +38287,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>4587952</v>
+        <v>4587880</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38299,73 +38299,73 @@
         <v>44817.58333333334</v>
       </c>
       <c r="F425" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G425" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425" t="s">
+        <v>53</v>
+      </c>
+      <c r="K425">
         <v>3</v>
-      </c>
-      <c r="J425" t="s">
-        <v>54</v>
-      </c>
-      <c r="K425">
-        <v>2.45</v>
       </c>
       <c r="L425">
         <v>3.5</v>
       </c>
       <c r="M425">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N425">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O425">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P425">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q425">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R425">
         <v>2.05</v>
       </c>
       <c r="S425">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T425">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U425">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V425">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W425">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X425">
         <v>-1</v>
       </c>
       <c r="Y425">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z425">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA425">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB425">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC425">
         <v>-1</v>
@@ -40868,7 +40868,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>4587896</v>
+        <v>4591702</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40880,40 +40880,40 @@
         <v>44851.58333333334</v>
       </c>
       <c r="F454" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G454" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H454">
+        <v>2</v>
+      </c>
+      <c r="I454">
         <v>1</v>
-      </c>
-      <c r="I454">
-        <v>0</v>
       </c>
       <c r="J454" t="s">
         <v>53</v>
       </c>
       <c r="K454">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L454">
+        <v>3.4</v>
+      </c>
+      <c r="M454">
+        <v>3.3</v>
+      </c>
+      <c r="N454">
+        <v>2.15</v>
+      </c>
+      <c r="O454">
         <v>3.5</v>
       </c>
-      <c r="M454">
-        <v>2.7</v>
-      </c>
-      <c r="N454">
-        <v>2.45</v>
-      </c>
-      <c r="O454">
-        <v>3.6</v>
-      </c>
       <c r="P454">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q454">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R454">
         <v>1.925</v>
@@ -40925,13 +40925,13 @@
         <v>3</v>
       </c>
       <c r="U454">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V454">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W454">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="X454">
         <v>-1</v>
@@ -40946,10 +40946,10 @@
         <v>-1</v>
       </c>
       <c r="AB454">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC454">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -40957,7 +40957,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>4591702</v>
+        <v>4587897</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40969,10 +40969,10 @@
         <v>44851.58333333334</v>
       </c>
       <c r="F455" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G455" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H455">
         <v>2</v>
@@ -40984,43 +40984,43 @@
         <v>53</v>
       </c>
       <c r="K455">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="L455">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M455">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="N455">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="O455">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P455">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q455">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R455">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S455">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T455">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U455">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V455">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W455">
-        <v>1.15</v>
+        <v>2.6</v>
       </c>
       <c r="X455">
         <v>-1</v>
@@ -41029,16 +41029,16 @@
         <v>-1</v>
       </c>
       <c r="Z455">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA455">
         <v>-1</v>
       </c>
       <c r="AB455">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC455">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -41046,7 +41046,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>4587897</v>
+        <v>4587896</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41058,49 +41058,49 @@
         <v>44851.58333333334</v>
       </c>
       <c r="F456" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G456" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J456" t="s">
         <v>53</v>
       </c>
       <c r="K456">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="L456">
         <v>3.5</v>
       </c>
       <c r="M456">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="N456">
+        <v>2.45</v>
+      </c>
+      <c r="O456">
         <v>3.6</v>
       </c>
-      <c r="O456">
-        <v>3.8</v>
-      </c>
       <c r="P456">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="Q456">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R456">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S456">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T456">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U456">
         <v>1.95</v>
@@ -41109,7 +41109,7 @@
         <v>1.9</v>
       </c>
       <c r="W456">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="X456">
         <v>-1</v>
@@ -41118,16 +41118,16 @@
         <v>-1</v>
       </c>
       <c r="Z456">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA456">
         <v>-1</v>
       </c>
       <c r="AB456">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC456">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="457" spans="1:29">
@@ -42292,7 +42292,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>4587987</v>
+        <v>4587903</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42304,76 +42304,76 @@
         <v>44863.41666666666</v>
       </c>
       <c r="F470" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G470" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H470">
+        <v>2</v>
+      </c>
+      <c r="I470">
+        <v>0</v>
+      </c>
+      <c r="J470" t="s">
+        <v>53</v>
+      </c>
+      <c r="K470">
+        <v>3.9</v>
+      </c>
+      <c r="L470">
+        <v>3.4</v>
+      </c>
+      <c r="M470">
+        <v>1.85</v>
+      </c>
+      <c r="N470">
+        <v>4.2</v>
+      </c>
+      <c r="O470">
+        <v>3.6</v>
+      </c>
+      <c r="P470">
+        <v>1.727</v>
+      </c>
+      <c r="Q470">
+        <v>0.5</v>
+      </c>
+      <c r="R470">
+        <v>1.975</v>
+      </c>
+      <c r="S470">
+        <v>1.875</v>
+      </c>
+      <c r="T470">
         <v>3</v>
       </c>
-      <c r="I470">
-        <v>3</v>
-      </c>
-      <c r="J470" t="s">
-        <v>55</v>
-      </c>
-      <c r="K470">
-        <v>1.75</v>
-      </c>
-      <c r="L470">
-        <v>3.5</v>
-      </c>
-      <c r="M470">
-        <v>4.2</v>
-      </c>
-      <c r="N470">
-        <v>2</v>
-      </c>
-      <c r="O470">
-        <v>3.3</v>
-      </c>
-      <c r="P470">
-        <v>3.4</v>
-      </c>
-      <c r="Q470">
-        <v>-0.25</v>
-      </c>
-      <c r="R470">
-        <v>1.8</v>
-      </c>
-      <c r="S470">
-        <v>2.05</v>
-      </c>
-      <c r="T470">
-        <v>2.5</v>
-      </c>
       <c r="U470">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V470">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W470">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X470">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y470">
         <v>-1</v>
       </c>
       <c r="Z470">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA470">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB470">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC470">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="471" spans="1:29">
@@ -42381,7 +42381,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>4587903</v>
+        <v>4587987</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42393,76 +42393,76 @@
         <v>44863.41666666666</v>
       </c>
       <c r="F471" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G471" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I471">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J471" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K471">
-        <v>3.9</v>
+        <v>1.75</v>
       </c>
       <c r="L471">
+        <v>3.5</v>
+      </c>
+      <c r="M471">
+        <v>4.2</v>
+      </c>
+      <c r="N471">
+        <v>2</v>
+      </c>
+      <c r="O471">
+        <v>3.3</v>
+      </c>
+      <c r="P471">
         <v>3.4</v>
       </c>
-      <c r="M471">
-        <v>1.85</v>
-      </c>
-      <c r="N471">
-        <v>4.2</v>
-      </c>
-      <c r="O471">
-        <v>3.6</v>
-      </c>
-      <c r="P471">
-        <v>1.727</v>
-      </c>
       <c r="Q471">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R471">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S471">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T471">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U471">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V471">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W471">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X471">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y471">
         <v>-1</v>
       </c>
       <c r="Z471">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA471">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB471">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC471">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="472" spans="1:29">
@@ -49323,7 +49323,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>5992111</v>
+        <v>5992108</v>
       </c>
       <c r="C549" t="s">
         <v>28</v>
@@ -49335,76 +49335,76 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F549" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G549" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I549">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J549" t="s">
         <v>53</v>
       </c>
       <c r="K549">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="L549">
         <v>3.5</v>
       </c>
       <c r="M549">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N549">
+        <v>2.75</v>
+      </c>
+      <c r="O549">
+        <v>3.4</v>
+      </c>
+      <c r="P549">
+        <v>2.3</v>
+      </c>
+      <c r="Q549">
+        <v>0.25</v>
+      </c>
+      <c r="R549">
         <v>1.8</v>
       </c>
-      <c r="O549">
-        <v>3.8</v>
-      </c>
-      <c r="P549">
-        <v>3.8</v>
-      </c>
-      <c r="Q549">
-        <v>-0.5</v>
-      </c>
-      <c r="R549">
-        <v>1.825</v>
-      </c>
       <c r="S549">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T549">
         <v>2.75</v>
       </c>
       <c r="U549">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V549">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W549">
+        <v>1.75</v>
+      </c>
+      <c r="X549">
+        <v>-1</v>
+      </c>
+      <c r="Y549">
+        <v>-1</v>
+      </c>
+      <c r="Z549">
         <v>0.8</v>
       </c>
-      <c r="X549">
-        <v>-1</v>
-      </c>
-      <c r="Y549">
-        <v>-1</v>
-      </c>
-      <c r="Z549">
-        <v>0.825</v>
-      </c>
       <c r="AA549">
         <v>-1</v>
       </c>
       <c r="AB549">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC549">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550" spans="1:29">
@@ -49412,7 +49412,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>5992108</v>
+        <v>5992111</v>
       </c>
       <c r="C550" t="s">
         <v>28</v>
@@ -49424,58 +49424,58 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F550" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G550" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H550">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I550">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J550" t="s">
         <v>53</v>
       </c>
       <c r="K550">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="L550">
         <v>3.5</v>
       </c>
       <c r="M550">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N550">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O550">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P550">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q550">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R550">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S550">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T550">
         <v>2.75</v>
       </c>
       <c r="U550">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V550">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W550">
-        <v>1.75</v>
+        <v>0.8</v>
       </c>
       <c r="X550">
         <v>-1</v>
@@ -49484,16 +49484,16 @@
         <v>-1</v>
       </c>
       <c r="Z550">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA550">
         <v>-1</v>
       </c>
       <c r="AB550">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC550">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="551" spans="1:29">
@@ -50302,7 +50302,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>5992113</v>
+        <v>5992116</v>
       </c>
       <c r="C560" t="s">
         <v>28</v>
@@ -50314,10 +50314,10 @@
         <v>45078.58333333334</v>
       </c>
       <c r="F560" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G560" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H560">
         <v>0</v>
@@ -50329,46 +50329,46 @@
         <v>55</v>
       </c>
       <c r="K560">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L560">
+        <v>3.4</v>
+      </c>
+      <c r="M560">
         <v>4</v>
       </c>
-      <c r="M560">
-        <v>5.25</v>
-      </c>
       <c r="N560">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O560">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P560">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q560">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R560">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S560">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T560">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U560">
+        <v>2</v>
+      </c>
+      <c r="V560">
         <v>1.85</v>
       </c>
-      <c r="V560">
-        <v>2</v>
-      </c>
       <c r="W560">
         <v>-1</v>
       </c>
       <c r="X560">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y560">
         <v>-1</v>
@@ -50377,13 +50377,13 @@
         <v>-1</v>
       </c>
       <c r="AA560">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB560">
         <v>-1</v>
       </c>
       <c r="AC560">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="561" spans="1:29">
@@ -50391,7 +50391,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>5992116</v>
+        <v>5992113</v>
       </c>
       <c r="C561" t="s">
         <v>28</v>
@@ -50403,10 +50403,10 @@
         <v>45078.58333333334</v>
       </c>
       <c r="F561" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G561" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H561">
         <v>0</v>
@@ -50418,46 +50418,46 @@
         <v>55</v>
       </c>
       <c r="K561">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L561">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M561">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="N561">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O561">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P561">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q561">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R561">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S561">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T561">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U561">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V561">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W561">
         <v>-1</v>
       </c>
       <c r="X561">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y561">
         <v>-1</v>
@@ -50466,13 +50466,13 @@
         <v>-1</v>
       </c>
       <c r="AA561">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB561">
         <v>-1</v>
       </c>
       <c r="AC561">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:29">
@@ -51192,7 +51192,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>5993416</v>
+        <v>5992129</v>
       </c>
       <c r="C570" t="s">
         <v>28</v>
@@ -51204,58 +51204,58 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F570" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G570" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H570">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I570">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J570" t="s">
         <v>53</v>
       </c>
       <c r="K570">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L570">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M570">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N570">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="O570">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P570">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q570">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R570">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S570">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T570">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U570">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V570">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W570">
-        <v>4.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X570">
         <v>-1</v>
@@ -51264,13 +51264,13 @@
         <v>-1</v>
       </c>
       <c r="Z570">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA570">
         <v>-1</v>
       </c>
       <c r="AB570">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC570">
         <v>-1</v>
@@ -51281,7 +51281,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>5992129</v>
+        <v>5993416</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51293,58 +51293,58 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F571" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G571" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H571">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I571">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J571" t="s">
         <v>53</v>
       </c>
       <c r="K571">
+        <v>4.75</v>
+      </c>
+      <c r="L571">
+        <v>3.5</v>
+      </c>
+      <c r="M571">
+        <v>1.615</v>
+      </c>
+      <c r="N571">
+        <v>5.25</v>
+      </c>
+      <c r="O571">
+        <v>3.75</v>
+      </c>
+      <c r="P571">
         <v>1.5</v>
       </c>
-      <c r="L571">
-        <v>4</v>
-      </c>
-      <c r="M571">
-        <v>5</v>
-      </c>
-      <c r="N571">
-        <v>1.4</v>
-      </c>
-      <c r="O571">
-        <v>4.333</v>
-      </c>
-      <c r="P571">
-        <v>5.75</v>
-      </c>
       <c r="Q571">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R571">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S571">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T571">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U571">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V571">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W571">
-        <v>0.3999999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="X571">
         <v>-1</v>
@@ -51353,13 +51353,13 @@
         <v>-1</v>
       </c>
       <c r="Z571">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA571">
         <v>-1</v>
       </c>
       <c r="AB571">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC571">
         <v>-1</v>
@@ -52794,7 +52794,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>5992143</v>
+        <v>5992144</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52806,19 +52806,19 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F588" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G588" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H588">
         <v>1</v>
       </c>
       <c r="I588">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J588" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K588">
         <v>1.909</v>
@@ -52830,52 +52830,52 @@
         <v>3.6</v>
       </c>
       <c r="N588">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O588">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P588">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q588">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R588">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S588">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T588">
         <v>2.75</v>
       </c>
       <c r="U588">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V588">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W588">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X588">
         <v>-1</v>
       </c>
       <c r="Y588">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z588">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA588">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB588">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC588">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52883,7 +52883,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>5992144</v>
+        <v>5992143</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52895,19 +52895,19 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F589" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G589" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H589">
         <v>1</v>
       </c>
       <c r="I589">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J589" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K589">
         <v>1.909</v>
@@ -52919,52 +52919,52 @@
         <v>3.6</v>
       </c>
       <c r="N589">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O589">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P589">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q589">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R589">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S589">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T589">
         <v>2.75</v>
       </c>
       <c r="U589">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V589">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W589">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X589">
         <v>-1</v>
       </c>
       <c r="Y589">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z589">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA589">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB589">
+        <v>0.5125</v>
+      </c>
+      <c r="AC589">
         <v>-0.5</v>
-      </c>
-      <c r="AB589">
-        <v>-1</v>
-      </c>
-      <c r="AC589">
-        <v>0.925</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -54841,7 +54841,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>5992167</v>
+        <v>5992170</v>
       </c>
       <c r="C611" t="s">
         <v>28</v>
@@ -54853,76 +54853,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F611" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G611" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H611">
+        <v>2</v>
+      </c>
+      <c r="I611">
         <v>0</v>
       </c>
-      <c r="I611">
+      <c r="J611" t="s">
+        <v>53</v>
+      </c>
+      <c r="K611">
+        <v>3</v>
+      </c>
+      <c r="L611">
+        <v>3.4</v>
+      </c>
+      <c r="M611">
+        <v>2.15</v>
+      </c>
+      <c r="N611">
+        <v>3.2</v>
+      </c>
+      <c r="O611">
+        <v>3.4</v>
+      </c>
+      <c r="P611">
+        <v>2.05</v>
+      </c>
+      <c r="Q611">
+        <v>0.25</v>
+      </c>
+      <c r="R611">
+        <v>2</v>
+      </c>
+      <c r="S611">
+        <v>1.85</v>
+      </c>
+      <c r="T611">
+        <v>2.75</v>
+      </c>
+      <c r="U611">
+        <v>2.025</v>
+      </c>
+      <c r="V611">
+        <v>1.825</v>
+      </c>
+      <c r="W611">
+        <v>2.2</v>
+      </c>
+      <c r="X611">
+        <v>-1</v>
+      </c>
+      <c r="Y611">
+        <v>-1</v>
+      </c>
+      <c r="Z611">
         <v>1</v>
       </c>
-      <c r="J611" t="s">
-        <v>54</v>
-      </c>
-      <c r="K611">
-        <v>2.15</v>
-      </c>
-      <c r="L611">
-        <v>3.3</v>
-      </c>
-      <c r="M611">
-        <v>3.1</v>
-      </c>
-      <c r="N611">
-        <v>2.15</v>
-      </c>
-      <c r="O611">
-        <v>3.2</v>
-      </c>
-      <c r="P611">
-        <v>3.2</v>
-      </c>
-      <c r="Q611">
-        <v>-0.25</v>
-      </c>
-      <c r="R611">
-        <v>1.9</v>
-      </c>
-      <c r="S611">
-        <v>1.95</v>
-      </c>
-      <c r="T611">
-        <v>2.25</v>
-      </c>
-      <c r="U611">
-        <v>1.925</v>
-      </c>
-      <c r="V611">
-        <v>1.925</v>
-      </c>
-      <c r="W611">
-        <v>-1</v>
-      </c>
-      <c r="X611">
-        <v>-1</v>
-      </c>
-      <c r="Y611">
-        <v>2.2</v>
-      </c>
-      <c r="Z611">
-        <v>-1</v>
-      </c>
       <c r="AA611">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB611">
         <v>-1</v>
       </c>
       <c r="AC611">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="612" spans="1:29">
@@ -54930,7 +54930,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>5992170</v>
+        <v>5992167</v>
       </c>
       <c r="C612" t="s">
         <v>28</v>
@@ -54942,76 +54942,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F612" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G612" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J612" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K612">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="L612">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M612">
+        <v>3.1</v>
+      </c>
+      <c r="N612">
         <v>2.15</v>
       </c>
-      <c r="N612">
+      <c r="O612">
         <v>3.2</v>
       </c>
-      <c r="O612">
-        <v>3.4</v>
-      </c>
       <c r="P612">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q612">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R612">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S612">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T612">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U612">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V612">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W612">
+        <v>-1</v>
+      </c>
+      <c r="X612">
+        <v>-1</v>
+      </c>
+      <c r="Y612">
         <v>2.2</v>
       </c>
-      <c r="X612">
-        <v>-1</v>
-      </c>
-      <c r="Y612">
-        <v>-1</v>
-      </c>
       <c r="Z612">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA612">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB612">
         <v>-1</v>
       </c>
       <c r="AC612">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="613" spans="1:29">
@@ -63296,7 +63296,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>5992262</v>
+        <v>5992259</v>
       </c>
       <c r="C706" t="s">
         <v>28</v>
@@ -63308,76 +63308,76 @@
         <v>45234.375</v>
       </c>
       <c r="F706" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G706" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I706">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J706" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K706">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L706">
+        <v>3.6</v>
+      </c>
+      <c r="M706">
+        <v>3.4</v>
+      </c>
+      <c r="N706">
+        <v>2</v>
+      </c>
+      <c r="O706">
         <v>3.75</v>
       </c>
-      <c r="M706">
-        <v>1.571</v>
-      </c>
-      <c r="N706">
-        <v>4.5</v>
-      </c>
-      <c r="O706">
-        <v>3.5</v>
-      </c>
       <c r="P706">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q706">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R706">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S706">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T706">
         <v>2.75</v>
       </c>
       <c r="U706">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V706">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W706">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X706">
         <v>-1</v>
       </c>
       <c r="Y706">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z706">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA706">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB706">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC706">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="707" spans="1:29">
@@ -63385,7 +63385,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>5992259</v>
+        <v>5992262</v>
       </c>
       <c r="C707" t="s">
         <v>28</v>
@@ -63397,76 +63397,76 @@
         <v>45234.375</v>
       </c>
       <c r="F707" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G707" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I707">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J707" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K707">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="L707">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M707">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="N707">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O707">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P707">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q707">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R707">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S707">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T707">
         <v>2.75</v>
       </c>
       <c r="U707">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V707">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W707">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X707">
         <v>-1</v>
       </c>
       <c r="Y707">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z707">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA707">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB707">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC707">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="708" spans="1:29">

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -27963,7 +27963,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>4587827</v>
+        <v>4591720</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27975,13 +27975,13 @@
         <v>44704.58333333334</v>
       </c>
       <c r="F309" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G309" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -27990,61 +27990,61 @@
         <v>53</v>
       </c>
       <c r="K309">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="L309">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M309">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N309">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O309">
         <v>4</v>
       </c>
       <c r="P309">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q309">
+        <v>-0.75</v>
+      </c>
+      <c r="R309">
+        <v>2.025</v>
+      </c>
+      <c r="S309">
+        <v>1.825</v>
+      </c>
+      <c r="T309">
+        <v>3.25</v>
+      </c>
+      <c r="U309">
+        <v>1.9</v>
+      </c>
+      <c r="V309">
+        <v>1.95</v>
+      </c>
+      <c r="W309">
+        <v>0.8</v>
+      </c>
+      <c r="X309">
+        <v>-1</v>
+      </c>
+      <c r="Y309">
+        <v>-1</v>
+      </c>
+      <c r="Z309">
+        <v>0.5125</v>
+      </c>
+      <c r="AA309">
         <v>-0.5</v>
       </c>
-      <c r="R309">
-        <v>1.95</v>
-      </c>
-      <c r="S309">
-        <v>1.9</v>
-      </c>
-      <c r="T309">
-        <v>2.75</v>
-      </c>
-      <c r="U309">
-        <v>2</v>
-      </c>
-      <c r="V309">
-        <v>1.85</v>
-      </c>
-      <c r="W309">
-        <v>0.909</v>
-      </c>
-      <c r="X309">
-        <v>-1</v>
-      </c>
-      <c r="Y309">
-        <v>-1</v>
-      </c>
-      <c r="Z309">
+      <c r="AB309">
+        <v>-1</v>
+      </c>
+      <c r="AC309">
         <v>0.95</v>
-      </c>
-      <c r="AA309">
-        <v>-1</v>
-      </c>
-      <c r="AB309">
-        <v>-1</v>
-      </c>
-      <c r="AC309">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28052,7 +28052,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>4591720</v>
+        <v>4587827</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28064,13 +28064,13 @@
         <v>44704.58333333334</v>
       </c>
       <c r="F310" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G310" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310">
         <v>0</v>
@@ -28079,43 +28079,43 @@
         <v>53</v>
       </c>
       <c r="K310">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="L310">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M310">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N310">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O310">
         <v>4</v>
       </c>
       <c r="P310">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q310">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R310">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S310">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T310">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U310">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V310">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W310">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X310">
         <v>-1</v>
@@ -28124,16 +28124,16 @@
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA310">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB310">
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -29832,7 +29832,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>4587836</v>
+        <v>4587974</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29844,55 +29844,55 @@
         <v>44744.41666666666</v>
       </c>
       <c r="F330" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G330" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H330">
         <v>0</v>
       </c>
       <c r="I330">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J330" t="s">
         <v>54</v>
       </c>
       <c r="K330">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="L330">
         <v>3.5</v>
       </c>
       <c r="M330">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="N330">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O330">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P330">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q330">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R330">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S330">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T330">
         <v>2.5</v>
       </c>
       <c r="U330">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V330">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W330">
         <v>-1</v>
@@ -29901,19 +29901,19 @@
         <v>-1</v>
       </c>
       <c r="Y330">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="Z330">
         <v>-1</v>
       </c>
       <c r="AA330">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB330">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC330">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29921,7 +29921,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>4587974</v>
+        <v>4587836</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29933,55 +29933,55 @@
         <v>44744.41666666666</v>
       </c>
       <c r="F331" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G331" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H331">
         <v>0</v>
       </c>
       <c r="I331">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J331" t="s">
         <v>54</v>
       </c>
       <c r="K331">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="L331">
         <v>3.5</v>
       </c>
       <c r="M331">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="N331">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O331">
+        <v>3.5</v>
+      </c>
+      <c r="P331">
         <v>3.4</v>
       </c>
-      <c r="P331">
-        <v>2.2</v>
-      </c>
       <c r="Q331">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R331">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S331">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T331">
         <v>2.5</v>
       </c>
       <c r="U331">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V331">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W331">
         <v>-1</v>
@@ -29990,19 +29990,19 @@
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB331">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC331">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30366,7 +30366,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>4591717</v>
+        <v>4587838</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30378,13 +30378,13 @@
         <v>44747.58333333334</v>
       </c>
       <c r="F336" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G336" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I336">
         <v>0</v>
@@ -30393,61 +30393,61 @@
         <v>53</v>
       </c>
       <c r="K336">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="L336">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M336">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="N336">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O336">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P336">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q336">
+        <v>-1.25</v>
+      </c>
+      <c r="R336">
+        <v>2</v>
+      </c>
+      <c r="S336">
+        <v>1.85</v>
+      </c>
+      <c r="T336">
+        <v>2.75</v>
+      </c>
+      <c r="U336">
+        <v>1.975</v>
+      </c>
+      <c r="V336">
+        <v>1.875</v>
+      </c>
+      <c r="W336">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X336">
+        <v>-1</v>
+      </c>
+      <c r="Y336">
+        <v>-1</v>
+      </c>
+      <c r="Z336">
+        <v>1</v>
+      </c>
+      <c r="AA336">
+        <v>-1</v>
+      </c>
+      <c r="AB336">
+        <v>0.4875</v>
+      </c>
+      <c r="AC336">
         <v>-0.5</v>
-      </c>
-      <c r="R336">
-        <v>2.025</v>
-      </c>
-      <c r="S336">
-        <v>1.825</v>
-      </c>
-      <c r="T336">
-        <v>2.5</v>
-      </c>
-      <c r="U336">
-        <v>2</v>
-      </c>
-      <c r="V336">
-        <v>1.85</v>
-      </c>
-      <c r="W336">
-        <v>1</v>
-      </c>
-      <c r="X336">
-        <v>-1</v>
-      </c>
-      <c r="Y336">
-        <v>-1</v>
-      </c>
-      <c r="Z336">
-        <v>1.025</v>
-      </c>
-      <c r="AA336">
-        <v>-1</v>
-      </c>
-      <c r="AB336">
-        <v>-1</v>
-      </c>
-      <c r="AC336">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30455,7 +30455,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>4587838</v>
+        <v>4591717</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30467,13 +30467,13 @@
         <v>44747.58333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G337" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H337">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337">
         <v>0</v>
@@ -30482,43 +30482,43 @@
         <v>53</v>
       </c>
       <c r="K337">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="L337">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M337">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="N337">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O337">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P337">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q337">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R337">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S337">
+        <v>1.825</v>
+      </c>
+      <c r="T337">
+        <v>2.5</v>
+      </c>
+      <c r="U337">
+        <v>2</v>
+      </c>
+      <c r="V337">
         <v>1.85</v>
       </c>
-      <c r="T337">
-        <v>2.75</v>
-      </c>
-      <c r="U337">
-        <v>1.975</v>
-      </c>
-      <c r="V337">
-        <v>1.875</v>
-      </c>
       <c r="W337">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X337">
         <v>-1</v>
@@ -30527,16 +30527,16 @@
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA337">
         <v>-1</v>
       </c>
       <c r="AB337">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC337">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -32502,7 +32502,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>4587847</v>
+        <v>4587938</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32514,61 +32514,61 @@
         <v>44768.58333333334</v>
       </c>
       <c r="F360" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G360" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J360" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K360">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L360">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M360">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N360">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="O360">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P360">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q360">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R360">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S360">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T360">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U360">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V360">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W360">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X360">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y360">
         <v>-1</v>
@@ -32580,10 +32580,10 @@
         <v>-0</v>
       </c>
       <c r="AB360">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC360">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32591,7 +32591,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>4587938</v>
+        <v>4587847</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32603,61 +32603,61 @@
         <v>44768.58333333334</v>
       </c>
       <c r="F361" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G361" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H361">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I361">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J361" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K361">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L361">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M361">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N361">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="O361">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P361">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q361">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R361">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S361">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T361">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U361">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V361">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W361">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X361">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y361">
         <v>-1</v>
@@ -32669,10 +32669,10 @@
         <v>-0</v>
       </c>
       <c r="AB361">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC361">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -33214,7 +33214,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>4587854</v>
+        <v>4587851</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33226,76 +33226,76 @@
         <v>44773.41666666666</v>
       </c>
       <c r="F368" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G368" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J368" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K368">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L368">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M368">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N368">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O368">
         <v>3.5</v>
       </c>
       <c r="P368">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q368">
+        <v>0.25</v>
+      </c>
+      <c r="R368">
+        <v>1.925</v>
+      </c>
+      <c r="S368">
+        <v>1.925</v>
+      </c>
+      <c r="T368">
+        <v>2.5</v>
+      </c>
+      <c r="U368">
+        <v>1.825</v>
+      </c>
+      <c r="V368">
+        <v>2.025</v>
+      </c>
+      <c r="W368">
+        <v>-1</v>
+      </c>
+      <c r="X368">
+        <v>2.5</v>
+      </c>
+      <c r="Y368">
+        <v>-1</v>
+      </c>
+      <c r="Z368">
+        <v>0.4625</v>
+      </c>
+      <c r="AA368">
         <v>-0.5</v>
       </c>
-      <c r="R368">
-        <v>1.95</v>
-      </c>
-      <c r="S368">
-        <v>1.9</v>
-      </c>
-      <c r="T368">
-        <v>2.75</v>
-      </c>
-      <c r="U368">
-        <v>2.025</v>
-      </c>
-      <c r="V368">
-        <v>1.825</v>
-      </c>
-      <c r="W368">
-        <v>-1</v>
-      </c>
-      <c r="X368">
-        <v>-1</v>
-      </c>
-      <c r="Y368">
-        <v>2.75</v>
-      </c>
-      <c r="Z368">
-        <v>-1</v>
-      </c>
-      <c r="AA368">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB368">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC368">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33303,7 +33303,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>4587851</v>
+        <v>4587854</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33315,76 +33315,76 @@
         <v>44773.41666666666</v>
       </c>
       <c r="F369" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G369" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J369" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K369">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L369">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M369">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N369">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O369">
         <v>3.5</v>
       </c>
       <c r="P369">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q369">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R369">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S369">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T369">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U369">
+        <v>2.025</v>
+      </c>
+      <c r="V369">
         <v>1.825</v>
       </c>
-      <c r="V369">
-        <v>2.025</v>
-      </c>
       <c r="W369">
         <v>-1</v>
       </c>
       <c r="X369">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y369">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z369">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA369">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB369">
+        <v>-1</v>
+      </c>
+      <c r="AC369">
         <v>0.825</v>
-      </c>
-      <c r="AC369">
-        <v>-1</v>
       </c>
     </row>
     <row r="370" spans="1:29">
@@ -33392,7 +33392,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>4587856</v>
+        <v>4587858</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33404,55 +33404,55 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F370" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G370" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H370">
         <v>0</v>
       </c>
       <c r="I370">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J370" t="s">
         <v>54</v>
       </c>
       <c r="K370">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L370">
         <v>3.4</v>
       </c>
       <c r="M370">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="N370">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O370">
         <v>3.4</v>
       </c>
       <c r="P370">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="Q370">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R370">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S370">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T370">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U370">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V370">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W370">
         <v>-1</v>
@@ -33461,19 +33461,19 @@
         <v>-1</v>
       </c>
       <c r="Y370">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="Z370">
         <v>-1</v>
       </c>
       <c r="AA370">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB370">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC370">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33481,7 +33481,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>4587858</v>
+        <v>4587856</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33493,56 +33493,56 @@
         <v>44776.58333333334</v>
       </c>
       <c r="F371" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G371" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H371">
         <v>0</v>
       </c>
       <c r="I371">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J371" t="s">
         <v>54</v>
       </c>
       <c r="K371">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L371">
         <v>3.4</v>
       </c>
       <c r="M371">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="N371">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O371">
         <v>3.4</v>
       </c>
       <c r="P371">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q371">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R371">
+        <v>1.925</v>
+      </c>
+      <c r="S371">
+        <v>1.925</v>
+      </c>
+      <c r="T371">
+        <v>2.75</v>
+      </c>
+      <c r="U371">
         <v>2.025</v>
       </c>
-      <c r="S371">
+      <c r="V371">
         <v>1.825</v>
       </c>
-      <c r="T371">
-        <v>2.5</v>
-      </c>
-      <c r="U371">
-        <v>1.85</v>
-      </c>
-      <c r="V371">
-        <v>2</v>
-      </c>
       <c r="W371">
         <v>-1</v>
       </c>
@@ -33550,19 +33550,19 @@
         <v>-1</v>
       </c>
       <c r="Y371">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="Z371">
         <v>-1</v>
       </c>
       <c r="AA371">
+        <v>0.925</v>
+      </c>
+      <c r="AB371">
+        <v>-1</v>
+      </c>
+      <c r="AC371">
         <v>0.825</v>
-      </c>
-      <c r="AB371">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC371">
-        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -34282,7 +34282,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>4591711</v>
+        <v>4587979</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34294,16 +34294,16 @@
         <v>44781.58333333334</v>
       </c>
       <c r="F380" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G380" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H380">
         <v>0</v>
       </c>
       <c r="I380">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J380" t="s">
         <v>54</v>
@@ -34318,13 +34318,13 @@
         <v>3.5</v>
       </c>
       <c r="N380">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O380">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P380">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q380">
         <v>-0.5</v>
@@ -34336,13 +34336,13 @@
         <v>1.925</v>
       </c>
       <c r="T380">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U380">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V380">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W380">
         <v>-1</v>
@@ -34351,7 +34351,7 @@
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Z380">
         <v>-1</v>
@@ -34363,7 +34363,7 @@
         <v>-1</v>
       </c>
       <c r="AC380">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34371,7 +34371,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>4587979</v>
+        <v>4591711</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34383,16 +34383,16 @@
         <v>44781.58333333334</v>
       </c>
       <c r="F381" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G381" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H381">
         <v>0</v>
       </c>
       <c r="I381">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J381" t="s">
         <v>54</v>
@@ -34407,13 +34407,13 @@
         <v>3.5</v>
       </c>
       <c r="N381">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O381">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P381">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q381">
         <v>-0.5</v>
@@ -34425,13 +34425,13 @@
         <v>1.925</v>
       </c>
       <c r="T381">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U381">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V381">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W381">
         <v>-1</v>
@@ -34440,7 +34440,7 @@
         <v>-1</v>
       </c>
       <c r="Y381">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Z381">
         <v>-1</v>
@@ -34452,7 +34452,7 @@
         <v>-1</v>
       </c>
       <c r="AC381">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="382" spans="1:29">
@@ -35884,7 +35884,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>4587869</v>
+        <v>4587945</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35896,76 +35896,76 @@
         <v>44794.41666666666</v>
       </c>
       <c r="F398" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G398" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J398" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K398">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="L398">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M398">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N398">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O398">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P398">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q398">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R398">
+        <v>1.875</v>
+      </c>
+      <c r="S398">
         <v>1.975</v>
       </c>
-      <c r="S398">
-        <v>1.875</v>
-      </c>
       <c r="T398">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U398">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V398">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W398">
         <v>-1</v>
       </c>
       <c r="X398">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y398">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z398">
         <v>-1</v>
       </c>
       <c r="AA398">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB398">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC398">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -35973,7 +35973,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>4587945</v>
+        <v>4587869</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35985,76 +35985,76 @@
         <v>44794.41666666666</v>
       </c>
       <c r="F399" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G399" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I399">
+        <v>1</v>
+      </c>
+      <c r="J399" t="s">
+        <v>55</v>
+      </c>
+      <c r="K399">
+        <v>1.55</v>
+      </c>
+      <c r="L399">
+        <v>4.2</v>
+      </c>
+      <c r="M399">
+        <v>5.5</v>
+      </c>
+      <c r="N399">
+        <v>1.444</v>
+      </c>
+      <c r="O399">
+        <v>4.5</v>
+      </c>
+      <c r="P399">
+        <v>6.5</v>
+      </c>
+      <c r="Q399">
+        <v>-1.25</v>
+      </c>
+      <c r="R399">
+        <v>1.975</v>
+      </c>
+      <c r="S399">
+        <v>1.875</v>
+      </c>
+      <c r="T399">
         <v>3</v>
       </c>
-      <c r="J399" t="s">
-        <v>54</v>
-      </c>
-      <c r="K399">
-        <v>2.7</v>
-      </c>
-      <c r="L399">
-        <v>3.4</v>
-      </c>
-      <c r="M399">
-        <v>2.45</v>
-      </c>
-      <c r="N399">
-        <v>3</v>
-      </c>
-      <c r="O399">
+      <c r="U399">
+        <v>2.025</v>
+      </c>
+      <c r="V399">
+        <v>1.825</v>
+      </c>
+      <c r="W399">
+        <v>-1</v>
+      </c>
+      <c r="X399">
         <v>3.5</v>
       </c>
-      <c r="P399">
-        <v>2.2</v>
-      </c>
-      <c r="Q399">
-        <v>0.25</v>
-      </c>
-      <c r="R399">
-        <v>1.875</v>
-      </c>
-      <c r="S399">
-        <v>1.975</v>
-      </c>
-      <c r="T399">
-        <v>2.5</v>
-      </c>
-      <c r="U399">
-        <v>1.9</v>
-      </c>
-      <c r="V399">
-        <v>1.95</v>
-      </c>
-      <c r="W399">
-        <v>-1</v>
-      </c>
-      <c r="X399">
-        <v>-1</v>
-      </c>
       <c r="Y399">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z399">
         <v>-1</v>
       </c>
       <c r="AA399">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB399">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC399">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -37486,7 +37486,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>4587876</v>
+        <v>4587950</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37498,76 +37498,76 @@
         <v>44810.58333333334</v>
       </c>
       <c r="F416" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G416" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416">
         <v>1</v>
       </c>
       <c r="J416" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K416">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="L416">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M416">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N416">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O416">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P416">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q416">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R416">
+        <v>2.05</v>
+      </c>
+      <c r="S416">
+        <v>1.8</v>
+      </c>
+      <c r="T416">
+        <v>2.25</v>
+      </c>
+      <c r="U416">
         <v>1.875</v>
       </c>
-      <c r="S416">
+      <c r="V416">
         <v>1.975</v>
       </c>
-      <c r="T416">
-        <v>3.25</v>
-      </c>
-      <c r="U416">
-        <v>1.925</v>
-      </c>
-      <c r="V416">
-        <v>1.925</v>
-      </c>
       <c r="W416">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X416">
         <v>-1</v>
       </c>
       <c r="Y416">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z416">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA416">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB416">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC416">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -37575,7 +37575,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>4587950</v>
+        <v>4587876</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37587,76 +37587,76 @@
         <v>44810.58333333334</v>
       </c>
       <c r="F417" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G417" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417">
         <v>1</v>
       </c>
       <c r="J417" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K417">
+        <v>1.7</v>
+      </c>
+      <c r="L417">
         <v>3.8</v>
       </c>
-      <c r="L417">
-        <v>3.5</v>
-      </c>
       <c r="M417">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N417">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="O417">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P417">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q417">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R417">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S417">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T417">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U417">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V417">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W417">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X417">
         <v>-1</v>
       </c>
       <c r="Y417">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z417">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA417">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB417">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC417">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="418" spans="1:29">
@@ -38198,7 +38198,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>4587952</v>
+        <v>4587880</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38210,73 +38210,73 @@
         <v>44817.58333333334</v>
       </c>
       <c r="F424" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G424" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424" t="s">
+        <v>53</v>
+      </c>
+      <c r="K424">
         <v>3</v>
-      </c>
-      <c r="J424" t="s">
-        <v>54</v>
-      </c>
-      <c r="K424">
-        <v>2.45</v>
       </c>
       <c r="L424">
         <v>3.5</v>
       </c>
       <c r="M424">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N424">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O424">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P424">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q424">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R424">
         <v>2.05</v>
       </c>
       <c r="S424">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T424">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U424">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V424">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W424">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X424">
         <v>-1</v>
       </c>
       <c r="Y424">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z424">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA424">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB424">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC424">
         <v>-1</v>
@@ -38287,7 +38287,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>4587880</v>
+        <v>4587952</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38299,73 +38299,73 @@
         <v>44817.58333333334</v>
       </c>
       <c r="F425" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G425" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H425">
+        <v>2</v>
+      </c>
+      <c r="I425">
         <v>3</v>
       </c>
-      <c r="I425">
-        <v>0</v>
-      </c>
       <c r="J425" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K425">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L425">
         <v>3.5</v>
       </c>
       <c r="M425">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N425">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O425">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P425">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q425">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R425">
         <v>2.05</v>
       </c>
       <c r="S425">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T425">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U425">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V425">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W425">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X425">
         <v>-1</v>
       </c>
       <c r="Y425">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z425">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA425">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB425">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC425">
         <v>-1</v>
@@ -38910,7 +38910,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>4587883</v>
+        <v>4587885</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -38922,76 +38922,76 @@
         <v>44822.41666666666</v>
       </c>
       <c r="F432" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G432" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H432">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I432">
         <v>2</v>
       </c>
       <c r="J432" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K432">
+        <v>2.25</v>
+      </c>
+      <c r="L432">
+        <v>3.3</v>
+      </c>
+      <c r="M432">
+        <v>2.875</v>
+      </c>
+      <c r="N432">
+        <v>2.3</v>
+      </c>
+      <c r="O432">
+        <v>3.3</v>
+      </c>
+      <c r="P432">
         <v>2.8</v>
       </c>
-      <c r="L432">
-        <v>3.2</v>
-      </c>
-      <c r="M432">
-        <v>2.375</v>
-      </c>
-      <c r="N432">
-        <v>2.55</v>
-      </c>
-      <c r="O432">
-        <v>3</v>
-      </c>
-      <c r="P432">
-        <v>2.7</v>
-      </c>
       <c r="Q432">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R432">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S432">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T432">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U432">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V432">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W432">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X432">
         <v>-1</v>
       </c>
       <c r="Y432">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z432">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA432">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB432">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AC432">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="433" spans="1:29">
@@ -38999,7 +38999,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>4587885</v>
+        <v>4587883</v>
       </c>
       <c r="C433" t="s">
         <v>28</v>
@@ -39011,76 +39011,76 @@
         <v>44822.41666666666</v>
       </c>
       <c r="F433" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G433" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I433">
         <v>2</v>
       </c>
       <c r="J433" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K433">
+        <v>2.8</v>
+      </c>
+      <c r="L433">
+        <v>3.2</v>
+      </c>
+      <c r="M433">
+        <v>2.375</v>
+      </c>
+      <c r="N433">
+        <v>2.55</v>
+      </c>
+      <c r="O433">
+        <v>3</v>
+      </c>
+      <c r="P433">
+        <v>2.7</v>
+      </c>
+      <c r="Q433">
+        <v>0</v>
+      </c>
+      <c r="R433">
+        <v>1.875</v>
+      </c>
+      <c r="S433">
+        <v>1.975</v>
+      </c>
+      <c r="T433">
         <v>2.25</v>
       </c>
-      <c r="L433">
-        <v>3.3</v>
-      </c>
-      <c r="M433">
-        <v>2.875</v>
-      </c>
-      <c r="N433">
-        <v>2.3</v>
-      </c>
-      <c r="O433">
-        <v>3.3</v>
-      </c>
-      <c r="P433">
-        <v>2.8</v>
-      </c>
-      <c r="Q433">
-        <v>-0.25</v>
-      </c>
-      <c r="R433">
-        <v>2.05</v>
-      </c>
-      <c r="S433">
-        <v>1.8</v>
-      </c>
-      <c r="T433">
-        <v>2.75</v>
-      </c>
       <c r="U433">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V433">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W433">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X433">
         <v>-1</v>
       </c>
       <c r="Y433">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z433">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA433">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB433">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AC433">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434" spans="1:29">
@@ -59736,7 +59736,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>5992219</v>
+        <v>5992222</v>
       </c>
       <c r="C666" t="s">
         <v>28</v>
@@ -59748,49 +59748,49 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F666" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G666" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H666">
         <v>1</v>
       </c>
       <c r="I666">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J666" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K666">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="L666">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M666">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="N666">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="O666">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P666">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="Q666">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R666">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S666">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T666">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U666">
         <v>1.9</v>
@@ -59802,22 +59802,22 @@
         <v>-1</v>
       </c>
       <c r="X666">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y666">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z666">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA666">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB666">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC666">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="667" spans="1:29">
@@ -59825,7 +59825,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>5992222</v>
+        <v>5992219</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59837,49 +59837,49 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F667" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G667" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H667">
         <v>1</v>
       </c>
       <c r="I667">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J667" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K667">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="L667">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M667">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="N667">
-        <v>1.444</v>
+        <v>4.75</v>
       </c>
       <c r="O667">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P667">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="Q667">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R667">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S667">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T667">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U667">
         <v>1.9</v>
@@ -59891,22 +59891,22 @@
         <v>-1</v>
       </c>
       <c r="X667">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y667">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z667">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA667">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB667">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC667">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="668" spans="1:29">
@@ -60715,7 +60715,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>5992225</v>
+        <v>5992227</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60727,76 +60727,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F677" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G677" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I677">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J677" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K677">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L677">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M677">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N677">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O677">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P677">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q677">
         <v>-0.5</v>
       </c>
       <c r="R677">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S677">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T677">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U677">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V677">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W677">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X677">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y677">
         <v>-1</v>
       </c>
       <c r="Z677">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA677">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB677">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC677">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -60982,7 +60982,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>5992227</v>
+        <v>5992225</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -60994,76 +60994,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F680" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G680" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I680">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J680" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K680">
+        <v>2.1</v>
+      </c>
+      <c r="L680">
+        <v>3.4</v>
+      </c>
+      <c r="M680">
+        <v>3.3</v>
+      </c>
+      <c r="N680">
         <v>1.909</v>
       </c>
-      <c r="L680">
-        <v>3.75</v>
-      </c>
-      <c r="M680">
+      <c r="O680">
+        <v>3.5</v>
+      </c>
+      <c r="P680">
         <v>3.8</v>
-      </c>
-      <c r="N680">
-        <v>1.85</v>
-      </c>
-      <c r="O680">
-        <v>3.8</v>
-      </c>
-      <c r="P680">
-        <v>3.75</v>
       </c>
       <c r="Q680">
         <v>-0.5</v>
       </c>
       <c r="R680">
+        <v>2</v>
+      </c>
+      <c r="S680">
+        <v>1.85</v>
+      </c>
+      <c r="T680">
+        <v>2.75</v>
+      </c>
+      <c r="U680">
         <v>1.9</v>
       </c>
-      <c r="S680">
+      <c r="V680">
         <v>1.95</v>
       </c>
-      <c r="T680">
-        <v>3</v>
-      </c>
-      <c r="U680">
-        <v>1.925</v>
-      </c>
-      <c r="V680">
-        <v>1.925</v>
-      </c>
       <c r="W680">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X680">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y680">
         <v>-1</v>
       </c>
       <c r="Z680">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA680">
+        <v>-1</v>
+      </c>
+      <c r="AB680">
+        <v>-1</v>
+      </c>
+      <c r="AC680">
         <v>0.95</v>
-      </c>
-      <c r="AB680">
-        <v>0.925</v>
-      </c>
-      <c r="AC680">
-        <v>-1</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -63296,7 +63296,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>5992259</v>
+        <v>5992262</v>
       </c>
       <c r="C706" t="s">
         <v>28</v>
@@ -63308,76 +63308,76 @@
         <v>45234.375</v>
       </c>
       <c r="F706" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G706" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I706">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J706" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K706">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="L706">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M706">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="N706">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O706">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P706">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q706">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R706">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S706">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T706">
         <v>2.75</v>
       </c>
       <c r="U706">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V706">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W706">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X706">
         <v>-1</v>
       </c>
       <c r="Y706">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z706">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA706">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB706">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC706">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="707" spans="1:29">
@@ -63385,7 +63385,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>5992262</v>
+        <v>5992259</v>
       </c>
       <c r="C707" t="s">
         <v>28</v>
@@ -63397,76 +63397,76 @@
         <v>45234.375</v>
       </c>
       <c r="F707" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G707" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I707">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J707" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K707">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L707">
+        <v>3.6</v>
+      </c>
+      <c r="M707">
+        <v>3.4</v>
+      </c>
+      <c r="N707">
+        <v>2</v>
+      </c>
+      <c r="O707">
         <v>3.75</v>
       </c>
-      <c r="M707">
-        <v>1.571</v>
-      </c>
-      <c r="N707">
-        <v>4.5</v>
-      </c>
-      <c r="O707">
-        <v>3.5</v>
-      </c>
       <c r="P707">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q707">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R707">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S707">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T707">
         <v>2.75</v>
       </c>
       <c r="U707">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V707">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W707">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X707">
         <v>-1</v>
       </c>
       <c r="Y707">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z707">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA707">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB707">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC707">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="708" spans="1:29">
@@ -63919,7 +63919,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>5992270</v>
+        <v>5992269</v>
       </c>
       <c r="C713" t="s">
         <v>28</v>
@@ -63931,13 +63931,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F713" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G713" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I713">
         <v>0</v>
@@ -63946,43 +63946,43 @@
         <v>53</v>
       </c>
       <c r="K713">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L713">
+        <v>3.5</v>
+      </c>
+      <c r="M713">
+        <v>2.25</v>
+      </c>
+      <c r="N713">
+        <v>2.375</v>
+      </c>
+      <c r="O713">
         <v>3.4</v>
       </c>
-      <c r="M713">
-        <v>2.5</v>
-      </c>
-      <c r="N713">
-        <v>2.5</v>
-      </c>
-      <c r="O713">
-        <v>3.3</v>
-      </c>
       <c r="P713">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="Q713">
         <v>0</v>
       </c>
       <c r="R713">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S713">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T713">
         <v>2.75</v>
       </c>
       <c r="U713">
+        <v>1.825</v>
+      </c>
+      <c r="V713">
         <v>2.025</v>
       </c>
-      <c r="V713">
-        <v>1.825</v>
-      </c>
       <c r="W713">
-        <v>1.5</v>
+        <v>1.375</v>
       </c>
       <c r="X713">
         <v>-1</v>
@@ -63991,16 +63991,16 @@
         <v>-1</v>
       </c>
       <c r="Z713">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA713">
         <v>-1</v>
       </c>
       <c r="AB713">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC713">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="714" spans="1:29">
@@ -64542,7 +64542,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>5992269</v>
+        <v>5992270</v>
       </c>
       <c r="C720" t="s">
         <v>28</v>
@@ -64554,13 +64554,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F720" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G720" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H720">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I720">
         <v>0</v>
@@ -64569,43 +64569,43 @@
         <v>53</v>
       </c>
       <c r="K720">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L720">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M720">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N720">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O720">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P720">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q720">
         <v>0</v>
       </c>
       <c r="R720">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S720">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T720">
         <v>2.75</v>
       </c>
       <c r="U720">
+        <v>2.025</v>
+      </c>
+      <c r="V720">
         <v>1.825</v>
       </c>
-      <c r="V720">
-        <v>2.025</v>
-      </c>
       <c r="W720">
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="X720">
         <v>-1</v>
@@ -64614,16 +64614,16 @@
         <v>-1</v>
       </c>
       <c r="Z720">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA720">
         <v>-1</v>
       </c>
       <c r="AB720">
+        <v>-1</v>
+      </c>
+      <c r="AC720">
         <v>0.825</v>
-      </c>
-      <c r="AC720">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5992063</v>
+        <v>5992060</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,16 +2497,16 @@
         <v>45033.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>46</v>
@@ -2515,28 +2515,28 @@
         <v>2.15</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N23">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T23">
         <v>2.25</v>
@@ -2548,7 +2548,7 @@
         <v>2.025</v>
       </c>
       <c r="W23">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2557,16 +2557,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5992060</v>
+        <v>5992063</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,16 +2586,16 @@
         <v>45033.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
@@ -2604,28 +2604,28 @@
         <v>2.15</v>
       </c>
       <c r="L24">
+        <v>3.3</v>
+      </c>
+      <c r="M24">
+        <v>3.1</v>
+      </c>
+      <c r="N24">
+        <v>2.2</v>
+      </c>
+      <c r="O24">
         <v>3.2</v>
       </c>
-      <c r="M24">
-        <v>3.2</v>
-      </c>
-      <c r="N24">
-        <v>2.05</v>
-      </c>
-      <c r="O24">
-        <v>3.25</v>
-      </c>
       <c r="P24">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2637,7 +2637,7 @@
         <v>2.025</v>
       </c>
       <c r="W24">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2646,16 +2646,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6478151</v>
+        <v>6474544</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,76 +5345,76 @@
         <v>45061.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L55">
         <v>3.3</v>
       </c>
       <c r="M55">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N55">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O55">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P55">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S55">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
         <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6474544</v>
+        <v>6478151</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45061.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L56">
         <v>3.3</v>
       </c>
       <c r="M56">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N56">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O56">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T56">
         <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X56">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA56">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6478150</v>
+        <v>6474532</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,10 +8015,10 @@
         <v>45082.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8030,19 +8030,19 @@
         <v>46</v>
       </c>
       <c r="K85">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M85">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N85">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
         <v>3.1</v>
@@ -8051,22 +8051,22 @@
         <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8075,7 +8075,7 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA85">
         <v>-1</v>
@@ -8084,7 +8084,7 @@
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6474532</v>
+        <v>6478150</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,10 +8104,10 @@
         <v>45082.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8119,19 +8119,19 @@
         <v>46</v>
       </c>
       <c r="K86">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L86">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N86">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
         <v>3.1</v>
@@ -8140,22 +8140,22 @@
         <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
         <v>2.5</v>
       </c>
       <c r="U86">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8164,7 +8164,7 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
         <v>-1</v>
@@ -8173,7 +8173,7 @@
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6480043</v>
+        <v>6474541</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O88">
         <v>3.4</v>
       </c>
       <c r="P88">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
         <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6474541</v>
+        <v>6480043</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N89">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O89">
         <v>3.4</v>
       </c>
       <c r="P89">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q89">
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T89">
         <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y89">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5992136</v>
+        <v>5992135</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45114.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9187,61 +9187,61 @@
         <v>47</v>
       </c>
       <c r="K98">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N98">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="O98">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P98">
+        <v>3.6</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5</v>
+      </c>
+      <c r="R98">
+        <v>1.9</v>
+      </c>
+      <c r="S98">
+        <v>1.95</v>
+      </c>
+      <c r="T98">
+        <v>2.75</v>
+      </c>
+      <c r="U98">
+        <v>1.8</v>
+      </c>
+      <c r="V98">
         <v>2.05</v>
       </c>
-      <c r="Q98">
-        <v>0.5</v>
-      </c>
-      <c r="R98">
-        <v>1.825</v>
-      </c>
-      <c r="S98">
-        <v>2.025</v>
-      </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.95</v>
-      </c>
-      <c r="V98">
-        <v>1.9</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5992135</v>
+        <v>5992136</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,10 +9261,10 @@
         <v>45114.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9276,61 +9276,61 @@
         <v>47</v>
       </c>
       <c r="K99">
+        <v>3.4</v>
+      </c>
+      <c r="L99">
+        <v>3.4</v>
+      </c>
+      <c r="M99">
+        <v>1.909</v>
+      </c>
+      <c r="N99">
+        <v>3.3</v>
+      </c>
+      <c r="O99">
+        <v>3.3</v>
+      </c>
+      <c r="P99">
         <v>2.05</v>
       </c>
-      <c r="L99">
-        <v>3.2</v>
-      </c>
-      <c r="M99">
-        <v>3.2</v>
-      </c>
-      <c r="N99">
+      <c r="Q99">
+        <v>0.5</v>
+      </c>
+      <c r="R99">
+        <v>1.825</v>
+      </c>
+      <c r="S99">
+        <v>2.025</v>
+      </c>
+      <c r="T99">
+        <v>2.5</v>
+      </c>
+      <c r="U99">
         <v>1.95</v>
       </c>
-      <c r="O99">
-        <v>4</v>
-      </c>
-      <c r="P99">
-        <v>3.6</v>
-      </c>
-      <c r="Q99">
-        <v>-0.5</v>
-      </c>
-      <c r="R99">
+      <c r="V99">
         <v>1.9</v>
       </c>
-      <c r="S99">
-        <v>1.95</v>
-      </c>
-      <c r="T99">
-        <v>2.75</v>
-      </c>
-      <c r="U99">
-        <v>1.8</v>
-      </c>
-      <c r="V99">
-        <v>2.05</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5992137</v>
+        <v>5992140</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K104">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O104">
         <v>3.4</v>
       </c>
       <c r="P104">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
+        <v>1.8</v>
+      </c>
+      <c r="S104">
         <v>2.05</v>
       </c>
-      <c r="S104">
-        <v>1.8</v>
-      </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>1.05</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5992140</v>
+        <v>5992137</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
         <v>0</v>
       </c>
-      <c r="I105">
-        <v>3</v>
-      </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K105">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M105">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N105">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O105">
         <v>3.4</v>
       </c>
       <c r="P105">
+        <v>3.3</v>
+      </c>
+      <c r="Q105">
+        <v>-0.5</v>
+      </c>
+      <c r="R105">
+        <v>2.05</v>
+      </c>
+      <c r="S105">
+        <v>1.8</v>
+      </c>
+      <c r="T105">
         <v>2.25</v>
       </c>
-      <c r="Q105">
-        <v>0.25</v>
-      </c>
-      <c r="R105">
-        <v>1.8</v>
-      </c>
-      <c r="S105">
-        <v>2.05</v>
-      </c>
-      <c r="T105">
-        <v>2.5</v>
-      </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA105">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5992155</v>
+        <v>5992157</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K115">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="L115">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M115">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="N115">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O115">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q115">
         <v>0.25</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5992153</v>
+        <v>5992155</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K116">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="L116">
         <v>3.25</v>
       </c>
       <c r="M116">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N116">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O116">
         <v>3.3</v>
       </c>
       <c r="P116">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q116">
         <v>0.25</v>
       </c>
       <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
         <v>2.05</v>
       </c>
-      <c r="S116">
-        <v>1.8</v>
-      </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X116">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.5249999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5992157</v>
+        <v>5992153</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10878,58 +10878,58 @@
         <v>47</v>
       </c>
       <c r="K117">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="L117">
+        <v>3.25</v>
+      </c>
+      <c r="M117">
+        <v>2.3</v>
+      </c>
+      <c r="N117">
         <v>3.3</v>
       </c>
-      <c r="M117">
-        <v>2.4</v>
-      </c>
-      <c r="N117">
-        <v>3</v>
-      </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P117">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q117">
         <v>0.25</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.45</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA117">
         <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5992152</v>
+        <v>5992150</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,55 +11130,55 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
         <v>45</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <v>3.4</v>
       </c>
       <c r="M120">
+        <v>3.3</v>
+      </c>
+      <c r="N120">
+        <v>1.727</v>
+      </c>
+      <c r="O120">
         <v>3.6</v>
       </c>
-      <c r="N120">
-        <v>1.909</v>
-      </c>
-      <c r="O120">
-        <v>3.4</v>
-      </c>
       <c r="P120">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W120">
         <v>-1</v>
@@ -11187,19 +11187,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5992150</v>
+        <v>5992152</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,56 +11219,56 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
         <v>45</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
         <v>3.4</v>
       </c>
       <c r="M121">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N121">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O121">
+        <v>3.4</v>
+      </c>
+      <c r="P121">
         <v>3.6</v>
       </c>
-      <c r="P121">
-        <v>4.2</v>
-      </c>
       <c r="Q121">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
+        <v>1.975</v>
+      </c>
+      <c r="S121">
+        <v>1.875</v>
+      </c>
+      <c r="T121">
+        <v>2.5</v>
+      </c>
+      <c r="U121">
         <v>2.025</v>
       </c>
-      <c r="S121">
+      <c r="V121">
         <v>1.825</v>
       </c>
-      <c r="T121">
-        <v>2.75</v>
-      </c>
-      <c r="U121">
-        <v>1.85</v>
-      </c>
-      <c r="V121">
-        <v>2</v>
-      </c>
       <c r="W121">
         <v>-1</v>
       </c>
@@ -11276,19 +11276,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC121">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5992164</v>
+        <v>5992158</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,40 +11486,40 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N124">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O124">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
         <v>2.025</v>
@@ -11528,34 +11528,34 @@
         <v>1.825</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5992158</v>
+        <v>5992164</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,40 +11575,40 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K125">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N125">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P125">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
         <v>2.025</v>
@@ -11617,34 +11617,34 @@
         <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X125">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5992188</v>
+        <v>5992193</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,58 +14512,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>3</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>46</v>
       </c>
       <c r="K158">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L158">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M158">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="N158">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="O158">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P158">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q158">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
         <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W158">
-        <v>0.444</v>
+        <v>0.95</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14572,13 +14572,13 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5992193</v>
+        <v>5992188</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,58 +14601,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H159">
         <v>3</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>46</v>
       </c>
       <c r="K159">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L159">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M159">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="N159">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="O159">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P159">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R159">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S159">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
         <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>0.95</v>
+        <v>0.444</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14661,13 +14661,13 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5992196</v>
+        <v>5992201</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,49 +14957,49 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K163">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M163">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="N163">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="O163">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="Q163">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U163">
         <v>1.925</v>
@@ -15008,25 +15008,25 @@
         <v>1.925</v>
       </c>
       <c r="W163">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB163">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5992201</v>
+        <v>5992196</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,49 +15046,49 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K164">
+        <v>3.2</v>
+      </c>
+      <c r="L164">
+        <v>3.4</v>
+      </c>
+      <c r="M164">
+        <v>2.05</v>
+      </c>
+      <c r="N164">
+        <v>3.75</v>
+      </c>
+      <c r="O164">
+        <v>3.6</v>
+      </c>
+      <c r="P164">
+        <v>1.833</v>
+      </c>
+      <c r="Q164">
+        <v>0.5</v>
+      </c>
+      <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
         <v>1.85</v>
       </c>
-      <c r="L164">
-        <v>3.3</v>
-      </c>
-      <c r="M164">
-        <v>4</v>
-      </c>
-      <c r="N164">
-        <v>1.909</v>
-      </c>
-      <c r="O164">
-        <v>3.1</v>
-      </c>
-      <c r="P164">
-        <v>4</v>
-      </c>
-      <c r="Q164">
-        <v>-0.5</v>
-      </c>
-      <c r="R164">
-        <v>1.975</v>
-      </c>
-      <c r="S164">
-        <v>1.875</v>
-      </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
         <v>1.925</v>
@@ -15097,25 +15097,25 @@
         <v>1.925</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X164">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA164">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC164">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5992198</v>
+        <v>5992199</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,76 +15135,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H165">
         <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K165">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="N165">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="O165">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R165">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S165">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T165">
         <v>2.75</v>
       </c>
       <c r="U165">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W165">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z165">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC165">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5992195</v>
+        <v>5992198</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,76 +15224,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K166">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M166">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N166">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
         <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V166">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X166">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA166">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5992199</v>
+        <v>5992195</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,76 +15313,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K167">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="L167">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="N167">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="O167">
         <v>3.6</v>
       </c>
       <c r="P167">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="Q167">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T167">
         <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y167">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AB167">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -19573,7 +19573,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5992244</v>
+        <v>5992247</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19585,49 +19585,49 @@
         <v>45223.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K215">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L215">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M215">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N215">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R215">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S215">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T215">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
         <v>1.95</v>
@@ -19636,25 +19636,25 @@
         <v>1.9</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA215">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC215">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19662,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>5992247</v>
+        <v>5992244</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19674,49 +19674,49 @@
         <v>45223.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G216" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216">
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K216">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M216">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="N216">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O216">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P216">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R216">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U216">
         <v>1.95</v>
@@ -19725,25 +19725,25 @@
         <v>1.9</v>
       </c>
       <c r="W216">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB216">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>5992270</v>
+        <v>5992271</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,13 +21543,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G237" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -21558,43 +21558,43 @@
         <v>46</v>
       </c>
       <c r="K237">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="M237">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="N237">
-        <v>2.5</v>
+        <v>1.181</v>
       </c>
       <c r="O237">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P237">
-        <v>2.55</v>
+        <v>13</v>
       </c>
       <c r="Q237">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R237">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S237">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U237">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W237">
-        <v>1.5</v>
+        <v>0.181</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21603,16 +21603,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC237">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>5992271</v>
+        <v>5992264</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238" t="s">
+        <v>45</v>
+      </c>
+      <c r="K238">
+        <v>2.3</v>
+      </c>
+      <c r="L238">
+        <v>3.6</v>
+      </c>
+      <c r="M238">
+        <v>2.625</v>
+      </c>
+      <c r="N238">
+        <v>1.833</v>
+      </c>
+      <c r="O238">
         <v>4</v>
       </c>
-      <c r="I238">
-        <v>0</v>
-      </c>
-      <c r="J238" t="s">
-        <v>46</v>
-      </c>
-      <c r="K238">
-        <v>1.333</v>
-      </c>
-      <c r="L238">
-        <v>4.6</v>
-      </c>
-      <c r="M238">
-        <v>8</v>
-      </c>
-      <c r="N238">
-        <v>1.181</v>
-      </c>
-      <c r="O238">
-        <v>6</v>
-      </c>
       <c r="P238">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="Q238">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S238">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T238">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W238">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z238">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>5992264</v>
+        <v>5992270</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G239" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
         <v>0</v>
       </c>
-      <c r="I239">
-        <v>1</v>
-      </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L239">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M239">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N239">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O239">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P239">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R239">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S239">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T239">
         <v>2.75</v>
       </c>
       <c r="U239">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V239">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA239">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="240" spans="1:29">

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -118,10 +118,10 @@
     <t>Ostersunds FK</t>
   </si>
   <si>
-    <t>Orgryte IS</t>
+    <t>Jonkopings Sodra</t>
   </si>
   <si>
-    <t>Jonkopings Sodra</t>
+    <t>Orgryte IS</t>
   </si>
   <si>
     <t>Helsingborg</t>
@@ -133,10 +133,10 @@
     <t>Landskrona BoIS</t>
   </si>
   <si>
-    <t>Orebro SK</t>
+    <t>Skvde AIK</t>
   </si>
   <si>
-    <t>Skvde AIK</t>
+    <t>Orebro SK</t>
   </si>
   <si>
     <t>Gefle IF</t>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5993412</v>
+        <v>5992044</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,46 +1076,46 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>47</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L7">
         <v>3.4</v>
       </c>
       <c r="M7">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O7">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P7">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
         <v>1.975</v>
@@ -1127,22 +1127,22 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5992044</v>
+        <v>5993412</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,46 +1165,46 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
       </c>
       <c r="K8">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N8">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S8">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
         <v>1.975</v>
@@ -1216,22 +1216,22 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5992054</v>
+        <v>5992057</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
       </c>
       <c r="K12">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N12">
+        <v>2.75</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>2.5</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>2.05</v>
+      </c>
+      <c r="S12">
         <v>1.8</v>
       </c>
-      <c r="O12">
-        <v>3.4</v>
-      </c>
-      <c r="P12">
-        <v>4</v>
-      </c>
-      <c r="Q12">
-        <v>-0.5</v>
-      </c>
-      <c r="R12">
-        <v>1.875</v>
-      </c>
-      <c r="S12">
-        <v>1.975</v>
-      </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
+        <v>1.825</v>
+      </c>
+      <c r="V12">
         <v>2.025</v>
       </c>
-      <c r="V12">
-        <v>1.825</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5992057</v>
+        <v>5992054</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,73 +1610,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>47</v>
       </c>
       <c r="K13">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L13">
+        <v>3.5</v>
+      </c>
+      <c r="M13">
+        <v>4.2</v>
+      </c>
+      <c r="N13">
+        <v>1.8</v>
+      </c>
+      <c r="O13">
         <v>3.4</v>
       </c>
-      <c r="M13">
-        <v>3.1</v>
-      </c>
-      <c r="N13">
-        <v>2.75</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
       <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>-0.5</v>
+      </c>
+      <c r="R13">
+        <v>1.875</v>
+      </c>
+      <c r="S13">
+        <v>1.975</v>
+      </c>
+      <c r="T13">
         <v>2.5</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>2.05</v>
-      </c>
-      <c r="S13">
-        <v>1.8</v>
-      </c>
-      <c r="T13">
-        <v>2.25</v>
-      </c>
       <c r="U13">
+        <v>2.025</v>
+      </c>
+      <c r="V13">
         <v>1.825</v>
       </c>
-      <c r="V13">
-        <v>2.025</v>
-      </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
         <v>0.825</v>
-      </c>
-      <c r="AC13">
-        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2319,7 +2319,7 @@
         <v>45031.5</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
         <v>29</v>
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5992060</v>
+        <v>5992063</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,16 +2497,16 @@
         <v>45033.58333333334</v>
       </c>
       <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
         <v>35</v>
       </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>46</v>
@@ -2515,28 +2515,28 @@
         <v>2.15</v>
       </c>
       <c r="L23">
+        <v>3.3</v>
+      </c>
+      <c r="M23">
+        <v>3.1</v>
+      </c>
+      <c r="N23">
+        <v>2.2</v>
+      </c>
+      <c r="O23">
         <v>3.2</v>
       </c>
-      <c r="M23">
-        <v>3.2</v>
-      </c>
-      <c r="N23">
-        <v>2.05</v>
-      </c>
-      <c r="O23">
-        <v>3.25</v>
-      </c>
       <c r="P23">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
         <v>2.25</v>
@@ -2548,7 +2548,7 @@
         <v>2.025</v>
       </c>
       <c r="W23">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2557,16 +2557,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5992063</v>
+        <v>5992060</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,16 +2586,16 @@
         <v>45033.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
@@ -2604,28 +2604,28 @@
         <v>2.15</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N24">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2637,7 +2637,7 @@
         <v>2.025</v>
       </c>
       <c r="W24">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2646,16 +2646,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5992071</v>
+        <v>5992066</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,13 +2853,13 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2868,43 +2868,43 @@
         <v>46</v>
       </c>
       <c r="K27">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N27">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P27">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>1.05</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2913,7 +2913,7 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -2922,7 +2922,7 @@
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5992066</v>
+        <v>5992071</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,13 +2942,13 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2957,43 +2957,43 @@
         <v>46</v>
       </c>
       <c r="K28">
+        <v>2.55</v>
+      </c>
+      <c r="L28">
+        <v>3.3</v>
+      </c>
+      <c r="M28">
+        <v>2.7</v>
+      </c>
+      <c r="N28">
+        <v>2.05</v>
+      </c>
+      <c r="O28">
+        <v>3.4</v>
+      </c>
+      <c r="P28">
+        <v>3.5</v>
+      </c>
+      <c r="Q28">
+        <v>-0.5</v>
+      </c>
+      <c r="R28">
+        <v>2.05</v>
+      </c>
+      <c r="S28">
         <v>1.8</v>
-      </c>
-      <c r="L28">
-        <v>3.6</v>
-      </c>
-      <c r="M28">
-        <v>4.333</v>
-      </c>
-      <c r="N28">
-        <v>1.666</v>
-      </c>
-      <c r="O28">
-        <v>3.75</v>
-      </c>
-      <c r="P28">
-        <v>5</v>
-      </c>
-      <c r="Q28">
-        <v>-0.75</v>
-      </c>
-      <c r="R28">
-        <v>1.825</v>
-      </c>
-      <c r="S28">
-        <v>2.025</v>
       </c>
       <c r="T28">
         <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
-        <v>0.6659999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3002,7 +3002,7 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AA28">
         <v>-1</v>
@@ -3011,7 +3011,7 @@
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3212,7 +3212,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3298,10 +3298,10 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
         <v>34</v>
-      </c>
-      <c r="G32" t="s">
-        <v>35</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3390,7 +3390,7 @@
         <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3654,7 +3654,7 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
         <v>42</v>
@@ -3743,7 +3743,7 @@
         <v>45046.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
         <v>29</v>
@@ -3832,7 +3832,7 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
         <v>44</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5992088</v>
+        <v>5992085</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,73 +4277,73 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K43">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L43">
         <v>3.3</v>
       </c>
       <c r="M43">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N43">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>3.25</v>
+        <v>1.666</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB43">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5992085</v>
+        <v>5992088</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,73 +4366,73 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44">
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L44">
         <v>3.3</v>
       </c>
       <c r="M44">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N44">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P44">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y44">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB44">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4455,10 +4455,10 @@
         <v>45053.33333333334</v>
       </c>
       <c r="F45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" t="s">
         <v>40</v>
-      </c>
-      <c r="G45" t="s">
-        <v>39</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4722,7 +4722,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>43</v>
@@ -4900,7 +4900,7 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
         <v>44</v>
@@ -5259,7 +5259,7 @@
         <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6474544</v>
+        <v>6478151</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,76 +5345,76 @@
         <v>45061.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L55">
         <v>3.3</v>
       </c>
       <c r="M55">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O55">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P55">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T55">
         <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V55">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X55">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6478151</v>
+        <v>6474544</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45061.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L56">
         <v>3.3</v>
       </c>
       <c r="M56">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N56">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O56">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P56">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
         <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5523,10 +5523,10 @@
         <v>45062.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5790,7 +5790,7 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
         <v>32</v>
@@ -5882,7 +5882,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6235,7 +6235,7 @@
         <v>45069.58333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
@@ -6502,7 +6502,7 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5992108</v>
+        <v>5993415</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,58 +6591,58 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>46</v>
       </c>
       <c r="K69">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="L69">
         <v>3.5</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N69">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S69">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W69">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6651,13 +6651,13 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6683,7 +6683,7 @@
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5993415</v>
+        <v>5992108</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,59 +6769,59 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H71">
         <v>3</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>46</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="L71">
         <v>3.5</v>
       </c>
       <c r="M71">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N71">
+        <v>2.75</v>
+      </c>
+      <c r="O71">
+        <v>3.4</v>
+      </c>
+      <c r="P71">
+        <v>2.3</v>
+      </c>
+      <c r="Q71">
+        <v>0.25</v>
+      </c>
+      <c r="R71">
+        <v>1.8</v>
+      </c>
+      <c r="S71">
+        <v>2.05</v>
+      </c>
+      <c r="T71">
+        <v>2.75</v>
+      </c>
+      <c r="U71">
+        <v>1.975</v>
+      </c>
+      <c r="V71">
+        <v>1.875</v>
+      </c>
+      <c r="W71">
         <v>1.75</v>
       </c>
-      <c r="O71">
-        <v>3.6</v>
-      </c>
-      <c r="P71">
-        <v>4.2</v>
-      </c>
-      <c r="Q71">
-        <v>-0.75</v>
-      </c>
-      <c r="R71">
-        <v>2</v>
-      </c>
-      <c r="S71">
-        <v>1.85</v>
-      </c>
-      <c r="T71">
-        <v>2.5</v>
-      </c>
-      <c r="U71">
-        <v>1.925</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
-      <c r="W71">
-        <v>0.75</v>
-      </c>
       <c r="X71">
         <v>-1</v>
       </c>
@@ -6829,13 +6829,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6947,7 +6947,7 @@
         <v>45074.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
         <v>36</v>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5992114</v>
+        <v>5992119</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45077.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M74">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N74">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q74">
         <v>-0.25</v>
       </c>
       <c r="R74">
+        <v>1.95</v>
+      </c>
+      <c r="S74">
         <v>1.9</v>
       </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
+        <v>2.025</v>
+      </c>
+      <c r="V74">
         <v>1.825</v>
       </c>
-      <c r="V74">
-        <v>2.025</v>
-      </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X74">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC74">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5992119</v>
+        <v>5992117</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,73 +7214,73 @@
         <v>45077.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L76">
+        <v>3.3</v>
+      </c>
+      <c r="M76">
+        <v>3.1</v>
+      </c>
+      <c r="N76">
+        <v>3.2</v>
+      </c>
+      <c r="O76">
         <v>3.25</v>
       </c>
-      <c r="M76">
-        <v>3.3</v>
-      </c>
-      <c r="N76">
+      <c r="P76">
         <v>2.2</v>
       </c>
-      <c r="O76">
-        <v>3.1</v>
-      </c>
-      <c r="P76">
-        <v>3.3</v>
-      </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
+        <v>1.825</v>
+      </c>
+      <c r="V76">
         <v>2.025</v>
       </c>
-      <c r="V76">
-        <v>1.825</v>
-      </c>
       <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
         <v>1.2</v>
       </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
-      <c r="Y76">
-        <v>-1</v>
-      </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB76">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5992117</v>
+        <v>5992114</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,46 +7303,46 @@
         <v>45077.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77">
+        <v>1.909</v>
+      </c>
+      <c r="L77">
+        <v>3.6</v>
+      </c>
+      <c r="M77">
+        <v>3.5</v>
+      </c>
+      <c r="N77">
+        <v>2.1</v>
+      </c>
+      <c r="O77">
+        <v>3.5</v>
+      </c>
+      <c r="P77">
         <v>3</v>
       </c>
-      <c r="J77" t="s">
-        <v>45</v>
-      </c>
-      <c r="K77">
-        <v>2.15</v>
-      </c>
-      <c r="L77">
-        <v>3.3</v>
-      </c>
-      <c r="M77">
-        <v>3.1</v>
-      </c>
-      <c r="N77">
-        <v>3.2</v>
-      </c>
-      <c r="O77">
-        <v>3.25</v>
-      </c>
-      <c r="P77">
-        <v>2.2</v>
-      </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
         <v>2.5</v>
@@ -7357,22 +7357,22 @@
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y77">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AB77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5992112</v>
+        <v>5992116</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>45078.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L78">
+        <v>3.4</v>
+      </c>
+      <c r="M78">
         <v>4</v>
       </c>
-      <c r="M78">
-        <v>5.75</v>
-      </c>
       <c r="N78">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y78">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5992115</v>
+        <v>5992112</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,55 +7481,55 @@
         <v>45078.58333333334</v>
       </c>
       <c r="F79" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" t="s">
         <v>35</v>
       </c>
-      <c r="G79" t="s">
-        <v>43</v>
-      </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>45</v>
       </c>
       <c r="K79">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="N79">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O79">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q79">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T79">
         <v>2.75</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7538,19 +7538,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1.05</v>
+        <v>3.2</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5992116</v>
+        <v>5992115</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,49 +7659,49 @@
         <v>45078.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L81">
         <v>3.4</v>
       </c>
       <c r="M81">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N81">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="O81">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
         <v>2</v>
@@ -7713,22 +7713,22 @@
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5992126</v>
+        <v>5992121</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45081.5</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K83">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="N83">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O83">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P83">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5992121</v>
+        <v>5992126</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45081.5</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" t="s">
+        <v>45</v>
+      </c>
+      <c r="K84">
+        <v>2.55</v>
+      </c>
+      <c r="L84">
+        <v>3.4</v>
+      </c>
+      <c r="M84">
+        <v>2.45</v>
+      </c>
+      <c r="N84">
+        <v>2.5</v>
+      </c>
+      <c r="O84">
+        <v>3.3</v>
+      </c>
+      <c r="P84">
+        <v>2.55</v>
+      </c>
+      <c r="Q84">
         <v>0</v>
       </c>
-      <c r="J84" t="s">
-        <v>46</v>
-      </c>
-      <c r="K84">
-        <v>1.7</v>
-      </c>
-      <c r="L84">
-        <v>3.5</v>
-      </c>
-      <c r="M84">
-        <v>4.5</v>
-      </c>
-      <c r="N84">
-        <v>1.666</v>
-      </c>
-      <c r="O84">
-        <v>3.5</v>
-      </c>
-      <c r="P84">
-        <v>5</v>
-      </c>
-      <c r="Q84">
-        <v>-0.75</v>
-      </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6474532</v>
+        <v>6478150</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,10 +8015,10 @@
         <v>45082.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8030,19 +8030,19 @@
         <v>46</v>
       </c>
       <c r="K85">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L85">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M85">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N85">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
         <v>3.1</v>
@@ -8051,22 +8051,22 @@
         <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8075,7 +8075,7 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
         <v>-1</v>
@@ -8084,7 +8084,7 @@
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6478150</v>
+        <v>6474532</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,10 +8104,10 @@
         <v>45082.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8119,19 +8119,19 @@
         <v>46</v>
       </c>
       <c r="K86">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M86">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N86">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
         <v>3.1</v>
@@ -8140,22 +8140,22 @@
         <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
         <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8164,7 +8164,7 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA86">
         <v>-1</v>
@@ -8173,7 +8173,7 @@
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6474540</v>
+        <v>6480043</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="L87">
+        <v>3.3</v>
+      </c>
+      <c r="M87">
+        <v>2.75</v>
+      </c>
+      <c r="N87">
+        <v>2.3</v>
+      </c>
+      <c r="O87">
         <v>3.4</v>
       </c>
-      <c r="M87">
-        <v>2.1</v>
-      </c>
-      <c r="N87">
-        <v>4</v>
-      </c>
-      <c r="O87">
-        <v>3.6</v>
-      </c>
       <c r="P87">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q87">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB87">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6474541</v>
+        <v>6474540</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,55 +8282,55 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
         <v>45</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
         <v>-1</v>
@@ -8339,19 +8339,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.1</v>
+        <v>0.75</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC88">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6480043</v>
+        <v>6474541</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K89">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N89">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O89">
         <v>3.4</v>
       </c>
       <c r="P89">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q89">
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S89">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
         <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5992129</v>
+        <v>5993416</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,58 +8460,58 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>46</v>
       </c>
       <c r="K90">
+        <v>4.75</v>
+      </c>
+      <c r="L90">
+        <v>3.5</v>
+      </c>
+      <c r="M90">
+        <v>1.615</v>
+      </c>
+      <c r="N90">
+        <v>5.25</v>
+      </c>
+      <c r="O90">
+        <v>3.75</v>
+      </c>
+      <c r="P90">
         <v>1.5</v>
       </c>
-      <c r="L90">
-        <v>4</v>
-      </c>
-      <c r="M90">
-        <v>5</v>
-      </c>
-      <c r="N90">
-        <v>1.4</v>
-      </c>
-      <c r="O90">
-        <v>4.333</v>
-      </c>
-      <c r="P90">
-        <v>5.75</v>
-      </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8520,13 +8520,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5993416</v>
+        <v>5992129</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,58 +8549,58 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>46</v>
       </c>
       <c r="K91">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M91">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N91">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="O91">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P91">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>4.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8609,13 +8609,13 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5992130</v>
+        <v>5992133</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,58 +8638,58 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
         <v>46</v>
       </c>
       <c r="K92">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L92">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N92">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O92">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P92">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
         <v>2.75</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8698,13 +8698,13 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5992133</v>
+        <v>5992130</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,58 +8727,58 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>46</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M93">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N93">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P93">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>0.5</v>
+        <v>1.375</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8787,13 +8787,13 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5992131</v>
+        <v>5992132</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45088.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L94">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M94">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N94">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O94">
         <v>3.1</v>
       </c>
       <c r="P94">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q94">
         <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S94">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA94">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5992132</v>
+        <v>5992131</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45088.33333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K95">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L95">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M95">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N95">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O95">
         <v>3.1</v>
       </c>
       <c r="P95">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q95">
         <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5992134</v>
+        <v>5992128</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,58 +8994,58 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>46</v>
       </c>
       <c r="K96">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L96">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N96">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O96">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
-        <v>1.15</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9054,13 +9054,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5992128</v>
+        <v>5992134</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,58 +9083,58 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>46</v>
       </c>
       <c r="K97">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N97">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q97">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>0.5329999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9143,13 +9143,13 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9175,7 +9175,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         <v>45114.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
         <v>43</v>
@@ -9531,7 +9531,7 @@
         <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>4</v>
@@ -9617,7 +9617,7 @@
         <v>45116.5</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
         <v>37</v>
@@ -9887,7 +9887,7 @@
         <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9973,7 +9973,7 @@
         <v>45122.33333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5992143</v>
+        <v>5992144</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,19 +10062,19 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K108">
         <v>1.909</v>
@@ -10086,52 +10086,52 @@
         <v>3.6</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S108">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA108">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5992144</v>
+        <v>5992143</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,19 +10151,19 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>1.909</v>
@@ -10175,52 +10175,52 @@
         <v>3.6</v>
       </c>
       <c r="N109">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P109">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T109">
         <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V109">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z109">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB109">
+        <v>0.5125</v>
+      </c>
+      <c r="AC109">
         <v>-0.5</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
-      <c r="AC109">
-        <v>0.925</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>45124.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
         <v>32</v>
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5992157</v>
+        <v>5992155</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K115">
+        <v>3.1</v>
+      </c>
+      <c r="L115">
+        <v>3.25</v>
+      </c>
+      <c r="M115">
+        <v>2.1</v>
+      </c>
+      <c r="N115">
         <v>2.7</v>
       </c>
-      <c r="L115">
+      <c r="O115">
         <v>3.3</v>
       </c>
-      <c r="M115">
-        <v>2.4</v>
-      </c>
-      <c r="N115">
-        <v>3</v>
-      </c>
-      <c r="O115">
-        <v>3.4</v>
-      </c>
       <c r="P115">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q115">
         <v>0.25</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X115">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5992155</v>
+        <v>5992153</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="L116">
         <v>3.25</v>
       </c>
       <c r="M116">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N116">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O116">
         <v>3.3</v>
       </c>
       <c r="P116">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q116">
         <v>0.25</v>
       </c>
       <c r="R116">
+        <v>2.05</v>
+      </c>
+      <c r="S116">
         <v>1.8</v>
       </c>
-      <c r="S116">
-        <v>2.05</v>
-      </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC116">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5992153</v>
+        <v>5992157</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10878,58 +10878,58 @@
         <v>47</v>
       </c>
       <c r="K117">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="L117">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M117">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N117">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P117">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q117">
         <v>0.25</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.5249999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA117">
         <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10955,7 +10955,7 @@
         <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5992150</v>
+        <v>5992152</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,56 +11130,56 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
         <v>45</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
         <v>3.4</v>
       </c>
       <c r="M120">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N120">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O120">
+        <v>3.4</v>
+      </c>
+      <c r="P120">
         <v>3.6</v>
       </c>
-      <c r="P120">
-        <v>4.2</v>
-      </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
+        <v>1.975</v>
+      </c>
+      <c r="S120">
+        <v>1.875</v>
+      </c>
+      <c r="T120">
+        <v>2.5</v>
+      </c>
+      <c r="U120">
         <v>2.025</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.825</v>
       </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>1.85</v>
-      </c>
-      <c r="V120">
-        <v>2</v>
-      </c>
       <c r="W120">
         <v>-1</v>
       </c>
@@ -11187,19 +11187,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC120">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5992152</v>
+        <v>5992150</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,55 +11219,55 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
         <v>45</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L121">
         <v>3.4</v>
       </c>
       <c r="M121">
+        <v>3.3</v>
+      </c>
+      <c r="N121">
+        <v>1.727</v>
+      </c>
+      <c r="O121">
         <v>3.6</v>
       </c>
-      <c r="N121">
-        <v>1.909</v>
-      </c>
-      <c r="O121">
-        <v>3.4</v>
-      </c>
       <c r="P121">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11276,19 +11276,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11311,7 +11311,7 @@
         <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5992158</v>
+        <v>5992164</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,40 +11486,40 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F124" t="s">
+        <v>43</v>
+      </c>
+      <c r="G124" t="s">
         <v>34</v>
       </c>
-      <c r="G124" t="s">
-        <v>29</v>
-      </c>
       <c r="H124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K124">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N124">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O124">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P124">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q124">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
         <v>2.025</v>
@@ -11528,34 +11528,34 @@
         <v>1.825</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X124">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5992164</v>
+        <v>5992158</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,40 +11575,40 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N125">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O125">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
         <v>2.025</v>
@@ -11617,34 +11617,34 @@
         <v>1.825</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5992160</v>
+        <v>5992163</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,76 +11842,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>47</v>
       </c>
       <c r="K128">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N128">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O128">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P128">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
+        <v>1.975</v>
+      </c>
+      <c r="S128">
+        <v>1.875</v>
+      </c>
+      <c r="T128">
+        <v>2.25</v>
+      </c>
+      <c r="U128">
         <v>1.925</v>
       </c>
-      <c r="S128">
+      <c r="V128">
         <v>1.925</v>
       </c>
-      <c r="T128">
-        <v>2.75</v>
-      </c>
-      <c r="U128">
-        <v>2</v>
-      </c>
-      <c r="V128">
-        <v>1.85</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5992163</v>
+        <v>5992160</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>47</v>
       </c>
       <c r="K129">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
+        <v>1.909</v>
+      </c>
+      <c r="N129">
+        <v>3.6</v>
+      </c>
+      <c r="O129">
         <v>3.5</v>
       </c>
-      <c r="N129">
-        <v>2.2</v>
-      </c>
-      <c r="O129">
-        <v>3.1</v>
-      </c>
       <c r="P129">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA129">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12198,7 +12198,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
         <v>31</v>
@@ -12376,7 +12376,7 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
         <v>42</v>
@@ -12557,7 +12557,7 @@
         <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12646,7 +12646,7 @@
         <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5992178</v>
+        <v>7036546</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L139">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M139">
+        <v>4</v>
+      </c>
+      <c r="N139">
+        <v>1.8</v>
+      </c>
+      <c r="O139">
         <v>3.75</v>
       </c>
-      <c r="N139">
-        <v>1.909</v>
-      </c>
-      <c r="O139">
-        <v>3.5</v>
-      </c>
       <c r="P139">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q139">
         <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X139">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7036546</v>
+        <v>5992178</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H140">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L140">
+        <v>3.5</v>
+      </c>
+      <c r="M140">
+        <v>3.75</v>
+      </c>
+      <c r="N140">
+        <v>1.909</v>
+      </c>
+      <c r="O140">
+        <v>3.5</v>
+      </c>
+      <c r="P140">
         <v>3.8</v>
-      </c>
-      <c r="M140">
-        <v>4</v>
-      </c>
-      <c r="N140">
-        <v>1.8</v>
-      </c>
-      <c r="O140">
-        <v>3.75</v>
-      </c>
-      <c r="P140">
-        <v>4</v>
       </c>
       <c r="Q140">
         <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB140">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13266,10 +13266,10 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13355,10 +13355,10 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5992182</v>
+        <v>5992185</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,13 +13622,13 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13637,25 +13637,25 @@
         <v>46</v>
       </c>
       <c r="K148">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L148">
         <v>3.4</v>
       </c>
       <c r="M148">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N148">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O148">
         <v>3.3</v>
       </c>
       <c r="P148">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
         <v>1.925</v>
@@ -13664,16 +13664,16 @@
         <v>1.925</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13688,10 +13688,10 @@
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5992185</v>
+        <v>5992182</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,13 +13711,13 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13726,25 +13726,25 @@
         <v>46</v>
       </c>
       <c r="K149">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L149">
         <v>3.4</v>
       </c>
       <c r="M149">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N149">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O149">
         <v>3.3</v>
       </c>
       <c r="P149">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R149">
         <v>1.925</v>
@@ -13753,16 +13753,16 @@
         <v>1.925</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U149">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,10 +13777,10 @@
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13800,7 +13800,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
         <v>36</v>
@@ -13892,7 +13892,7 @@
         <v>41</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5992181</v>
+        <v>5992186</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,73 +13978,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K152">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L152">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M152">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N152">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="O152">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S152">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T152">
         <v>2.5</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AB152">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5992186</v>
+        <v>5992181</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,73 +14067,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K153">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M153">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N153">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P153">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q153">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S153">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T153">
         <v>2.5</v>
       </c>
       <c r="U153">
+        <v>2</v>
+      </c>
+      <c r="V153">
         <v>1.85</v>
       </c>
-      <c r="V153">
-        <v>2</v>
-      </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y153">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA153">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AB153">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14156,7 +14156,7 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G154" t="s">
         <v>42</v>
@@ -14426,7 +14426,7 @@
         <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5992193</v>
+        <v>5993420</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,49 +14512,49 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>46</v>
       </c>
       <c r="K158">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M158">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N158">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O158">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P158">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S158">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
         <v>1.875</v>
@@ -14563,7 +14563,7 @@
         <v>1.975</v>
       </c>
       <c r="W158">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14572,10 +14572,10 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB158">
         <v>0.875</v>
@@ -14604,7 +14604,7 @@
         <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H159">
         <v>3</v>
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5993420</v>
+        <v>5992193</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,49 +14690,49 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L160">
+        <v>3.6</v>
+      </c>
+      <c r="M160">
+        <v>2.7</v>
+      </c>
+      <c r="N160">
+        <v>1.95</v>
+      </c>
+      <c r="O160">
         <v>3.75</v>
       </c>
-      <c r="M160">
-        <v>3.8</v>
-      </c>
-      <c r="N160">
-        <v>1.75</v>
-      </c>
-      <c r="O160">
-        <v>3.8</v>
-      </c>
       <c r="P160">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U160">
         <v>1.875</v>
@@ -14741,7 +14741,7 @@
         <v>1.975</v>
       </c>
       <c r="W160">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14750,10 +14750,10 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
         <v>0.875</v>
@@ -14868,10 +14868,10 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5992199</v>
+        <v>5992195</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,76 +15135,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K165">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M165">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="N165">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="O165">
         <v>3.6</v>
       </c>
       <c r="P165">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="Q165">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T165">
         <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y165">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AB165">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5992198</v>
+        <v>5992199</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,76 +15224,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K166">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="L166">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="N166">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
         <v>2.75</v>
       </c>
       <c r="U166">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W166">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z166">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5992195</v>
+        <v>5992198</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,76 +15313,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K167">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M167">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N167">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P167">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
         <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V167">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X167">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -16025,10 +16025,10 @@
         <v>45186.5</v>
       </c>
       <c r="F175" t="s">
+        <v>40</v>
+      </c>
+      <c r="G175" t="s">
         <v>39</v>
-      </c>
-      <c r="G175" t="s">
-        <v>40</v>
       </c>
       <c r="H175">
         <v>5</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5992206</v>
+        <v>5992203</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K176">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
         <v>2.875</v>
       </c>
       <c r="N176">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P176">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T176">
         <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
+        <v>1.05</v>
+      </c>
+      <c r="AB176">
+        <v>0.45</v>
+      </c>
+      <c r="AC176">
         <v>-0.5</v>
-      </c>
-      <c r="AA176">
-        <v>0.4875</v>
-      </c>
-      <c r="AB176">
-        <v>0.875</v>
-      </c>
-      <c r="AC176">
-        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5992203</v>
+        <v>5992206</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,76 +16203,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K177">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
         <v>2.875</v>
       </c>
       <c r="N177">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y177">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AB177">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16384,7 +16384,7 @@
         <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16559,7 +16559,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
         <v>33</v>
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>5992209</v>
+        <v>5992213</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,40 +16648,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K182">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L182">
+        <v>4.2</v>
+      </c>
+      <c r="M182">
+        <v>1.45</v>
+      </c>
+      <c r="N182">
         <v>5</v>
       </c>
-      <c r="M182">
-        <v>6.5</v>
-      </c>
-      <c r="N182">
-        <v>1.444</v>
-      </c>
       <c r="O182">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P182">
-        <v>6.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q182">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R182">
         <v>1.925</v>
@@ -16690,34 +16690,34 @@
         <v>1.925</v>
       </c>
       <c r="T182">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W182">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
         <v>0.925</v>
       </c>
-      <c r="AA182">
-        <v>-1</v>
-      </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC182">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>5992213</v>
+        <v>5992211</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="s">
+        <v>46</v>
+      </c>
+      <c r="K183">
+        <v>2.6</v>
+      </c>
+      <c r="L183">
+        <v>3.4</v>
+      </c>
+      <c r="M183">
+        <v>2.4</v>
+      </c>
+      <c r="N183">
+        <v>2.7</v>
+      </c>
+      <c r="O183">
+        <v>3.6</v>
+      </c>
+      <c r="P183">
+        <v>2.45</v>
+      </c>
+      <c r="Q183">
         <v>0</v>
       </c>
-      <c r="I183">
-        <v>6</v>
-      </c>
-      <c r="J183" t="s">
-        <v>45</v>
-      </c>
-      <c r="K183">
-        <v>6</v>
-      </c>
-      <c r="L183">
-        <v>4.2</v>
-      </c>
-      <c r="M183">
-        <v>1.45</v>
-      </c>
-      <c r="N183">
-        <v>5</v>
-      </c>
-      <c r="O183">
-        <v>4.5</v>
-      </c>
-      <c r="P183">
-        <v>1.533</v>
-      </c>
-      <c r="Q183">
-        <v>1</v>
-      </c>
       <c r="R183">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S183">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T183">
         <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V183">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA183">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>5992211</v>
+        <v>5992209</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,49 +16826,49 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H184">
         <v>2</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>46</v>
       </c>
       <c r="K184">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L184">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="N184">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O184">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P184">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R184">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S184">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U184">
         <v>1.875</v>
@@ -16877,7 +16877,7 @@
         <v>1.975</v>
       </c>
       <c r="W184">
-        <v>1.7</v>
+        <v>0.444</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16886,16 +16886,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>5992220</v>
+        <v>5992222</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,76 +17004,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K186">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="L186">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M186">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N186">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P186">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R186">
+        <v>1.95</v>
+      </c>
+      <c r="S186">
         <v>1.9</v>
       </c>
-      <c r="S186">
+      <c r="T186">
+        <v>3</v>
+      </c>
+      <c r="U186">
+        <v>1.9</v>
+      </c>
+      <c r="V186">
         <v>1.95</v>
       </c>
-      <c r="T186">
-        <v>2.75</v>
-      </c>
-      <c r="U186">
-        <v>1.825</v>
-      </c>
-      <c r="V186">
-        <v>2.025</v>
-      </c>
       <c r="W186">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
+        <v>-1</v>
+      </c>
+      <c r="AA186">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA186">
-        <v>-1</v>
-      </c>
       <c r="AB186">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>5992219</v>
+        <v>5992220</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,76 +17093,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I187">
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K187">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L187">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M187">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="N187">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O187">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q187">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S187">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA187">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>5992222</v>
+        <v>5992219</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,49 +17182,49 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K188">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="L188">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="N188">
-        <v>1.444</v>
+        <v>4.75</v>
       </c>
       <c r="O188">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P188">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="Q188">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S188">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
         <v>1.9</v>
@@ -17236,22 +17236,22 @@
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA188">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC188">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17360,7 +17360,7 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G190" t="s">
         <v>37</v>
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>5992218</v>
+        <v>5992221</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,13 +17449,13 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H191">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -17464,43 +17464,43 @@
         <v>46</v>
       </c>
       <c r="K191">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L191">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M191">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N191">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O191">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P191">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U191">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V191">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17509,16 +17509,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>5992221</v>
+        <v>5992218</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17538,13 +17538,13 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -17553,61 +17553,61 @@
         <v>46</v>
       </c>
       <c r="K192">
+        <v>2.25</v>
+      </c>
+      <c r="L192">
+        <v>3.3</v>
+      </c>
+      <c r="M192">
+        <v>3.2</v>
+      </c>
+      <c r="N192">
+        <v>2.15</v>
+      </c>
+      <c r="O192">
+        <v>3.3</v>
+      </c>
+      <c r="P192">
+        <v>3.4</v>
+      </c>
+      <c r="Q192">
+        <v>-0.25</v>
+      </c>
+      <c r="R192">
+        <v>1.85</v>
+      </c>
+      <c r="S192">
+        <v>2</v>
+      </c>
+      <c r="T192">
+        <v>2.5</v>
+      </c>
+      <c r="U192">
         <v>1.95</v>
       </c>
-      <c r="L192">
-        <v>3.5</v>
-      </c>
-      <c r="M192">
-        <v>3.8</v>
-      </c>
-      <c r="N192">
-        <v>1.95</v>
-      </c>
-      <c r="O192">
-        <v>3.5</v>
-      </c>
-      <c r="P192">
-        <v>3.8</v>
-      </c>
-      <c r="Q192">
-        <v>-0.5</v>
-      </c>
-      <c r="R192">
-        <v>2.025</v>
-      </c>
-      <c r="S192">
-        <v>1.825</v>
-      </c>
-      <c r="T192">
-        <v>2.75</v>
-      </c>
-      <c r="U192">
-        <v>1.975</v>
-      </c>
       <c r="V192">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
+        <v>1.15</v>
+      </c>
+      <c r="X192">
+        <v>-1</v>
+      </c>
+      <c r="Y192">
+        <v>-1</v>
+      </c>
+      <c r="Z192">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA192">
+        <v>-1</v>
+      </c>
+      <c r="AB192">
         <v>0.95</v>
       </c>
-      <c r="X192">
-        <v>-1</v>
-      </c>
-      <c r="Y192">
-        <v>-1</v>
-      </c>
-      <c r="Z192">
-        <v>1.025</v>
-      </c>
-      <c r="AA192">
-        <v>-1</v>
-      </c>
-      <c r="AB192">
-        <v>0.4875</v>
-      </c>
       <c r="AC192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17704,7 +17704,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>5992228</v>
+        <v>5992230</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17716,76 +17716,76 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K194">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="L194">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M194">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="N194">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O194">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P194">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q194">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R194">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S194">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T194">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U194">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X194">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA194">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB194">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC194">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17882,7 +17882,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5992230</v>
+        <v>5992228</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17894,76 +17894,76 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K196">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M196">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N196">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="O196">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P196">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R196">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S196">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T196">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA196">
+        <v>-0</v>
+      </c>
+      <c r="AB196">
         <v>-0.5</v>
       </c>
-      <c r="AB196">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17986,7 +17986,7 @@
         <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18060,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>5992229</v>
+        <v>5992225</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18072,58 +18072,58 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H198">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>46</v>
       </c>
       <c r="K198">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L198">
+        <v>3.4</v>
+      </c>
+      <c r="M198">
         <v>3.3</v>
       </c>
-      <c r="M198">
-        <v>2.55</v>
-      </c>
       <c r="N198">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O198">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P198">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q198">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18132,16 +18132,16 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA198">
         <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18149,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>5992225</v>
+        <v>5992229</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18161,58 +18161,58 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H199">
+        <v>4</v>
+      </c>
+      <c r="I199">
         <v>1</v>
-      </c>
-      <c r="I199">
-        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>46</v>
       </c>
       <c r="K199">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L199">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M199">
+        <v>2.55</v>
+      </c>
+      <c r="N199">
+        <v>3</v>
+      </c>
+      <c r="O199">
         <v>3.3</v>
       </c>
-      <c r="N199">
-        <v>1.909</v>
-      </c>
-      <c r="O199">
-        <v>3.5</v>
-      </c>
       <c r="P199">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q199">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S199">
+        <v>2.025</v>
+      </c>
+      <c r="T199">
+        <v>2.5</v>
+      </c>
+      <c r="U199">
         <v>1.85</v>
       </c>
-      <c r="T199">
-        <v>2.75</v>
-      </c>
-      <c r="U199">
-        <v>1.9</v>
-      </c>
       <c r="V199">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W199">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18221,16 +18221,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18327,7 +18327,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>5992234</v>
+        <v>5992236</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18339,58 +18339,58 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F201" t="s">
+        <v>43</v>
+      </c>
+      <c r="G201" t="s">
         <v>40</v>
-      </c>
-      <c r="G201" t="s">
-        <v>41</v>
       </c>
       <c r="H201">
         <v>3</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
         <v>46</v>
       </c>
       <c r="K201">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L201">
+        <v>3.8</v>
+      </c>
+      <c r="M201">
+        <v>4.5</v>
+      </c>
+      <c r="N201">
+        <v>1.95</v>
+      </c>
+      <c r="O201">
+        <v>3.6</v>
+      </c>
+      <c r="P201">
         <v>3.75</v>
       </c>
-      <c r="M201">
-        <v>3.6</v>
-      </c>
-      <c r="N201">
-        <v>1.7</v>
-      </c>
-      <c r="O201">
-        <v>4</v>
-      </c>
-      <c r="P201">
-        <v>4.2</v>
-      </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>1.9</v>
+      </c>
+      <c r="T201">
+        <v>2.75</v>
+      </c>
+      <c r="U201">
         <v>1.875</v>
       </c>
-      <c r="S201">
+      <c r="V201">
         <v>1.975</v>
       </c>
-      <c r="T201">
-        <v>3</v>
-      </c>
-      <c r="U201">
-        <v>1.975</v>
-      </c>
-      <c r="V201">
-        <v>1.875</v>
-      </c>
       <c r="W201">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18399,16 +18399,16 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>5992233</v>
+        <v>5992234</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,10 +18428,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G202" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H202">
         <v>3</v>
@@ -18443,43 +18443,43 @@
         <v>46</v>
       </c>
       <c r="K202">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L202">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M202">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N202">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O202">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P202">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q202">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S202">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T202">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U202">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W202">
-        <v>0.363</v>
+        <v>0.7</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18488,13 +18488,13 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5992236</v>
+        <v>5992233</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,40 +18517,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G203" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H203">
         <v>3</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>46</v>
       </c>
       <c r="K203">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L203">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M203">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N203">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="O203">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P203">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="Q203">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R203">
         <v>1.95</v>
@@ -18559,16 +18559,16 @@
         <v>1.9</v>
       </c>
       <c r="T203">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U203">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V203">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
-        <v>0.95</v>
+        <v>0.363</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18583,10 +18583,10 @@
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18962,7 +18962,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
         <v>31</v>
@@ -19306,7 +19306,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>5992246</v>
+        <v>5992241</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,76 +19318,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K212">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L212">
         <v>3.6</v>
       </c>
       <c r="M212">
+        <v>3.5</v>
+      </c>
+      <c r="N212">
+        <v>1.75</v>
+      </c>
+      <c r="O212">
+        <v>3.8</v>
+      </c>
+      <c r="P212">
         <v>4.2</v>
       </c>
-      <c r="N212">
-        <v>1.8</v>
-      </c>
-      <c r="O212">
-        <v>3.6</v>
-      </c>
-      <c r="P212">
-        <v>4</v>
-      </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R212">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U212">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V212">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z212">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB212">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5992241</v>
+        <v>5992246</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,76 +19407,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H213">
+        <v>4</v>
+      </c>
+      <c r="I213">
         <v>0</v>
       </c>
-      <c r="I213">
-        <v>2</v>
-      </c>
       <c r="J213" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L213">
         <v>3.6</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N213">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O213">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S213">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U213">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA213">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC213">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19496,10 +19496,10 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G214" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19674,7 +19674,7 @@
         <v>45223.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G216" t="s">
         <v>30</v>
@@ -19855,7 +19855,7 @@
         <v>44</v>
       </c>
       <c r="G218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -20033,7 +20033,7 @@
         <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H220">
         <v>4</v>
@@ -20208,7 +20208,7 @@
         <v>45228.375</v>
       </c>
       <c r="F222" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G222" t="s">
         <v>31</v>
@@ -20389,7 +20389,7 @@
         <v>30</v>
       </c>
       <c r="G224" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -20552,7 +20552,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>5992256</v>
+        <v>5992259</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20564,13 +20564,13 @@
         <v>45234.375</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -20579,43 +20579,43 @@
         <v>46</v>
       </c>
       <c r="K226">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L226">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M226">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N226">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O226">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P226">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q226">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
+        <v>1.975</v>
+      </c>
+      <c r="S226">
         <v>1.875</v>
       </c>
-      <c r="S226">
-        <v>1.975</v>
-      </c>
       <c r="T226">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V226">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20624,7 +20624,7 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA226">
         <v>-1</v>
@@ -20633,7 +20633,7 @@
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20641,7 +20641,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5992259</v>
+        <v>5992262</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20653,76 +20653,76 @@
         <v>45234.375</v>
       </c>
       <c r="F227" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K227">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M227">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="N227">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O227">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P227">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R227">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S227">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T227">
         <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W227">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z227">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC227">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5992262</v>
+        <v>5992256</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,76 +20742,76 @@
         <v>45234.375</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G228" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H228">
         <v>1</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K228">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="L228">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M228">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N228">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O228">
         <v>3.5</v>
       </c>
       <c r="P228">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q228">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R228">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S228">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T228">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U228">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V228">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA228">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20831,7 +20831,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G229" t="s">
         <v>38</v>
@@ -20920,7 +20920,7 @@
         <v>45235.375</v>
       </c>
       <c r="F230" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G230" t="s">
         <v>37</v>
@@ -21101,7 +21101,7 @@
         <v>32</v>
       </c>
       <c r="G232" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H232">
         <v>2</v>
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>5992268</v>
+        <v>5992265</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,46 +21187,46 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K233">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="L233">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="M233">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N233">
-        <v>1.85</v>
+        <v>1.615</v>
       </c>
       <c r="O233">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P233">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q233">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T233">
         <v>3</v>
@@ -21241,16 +21241,16 @@
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB233">
         <v>-1</v>
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>5992267</v>
+        <v>5992264</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,76 +21276,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G234" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K234">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L234">
+        <v>3.6</v>
+      </c>
+      <c r="M234">
+        <v>2.625</v>
+      </c>
+      <c r="N234">
+        <v>1.833</v>
+      </c>
+      <c r="O234">
+        <v>4</v>
+      </c>
+      <c r="P234">
         <v>3.5</v>
       </c>
-      <c r="M234">
-        <v>2.75</v>
-      </c>
-      <c r="N234">
-        <v>2.7</v>
-      </c>
-      <c r="O234">
-        <v>3.4</v>
-      </c>
-      <c r="P234">
-        <v>2.3</v>
-      </c>
       <c r="Q234">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S234">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T234">
         <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V234">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W234">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z234">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB234">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>5992266</v>
+        <v>5992271</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G235" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K235">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="L235">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="M235">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="N235">
-        <v>2.875</v>
+        <v>1.181</v>
       </c>
       <c r="O235">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P235">
-        <v>2.15</v>
+        <v>13</v>
       </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R235">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S235">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T235">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U235">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA235">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC235">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>5992265</v>
+        <v>5992270</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G236" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
         <v>0</v>
       </c>
-      <c r="I236">
-        <v>2</v>
-      </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K236">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L236">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M236">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N236">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="O236">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P236">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S236">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U236">
+        <v>2.025</v>
+      </c>
+      <c r="V236">
         <v>1.825</v>
       </c>
-      <c r="V236">
-        <v>2.025</v>
-      </c>
       <c r="W236">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA236">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>5992271</v>
+        <v>5992268</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237" t="s">
+        <v>47</v>
+      </c>
+      <c r="K237">
+        <v>2.375</v>
+      </c>
+      <c r="L237">
+        <v>3.7</v>
+      </c>
+      <c r="M237">
+        <v>2.5</v>
+      </c>
+      <c r="N237">
+        <v>1.85</v>
+      </c>
+      <c r="O237">
         <v>4</v>
       </c>
-      <c r="I237">
-        <v>0</v>
-      </c>
-      <c r="J237" t="s">
-        <v>46</v>
-      </c>
-      <c r="K237">
-        <v>1.333</v>
-      </c>
-      <c r="L237">
-        <v>4.6</v>
-      </c>
-      <c r="M237">
-        <v>8</v>
-      </c>
-      <c r="N237">
-        <v>1.181</v>
-      </c>
-      <c r="O237">
-        <v>6</v>
-      </c>
       <c r="P237">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="Q237">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S237">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T237">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U237">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W237">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB237">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>5992264</v>
+        <v>5992267</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H238">
+        <v>3</v>
+      </c>
+      <c r="I238">
         <v>0</v>
       </c>
-      <c r="I238">
-        <v>1</v>
-      </c>
       <c r="J238" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K238">
+        <v>2.25</v>
+      </c>
+      <c r="L238">
+        <v>3.5</v>
+      </c>
+      <c r="M238">
+        <v>2.75</v>
+      </c>
+      <c r="N238">
+        <v>2.7</v>
+      </c>
+      <c r="O238">
+        <v>3.4</v>
+      </c>
+      <c r="P238">
         <v>2.3</v>
       </c>
-      <c r="L238">
-        <v>3.6</v>
-      </c>
-      <c r="M238">
-        <v>2.625</v>
-      </c>
-      <c r="N238">
-        <v>1.833</v>
-      </c>
-      <c r="O238">
-        <v>4</v>
-      </c>
-      <c r="P238">
-        <v>3.5</v>
-      </c>
       <c r="Q238">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R238">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S238">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T238">
         <v>2.75</v>
       </c>
       <c r="U238">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA238">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC238">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>5992270</v>
+        <v>5992266</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G239" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H239">
         <v>1</v>
       </c>
       <c r="I239">
+        <v>2</v>
+      </c>
+      <c r="J239" t="s">
+        <v>45</v>
+      </c>
+      <c r="K239">
+        <v>2.8</v>
+      </c>
+      <c r="L239">
+        <v>3.6</v>
+      </c>
+      <c r="M239">
+        <v>2.2</v>
+      </c>
+      <c r="N239">
+        <v>2.875</v>
+      </c>
+      <c r="O239">
+        <v>3.6</v>
+      </c>
+      <c r="P239">
+        <v>2.15</v>
+      </c>
+      <c r="Q239">
+        <v>0.25</v>
+      </c>
+      <c r="R239">
+        <v>1.95</v>
+      </c>
+      <c r="S239">
+        <v>1.9</v>
+      </c>
+      <c r="T239">
+        <v>3</v>
+      </c>
+      <c r="U239">
+        <v>2.05</v>
+      </c>
+      <c r="V239">
+        <v>1.8</v>
+      </c>
+      <c r="W239">
+        <v>-1</v>
+      </c>
+      <c r="X239">
+        <v>-1</v>
+      </c>
+      <c r="Y239">
+        <v>1.15</v>
+      </c>
+      <c r="Z239">
+        <v>-1</v>
+      </c>
+      <c r="AA239">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB239">
         <v>0</v>
       </c>
-      <c r="J239" t="s">
-        <v>46</v>
-      </c>
-      <c r="K239">
-        <v>2.5</v>
-      </c>
-      <c r="L239">
-        <v>3.4</v>
-      </c>
-      <c r="M239">
-        <v>2.5</v>
-      </c>
-      <c r="N239">
-        <v>2.5</v>
-      </c>
-      <c r="O239">
-        <v>3.3</v>
-      </c>
-      <c r="P239">
-        <v>2.55</v>
-      </c>
-      <c r="Q239">
-        <v>0</v>
-      </c>
-      <c r="R239">
-        <v>1.9</v>
-      </c>
-      <c r="S239">
-        <v>1.95</v>
-      </c>
-      <c r="T239">
-        <v>2.75</v>
-      </c>
-      <c r="U239">
-        <v>2.025</v>
-      </c>
-      <c r="V239">
-        <v>1.825</v>
-      </c>
-      <c r="W239">
-        <v>1.5</v>
-      </c>
-      <c r="X239">
-        <v>-1</v>
-      </c>
-      <c r="Y239">
-        <v>-1</v>
-      </c>
-      <c r="Z239">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA239">
-        <v>-1</v>
-      </c>
-      <c r="AB239">
-        <v>-1</v>
-      </c>
       <c r="AC239">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21813,7 +21813,7 @@
         <v>29</v>
       </c>
       <c r="G240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H240">
         <v>4</v>

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6474544</v>
+        <v>6478151</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,76 +5345,76 @@
         <v>45061.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K55">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L55">
         <v>3.3</v>
       </c>
       <c r="M55">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O55">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P55">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T55">
         <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V55">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X55">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6478151</v>
+        <v>6474544</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45061.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L56">
         <v>3.3</v>
       </c>
       <c r="M56">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N56">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O56">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P56">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S56">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
         <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5992097</v>
+        <v>5992104</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,55 +5790,55 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
         <v>46</v>
       </c>
       <c r="K60">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M60">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="N60">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O60">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P60">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5847,19 +5847,19 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>4.25</v>
+        <v>1.6</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC60">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5992104</v>
+        <v>5992097</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,55 +5879,55 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L61">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M61">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N61">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O61">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V61">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5936,19 +5936,19 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>1.6</v>
+        <v>4.25</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6474540</v>
+        <v>6480043</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="L87">
+        <v>3.3</v>
+      </c>
+      <c r="M87">
+        <v>2.75</v>
+      </c>
+      <c r="N87">
+        <v>2.3</v>
+      </c>
+      <c r="O87">
         <v>3.4</v>
       </c>
-      <c r="M87">
-        <v>2.1</v>
-      </c>
-      <c r="N87">
-        <v>4</v>
-      </c>
-      <c r="O87">
-        <v>3.6</v>
-      </c>
       <c r="P87">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q87">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB87">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6474541</v>
+        <v>6474540</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,55 +8282,55 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
         <v>46</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
         <v>-1</v>
@@ -8339,19 +8339,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.1</v>
+        <v>0.75</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC88">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6480043</v>
+        <v>6474541</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N89">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O89">
         <v>3.4</v>
       </c>
       <c r="P89">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q89">
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S89">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
         <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5992142</v>
+        <v>5992147</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K111">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="L111">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N111">
-        <v>1.166</v>
+        <v>3</v>
       </c>
       <c r="O111">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="Q111">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
+        <v>1.9</v>
+      </c>
+      <c r="S111">
+        <v>1.95</v>
+      </c>
+      <c r="T111">
+        <v>2.5</v>
+      </c>
+      <c r="U111">
+        <v>1.875</v>
+      </c>
+      <c r="V111">
         <v>1.975</v>
       </c>
-      <c r="S111">
-        <v>1.875</v>
-      </c>
-      <c r="T111">
-        <v>3.25</v>
-      </c>
-      <c r="U111">
-        <v>1.975</v>
-      </c>
-      <c r="V111">
-        <v>1.875</v>
-      </c>
       <c r="W111">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X111">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA111">
+        <v>-1</v>
+      </c>
+      <c r="AB111">
         <v>0.875</v>
       </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
       <c r="AC111">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5992147</v>
+        <v>5992142</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K112">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M112">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="N112">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P112">
-        <v>2.15</v>
+        <v>11</v>
       </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U112">
+        <v>1.975</v>
+      </c>
+      <c r="V112">
         <v>1.875</v>
       </c>
-      <c r="V112">
-        <v>1.975</v>
-      </c>
       <c r="W112">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
         <v>0.875</v>
-      </c>
-      <c r="AC112">
-        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5993419</v>
+        <v>5992178</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="N140">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O140">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q140">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y140">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5992178</v>
+        <v>5993419</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K141">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M141">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="N141">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O141">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P141">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q141">
+        <v>-1.75</v>
+      </c>
+      <c r="R141">
+        <v>1.875</v>
+      </c>
+      <c r="S141">
+        <v>1.975</v>
+      </c>
+      <c r="T141">
+        <v>3.25</v>
+      </c>
+      <c r="U141">
+        <v>2.025</v>
+      </c>
+      <c r="V141">
+        <v>1.825</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>11</v>
+      </c>
+      <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB141">
         <v>-0.5</v>
       </c>
-      <c r="R141">
-        <v>1.925</v>
-      </c>
-      <c r="S141">
-        <v>1.925</v>
-      </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
-      <c r="U141">
-        <v>1.95</v>
-      </c>
-      <c r="V141">
-        <v>1.9</v>
-      </c>
-      <c r="W141">
-        <v>-1</v>
-      </c>
-      <c r="X141">
-        <v>2.5</v>
-      </c>
-      <c r="Y141">
-        <v>-1</v>
-      </c>
-      <c r="Z141">
-        <v>-1</v>
-      </c>
-      <c r="AA141">
-        <v>0.925</v>
-      </c>
-      <c r="AB141">
-        <v>-1</v>
-      </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5992185</v>
+        <v>5992182</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,13 +13622,13 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13637,25 +13637,25 @@
         <v>45</v>
       </c>
       <c r="K148">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L148">
         <v>3.4</v>
       </c>
       <c r="M148">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N148">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O148">
         <v>3.3</v>
       </c>
       <c r="P148">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R148">
         <v>1.925</v>
@@ -13664,16 +13664,16 @@
         <v>1.925</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13688,10 +13688,10 @@
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC148">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5992182</v>
+        <v>5992185</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,13 +13711,13 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13726,25 +13726,25 @@
         <v>45</v>
       </c>
       <c r="K149">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L149">
         <v>3.4</v>
       </c>
       <c r="M149">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N149">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O149">
         <v>3.3</v>
       </c>
       <c r="P149">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
         <v>1.925</v>
@@ -13753,16 +13753,16 @@
         <v>1.925</v>
       </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V149">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W149">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,10 +13777,10 @@
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5993420</v>
+        <v>5992188</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,13 +14601,13 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -14616,43 +14616,43 @@
         <v>45</v>
       </c>
       <c r="K159">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="L159">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M159">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="N159">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="O159">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P159">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R159">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S159">
+        <v>1.825</v>
+      </c>
+      <c r="T159">
+        <v>2.75</v>
+      </c>
+      <c r="U159">
         <v>1.85</v>
       </c>
-      <c r="T159">
-        <v>2.5</v>
-      </c>
-      <c r="U159">
-        <v>1.875</v>
-      </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14661,13 +14661,13 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5992188</v>
+        <v>5993420</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,13 +14690,13 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -14705,43 +14705,43 @@
         <v>45</v>
       </c>
       <c r="K160">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="L160">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="N160">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="O160">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q160">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V160">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14750,13 +14750,13 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -15390,7 +15390,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5992200</v>
+        <v>5992197</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15402,49 +15402,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
         <v>45</v>
       </c>
       <c r="K168">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L168">
         <v>3.4</v>
       </c>
       <c r="M168">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N168">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O168">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q168">
         <v>-0.25</v>
       </c>
       <c r="R168">
+        <v>1.8</v>
+      </c>
+      <c r="S168">
         <v>2.05</v>
       </c>
-      <c r="S168">
-        <v>1.8</v>
-      </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
         <v>1.975</v>
@@ -15453,7 +15453,7 @@
         <v>1.875</v>
       </c>
       <c r="W168">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15462,16 +15462,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC168">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15479,7 +15479,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5992197</v>
+        <v>5992200</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15491,49 +15491,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
         <v>45</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L169">
         <v>3.4</v>
       </c>
       <c r="M169">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N169">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P169">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q169">
         <v>-0.25</v>
       </c>
       <c r="R169">
+        <v>2.05</v>
+      </c>
+      <c r="S169">
         <v>1.8</v>
       </c>
-      <c r="S169">
-        <v>2.05</v>
-      </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
         <v>1.975</v>
@@ -15542,7 +15542,7 @@
         <v>1.875</v>
       </c>
       <c r="W169">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15551,16 +15551,16 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5992205</v>
+        <v>5992207</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,55 +15669,55 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
         <v>47</v>
       </c>
       <c r="K171">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L171">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N171">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O171">
         <v>3.8</v>
       </c>
       <c r="P171">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q171">
         <v>-0.75</v>
       </c>
       <c r="R171">
+        <v>1.825</v>
+      </c>
+      <c r="S171">
         <v>2.025</v>
       </c>
-      <c r="S171">
-        <v>1.825</v>
-      </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15732,13 +15732,13 @@
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC171">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5992207</v>
+        <v>5992205</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,55 +15758,55 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
         <v>47</v>
       </c>
       <c r="K172">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M172">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N172">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O172">
         <v>3.8</v>
       </c>
       <c r="P172">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q172">
         <v>-0.75</v>
       </c>
       <c r="R172">
+        <v>2.025</v>
+      </c>
+      <c r="S172">
         <v>1.825</v>
       </c>
-      <c r="S172">
-        <v>2.025</v>
-      </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15821,13 +15821,13 @@
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5992203</v>
+        <v>5992206</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L176">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M176">
         <v>2.875</v>
       </c>
       <c r="N176">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O176">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q176">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S176">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T176">
         <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V176">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y176">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA176">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AB176">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5992206</v>
+        <v>5992203</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,76 +16203,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K177">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
         <v>2.875</v>
       </c>
       <c r="N177">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z177">
+        <v>-1</v>
+      </c>
+      <c r="AA177">
+        <v>1.05</v>
+      </c>
+      <c r="AB177">
+        <v>0.45</v>
+      </c>
+      <c r="AC177">
         <v>-0.5</v>
-      </c>
-      <c r="AA177">
-        <v>0.4875</v>
-      </c>
-      <c r="AB177">
-        <v>0.875</v>
-      </c>
-      <c r="AC177">
-        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>5992220</v>
+        <v>5992219</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,76 +17093,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G187" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187" t="s">
+        <v>46</v>
+      </c>
+      <c r="K187">
         <v>4</v>
       </c>
-      <c r="I187">
-        <v>2</v>
-      </c>
-      <c r="J187" t="s">
-        <v>45</v>
-      </c>
-      <c r="K187">
-        <v>2.75</v>
-      </c>
       <c r="L187">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M187">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="N187">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P187">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q187">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R187">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V187">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z187">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB187">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>5992219</v>
+        <v>5992220</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,76 +17182,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I188">
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K188">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M188">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="N188">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O188">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P188">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q188">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
         <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA188">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>5992221</v>
+        <v>5992217</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K190">
+        <v>3.6</v>
+      </c>
+      <c r="L190">
+        <v>3.6</v>
+      </c>
+      <c r="M190">
         <v>1.95</v>
       </c>
-      <c r="L190">
-        <v>3.5</v>
-      </c>
-      <c r="M190">
+      <c r="N190">
+        <v>4.2</v>
+      </c>
+      <c r="O190">
         <v>3.8</v>
       </c>
-      <c r="N190">
-        <v>1.95</v>
-      </c>
-      <c r="O190">
-        <v>3.5</v>
-      </c>
       <c r="P190">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R190">
+        <v>1.825</v>
+      </c>
+      <c r="S190">
         <v>2.025</v>
-      </c>
-      <c r="S190">
-        <v>1.825</v>
       </c>
       <c r="T190">
         <v>2.75</v>
       </c>
       <c r="U190">
+        <v>1.875</v>
+      </c>
+      <c r="V190">
         <v>1.975</v>
       </c>
-      <c r="V190">
-        <v>1.875</v>
-      </c>
       <c r="W190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z190">
+        <v>-1</v>
+      </c>
+      <c r="AA190">
         <v>1.025</v>
       </c>
-      <c r="AA190">
-        <v>-1</v>
-      </c>
       <c r="AB190">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC190">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>5992217</v>
+        <v>5992221</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17538,76 +17538,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
         <v>1</v>
       </c>
-      <c r="I192">
-        <v>4</v>
-      </c>
       <c r="J192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K192">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L192">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M192">
+        <v>3.8</v>
+      </c>
+      <c r="N192">
         <v>1.95</v>
       </c>
-      <c r="N192">
-        <v>4.2</v>
-      </c>
       <c r="O192">
+        <v>3.5</v>
+      </c>
+      <c r="P192">
         <v>3.8</v>
       </c>
-      <c r="P192">
-        <v>1.75</v>
-      </c>
       <c r="Q192">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R192">
+        <v>2.025</v>
+      </c>
+      <c r="S192">
         <v>1.825</v>
-      </c>
-      <c r="S192">
-        <v>2.025</v>
       </c>
       <c r="T192">
         <v>2.75</v>
       </c>
       <c r="U192">
+        <v>1.975</v>
+      </c>
+      <c r="V192">
         <v>1.875</v>
       </c>
-      <c r="V192">
-        <v>1.975</v>
-      </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA192">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17793,7 +17793,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>5992228</v>
+        <v>5992230</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17805,76 +17805,76 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K195">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="L195">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M195">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="N195">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O195">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P195">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q195">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T195">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X195">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA195">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB195">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC195">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17882,7 +17882,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5992230</v>
+        <v>5992228</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17894,76 +17894,76 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K196">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M196">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N196">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="O196">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P196">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R196">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S196">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T196">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA196">
+        <v>-0</v>
+      </c>
+      <c r="AB196">
         <v>-0.5</v>
       </c>
-      <c r="AB196">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18149,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>5993423</v>
+        <v>5992229</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18161,76 +18161,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G199" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I199">
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K199">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="L199">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M199">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="N199">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O199">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P199">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q199">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S199">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V199">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA199">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC199">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18238,7 +18238,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>5992229</v>
+        <v>5993423</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18250,76 +18250,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H200">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I200">
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K200">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="L200">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M200">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="N200">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O200">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P200">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q200">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R200">
+        <v>1.875</v>
+      </c>
+      <c r="S200">
+        <v>1.975</v>
+      </c>
+      <c r="T200">
+        <v>2.75</v>
+      </c>
+      <c r="U200">
         <v>1.825</v>
       </c>
-      <c r="S200">
+      <c r="V200">
         <v>2.025</v>
       </c>
-      <c r="T200">
-        <v>2.5</v>
-      </c>
-      <c r="U200">
-        <v>1.85</v>
-      </c>
-      <c r="V200">
-        <v>2</v>
-      </c>
       <c r="W200">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z200">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB200">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>5992260</v>
+        <v>5992263</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,76 +21009,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G231" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
         <v>47</v>
       </c>
       <c r="K231">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L231">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M231">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N231">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O231">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P231">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="Q231">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R231">
+        <v>1.975</v>
+      </c>
+      <c r="S231">
+        <v>1.875</v>
+      </c>
+      <c r="T231">
+        <v>2.75</v>
+      </c>
+      <c r="U231">
+        <v>1.825</v>
+      </c>
+      <c r="V231">
         <v>2.025</v>
       </c>
-      <c r="S231">
-        <v>1.825</v>
-      </c>
-      <c r="T231">
-        <v>3</v>
-      </c>
-      <c r="U231">
-        <v>1.95</v>
-      </c>
-      <c r="V231">
-        <v>1.9</v>
-      </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB231">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>5992263</v>
+        <v>5992260</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,76 +21098,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G232" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J232" t="s">
         <v>47</v>
       </c>
       <c r="K232">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L232">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M232">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="N232">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O232">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P232">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q232">
+        <v>0.25</v>
+      </c>
+      <c r="R232">
+        <v>2.025</v>
+      </c>
+      <c r="S232">
+        <v>1.825</v>
+      </c>
+      <c r="T232">
+        <v>3</v>
+      </c>
+      <c r="U232">
+        <v>1.95</v>
+      </c>
+      <c r="V232">
+        <v>1.9</v>
+      </c>
+      <c r="W232">
+        <v>-1</v>
+      </c>
+      <c r="X232">
+        <v>2.8</v>
+      </c>
+      <c r="Y232">
+        <v>-1</v>
+      </c>
+      <c r="Z232">
+        <v>0.5125</v>
+      </c>
+      <c r="AA232">
         <v>-0.5</v>
       </c>
-      <c r="R232">
-        <v>1.975</v>
-      </c>
-      <c r="S232">
-        <v>1.875</v>
-      </c>
-      <c r="T232">
-        <v>2.75</v>
-      </c>
-      <c r="U232">
-        <v>1.825</v>
-      </c>
-      <c r="V232">
-        <v>2.025</v>
-      </c>
-      <c r="W232">
-        <v>-1</v>
-      </c>
-      <c r="X232">
-        <v>2.4</v>
-      </c>
-      <c r="Y232">
-        <v>-1</v>
-      </c>
-      <c r="Z232">
-        <v>-1</v>
-      </c>
-      <c r="AA232">
-        <v>0.875</v>
-      </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC232">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>5992271</v>
+        <v>5992264</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,76 +21187,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G233" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233" t="s">
+        <v>46</v>
+      </c>
+      <c r="K233">
+        <v>2.3</v>
+      </c>
+      <c r="L233">
+        <v>3.6</v>
+      </c>
+      <c r="M233">
+        <v>2.625</v>
+      </c>
+      <c r="N233">
+        <v>1.833</v>
+      </c>
+      <c r="O233">
         <v>4</v>
       </c>
-      <c r="I233">
-        <v>0</v>
-      </c>
-      <c r="J233" t="s">
-        <v>45</v>
-      </c>
-      <c r="K233">
-        <v>1.333</v>
-      </c>
-      <c r="L233">
-        <v>4.6</v>
-      </c>
-      <c r="M233">
-        <v>8</v>
-      </c>
-      <c r="N233">
-        <v>1.181</v>
-      </c>
-      <c r="O233">
-        <v>6</v>
-      </c>
       <c r="P233">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="Q233">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T233">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V233">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W233">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z233">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB233">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>5992264</v>
+        <v>5992271</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,76 +21276,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H234">
+        <v>4</v>
+      </c>
+      <c r="I234">
         <v>0</v>
       </c>
-      <c r="I234">
-        <v>1</v>
-      </c>
       <c r="J234" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K234">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L234">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="M234">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="N234">
-        <v>1.833</v>
+        <v>1.181</v>
       </c>
       <c r="O234">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P234">
+        <v>13</v>
+      </c>
+      <c r="Q234">
+        <v>-2</v>
+      </c>
+      <c r="R234">
+        <v>1.875</v>
+      </c>
+      <c r="S234">
+        <v>1.975</v>
+      </c>
+      <c r="T234">
         <v>3.5</v>
       </c>
-      <c r="Q234">
-        <v>-0.5</v>
-      </c>
-      <c r="R234">
-        <v>1.925</v>
-      </c>
-      <c r="S234">
-        <v>1.925</v>
-      </c>
-      <c r="T234">
-        <v>2.75</v>
-      </c>
       <c r="U234">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V234">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA234">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC234">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -118,10 +118,10 @@
     <t>Ostersunds FK</t>
   </si>
   <si>
-    <t>Jonkopings Sodra</t>
+    <t>Orgryte IS</t>
   </si>
   <si>
-    <t>Orgryte IS</t>
+    <t>Jonkopings Sodra</t>
   </si>
   <si>
     <t>Helsingborg</t>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5992044</v>
+        <v>5993412</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,46 +1076,46 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>47</v>
       </c>
       <c r="K7">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>3.4</v>
       </c>
       <c r="M7">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N7">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P7">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
         <v>1.975</v>
@@ -1127,22 +1127,22 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5993412</v>
+        <v>5992044</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,46 +1165,46 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>47</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L8">
         <v>3.4</v>
       </c>
       <c r="M8">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P8">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
         <v>1.975</v>
@@ -1216,22 +1216,22 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1610,7 +1610,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1877,7 +1877,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>45033.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -2589,7 +2589,7 @@
         <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -3209,10 +3209,10 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
         <v>35</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3654,7 +3654,7 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>43</v>
@@ -4013,7 +4013,7 @@
         <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4369,7 +4369,7 @@
         <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4633,7 +4633,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
         <v>42</v>
@@ -4900,7 +4900,7 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>44</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6478151</v>
+        <v>6474544</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,76 +5345,76 @@
         <v>45061.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L55">
         <v>3.3</v>
       </c>
       <c r="M55">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N55">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O55">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P55">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S55">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
         <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6474544</v>
+        <v>6478151</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45061.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K56">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L56">
         <v>3.3</v>
       </c>
       <c r="M56">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N56">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O56">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T56">
         <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X56">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA56">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5526,7 +5526,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5992104</v>
+        <v>5992097</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,55 +5790,55 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>46</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L60">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M60">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N60">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O60">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P60">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R60">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5847,19 +5847,19 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.6</v>
+        <v>4.25</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB60">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5992097</v>
+        <v>5992104</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,55 +5879,55 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L61">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M61">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="N61">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P61">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
         <v>-1</v>
@@ -5936,19 +5936,19 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>4.25</v>
+        <v>1.6</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC61">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>45069.58333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>29</v>
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5992109</v>
+        <v>5992107</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,76 +6324,76 @@
         <v>45072.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="O66">
         <v>3.6</v>
       </c>
       <c r="P66">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q66">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.95</v>
+      </c>
+      <c r="T66">
+        <v>2.5</v>
+      </c>
+      <c r="U66">
         <v>1.875</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.975</v>
       </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
-      <c r="U66">
-        <v>1.95</v>
-      </c>
-      <c r="V66">
-        <v>1.9</v>
-      </c>
       <c r="W66">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5992107</v>
+        <v>5992109</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,76 +6413,76 @@
         <v>45072.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K67">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N67">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="O67">
         <v>3.6</v>
       </c>
       <c r="P67">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q67">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
+        <v>1.875</v>
+      </c>
+      <c r="S67">
+        <v>1.975</v>
+      </c>
+      <c r="T67">
+        <v>2.75</v>
+      </c>
+      <c r="U67">
+        <v>1.95</v>
+      </c>
+      <c r="V67">
         <v>1.9</v>
       </c>
-      <c r="S67">
-        <v>1.95</v>
-      </c>
-      <c r="T67">
-        <v>2.5</v>
-      </c>
-      <c r="U67">
-        <v>1.875</v>
-      </c>
-      <c r="V67">
-        <v>1.975</v>
-      </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X67">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6502,7 +6502,7 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>30</v>
@@ -6680,7 +6680,7 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
         <v>41</v>
@@ -7481,7 +7481,7 @@
         <v>45078.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>42</v>
@@ -7662,7 +7662,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6480043</v>
+        <v>6474541</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K87">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O87">
         <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
         <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6474540</v>
+        <v>6480043</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="L88">
+        <v>3.3</v>
+      </c>
+      <c r="M88">
+        <v>2.75</v>
+      </c>
+      <c r="N88">
+        <v>2.3</v>
+      </c>
+      <c r="O88">
         <v>3.4</v>
       </c>
-      <c r="M88">
-        <v>2.1</v>
-      </c>
-      <c r="N88">
-        <v>4</v>
-      </c>
-      <c r="O88">
-        <v>3.6</v>
-      </c>
       <c r="P88">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q88">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y88">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB88">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6474541</v>
+        <v>6474540</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,55 +8371,55 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
         <v>46</v>
       </c>
       <c r="K89">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L89">
         <v>3.4</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N89">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q89">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V89">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8428,19 +8428,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>2.1</v>
+        <v>0.75</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC89">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8727,7 +8727,7 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
         <v>31</v>
@@ -8997,7 +8997,7 @@
         <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9175,7 +9175,7 @@
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9531,7 +9531,7 @@
         <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>4</v>
@@ -9973,7 +9973,7 @@
         <v>45122.33333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
@@ -10062,7 +10062,7 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
         <v>36</v>
@@ -10777,7 +10777,7 @@
         <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10955,7 +10955,7 @@
         <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5992150</v>
+        <v>5992152</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,56 +11130,56 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
         <v>46</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
         <v>3.4</v>
       </c>
       <c r="M120">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N120">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O120">
+        <v>3.4</v>
+      </c>
+      <c r="P120">
         <v>3.6</v>
       </c>
-      <c r="P120">
-        <v>4.2</v>
-      </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
+        <v>1.975</v>
+      </c>
+      <c r="S120">
+        <v>1.875</v>
+      </c>
+      <c r="T120">
+        <v>2.5</v>
+      </c>
+      <c r="U120">
         <v>2.025</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.825</v>
       </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>1.85</v>
-      </c>
-      <c r="V120">
-        <v>2</v>
-      </c>
       <c r="W120">
         <v>-1</v>
       </c>
@@ -11187,19 +11187,19 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC120">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5992152</v>
+        <v>5992150</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,55 +11219,55 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
         <v>46</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L121">
         <v>3.4</v>
       </c>
       <c r="M121">
+        <v>3.3</v>
+      </c>
+      <c r="N121">
+        <v>1.727</v>
+      </c>
+      <c r="O121">
         <v>3.6</v>
       </c>
-      <c r="N121">
-        <v>1.909</v>
-      </c>
-      <c r="O121">
-        <v>3.4</v>
-      </c>
       <c r="P121">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11276,19 +11276,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
         <v>30</v>
@@ -11578,7 +11578,7 @@
         <v>42</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>4</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5992163</v>
+        <v>5992160</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,76 +11842,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>47</v>
       </c>
       <c r="K128">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
+        <v>1.909</v>
+      </c>
+      <c r="N128">
+        <v>3.6</v>
+      </c>
+      <c r="O128">
         <v>3.5</v>
       </c>
-      <c r="N128">
-        <v>2.2</v>
-      </c>
-      <c r="O128">
-        <v>3.1</v>
-      </c>
       <c r="P128">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA128">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5992160</v>
+        <v>5992163</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>47</v>
       </c>
       <c r="K129">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N129">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O129">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P129">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
+        <v>1.875</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
         <v>1.925</v>
       </c>
-      <c r="S129">
+      <c r="V129">
         <v>1.925</v>
       </c>
-      <c r="T129">
-        <v>2.75</v>
-      </c>
-      <c r="U129">
-        <v>2</v>
-      </c>
-      <c r="V129">
-        <v>1.85</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12198,7 +12198,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
         <v>32</v>
@@ -12646,7 +12646,7 @@
         <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5992178</v>
+        <v>5993419</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="N140">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P140">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q140">
+        <v>-1.75</v>
+      </c>
+      <c r="R140">
+        <v>1.875</v>
+      </c>
+      <c r="S140">
+        <v>1.975</v>
+      </c>
+      <c r="T140">
+        <v>3.25</v>
+      </c>
+      <c r="U140">
+        <v>2.025</v>
+      </c>
+      <c r="V140">
+        <v>1.825</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>11</v>
+      </c>
+      <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB140">
         <v>-0.5</v>
       </c>
-      <c r="R140">
-        <v>1.925</v>
-      </c>
-      <c r="S140">
-        <v>1.925</v>
-      </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
-      <c r="U140">
-        <v>1.95</v>
-      </c>
-      <c r="V140">
-        <v>1.9</v>
-      </c>
-      <c r="W140">
-        <v>-1</v>
-      </c>
-      <c r="X140">
-        <v>2.5</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
-      <c r="Z140">
-        <v>-1</v>
-      </c>
-      <c r="AA140">
-        <v>0.925</v>
-      </c>
-      <c r="AB140">
-        <v>-1</v>
-      </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5993419</v>
+        <v>5992178</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K141">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="N141">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O141">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q141">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y141">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -13355,7 +13355,7 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
         <v>40</v>
@@ -13800,7 +13800,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>36</v>
@@ -13978,7 +13978,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
         <v>33</v>
@@ -14426,7 +14426,7 @@
         <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14515,7 +14515,7 @@
         <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>3</v>
@@ -14868,7 +14868,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
         <v>39</v>
@@ -15316,7 +15316,7 @@
         <v>41</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15390,7 +15390,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5992197</v>
+        <v>5992200</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15402,49 +15402,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>45</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L168">
         <v>3.4</v>
       </c>
       <c r="M168">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N168">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O168">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P168">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q168">
         <v>-0.25</v>
       </c>
       <c r="R168">
+        <v>2.05</v>
+      </c>
+      <c r="S168">
         <v>1.8</v>
       </c>
-      <c r="S168">
-        <v>2.05</v>
-      </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
         <v>1.975</v>
@@ -15453,7 +15453,7 @@
         <v>1.875</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15462,16 +15462,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15479,7 +15479,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5992200</v>
+        <v>5992197</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15491,49 +15491,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
         <v>45</v>
       </c>
       <c r="K169">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L169">
         <v>3.4</v>
       </c>
       <c r="M169">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N169">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O169">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P169">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q169">
         <v>-0.25</v>
       </c>
       <c r="R169">
+        <v>1.8</v>
+      </c>
+      <c r="S169">
         <v>2.05</v>
       </c>
-      <c r="S169">
-        <v>1.8</v>
-      </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
         <v>1.975</v>
@@ -15542,7 +15542,7 @@
         <v>1.875</v>
       </c>
       <c r="W169">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15551,16 +15551,16 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC169">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5992207</v>
+        <v>5992205</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,55 +15669,55 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>47</v>
       </c>
       <c r="K171">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L171">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M171">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N171">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O171">
         <v>3.8</v>
       </c>
       <c r="P171">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q171">
         <v>-0.75</v>
       </c>
       <c r="R171">
+        <v>2.025</v>
+      </c>
+      <c r="S171">
         <v>1.825</v>
       </c>
-      <c r="S171">
-        <v>2.025</v>
-      </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15732,13 +15732,13 @@
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5992205</v>
+        <v>5992207</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,55 +15758,55 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
         <v>47</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L172">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N172">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O172">
         <v>3.8</v>
       </c>
       <c r="P172">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q172">
         <v>-0.75</v>
       </c>
       <c r="R172">
+        <v>1.825</v>
+      </c>
+      <c r="S172">
         <v>2.025</v>
       </c>
-      <c r="S172">
-        <v>1.825</v>
-      </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15821,13 +15821,13 @@
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC172">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5992206</v>
+        <v>5992203</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K176">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
         <v>2.875</v>
       </c>
       <c r="N176">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P176">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T176">
         <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
+        <v>1.05</v>
+      </c>
+      <c r="AB176">
+        <v>0.45</v>
+      </c>
+      <c r="AC176">
         <v>-0.5</v>
-      </c>
-      <c r="AA176">
-        <v>0.4875</v>
-      </c>
-      <c r="AB176">
-        <v>0.875</v>
-      </c>
-      <c r="AC176">
-        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5992203</v>
+        <v>5992206</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,76 +16203,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K177">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
         <v>2.875</v>
       </c>
       <c r="N177">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y177">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AB177">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5992214</v>
+        <v>5992212</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,58 +16292,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
         <v>45</v>
       </c>
       <c r="K178">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L178">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M178">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N178">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O178">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P178">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q178">
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S178">
+        <v>2</v>
+      </c>
+      <c r="T178">
+        <v>2.75</v>
+      </c>
+      <c r="U178">
+        <v>2</v>
+      </c>
+      <c r="V178">
         <v>1.85</v>
       </c>
-      <c r="T178">
-        <v>2.5</v>
-      </c>
-      <c r="U178">
-        <v>1.875</v>
-      </c>
-      <c r="V178">
-        <v>1.975</v>
-      </c>
       <c r="W178">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16352,16 +16352,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5992212</v>
+        <v>5992214</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,58 +16381,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H179">
+        <v>2</v>
+      </c>
+      <c r="I179">
         <v>1</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>45</v>
       </c>
       <c r="K179">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L179">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M179">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N179">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O179">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P179">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q179">
         <v>-0.25</v>
       </c>
       <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
         <v>1.85</v>
       </c>
-      <c r="S179">
-        <v>2</v>
-      </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V179">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W179">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16441,16 +16441,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC179">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16826,10 +16826,10 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F184" t="s">
+        <v>35</v>
+      </c>
+      <c r="G184" t="s">
         <v>34</v>
-      </c>
-      <c r="G184" t="s">
-        <v>35</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>5992217</v>
+        <v>5992218</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,73 +17360,73 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H190">
+        <v>5</v>
+      </c>
+      <c r="I190">
         <v>1</v>
       </c>
-      <c r="I190">
-        <v>4</v>
-      </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K190">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M190">
+        <v>3.2</v>
+      </c>
+      <c r="N190">
+        <v>2.15</v>
+      </c>
+      <c r="O190">
+        <v>3.3</v>
+      </c>
+      <c r="P190">
+        <v>3.4</v>
+      </c>
+      <c r="Q190">
+        <v>-0.25</v>
+      </c>
+      <c r="R190">
+        <v>1.85</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
         <v>1.95</v>
       </c>
-      <c r="N190">
-        <v>4.2</v>
-      </c>
-      <c r="O190">
-        <v>3.8</v>
-      </c>
-      <c r="P190">
-        <v>1.75</v>
-      </c>
-      <c r="Q190">
-        <v>0.75</v>
-      </c>
-      <c r="R190">
-        <v>1.825</v>
-      </c>
-      <c r="S190">
-        <v>2.025</v>
-      </c>
-      <c r="T190">
-        <v>2.75</v>
-      </c>
-      <c r="U190">
-        <v>1.875</v>
-      </c>
       <c r="V190">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA190">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>5992218</v>
+        <v>5992221</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,13 +17449,13 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H191">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -17464,43 +17464,43 @@
         <v>45</v>
       </c>
       <c r="K191">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L191">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M191">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N191">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O191">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P191">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U191">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V191">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17509,16 +17509,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>5992221</v>
+        <v>5992217</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17538,76 +17538,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G192" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J192" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K192">
+        <v>3.6</v>
+      </c>
+      <c r="L192">
+        <v>3.6</v>
+      </c>
+      <c r="M192">
         <v>1.95</v>
       </c>
-      <c r="L192">
-        <v>3.5</v>
-      </c>
-      <c r="M192">
+      <c r="N192">
+        <v>4.2</v>
+      </c>
+      <c r="O192">
         <v>3.8</v>
       </c>
-      <c r="N192">
-        <v>1.95</v>
-      </c>
-      <c r="O192">
-        <v>3.5</v>
-      </c>
       <c r="P192">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q192">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R192">
+        <v>1.825</v>
+      </c>
+      <c r="S192">
         <v>2.025</v>
-      </c>
-      <c r="S192">
-        <v>1.825</v>
       </c>
       <c r="T192">
         <v>2.75</v>
       </c>
       <c r="U192">
+        <v>1.875</v>
+      </c>
+      <c r="V192">
         <v>1.975</v>
       </c>
-      <c r="V192">
-        <v>1.875</v>
-      </c>
       <c r="W192">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z192">
+        <v>-1</v>
+      </c>
+      <c r="AA192">
         <v>1.025</v>
       </c>
-      <c r="AA192">
-        <v>-1</v>
-      </c>
       <c r="AB192">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC192">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17894,7 +17894,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G196" t="s">
         <v>33</v>
@@ -17971,7 +17971,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>5992227</v>
+        <v>5993423</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17983,76 +17983,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K197">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L197">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M197">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="N197">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="O197">
         <v>3.8</v>
       </c>
       <c r="P197">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q197">
+        <v>0.75</v>
+      </c>
+      <c r="R197">
+        <v>1.875</v>
+      </c>
+      <c r="S197">
+        <v>1.975</v>
+      </c>
+      <c r="T197">
+        <v>2.75</v>
+      </c>
+      <c r="U197">
+        <v>1.825</v>
+      </c>
+      <c r="V197">
+        <v>2.025</v>
+      </c>
+      <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
+        <v>0.75</v>
+      </c>
+      <c r="Z197">
         <v>-0.5</v>
       </c>
-      <c r="R197">
-        <v>1.9</v>
-      </c>
-      <c r="S197">
-        <v>1.95</v>
-      </c>
-      <c r="T197">
-        <v>3</v>
-      </c>
-      <c r="U197">
-        <v>1.925</v>
-      </c>
-      <c r="V197">
-        <v>1.925</v>
-      </c>
-      <c r="W197">
-        <v>-1</v>
-      </c>
-      <c r="X197">
-        <v>2.8</v>
-      </c>
-      <c r="Y197">
-        <v>-1</v>
-      </c>
-      <c r="Z197">
-        <v>-1</v>
-      </c>
       <c r="AA197">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB197">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18060,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>5992225</v>
+        <v>5992227</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18072,76 +18072,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G198" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K198">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L198">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M198">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N198">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O198">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P198">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q198">
         <v>-0.5</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S198">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V198">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W198">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC198">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18149,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>5992229</v>
+        <v>5992225</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18161,58 +18161,58 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F199" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H199">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>45</v>
       </c>
       <c r="K199">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L199">
+        <v>3.4</v>
+      </c>
+      <c r="M199">
         <v>3.3</v>
       </c>
-      <c r="M199">
-        <v>2.55</v>
-      </c>
       <c r="N199">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O199">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P199">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q199">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T199">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W199">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18221,16 +18221,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18238,7 +18238,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>5993423</v>
+        <v>5992229</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18250,76 +18250,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I200">
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K200">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="L200">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M200">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="N200">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O200">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P200">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q200">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S200">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T200">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V200">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA200">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC200">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>43</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H201">
         <v>3</v>
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5992239</v>
+        <v>5992235</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,40 +18695,40 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H205">
         <v>0</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J205" t="s">
         <v>46</v>
       </c>
       <c r="K205">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L205">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M205">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="N205">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="O205">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P205">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R205">
         <v>1.8</v>
@@ -18737,13 +18737,13 @@
         <v>2.05</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U205">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V205">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18752,7 +18752,7 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="Z205">
         <v>-1</v>
@@ -18761,10 +18761,10 @@
         <v>1.05</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5992235</v>
+        <v>5992239</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,40 +18784,40 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G206" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
       <c r="I206">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
         <v>46</v>
       </c>
       <c r="K206">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M206">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="N206">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="O206">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P206">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q206">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R206">
         <v>1.8</v>
@@ -18826,13 +18826,13 @@
         <v>2.05</v>
       </c>
       <c r="T206">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V206">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W206">
         <v>-1</v>
@@ -18841,7 +18841,7 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z206">
         <v>-1</v>
@@ -18850,10 +18850,10 @@
         <v>1.05</v>
       </c>
       <c r="AB206">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18873,7 +18873,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
         <v>32</v>
@@ -19318,7 +19318,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
         <v>31</v>
@@ -19496,7 +19496,7 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G214" t="s">
         <v>40</v>
@@ -19944,7 +19944,7 @@
         <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -20389,7 +20389,7 @@
         <v>29</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -20564,7 +20564,7 @@
         <v>45234.375</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G226" t="s">
         <v>43</v>
@@ -20920,7 +20920,7 @@
         <v>45235.375</v>
       </c>
       <c r="F230" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G230" t="s">
         <v>37</v>
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>5992263</v>
+        <v>5992260</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,76 +21009,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
         <v>47</v>
       </c>
       <c r="K231">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L231">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M231">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="N231">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O231">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P231">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q231">
+        <v>0.25</v>
+      </c>
+      <c r="R231">
+        <v>2.025</v>
+      </c>
+      <c r="S231">
+        <v>1.825</v>
+      </c>
+      <c r="T231">
+        <v>3</v>
+      </c>
+      <c r="U231">
+        <v>1.95</v>
+      </c>
+      <c r="V231">
+        <v>1.9</v>
+      </c>
+      <c r="W231">
+        <v>-1</v>
+      </c>
+      <c r="X231">
+        <v>2.8</v>
+      </c>
+      <c r="Y231">
+        <v>-1</v>
+      </c>
+      <c r="Z231">
+        <v>0.5125</v>
+      </c>
+      <c r="AA231">
         <v>-0.5</v>
       </c>
-      <c r="R231">
-        <v>1.975</v>
-      </c>
-      <c r="S231">
-        <v>1.875</v>
-      </c>
-      <c r="T231">
-        <v>2.75</v>
-      </c>
-      <c r="U231">
-        <v>1.825</v>
-      </c>
-      <c r="V231">
-        <v>2.025</v>
-      </c>
-      <c r="W231">
-        <v>-1</v>
-      </c>
-      <c r="X231">
-        <v>2.4</v>
-      </c>
-      <c r="Y231">
-        <v>-1</v>
-      </c>
-      <c r="Z231">
-        <v>-1</v>
-      </c>
-      <c r="AA231">
-        <v>0.875</v>
-      </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC231">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>5992260</v>
+        <v>5992263</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,76 +21098,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
         <v>47</v>
       </c>
       <c r="K232">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L232">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M232">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N232">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O232">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P232">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="Q232">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R232">
+        <v>1.975</v>
+      </c>
+      <c r="S232">
+        <v>1.875</v>
+      </c>
+      <c r="T232">
+        <v>2.75</v>
+      </c>
+      <c r="U232">
+        <v>1.825</v>
+      </c>
+      <c r="V232">
         <v>2.025</v>
       </c>
-      <c r="S232">
-        <v>1.825</v>
-      </c>
-      <c r="T232">
-        <v>3</v>
-      </c>
-      <c r="U232">
-        <v>1.95</v>
-      </c>
-      <c r="V232">
-        <v>1.9</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB232">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21457,7 +21457,7 @@
         <v>38</v>
       </c>
       <c r="G236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -21724,7 +21724,7 @@
         <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H239">
         <v>4</v>

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -142,10 +142,10 @@
     <t>Gefle IF</t>
   </si>
   <si>
-    <t>Vasteras SK</t>
+    <t>Osters IF</t>
   </si>
   <si>
-    <t>Osters IF</t>
+    <t>Vasteras SK</t>
   </si>
   <si>
     <t>AFC Eskilstuna</t>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5992052</v>
+        <v>5992058</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
+        <v>1.8</v>
+      </c>
+      <c r="L15">
+        <v>3.5</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>1.666</v>
+      </c>
+      <c r="O15">
+        <v>3.5</v>
+      </c>
+      <c r="P15">
+        <v>4.75</v>
+      </c>
+      <c r="Q15">
+        <v>-0.75</v>
+      </c>
+      <c r="R15">
         <v>1.95</v>
       </c>
-      <c r="L15">
-        <v>3.4</v>
-      </c>
-      <c r="M15">
-        <v>3.5</v>
-      </c>
-      <c r="N15">
-        <v>1.85</v>
-      </c>
-      <c r="O15">
-        <v>3.6</v>
-      </c>
-      <c r="P15">
-        <v>3.6</v>
-      </c>
-      <c r="Q15">
-        <v>-0.5</v>
-      </c>
-      <c r="R15">
+      <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2.5</v>
+      </c>
+      <c r="U15">
+        <v>2.025</v>
+      </c>
+      <c r="V15">
         <v>1.825</v>
       </c>
-      <c r="S15">
-        <v>2.025</v>
-      </c>
-      <c r="T15">
-        <v>2.75</v>
-      </c>
-      <c r="U15">
-        <v>1.875</v>
-      </c>
-      <c r="V15">
-        <v>1.975</v>
-      </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X15">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
         <v>1.025</v>
       </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5992058</v>
+        <v>5992052</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,73 +1877,73 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L16">
+        <v>3.4</v>
+      </c>
+      <c r="M16">
         <v>3.5</v>
       </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
       <c r="N16">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W16">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB16">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2055,7 +2055,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5992066</v>
+        <v>5992071</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,13 +2853,13 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2868,43 +2868,43 @@
         <v>45</v>
       </c>
       <c r="K27">
+        <v>2.55</v>
+      </c>
+      <c r="L27">
+        <v>3.3</v>
+      </c>
+      <c r="M27">
+        <v>2.7</v>
+      </c>
+      <c r="N27">
+        <v>2.05</v>
+      </c>
+      <c r="O27">
+        <v>3.4</v>
+      </c>
+      <c r="P27">
+        <v>3.5</v>
+      </c>
+      <c r="Q27">
+        <v>-0.5</v>
+      </c>
+      <c r="R27">
+        <v>2.05</v>
+      </c>
+      <c r="S27">
         <v>1.8</v>
-      </c>
-      <c r="L27">
-        <v>3.6</v>
-      </c>
-      <c r="M27">
-        <v>4.333</v>
-      </c>
-      <c r="N27">
-        <v>1.666</v>
-      </c>
-      <c r="O27">
-        <v>3.75</v>
-      </c>
-      <c r="P27">
-        <v>5</v>
-      </c>
-      <c r="Q27">
-        <v>-0.75</v>
-      </c>
-      <c r="R27">
-        <v>1.825</v>
-      </c>
-      <c r="S27">
-        <v>2.025</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
-        <v>0.6659999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2913,7 +2913,7 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -2922,7 +2922,7 @@
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5992071</v>
+        <v>5992066</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,13 +2942,13 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2957,43 +2957,43 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N28">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O28">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P28">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T28">
         <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W28">
-        <v>1.05</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3002,7 +3002,7 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA28">
         <v>-1</v>
@@ -3011,7 +3011,7 @@
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6474528</v>
+        <v>6474526</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,73 +3209,73 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X31">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA31">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6474526</v>
+        <v>6474528</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,73 +3298,73 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M32">
+        <v>3.25</v>
+      </c>
+      <c r="N32">
+        <v>2.45</v>
+      </c>
+      <c r="O32">
+        <v>3.1</v>
+      </c>
+      <c r="P32">
         <v>3</v>
       </c>
-      <c r="N32">
-        <v>1.909</v>
-      </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
-      <c r="P32">
-        <v>4</v>
-      </c>
       <c r="Q32">
+        <v>-0.25</v>
+      </c>
+      <c r="R32">
+        <v>2.075</v>
+      </c>
+      <c r="S32">
+        <v>1.725</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>1.9</v>
+      </c>
+      <c r="V32">
+        <v>1.95</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>2.1</v>
+      </c>
+      <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
         <v>-0.5</v>
       </c>
-      <c r="R32">
-        <v>1.95</v>
-      </c>
-      <c r="S32">
-        <v>1.9</v>
-      </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
-      <c r="U32">
-        <v>1.925</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
-      <c r="W32">
-        <v>0.909</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
-      <c r="Z32">
-        <v>0.95</v>
-      </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB32">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3387,7 +3387,7 @@
         <v>45041.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
         <v>40</v>
@@ -3476,7 +3476,7 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -3657,7 +3657,7 @@
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -4369,7 +4369,7 @@
         <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4989,7 +4989,7 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
         <v>37</v>
@@ -5078,7 +5078,7 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
         <v>38</v>
@@ -6146,10 +6146,10 @@
         <v>45068.58333333334</v>
       </c>
       <c r="F64" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" t="s">
         <v>42</v>
-      </c>
-      <c r="G64" t="s">
-        <v>43</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6324,7 +6324,7 @@
         <v>45072.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
         <v>38</v>
@@ -6594,7 +6594,7 @@
         <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -7573,7 +7573,7 @@
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7659,7 +7659,7 @@
         <v>45078.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s">
         <v>44</v>
@@ -7748,7 +7748,7 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
@@ -7840,7 +7840,7 @@
         <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6478150</v>
+        <v>6474532</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,10 +8015,10 @@
         <v>45082.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8030,19 +8030,19 @@
         <v>45</v>
       </c>
       <c r="K85">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M85">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N85">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
         <v>3.1</v>
@@ -8051,22 +8051,22 @@
         <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W85">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8075,7 +8075,7 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA85">
         <v>-1</v>
@@ -8084,7 +8084,7 @@
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6474532</v>
+        <v>6478150</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,10 +8104,10 @@
         <v>45082.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8119,19 +8119,19 @@
         <v>45</v>
       </c>
       <c r="K86">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L86">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N86">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
         <v>3.1</v>
@@ -8140,22 +8140,22 @@
         <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
         <v>2.5</v>
       </c>
       <c r="U86">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8164,7 +8164,7 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
         <v>-1</v>
@@ -8173,7 +8173,7 @@
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6480043</v>
+        <v>6474541</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K87">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O87">
         <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
         <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6474541</v>
+        <v>6480043</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O88">
         <v>3.4</v>
       </c>
       <c r="P88">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T88">
         <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y88">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8463,7 +8463,7 @@
         <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -8549,7 +8549,7 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s">
         <v>39</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5992136</v>
+        <v>5992135</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45114.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9187,61 +9187,61 @@
         <v>47</v>
       </c>
       <c r="K98">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N98">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="O98">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P98">
+        <v>3.6</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5</v>
+      </c>
+      <c r="R98">
+        <v>1.9</v>
+      </c>
+      <c r="S98">
+        <v>1.95</v>
+      </c>
+      <c r="T98">
+        <v>2.75</v>
+      </c>
+      <c r="U98">
+        <v>1.8</v>
+      </c>
+      <c r="V98">
         <v>2.05</v>
       </c>
-      <c r="Q98">
-        <v>0.5</v>
-      </c>
-      <c r="R98">
-        <v>1.825</v>
-      </c>
-      <c r="S98">
-        <v>2.025</v>
-      </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.95</v>
-      </c>
-      <c r="V98">
-        <v>1.9</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5992135</v>
+        <v>5992136</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,10 +9261,10 @@
         <v>45114.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9276,61 +9276,61 @@
         <v>47</v>
       </c>
       <c r="K99">
+        <v>3.4</v>
+      </c>
+      <c r="L99">
+        <v>3.4</v>
+      </c>
+      <c r="M99">
+        <v>1.909</v>
+      </c>
+      <c r="N99">
+        <v>3.3</v>
+      </c>
+      <c r="O99">
+        <v>3.3</v>
+      </c>
+      <c r="P99">
         <v>2.05</v>
       </c>
-      <c r="L99">
-        <v>3.2</v>
-      </c>
-      <c r="M99">
-        <v>3.2</v>
-      </c>
-      <c r="N99">
+      <c r="Q99">
+        <v>0.5</v>
+      </c>
+      <c r="R99">
+        <v>1.825</v>
+      </c>
+      <c r="S99">
+        <v>2.025</v>
+      </c>
+      <c r="T99">
+        <v>2.5</v>
+      </c>
+      <c r="U99">
         <v>1.95</v>
       </c>
-      <c r="O99">
-        <v>4</v>
-      </c>
-      <c r="P99">
-        <v>3.6</v>
-      </c>
-      <c r="Q99">
-        <v>-0.5</v>
-      </c>
-      <c r="R99">
+      <c r="V99">
         <v>1.9</v>
       </c>
-      <c r="S99">
-        <v>1.95</v>
-      </c>
-      <c r="T99">
-        <v>2.75</v>
-      </c>
-      <c r="U99">
-        <v>1.8</v>
-      </c>
-      <c r="V99">
-        <v>2.05</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9884,7 +9884,7 @@
         <v>45121.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
         <v>39</v>
@@ -10062,7 +10062,7 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
         <v>32</v>
@@ -11044,7 +11044,7 @@
         <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11222,7 +11222,7 @@
         <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11486,7 +11486,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
         <v>34</v>
@@ -11753,7 +11753,7 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G127" t="s">
         <v>41</v>
@@ -12023,7 +12023,7 @@
         <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12379,7 +12379,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12999,7 +12999,7 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
         <v>41</v>
@@ -13177,7 +13177,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
         <v>36</v>
@@ -13447,7 +13447,7 @@
         <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H146">
         <v>4</v>
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5992185</v>
+        <v>5992182</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,13 +13622,13 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13637,25 +13637,25 @@
         <v>45</v>
       </c>
       <c r="K148">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L148">
         <v>3.4</v>
       </c>
       <c r="M148">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N148">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O148">
         <v>3.3</v>
       </c>
       <c r="P148">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R148">
         <v>1.925</v>
@@ -13664,16 +13664,16 @@
         <v>1.925</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13688,10 +13688,10 @@
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC148">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5992182</v>
+        <v>5992185</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,13 +13711,13 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13726,25 +13726,25 @@
         <v>45</v>
       </c>
       <c r="K149">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L149">
         <v>3.4</v>
       </c>
       <c r="M149">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N149">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O149">
         <v>3.3</v>
       </c>
       <c r="P149">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
         <v>1.925</v>
@@ -13753,16 +13753,16 @@
         <v>1.925</v>
       </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V149">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W149">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,10 +13777,10 @@
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14159,7 +14159,7 @@
         <v>40</v>
       </c>
       <c r="G154" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14423,7 +14423,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
         <v>35</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5992198</v>
+        <v>5992195</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,76 +15135,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K165">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M165">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N165">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O165">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T165">
         <v>2.75</v>
       </c>
       <c r="U165">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W165">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5992195</v>
+        <v>5992198</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,76 +15313,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K167">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M167">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N167">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P167">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
         <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V167">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X167">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15390,7 +15390,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5992200</v>
+        <v>5992197</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15402,49 +15402,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
         <v>45</v>
       </c>
       <c r="K168">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L168">
         <v>3.4</v>
       </c>
       <c r="M168">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N168">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O168">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q168">
         <v>-0.25</v>
       </c>
       <c r="R168">
+        <v>1.8</v>
+      </c>
+      <c r="S168">
         <v>2.05</v>
       </c>
-      <c r="S168">
-        <v>1.8</v>
-      </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
         <v>1.975</v>
@@ -15453,7 +15453,7 @@
         <v>1.875</v>
       </c>
       <c r="W168">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15462,16 +15462,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA168">
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC168">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15479,7 +15479,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5992197</v>
+        <v>5992200</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15491,49 +15491,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
         <v>45</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L169">
         <v>3.4</v>
       </c>
       <c r="M169">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N169">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O169">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P169">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q169">
         <v>-0.25</v>
       </c>
       <c r="R169">
+        <v>2.05</v>
+      </c>
+      <c r="S169">
         <v>1.8</v>
       </c>
-      <c r="S169">
-        <v>2.05</v>
-      </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
         <v>1.975</v>
@@ -15542,7 +15542,7 @@
         <v>1.875</v>
       </c>
       <c r="W169">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15551,16 +15551,16 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16114,10 +16114,10 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F176" t="s">
+        <v>42</v>
+      </c>
+      <c r="G176" t="s">
         <v>43</v>
-      </c>
-      <c r="G176" t="s">
-        <v>42</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16473,7 +16473,7 @@
         <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16648,7 +16648,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G182" t="s">
         <v>29</v>
@@ -17004,7 +17004,7 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G186" t="s">
         <v>36</v>
@@ -17185,7 +17185,7 @@
         <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17627,7 +17627,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G193" t="s">
         <v>31</v>
@@ -18253,7 +18253,7 @@
         <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18339,7 +18339,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G201" t="s">
         <v>40</v>
@@ -18428,7 +18428,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G202" t="s">
         <v>34</v>
@@ -19232,7 +19232,7 @@
         <v>38</v>
       </c>
       <c r="G211" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -19573,7 +19573,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5992244</v>
+        <v>5992247</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19585,49 +19585,49 @@
         <v>45223.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215">
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K215">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L215">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M215">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N215">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R215">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S215">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T215">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
         <v>1.95</v>
@@ -19636,25 +19636,25 @@
         <v>1.9</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA215">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC215">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19662,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>5992247</v>
+        <v>5992244</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19674,49 +19674,49 @@
         <v>45223.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G216" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216">
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K216">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M216">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="N216">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O216">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P216">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R216">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U216">
         <v>1.95</v>
@@ -19725,25 +19725,25 @@
         <v>1.9</v>
       </c>
       <c r="W216">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z216">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB216">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19840,7 +19840,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>5992249</v>
+        <v>5992254</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19852,73 +19852,73 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G218" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K218">
+        <v>2.5</v>
+      </c>
+      <c r="L218">
+        <v>3.25</v>
+      </c>
+      <c r="M218">
+        <v>2.7</v>
+      </c>
+      <c r="N218">
+        <v>3</v>
+      </c>
+      <c r="O218">
+        <v>3.2</v>
+      </c>
+      <c r="P218">
+        <v>2.375</v>
+      </c>
+      <c r="Q218">
+        <v>0.25</v>
+      </c>
+      <c r="R218">
+        <v>1.775</v>
+      </c>
+      <c r="S218">
         <v>2.1</v>
       </c>
-      <c r="L218">
-        <v>3.5</v>
-      </c>
-      <c r="M218">
-        <v>3.2</v>
-      </c>
-      <c r="N218">
-        <v>2.375</v>
-      </c>
-      <c r="O218">
-        <v>3.5</v>
-      </c>
-      <c r="P218">
-        <v>2.75</v>
-      </c>
-      <c r="Q218">
-        <v>-0.25</v>
-      </c>
-      <c r="R218">
-        <v>2.05</v>
-      </c>
-      <c r="S218">
-        <v>1.75</v>
-      </c>
       <c r="T218">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V218">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X218">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA218">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC218">
         <v>-1</v>
@@ -19929,7 +19929,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>5992252</v>
+        <v>5992249</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19941,46 +19941,46 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
         <v>47</v>
       </c>
       <c r="K219">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L219">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M219">
+        <v>3.2</v>
+      </c>
+      <c r="N219">
+        <v>2.375</v>
+      </c>
+      <c r="O219">
+        <v>3.5</v>
+      </c>
+      <c r="P219">
         <v>2.75</v>
       </c>
-      <c r="N219">
-        <v>2.75</v>
-      </c>
-      <c r="O219">
-        <v>3.4</v>
-      </c>
-      <c r="P219">
-        <v>2.4</v>
-      </c>
       <c r="Q219">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S219">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T219">
         <v>2.75</v>
@@ -19995,22 +19995,22 @@
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA219">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC219">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20018,7 +20018,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5992254</v>
+        <v>5992252</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20030,76 +20030,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H220">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K220">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L220">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M220">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N220">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O220">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R220">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S220">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V220">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W220">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB220">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20119,7 +20119,7 @@
         <v>45228.375</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G221" t="s">
         <v>37</v>
@@ -20196,7 +20196,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5992251</v>
+        <v>5992253</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20208,13 +20208,13 @@
         <v>45228.375</v>
       </c>
       <c r="F222" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G222" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -20223,43 +20223,43 @@
         <v>45</v>
       </c>
       <c r="K222">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M222">
-        <v>2.15</v>
+        <v>4.6</v>
       </c>
       <c r="N222">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O222">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P222">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S222">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T222">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V222">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W222">
-        <v>1.875</v>
+        <v>0.5</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20268,16 +20268,16 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20285,7 +20285,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>5992253</v>
+        <v>5992251</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20297,13 +20297,13 @@
         <v>45228.375</v>
       </c>
       <c r="F223" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G223" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -20312,43 +20312,43 @@
         <v>45</v>
       </c>
       <c r="K223">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="L223">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M223">
-        <v>4.6</v>
+        <v>2.15</v>
       </c>
       <c r="N223">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O223">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P223">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q223">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S223">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
-        <v>0.5</v>
+        <v>1.875</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20357,16 +20357,16 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA223">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
         <v>-1</v>
       </c>
       <c r="AC223">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20552,7 +20552,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>5992256</v>
+        <v>5992259</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20564,13 +20564,13 @@
         <v>45234.375</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -20579,43 +20579,43 @@
         <v>45</v>
       </c>
       <c r="K226">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L226">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M226">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N226">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O226">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P226">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q226">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
+        <v>1.975</v>
+      </c>
+      <c r="S226">
         <v>1.875</v>
       </c>
-      <c r="S226">
-        <v>1.975</v>
-      </c>
       <c r="T226">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V226">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20624,7 +20624,7 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA226">
         <v>-1</v>
@@ -20633,7 +20633,7 @@
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20641,7 +20641,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5992262</v>
+        <v>5992256</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20653,7 +20653,7 @@
         <v>45234.375</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G227" t="s">
         <v>43</v>
@@ -20662,67 +20662,67 @@
         <v>1</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K227">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="L227">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M227">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N227">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O227">
         <v>3.5</v>
       </c>
       <c r="P227">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q227">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S227">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T227">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U227">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V227">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA227">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5992259</v>
+        <v>5992262</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,76 +20742,76 @@
         <v>45234.375</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K228">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="L228">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M228">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="N228">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O228">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P228">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q228">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R228">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S228">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T228">
         <v>2.75</v>
       </c>
       <c r="U228">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V228">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z228">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC228">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -21276,7 +21276,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G234" t="s">
         <v>29</v>
@@ -21632,7 +21632,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G238" t="s">
         <v>33</v>

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -142,10 +142,10 @@
     <t>Gefle IF</t>
   </si>
   <si>
-    <t>Osters IF</t>
+    <t>Vasteras SK</t>
   </si>
   <si>
-    <t>Vasteras SK</t>
+    <t>Osters IF</t>
   </si>
   <si>
     <t>AFC Eskilstuna</t>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5992058</v>
+        <v>5992052</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L15">
+        <v>3.4</v>
+      </c>
+      <c r="M15">
         <v>3.5</v>
       </c>
-      <c r="M15">
-        <v>4</v>
-      </c>
       <c r="N15">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB15">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5992052</v>
+        <v>5992058</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,73 +1877,73 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16">
+        <v>1.8</v>
+      </c>
+      <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>1.666</v>
+      </c>
+      <c r="O16">
+        <v>3.5</v>
+      </c>
+      <c r="P16">
+        <v>4.75</v>
+      </c>
+      <c r="Q16">
+        <v>-0.75</v>
+      </c>
+      <c r="R16">
         <v>1.95</v>
       </c>
-      <c r="L16">
-        <v>3.4</v>
-      </c>
-      <c r="M16">
-        <v>3.5</v>
-      </c>
-      <c r="N16">
-        <v>1.85</v>
-      </c>
-      <c r="O16">
-        <v>3.6</v>
-      </c>
-      <c r="P16">
-        <v>3.6</v>
-      </c>
-      <c r="Q16">
-        <v>-0.5</v>
-      </c>
-      <c r="R16">
+      <c r="S16">
+        <v>1.9</v>
+      </c>
+      <c r="T16">
+        <v>2.5</v>
+      </c>
+      <c r="U16">
+        <v>2.025</v>
+      </c>
+      <c r="V16">
         <v>1.825</v>
       </c>
-      <c r="S16">
-        <v>2.025</v>
-      </c>
-      <c r="T16">
-        <v>2.75</v>
-      </c>
-      <c r="U16">
-        <v>1.875</v>
-      </c>
-      <c r="V16">
-        <v>1.975</v>
-      </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X16">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>1.025</v>
       </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
       <c r="AC16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2055,7 +2055,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>45031.33333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
         <v>44</v>
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5992060</v>
+        <v>5992063</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,16 +2497,16 @@
         <v>45033.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>45</v>
@@ -2515,28 +2515,28 @@
         <v>2.15</v>
       </c>
       <c r="L23">
+        <v>3.3</v>
+      </c>
+      <c r="M23">
+        <v>3.1</v>
+      </c>
+      <c r="N23">
+        <v>2.2</v>
+      </c>
+      <c r="O23">
         <v>3.2</v>
       </c>
-      <c r="M23">
-        <v>3.2</v>
-      </c>
-      <c r="N23">
-        <v>2.05</v>
-      </c>
-      <c r="O23">
-        <v>3.25</v>
-      </c>
       <c r="P23">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
         <v>2.25</v>
@@ -2548,7 +2548,7 @@
         <v>2.025</v>
       </c>
       <c r="W23">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2557,16 +2557,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5992063</v>
+        <v>5992060</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,16 +2586,16 @@
         <v>45033.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>45</v>
@@ -2604,28 +2604,28 @@
         <v>2.15</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N24">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T24">
         <v>2.25</v>
@@ -2637,7 +2637,7 @@
         <v>2.025</v>
       </c>
       <c r="W24">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2646,16 +2646,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3387,7 +3387,7 @@
         <v>45041.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
         <v>40</v>
@@ -3476,7 +3476,7 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5992074</v>
+        <v>5992075</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
         <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>45</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L35">
         <v>3.25</v>
       </c>
       <c r="M35">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N35">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P35">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S35">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T35">
         <v>2.5</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W35">
+        <v>1.8</v>
+      </c>
+      <c r="X35">
+        <v>-1</v>
+      </c>
+      <c r="Y35">
+        <v>-1</v>
+      </c>
+      <c r="Z35">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA35">
+        <v>-1</v>
+      </c>
+      <c r="AB35">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X35">
-        <v>-1</v>
-      </c>
-      <c r="Y35">
-        <v>-1</v>
-      </c>
-      <c r="Z35">
-        <v>0.925</v>
-      </c>
-      <c r="AA35">
-        <v>-1</v>
-      </c>
-      <c r="AB35">
-        <v>-1</v>
-      </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5992075</v>
+        <v>5992074</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,58 +3654,58 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>45</v>
       </c>
       <c r="K36">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L36">
         <v>3.25</v>
       </c>
       <c r="M36">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N36">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O36">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q36">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
         <v>2.5</v>
       </c>
       <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
         <v>1.85</v>
       </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
       <c r="W36">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3714,16 +3714,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5992088</v>
+        <v>5992085</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,73 +4277,73 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K43">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L43">
         <v>3.3</v>
       </c>
       <c r="M43">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N43">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>3.25</v>
+        <v>1.666</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S43">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
         <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.5249999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB43">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5992085</v>
+        <v>5992088</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,73 +4366,73 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44">
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L44">
         <v>3.3</v>
       </c>
       <c r="M44">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N44">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P44">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="Q44">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y44">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB44">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6479526</v>
+        <v>6474534</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,49 +4633,49 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H47">
         <v>2</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M47">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="N47">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
         <v>2</v>
@@ -4684,25 +4684,25 @@
         <v>1.85</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X47">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6474534</v>
+        <v>6479526</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,49 +4722,49 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M48">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N48">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="O48">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P48">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
         <v>2</v>
@@ -4773,25 +4773,25 @@
         <v>1.85</v>
       </c>
       <c r="W48">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4989,7 +4989,7 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
         <v>37</v>
@@ -5078,7 +5078,7 @@
         <v>45059.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
         <v>38</v>
@@ -6146,10 +6146,10 @@
         <v>45068.58333333334</v>
       </c>
       <c r="F64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s">
         <v>43</v>
-      </c>
-      <c r="G64" t="s">
-        <v>42</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5992109</v>
+        <v>5992107</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,76 +6324,76 @@
         <v>45072.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="O66">
         <v>3.6</v>
       </c>
       <c r="P66">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q66">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.95</v>
+      </c>
+      <c r="T66">
+        <v>2.5</v>
+      </c>
+      <c r="U66">
         <v>1.875</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.975</v>
       </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
-      <c r="U66">
-        <v>1.95</v>
-      </c>
-      <c r="V66">
-        <v>1.9</v>
-      </c>
       <c r="W66">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5992107</v>
+        <v>5992109</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,76 +6413,76 @@
         <v>45072.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K67">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N67">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="O67">
         <v>3.6</v>
       </c>
       <c r="P67">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q67">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
+        <v>1.875</v>
+      </c>
+      <c r="S67">
+        <v>1.975</v>
+      </c>
+      <c r="T67">
+        <v>2.75</v>
+      </c>
+      <c r="U67">
+        <v>1.95</v>
+      </c>
+      <c r="V67">
         <v>1.9</v>
       </c>
-      <c r="S67">
-        <v>1.95</v>
-      </c>
-      <c r="T67">
-        <v>2.5</v>
-      </c>
-      <c r="U67">
-        <v>1.875</v>
-      </c>
-      <c r="V67">
-        <v>1.975</v>
-      </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X67">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5992108</v>
+        <v>5993415</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,58 +6591,58 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>45</v>
       </c>
       <c r="K69">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="L69">
         <v>3.5</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N69">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S69">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W69">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6651,13 +6651,13 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5992111</v>
+        <v>5992108</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>45</v>
       </c>
       <c r="K70">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="L70">
         <v>3.5</v>
       </c>
       <c r="M70">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N70">
+        <v>2.75</v>
+      </c>
+      <c r="O70">
+        <v>3.4</v>
+      </c>
+      <c r="P70">
+        <v>2.3</v>
+      </c>
+      <c r="Q70">
+        <v>0.25</v>
+      </c>
+      <c r="R70">
         <v>1.8</v>
       </c>
-      <c r="O70">
-        <v>3.8</v>
-      </c>
-      <c r="P70">
-        <v>3.8</v>
-      </c>
-      <c r="Q70">
-        <v>-0.5</v>
-      </c>
-      <c r="R70">
-        <v>1.825</v>
-      </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T70">
         <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
+        <v>1.75</v>
+      </c>
+      <c r="X70">
+        <v>-1</v>
+      </c>
+      <c r="Y70">
+        <v>-1</v>
+      </c>
+      <c r="Z70">
         <v>0.8</v>
       </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
-      <c r="Z70">
-        <v>0.825</v>
-      </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC70">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5993415</v>
+        <v>5992111</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,58 +6769,58 @@
         <v>45073.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>45</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L71">
         <v>3.5</v>
       </c>
       <c r="M71">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N71">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P71">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W71">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6829,16 +6829,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5992117</v>
+        <v>5992118</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,73 +7036,73 @@
         <v>45077.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>3</v>
-      </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>2.15</v>
       </c>
       <c r="L74">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
         <v>3.1</v>
       </c>
       <c r="N74">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5992118</v>
+        <v>5992117</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,73 +7125,73 @@
         <v>45077.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K75">
         <v>2.15</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
         <v>3.1</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P75">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W75">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5992119</v>
+        <v>5992114</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45077.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K76">
+        <v>1.909</v>
+      </c>
+      <c r="L76">
+        <v>3.6</v>
+      </c>
+      <c r="M76">
+        <v>3.5</v>
+      </c>
+      <c r="N76">
         <v>2.1</v>
       </c>
-      <c r="L76">
-        <v>3.25</v>
-      </c>
-      <c r="M76">
-        <v>3.3</v>
-      </c>
-      <c r="N76">
-        <v>2.2</v>
-      </c>
       <c r="O76">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P76">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q76">
         <v>-0.25</v>
       </c>
       <c r="R76">
+        <v>1.9</v>
+      </c>
+      <c r="S76">
         <v>1.95</v>
       </c>
-      <c r="S76">
-        <v>1.9</v>
-      </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
+        <v>1.825</v>
+      </c>
+      <c r="V76">
         <v>2.025</v>
       </c>
-      <c r="V76">
-        <v>1.825</v>
-      </c>
       <c r="W76">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB76">
+        <v>-1</v>
+      </c>
+      <c r="AC76">
         <v>1.025</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5992114</v>
+        <v>5992119</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45077.58333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K77">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N77">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O77">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P77">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
         <v>-0.25</v>
       </c>
       <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
         <v>1.9</v>
       </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
+        <v>2.025</v>
+      </c>
+      <c r="V77">
         <v>1.825</v>
       </c>
-      <c r="V77">
-        <v>2.025</v>
-      </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X77">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC77">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5992116</v>
+        <v>5992115</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,49 +7392,49 @@
         <v>45078.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K78">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L78">
         <v>3.4</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N78">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -7446,22 +7446,22 @@
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5992115</v>
+        <v>5992113</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45078.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>47</v>
+      </c>
+      <c r="K80">
+        <v>1.533</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>5.25</v>
+      </c>
+      <c r="N80">
+        <v>1.5</v>
+      </c>
+      <c r="O80">
+        <v>4.2</v>
+      </c>
+      <c r="P80">
+        <v>5.25</v>
+      </c>
+      <c r="Q80">
+        <v>-1</v>
+      </c>
+      <c r="R80">
+        <v>1.825</v>
+      </c>
+      <c r="S80">
+        <v>2.025</v>
+      </c>
+      <c r="T80">
         <v>3</v>
       </c>
-      <c r="J80" t="s">
-        <v>46</v>
-      </c>
-      <c r="K80">
-        <v>2.75</v>
-      </c>
-      <c r="L80">
-        <v>3.4</v>
-      </c>
-      <c r="M80">
-        <v>2.3</v>
-      </c>
-      <c r="N80">
-        <v>3.25</v>
-      </c>
-      <c r="O80">
-        <v>3.5</v>
-      </c>
-      <c r="P80">
-        <v>2.05</v>
-      </c>
-      <c r="Q80">
-        <v>0.5</v>
-      </c>
-      <c r="R80">
-        <v>1.8</v>
-      </c>
-      <c r="S80">
-        <v>2.05</v>
-      </c>
-      <c r="T80">
-        <v>2.75</v>
-      </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y80">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>1</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5992113</v>
+        <v>5992116</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,10 +7659,10 @@
         <v>45078.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7674,46 +7674,46 @@
         <v>47</v>
       </c>
       <c r="K81">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L81">
+        <v>3.4</v>
+      </c>
+      <c r="M81">
         <v>4</v>
       </c>
-      <c r="M81">
-        <v>5.25</v>
-      </c>
       <c r="N81">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O81">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T81">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
         <v>1.85</v>
       </c>
-      <c r="V81">
-        <v>2</v>
-      </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y81">
         <v>-1</v>
@@ -7722,13 +7722,13 @@
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7748,7 +7748,7 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5992126</v>
+        <v>5992121</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45081.5</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="N83">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O83">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P83">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T83">
         <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5992121</v>
+        <v>5992126</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45081.5</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" t="s">
+        <v>46</v>
+      </c>
+      <c r="K84">
+        <v>2.55</v>
+      </c>
+      <c r="L84">
+        <v>3.4</v>
+      </c>
+      <c r="M84">
+        <v>2.45</v>
+      </c>
+      <c r="N84">
+        <v>2.5</v>
+      </c>
+      <c r="O84">
+        <v>3.3</v>
+      </c>
+      <c r="P84">
+        <v>2.55</v>
+      </c>
+      <c r="Q84">
         <v>0</v>
       </c>
-      <c r="J84" t="s">
-        <v>45</v>
-      </c>
-      <c r="K84">
-        <v>1.7</v>
-      </c>
-      <c r="L84">
-        <v>3.5</v>
-      </c>
-      <c r="M84">
-        <v>4.5</v>
-      </c>
-      <c r="N84">
-        <v>1.666</v>
-      </c>
-      <c r="O84">
-        <v>3.5</v>
-      </c>
-      <c r="P84">
-        <v>5</v>
-      </c>
-      <c r="Q84">
-        <v>-0.75</v>
-      </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6474532</v>
+        <v>6478150</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,10 +8015,10 @@
         <v>45082.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8030,19 +8030,19 @@
         <v>45</v>
       </c>
       <c r="K85">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L85">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M85">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N85">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P85">
         <v>3.1</v>
@@ -8051,22 +8051,22 @@
         <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8075,7 +8075,7 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
         <v>-1</v>
@@ -8084,7 +8084,7 @@
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6478150</v>
+        <v>6474532</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,10 +8104,10 @@
         <v>45082.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8119,19 +8119,19 @@
         <v>45</v>
       </c>
       <c r="K86">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M86">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N86">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
         <v>3.1</v>
@@ -8140,22 +8140,22 @@
         <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
         <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8164,7 +8164,7 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA86">
         <v>-1</v>
@@ -8173,7 +8173,7 @@
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6474541</v>
+        <v>6474540</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,55 +8193,55 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
         <v>46</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L87">
         <v>3.4</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N87">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V87">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8250,19 +8250,19 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>2.1</v>
+        <v>0.75</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC87">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6480043</v>
+        <v>6474541</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O88">
         <v>3.4</v>
       </c>
       <c r="P88">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
         <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6474540</v>
+        <v>6480043</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="L89">
+        <v>3.3</v>
+      </c>
+      <c r="M89">
+        <v>2.75</v>
+      </c>
+      <c r="N89">
+        <v>2.3</v>
+      </c>
+      <c r="O89">
         <v>3.4</v>
       </c>
-      <c r="M89">
-        <v>2.1</v>
-      </c>
-      <c r="N89">
-        <v>4</v>
-      </c>
-      <c r="O89">
-        <v>3.6</v>
-      </c>
       <c r="P89">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q89">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y89">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB89">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8463,7 +8463,7 @@
         <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -8549,7 +8549,7 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
         <v>39</v>
@@ -9264,7 +9264,7 @@
         <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5992137</v>
+        <v>5992140</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O104">
         <v>3.4</v>
       </c>
       <c r="P104">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
+        <v>1.8</v>
+      </c>
+      <c r="S104">
         <v>2.05</v>
       </c>
-      <c r="S104">
-        <v>1.8</v>
-      </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
         <v>1.05</v>
       </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5992140</v>
+        <v>5992137</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
         <v>0</v>
       </c>
-      <c r="I105">
-        <v>3</v>
-      </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K105">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M105">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N105">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O105">
         <v>3.4</v>
       </c>
       <c r="P105">
+        <v>3.3</v>
+      </c>
+      <c r="Q105">
+        <v>-0.5</v>
+      </c>
+      <c r="R105">
+        <v>2.05</v>
+      </c>
+      <c r="S105">
+        <v>1.8</v>
+      </c>
+      <c r="T105">
         <v>2.25</v>
       </c>
-      <c r="Q105">
-        <v>0.25</v>
-      </c>
-      <c r="R105">
-        <v>1.8</v>
-      </c>
-      <c r="S105">
-        <v>2.05</v>
-      </c>
-      <c r="T105">
-        <v>2.5</v>
-      </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA105">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>45121.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G106" t="s">
         <v>39</v>
@@ -10062,7 +10062,7 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
         <v>32</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5992147</v>
+        <v>5992142</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K111">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M111">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="N111">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P111">
-        <v>2.15</v>
+        <v>11</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U111">
+        <v>1.975</v>
+      </c>
+      <c r="V111">
         <v>1.875</v>
       </c>
-      <c r="V111">
-        <v>1.975</v>
-      </c>
       <c r="W111">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>0.875</v>
-      </c>
-      <c r="AC111">
-        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5992142</v>
+        <v>5992147</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K112">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="L112">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M112">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N112">
-        <v>1.166</v>
+        <v>3</v>
       </c>
       <c r="O112">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="Q112">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
+        <v>1.9</v>
+      </c>
+      <c r="S112">
+        <v>1.95</v>
+      </c>
+      <c r="T112">
+        <v>2.5</v>
+      </c>
+      <c r="U112">
+        <v>1.875</v>
+      </c>
+      <c r="V112">
         <v>1.975</v>
       </c>
-      <c r="S112">
-        <v>1.875</v>
-      </c>
-      <c r="T112">
-        <v>3.25</v>
-      </c>
-      <c r="U112">
-        <v>1.975</v>
-      </c>
-      <c r="V112">
-        <v>1.875</v>
-      </c>
       <c r="W112">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X112">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA112">
+        <v>-1</v>
+      </c>
+      <c r="AB112">
         <v>0.875</v>
       </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5992157</v>
+        <v>5992155</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
+        <v>3.1</v>
+      </c>
+      <c r="L115">
+        <v>3.25</v>
+      </c>
+      <c r="M115">
+        <v>2.1</v>
+      </c>
+      <c r="N115">
         <v>2.7</v>
       </c>
-      <c r="L115">
+      <c r="O115">
         <v>3.3</v>
       </c>
-      <c r="M115">
-        <v>2.4</v>
-      </c>
-      <c r="N115">
-        <v>3</v>
-      </c>
-      <c r="O115">
-        <v>3.4</v>
-      </c>
       <c r="P115">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q115">
         <v>0.25</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T115">
         <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X115">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5992153</v>
+        <v>5992157</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,10 +10774,10 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10789,58 +10789,58 @@
         <v>47</v>
       </c>
       <c r="K116">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="L116">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M116">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N116">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q116">
         <v>0.25</v>
       </c>
       <c r="R116">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.5249999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA116">
         <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5992155</v>
+        <v>5992153</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K117">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="L117">
         <v>3.25</v>
       </c>
       <c r="M117">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N117">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O117">
         <v>3.3</v>
       </c>
       <c r="P117">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q117">
         <v>0.25</v>
       </c>
       <c r="R117">
+        <v>2.05</v>
+      </c>
+      <c r="S117">
         <v>1.8</v>
       </c>
-      <c r="S117">
-        <v>2.05</v>
-      </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC117">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11222,7 +11222,7 @@
         <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11486,7 +11486,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
         <v>34</v>
@@ -11753,7 +11753,7 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G127" t="s">
         <v>41</v>
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5992163</v>
+        <v>5992160</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,76 +11842,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>47</v>
       </c>
       <c r="K128">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
+        <v>1.909</v>
+      </c>
+      <c r="N128">
+        <v>3.6</v>
+      </c>
+      <c r="O128">
         <v>3.5</v>
       </c>
-      <c r="N128">
-        <v>2.2</v>
-      </c>
-      <c r="O128">
-        <v>3.1</v>
-      </c>
       <c r="P128">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA128">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5992160</v>
+        <v>5992163</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>47</v>
       </c>
       <c r="K129">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N129">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O129">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P129">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
+        <v>1.875</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
         <v>1.925</v>
       </c>
-      <c r="S129">
+      <c r="V129">
         <v>1.925</v>
       </c>
-      <c r="T129">
-        <v>2.75</v>
-      </c>
-      <c r="U129">
-        <v>2</v>
-      </c>
-      <c r="V129">
-        <v>1.85</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12023,7 +12023,7 @@
         <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5992168</v>
+        <v>5992170</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
         <v>0</v>
       </c>
-      <c r="I131">
-        <v>2</v>
-      </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L131">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M131">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="N131">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O131">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q131">
         <v>0.25</v>
       </c>
       <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
         <v>1.85</v>
       </c>
-      <c r="S131">
-        <v>2</v>
-      </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5992167</v>
+        <v>5992168</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,49 +12198,49 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>46</v>
       </c>
       <c r="K132">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L132">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N132">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O132">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
         <v>1.925</v>
@@ -12255,13 +12255,13 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB132">
         <v>-1</v>
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5992170</v>
+        <v>5992167</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
+        <v>3.1</v>
+      </c>
+      <c r="N133">
         <v>2.15</v>
       </c>
-      <c r="N133">
+      <c r="O133">
         <v>3.2</v>
       </c>
-      <c r="O133">
-        <v>3.4</v>
-      </c>
       <c r="P133">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>-1</v>
+      </c>
+      <c r="Y133">
         <v>2.2</v>
       </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
-      <c r="Y133">
-        <v>-1</v>
-      </c>
       <c r="Z133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7036546</v>
+        <v>5992178</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H139">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
+        <v>3.5</v>
+      </c>
+      <c r="M139">
+        <v>3.75</v>
+      </c>
+      <c r="N139">
+        <v>1.909</v>
+      </c>
+      <c r="O139">
+        <v>3.5</v>
+      </c>
+      <c r="P139">
         <v>3.8</v>
-      </c>
-      <c r="M139">
-        <v>4</v>
-      </c>
-      <c r="N139">
-        <v>1.8</v>
-      </c>
-      <c r="O139">
-        <v>3.75</v>
-      </c>
-      <c r="P139">
-        <v>4</v>
       </c>
       <c r="Q139">
         <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB139">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5992178</v>
+        <v>7036546</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K140">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M140">
+        <v>4</v>
+      </c>
+      <c r="N140">
+        <v>1.8</v>
+      </c>
+      <c r="O140">
         <v>3.75</v>
       </c>
-      <c r="N140">
-        <v>1.909</v>
-      </c>
-      <c r="O140">
-        <v>3.5</v>
-      </c>
       <c r="P140">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q140">
         <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X140">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
         <v>41</v>
@@ -13177,7 +13177,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
         <v>36</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5992175</v>
+        <v>5992173</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,49 +13266,49 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144" t="s">
+        <v>46</v>
+      </c>
+      <c r="K144">
+        <v>1.727</v>
+      </c>
+      <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>4.2</v>
+      </c>
+      <c r="N144">
+        <v>1.55</v>
+      </c>
+      <c r="O144">
+        <v>4</v>
+      </c>
+      <c r="P144">
+        <v>5.75</v>
+      </c>
+      <c r="Q144">
+        <v>-1</v>
+      </c>
+      <c r="R144">
+        <v>1.975</v>
+      </c>
+      <c r="S144">
+        <v>1.875</v>
+      </c>
+      <c r="T144">
         <v>3</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144" t="s">
-        <v>45</v>
-      </c>
-      <c r="K144">
-        <v>2</v>
-      </c>
-      <c r="L144">
-        <v>3.25</v>
-      </c>
-      <c r="M144">
-        <v>3.5</v>
-      </c>
-      <c r="N144">
-        <v>1.833</v>
-      </c>
-      <c r="O144">
-        <v>3.4</v>
-      </c>
-      <c r="P144">
-        <v>4.333</v>
-      </c>
-      <c r="Q144">
-        <v>-0.5</v>
-      </c>
-      <c r="R144">
-        <v>1.825</v>
-      </c>
-      <c r="S144">
-        <v>2.025</v>
-      </c>
-      <c r="T144">
-        <v>2.5</v>
       </c>
       <c r="U144">
         <v>1.975</v>
@@ -13317,25 +13317,25 @@
         <v>1.875</v>
       </c>
       <c r="W144">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB144">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5992173</v>
+        <v>5992175</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,49 +13355,49 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K145">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M145">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N145">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="O145">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
         <v>1.975</v>
@@ -13406,25 +13406,25 @@
         <v>1.875</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA145">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC145">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5992187</v>
+        <v>5992180</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,13 +13444,13 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -13459,61 +13459,61 @@
         <v>45</v>
       </c>
       <c r="K146">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L146">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M146">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N146">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O146">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P146">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q146">
+        <v>-1.25</v>
+      </c>
+      <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
+        <v>1.9</v>
+      </c>
+      <c r="T146">
+        <v>3</v>
+      </c>
+      <c r="U146">
+        <v>2.025</v>
+      </c>
+      <c r="V146">
+        <v>1.825</v>
+      </c>
+      <c r="W146">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X146">
+        <v>-1</v>
+      </c>
+      <c r="Y146">
+        <v>-1</v>
+      </c>
+      <c r="Z146">
+        <v>0.95</v>
+      </c>
+      <c r="AA146">
+        <v>-1</v>
+      </c>
+      <c r="AB146">
         <v>0</v>
       </c>
-      <c r="R146">
-        <v>2.05</v>
-      </c>
-      <c r="S146">
-        <v>1.8</v>
-      </c>
-      <c r="T146">
-        <v>2.5</v>
-      </c>
-      <c r="U146">
-        <v>1.85</v>
-      </c>
-      <c r="V146">
-        <v>2</v>
-      </c>
-      <c r="W146">
-        <v>1.75</v>
-      </c>
-      <c r="X146">
-        <v>-1</v>
-      </c>
-      <c r="Y146">
-        <v>-1</v>
-      </c>
-      <c r="Z146">
-        <v>1.05</v>
-      </c>
-      <c r="AA146">
-        <v>-1</v>
-      </c>
-      <c r="AB146">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5992180</v>
+        <v>5992187</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,13 +13533,13 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13548,43 +13548,43 @@
         <v>45</v>
       </c>
       <c r="K147">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="L147">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M147">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N147">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O147">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P147">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q147">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>0.3999999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13593,16 +13593,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5992182</v>
+        <v>5992185</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,13 +13622,13 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13637,25 +13637,25 @@
         <v>45</v>
       </c>
       <c r="K148">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L148">
         <v>3.4</v>
       </c>
       <c r="M148">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N148">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O148">
         <v>3.3</v>
       </c>
       <c r="P148">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
         <v>1.925</v>
@@ -13664,16 +13664,16 @@
         <v>1.925</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W148">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13688,10 +13688,10 @@
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5992185</v>
+        <v>5992182</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,13 +13711,13 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13726,25 +13726,25 @@
         <v>45</v>
       </c>
       <c r="K149">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L149">
         <v>3.4</v>
       </c>
       <c r="M149">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N149">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O149">
         <v>3.3</v>
       </c>
       <c r="P149">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R149">
         <v>1.925</v>
@@ -13753,16 +13753,16 @@
         <v>1.925</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U149">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,10 +13777,10 @@
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14159,7 +14159,7 @@
         <v>40</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5992192</v>
+        <v>5993421</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,76 +14334,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>2</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K156">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N156">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P156">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R156">
+        <v>1.925</v>
+      </c>
+      <c r="S156">
+        <v>1.925</v>
+      </c>
+      <c r="T156">
+        <v>3</v>
+      </c>
+      <c r="U156">
         <v>2.025</v>
       </c>
-      <c r="S156">
+      <c r="V156">
         <v>1.825</v>
       </c>
-      <c r="T156">
-        <v>2.5</v>
-      </c>
-      <c r="U156">
-        <v>1.95</v>
-      </c>
-      <c r="V156">
-        <v>1.9</v>
-      </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X156">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA156">
+        <v>-1</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
         <v>0.825</v>
-      </c>
-      <c r="AB156">
-        <v>0.95</v>
-      </c>
-      <c r="AC156">
-        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5993421</v>
+        <v>5992192</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>2</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M157">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N157">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O157">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S157">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5993420</v>
+        <v>5992193</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,49 +14512,49 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>45</v>
       </c>
       <c r="K158">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L158">
+        <v>3.6</v>
+      </c>
+      <c r="M158">
+        <v>2.7</v>
+      </c>
+      <c r="N158">
+        <v>1.95</v>
+      </c>
+      <c r="O158">
         <v>3.75</v>
       </c>
-      <c r="M158">
-        <v>3.8</v>
-      </c>
-      <c r="N158">
-        <v>1.75</v>
-      </c>
-      <c r="O158">
-        <v>3.8</v>
-      </c>
       <c r="P158">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q158">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
         <v>1.875</v>
@@ -14563,7 +14563,7 @@
         <v>1.975</v>
       </c>
       <c r="W158">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14572,10 +14572,10 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
         <v>0.875</v>
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5992188</v>
+        <v>5993420</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,13 +14601,13 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -14616,43 +14616,43 @@
         <v>45</v>
       </c>
       <c r="K159">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="L159">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M159">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="N159">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="O159">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q159">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S159">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W159">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14661,13 +14661,13 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5992193</v>
+        <v>5992188</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,58 +14690,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H160">
         <v>3</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>45</v>
       </c>
       <c r="K160">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L160">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M160">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="N160">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="O160">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P160">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S160">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W160">
-        <v>0.95</v>
+        <v>0.444</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14750,13 +14750,13 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -15135,7 +15135,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G165" t="s">
         <v>30</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5992199</v>
+        <v>5992198</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,76 +15224,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K166">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M166">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="N166">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q166">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
         <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA166">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5992198</v>
+        <v>5992199</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,76 +15313,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K167">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="L167">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M167">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="N167">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="O167">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q167">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R167">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
         <v>2.75</v>
       </c>
       <c r="U167">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z167">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5992207</v>
+        <v>5992205</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,55 +15669,55 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
         <v>47</v>
       </c>
       <c r="K171">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L171">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M171">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N171">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O171">
         <v>3.8</v>
       </c>
       <c r="P171">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q171">
         <v>-0.75</v>
       </c>
       <c r="R171">
+        <v>2.025</v>
+      </c>
+      <c r="S171">
         <v>1.825</v>
       </c>
-      <c r="S171">
-        <v>2.025</v>
-      </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15732,13 +15732,13 @@
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5992205</v>
+        <v>5992207</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,55 +15758,55 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
         <v>47</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L172">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N172">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O172">
         <v>3.8</v>
       </c>
       <c r="P172">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q172">
         <v>-0.75</v>
       </c>
       <c r="R172">
+        <v>1.825</v>
+      </c>
+      <c r="S172">
         <v>2.025</v>
       </c>
-      <c r="S172">
-        <v>1.825</v>
-      </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15821,13 +15821,13 @@
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC172">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5992206</v>
+        <v>5992203</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K176">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
         <v>2.875</v>
       </c>
       <c r="N176">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P176">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T176">
         <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
+        <v>1.05</v>
+      </c>
+      <c r="AB176">
+        <v>0.45</v>
+      </c>
+      <c r="AC176">
         <v>-0.5</v>
-      </c>
-      <c r="AA176">
-        <v>0.4875</v>
-      </c>
-      <c r="AB176">
-        <v>0.875</v>
-      </c>
-      <c r="AC176">
-        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5992203</v>
+        <v>5992206</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,76 +16203,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K177">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
         <v>2.875</v>
       </c>
       <c r="N177">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y177">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA177">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AB177">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16473,7 +16473,7 @@
         <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>5992209</v>
+        <v>5992213</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,40 +16648,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K182">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L182">
+        <v>4.2</v>
+      </c>
+      <c r="M182">
+        <v>1.45</v>
+      </c>
+      <c r="N182">
         <v>5</v>
       </c>
-      <c r="M182">
-        <v>6.5</v>
-      </c>
-      <c r="N182">
-        <v>1.444</v>
-      </c>
       <c r="O182">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P182">
-        <v>6.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q182">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R182">
         <v>1.925</v>
@@ -16690,34 +16690,34 @@
         <v>1.925</v>
       </c>
       <c r="T182">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W182">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
         <v>0.925</v>
       </c>
-      <c r="AA182">
-        <v>-1</v>
-      </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC182">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>5992213</v>
+        <v>5992215</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,40 +16737,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I183">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K183">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="L183">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M183">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="N183">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="O183">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P183">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="Q183">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
         <v>1.925</v>
@@ -16779,31 +16779,31 @@
         <v>1.925</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA183">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>5992215</v>
+        <v>5992209</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,40 +16826,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H184">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>45</v>
       </c>
       <c r="K184">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="L184">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="N184">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P184">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q184">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R184">
         <v>1.925</v>
@@ -16868,16 +16868,16 @@
         <v>1.925</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U184">
+        <v>1.875</v>
+      </c>
+      <c r="V184">
         <v>1.975</v>
       </c>
-      <c r="V184">
-        <v>1.875</v>
-      </c>
       <c r="W184">
-        <v>2.25</v>
+        <v>0.444</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16892,10 +16892,10 @@
         <v>-1</v>
       </c>
       <c r="AB184">
+        <v>-1</v>
+      </c>
+      <c r="AC184">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC184">
-        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17004,7 +17004,7 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
         <v>36</v>
@@ -17185,7 +17185,7 @@
         <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>5992217</v>
+        <v>5992218</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,73 +17360,73 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G190" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H190">
+        <v>5</v>
+      </c>
+      <c r="I190">
         <v>1</v>
       </c>
-      <c r="I190">
-        <v>4</v>
-      </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K190">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M190">
+        <v>3.2</v>
+      </c>
+      <c r="N190">
+        <v>2.15</v>
+      </c>
+      <c r="O190">
+        <v>3.3</v>
+      </c>
+      <c r="P190">
+        <v>3.4</v>
+      </c>
+      <c r="Q190">
+        <v>-0.25</v>
+      </c>
+      <c r="R190">
+        <v>1.85</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
         <v>1.95</v>
       </c>
-      <c r="N190">
-        <v>4.2</v>
-      </c>
-      <c r="O190">
-        <v>3.8</v>
-      </c>
-      <c r="P190">
-        <v>1.75</v>
-      </c>
-      <c r="Q190">
-        <v>0.75</v>
-      </c>
-      <c r="R190">
-        <v>1.825</v>
-      </c>
-      <c r="S190">
-        <v>2.025</v>
-      </c>
-      <c r="T190">
-        <v>2.75</v>
-      </c>
-      <c r="U190">
-        <v>1.875</v>
-      </c>
       <c r="V190">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA190">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>5992218</v>
+        <v>5992217</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,73 +17449,73 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H191">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K191">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="L191">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M191">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="N191">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="O191">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P191">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U191">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V191">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z191">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB191">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC191">
         <v>-1</v>
@@ -17627,7 +17627,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G193" t="s">
         <v>31</v>
@@ -17704,7 +17704,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>5992231</v>
+        <v>5992228</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17716,10 +17716,10 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17731,61 +17731,61 @@
         <v>47</v>
       </c>
       <c r="K194">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L194">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M194">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N194">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O194">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P194">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q194">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R194">
+        <v>1.95</v>
+      </c>
+      <c r="S194">
         <v>1.9</v>
       </c>
-      <c r="S194">
-        <v>1.95</v>
-      </c>
       <c r="T194">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U194">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V194">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA194">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC194">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17882,7 +17882,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5992228</v>
+        <v>5992231</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17894,10 +17894,10 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17909,61 +17909,61 @@
         <v>47</v>
       </c>
       <c r="K196">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L196">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M196">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N196">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O196">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P196">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
+        <v>1.9</v>
+      </c>
+      <c r="S196">
         <v>1.95</v>
       </c>
-      <c r="S196">
-        <v>1.9</v>
-      </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17971,7 +17971,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>5992227</v>
+        <v>5993423</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17983,76 +17983,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K197">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L197">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M197">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="N197">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="O197">
         <v>3.8</v>
       </c>
       <c r="P197">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q197">
+        <v>0.75</v>
+      </c>
+      <c r="R197">
+        <v>1.875</v>
+      </c>
+      <c r="S197">
+        <v>1.975</v>
+      </c>
+      <c r="T197">
+        <v>2.75</v>
+      </c>
+      <c r="U197">
+        <v>1.825</v>
+      </c>
+      <c r="V197">
+        <v>2.025</v>
+      </c>
+      <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
+        <v>0.75</v>
+      </c>
+      <c r="Z197">
         <v>-0.5</v>
       </c>
-      <c r="R197">
-        <v>1.9</v>
-      </c>
-      <c r="S197">
-        <v>1.95</v>
-      </c>
-      <c r="T197">
-        <v>3</v>
-      </c>
-      <c r="U197">
-        <v>1.925</v>
-      </c>
-      <c r="V197">
-        <v>1.925</v>
-      </c>
-      <c r="W197">
-        <v>-1</v>
-      </c>
-      <c r="X197">
-        <v>2.8</v>
-      </c>
-      <c r="Y197">
-        <v>-1</v>
-      </c>
-      <c r="Z197">
-        <v>-1</v>
-      </c>
       <c r="AA197">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB197">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18060,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>5993423</v>
+        <v>5992225</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18072,76 +18072,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
         <v>0</v>
       </c>
-      <c r="I198">
-        <v>1</v>
-      </c>
       <c r="J198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K198">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L198">
+        <v>3.4</v>
+      </c>
+      <c r="M198">
+        <v>3.3</v>
+      </c>
+      <c r="N198">
+        <v>1.909</v>
+      </c>
+      <c r="O198">
         <v>3.5</v>
       </c>
-      <c r="M198">
-        <v>2.2</v>
-      </c>
-      <c r="N198">
-        <v>4.333</v>
-      </c>
-      <c r="O198">
+      <c r="P198">
         <v>3.8</v>
       </c>
-      <c r="P198">
-        <v>1.75</v>
-      </c>
       <c r="Q198">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
         <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA198">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18238,7 +18238,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>5992225</v>
+        <v>5992227</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18250,76 +18250,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F200" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G200" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K200">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M200">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N200">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O200">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P200">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q200">
         <v>-0.5</v>
       </c>
       <c r="R200">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T200">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U200">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V200">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W200">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC200">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18339,7 +18339,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G201" t="s">
         <v>40</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>5992233</v>
+        <v>5992234</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,10 +18428,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H202">
         <v>3</v>
@@ -18443,43 +18443,43 @@
         <v>45</v>
       </c>
       <c r="K202">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L202">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M202">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N202">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O202">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P202">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q202">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S202">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T202">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U202">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W202">
-        <v>0.363</v>
+        <v>0.7</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18488,13 +18488,13 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5992234</v>
+        <v>5992233</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,10 +18517,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H203">
         <v>3</v>
@@ -18532,43 +18532,43 @@
         <v>45</v>
       </c>
       <c r="K203">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L203">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M203">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N203">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="O203">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P203">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R203">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S203">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T203">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U203">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V203">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
-        <v>0.7</v>
+        <v>0.363</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18577,13 +18577,13 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC203">
         <v>-1</v>
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5992235</v>
+        <v>5992239</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,40 +18695,40 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G205" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H205">
         <v>0</v>
       </c>
       <c r="I205">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
         <v>46</v>
       </c>
       <c r="K205">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M205">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="N205">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="O205">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P205">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q205">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R205">
         <v>1.8</v>
@@ -18737,13 +18737,13 @@
         <v>2.05</v>
       </c>
       <c r="T205">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V205">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18752,7 +18752,7 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z205">
         <v>-1</v>
@@ -18761,10 +18761,10 @@
         <v>1.05</v>
       </c>
       <c r="AB205">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5992239</v>
+        <v>5992235</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,40 +18784,40 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J206" t="s">
         <v>46</v>
       </c>
       <c r="K206">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L206">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M206">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="N206">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="O206">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P206">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R206">
         <v>1.8</v>
@@ -18826,13 +18826,13 @@
         <v>2.05</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U206">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V206">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W206">
         <v>-1</v>
@@ -18841,7 +18841,7 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="Z206">
         <v>-1</v>
@@ -18850,10 +18850,10 @@
         <v>1.05</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC206">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>38</v>
       </c>
       <c r="G211" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -19306,7 +19306,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>5992246</v>
+        <v>5992241</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,76 +19318,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G212" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K212">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L212">
         <v>3.6</v>
       </c>
       <c r="M212">
+        <v>3.5</v>
+      </c>
+      <c r="N212">
+        <v>1.75</v>
+      </c>
+      <c r="O212">
+        <v>3.8</v>
+      </c>
+      <c r="P212">
         <v>4.2</v>
       </c>
-      <c r="N212">
-        <v>1.8</v>
-      </c>
-      <c r="O212">
-        <v>3.6</v>
-      </c>
-      <c r="P212">
-        <v>4</v>
-      </c>
       <c r="Q212">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R212">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U212">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V212">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z212">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB212">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5992241</v>
+        <v>5992246</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,76 +19407,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H213">
+        <v>4</v>
+      </c>
+      <c r="I213">
         <v>0</v>
       </c>
-      <c r="I213">
-        <v>2</v>
-      </c>
       <c r="J213" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L213">
         <v>3.6</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N213">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O213">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S213">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T213">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U213">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA213">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC213">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19588,7 +19588,7 @@
         <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -20107,7 +20107,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5992248</v>
+        <v>5992253</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20122,43 +20122,43 @@
         <v>43</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
         <v>45</v>
       </c>
       <c r="K221">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M221">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="N221">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O221">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P221">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R221">
+        <v>2.025</v>
+      </c>
+      <c r="S221">
         <v>1.825</v>
-      </c>
-      <c r="S221">
-        <v>2.025</v>
       </c>
       <c r="T221">
         <v>2.75</v>
@@ -20170,7 +20170,7 @@
         <v>1.925</v>
       </c>
       <c r="W221">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20179,16 +20179,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB221">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20196,7 +20196,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5992253</v>
+        <v>5992248</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20211,43 +20211,43 @@
         <v>42</v>
       </c>
       <c r="G222" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
         <v>1</v>
-      </c>
-      <c r="I222">
-        <v>0</v>
       </c>
       <c r="J222" t="s">
         <v>45</v>
       </c>
       <c r="K222">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L222">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="N222">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O222">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P222">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R222">
+        <v>1.825</v>
+      </c>
+      <c r="S222">
         <v>2.025</v>
-      </c>
-      <c r="S222">
-        <v>1.825</v>
       </c>
       <c r="T222">
         <v>2.75</v>
@@ -20259,7 +20259,7 @@
         <v>1.925</v>
       </c>
       <c r="W222">
-        <v>0.5</v>
+        <v>1.375</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20268,16 +20268,16 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA222">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC222">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20656,7 +20656,7 @@
         <v>35</v>
       </c>
       <c r="G227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H227">
         <v>1</v>
@@ -20745,7 +20745,7 @@
         <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>5992263</v>
+        <v>5992260</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,76 +21009,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
         <v>47</v>
       </c>
       <c r="K231">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L231">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M231">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="N231">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O231">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P231">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q231">
+        <v>0.25</v>
+      </c>
+      <c r="R231">
+        <v>2.025</v>
+      </c>
+      <c r="S231">
+        <v>1.825</v>
+      </c>
+      <c r="T231">
+        <v>3</v>
+      </c>
+      <c r="U231">
+        <v>1.95</v>
+      </c>
+      <c r="V231">
+        <v>1.9</v>
+      </c>
+      <c r="W231">
+        <v>-1</v>
+      </c>
+      <c r="X231">
+        <v>2.8</v>
+      </c>
+      <c r="Y231">
+        <v>-1</v>
+      </c>
+      <c r="Z231">
+        <v>0.5125</v>
+      </c>
+      <c r="AA231">
         <v>-0.5</v>
       </c>
-      <c r="R231">
-        <v>1.975</v>
-      </c>
-      <c r="S231">
-        <v>1.875</v>
-      </c>
-      <c r="T231">
-        <v>2.75</v>
-      </c>
-      <c r="U231">
-        <v>1.825</v>
-      </c>
-      <c r="V231">
-        <v>2.025</v>
-      </c>
-      <c r="W231">
-        <v>-1</v>
-      </c>
-      <c r="X231">
-        <v>2.4</v>
-      </c>
-      <c r="Y231">
-        <v>-1</v>
-      </c>
-      <c r="Z231">
-        <v>-1</v>
-      </c>
-      <c r="AA231">
-        <v>0.875</v>
-      </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC231">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>5992260</v>
+        <v>5992263</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,76 +21098,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F232" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
         <v>47</v>
       </c>
       <c r="K232">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L232">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M232">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N232">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O232">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P232">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="Q232">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R232">
+        <v>1.975</v>
+      </c>
+      <c r="S232">
+        <v>1.875</v>
+      </c>
+      <c r="T232">
+        <v>2.75</v>
+      </c>
+      <c r="U232">
+        <v>1.825</v>
+      </c>
+      <c r="V232">
         <v>2.025</v>
       </c>
-      <c r="S232">
-        <v>1.825</v>
-      </c>
-      <c r="T232">
-        <v>3</v>
-      </c>
-      <c r="U232">
-        <v>1.95</v>
-      </c>
-      <c r="V232">
-        <v>1.9</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB232">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>5992270</v>
+        <v>5992266</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,76 +21187,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H233">
         <v>1</v>
       </c>
       <c r="I233">
+        <v>2</v>
+      </c>
+      <c r="J233" t="s">
+        <v>46</v>
+      </c>
+      <c r="K233">
+        <v>2.8</v>
+      </c>
+      <c r="L233">
+        <v>3.6</v>
+      </c>
+      <c r="M233">
+        <v>2.2</v>
+      </c>
+      <c r="N233">
+        <v>2.875</v>
+      </c>
+      <c r="O233">
+        <v>3.6</v>
+      </c>
+      <c r="P233">
+        <v>2.15</v>
+      </c>
+      <c r="Q233">
+        <v>0.25</v>
+      </c>
+      <c r="R233">
+        <v>1.95</v>
+      </c>
+      <c r="S233">
+        <v>1.9</v>
+      </c>
+      <c r="T233">
+        <v>3</v>
+      </c>
+      <c r="U233">
+        <v>2.05</v>
+      </c>
+      <c r="V233">
+        <v>1.8</v>
+      </c>
+      <c r="W233">
+        <v>-1</v>
+      </c>
+      <c r="X233">
+        <v>-1</v>
+      </c>
+      <c r="Y233">
+        <v>1.15</v>
+      </c>
+      <c r="Z233">
+        <v>-1</v>
+      </c>
+      <c r="AA233">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB233">
         <v>0</v>
       </c>
-      <c r="J233" t="s">
-        <v>45</v>
-      </c>
-      <c r="K233">
-        <v>2.5</v>
-      </c>
-      <c r="L233">
-        <v>3.4</v>
-      </c>
-      <c r="M233">
-        <v>2.5</v>
-      </c>
-      <c r="N233">
-        <v>2.5</v>
-      </c>
-      <c r="O233">
-        <v>3.3</v>
-      </c>
-      <c r="P233">
-        <v>2.55</v>
-      </c>
-      <c r="Q233">
-        <v>0</v>
-      </c>
-      <c r="R233">
-        <v>1.9</v>
-      </c>
-      <c r="S233">
-        <v>1.95</v>
-      </c>
-      <c r="T233">
-        <v>2.75</v>
-      </c>
-      <c r="U233">
-        <v>2.025</v>
-      </c>
-      <c r="V233">
-        <v>1.825</v>
-      </c>
-      <c r="W233">
-        <v>1.5</v>
-      </c>
-      <c r="X233">
-        <v>-1</v>
-      </c>
-      <c r="Y233">
-        <v>-1</v>
-      </c>
-      <c r="Z233">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA233">
-        <v>-1</v>
-      </c>
-      <c r="AB233">
-        <v>-1</v>
-      </c>
       <c r="AC233">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>5992271</v>
+        <v>5992264</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,76 +21276,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G234" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234" t="s">
+        <v>46</v>
+      </c>
+      <c r="K234">
+        <v>2.3</v>
+      </c>
+      <c r="L234">
+        <v>3.6</v>
+      </c>
+      <c r="M234">
+        <v>2.625</v>
+      </c>
+      <c r="N234">
+        <v>1.833</v>
+      </c>
+      <c r="O234">
         <v>4</v>
       </c>
-      <c r="I234">
-        <v>0</v>
-      </c>
-      <c r="J234" t="s">
-        <v>45</v>
-      </c>
-      <c r="K234">
-        <v>1.333</v>
-      </c>
-      <c r="L234">
-        <v>4.6</v>
-      </c>
-      <c r="M234">
-        <v>8</v>
-      </c>
-      <c r="N234">
-        <v>1.181</v>
-      </c>
-      <c r="O234">
-        <v>6</v>
-      </c>
       <c r="P234">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="Q234">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S234">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T234">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V234">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W234">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z234">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB234">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>5992268</v>
+        <v>5992265</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,46 +21365,46 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K235">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="L235">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="M235">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N235">
-        <v>1.85</v>
+        <v>1.615</v>
       </c>
       <c r="O235">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P235">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q235">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R235">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S235">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T235">
         <v>3</v>
@@ -21419,16 +21419,16 @@
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB235">
         <v>-1</v>
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>5992266</v>
+        <v>5992271</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G236" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K236">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="L236">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="M236">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="N236">
-        <v>2.875</v>
+        <v>1.181</v>
       </c>
       <c r="O236">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P236">
-        <v>2.15</v>
+        <v>13</v>
       </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R236">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S236">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T236">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U236">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V236">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA236">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC236">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>5992264</v>
+        <v>5992270</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
         <v>0</v>
       </c>
-      <c r="I237">
-        <v>1</v>
-      </c>
       <c r="J237" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K237">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L237">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N237">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O237">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P237">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q237">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S237">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T237">
         <v>2.75</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V237">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA237">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>5992265</v>
+        <v>5992269</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,40 +21632,40 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H238">
+        <v>4</v>
+      </c>
+      <c r="I238">
         <v>0</v>
       </c>
-      <c r="I238">
-        <v>2</v>
-      </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="L238">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M238">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N238">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O238">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P238">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R238">
         <v>1.8</v>
@@ -21674,7 +21674,7 @@
         <v>2.05</v>
       </c>
       <c r="T238">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
         <v>1.825</v>
@@ -21683,25 +21683,25 @@
         <v>2.025</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA238">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC238">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>5992269</v>
+        <v>5992268</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,49 +21721,49 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G239" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239" t="s">
+        <v>47</v>
+      </c>
+      <c r="K239">
+        <v>2.375</v>
+      </c>
+      <c r="L239">
+        <v>3.7</v>
+      </c>
+      <c r="M239">
+        <v>2.5</v>
+      </c>
+      <c r="N239">
+        <v>1.85</v>
+      </c>
+      <c r="O239">
         <v>4</v>
       </c>
-      <c r="I239">
-        <v>0</v>
-      </c>
-      <c r="J239" t="s">
-        <v>45</v>
-      </c>
-      <c r="K239">
-        <v>2.75</v>
-      </c>
-      <c r="L239">
-        <v>3.5</v>
-      </c>
-      <c r="M239">
-        <v>2.25</v>
-      </c>
-      <c r="N239">
-        <v>2.375</v>
-      </c>
-      <c r="O239">
-        <v>3.4</v>
-      </c>
       <c r="P239">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q239">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S239">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U239">
         <v>1.825</v>
@@ -21772,25 +21772,25 @@
         <v>2.025</v>
       </c>
       <c r="W239">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="240" spans="1:29">

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -103,13 +103,13 @@
     <t>Sweden Superettan</t>
   </si>
   <si>
-    <t>Vasteras SK</t>
+    <t>Jonkopings Sodra</t>
   </si>
   <si>
     <t>GAIS</t>
   </si>
   <si>
-    <t>Jonkopings Sodra</t>
+    <t>Vasteras SK</t>
   </si>
   <si>
     <t>Helsingborg</t>
@@ -118,16 +118,16 @@
     <t>Osters IF</t>
   </si>
   <si>
+    <t>Orebro SK</t>
+  </si>
+  <si>
     <t>Ostersunds FK</t>
   </si>
   <si>
-    <t>Orebro SK</t>
+    <t>Trelleborgs FF</t>
   </si>
   <si>
     <t>Skvde AIK</t>
-  </si>
-  <si>
-    <t>Trelleborgs FF</t>
   </si>
   <si>
     <t>Orgryte IS</t>
@@ -151,10 +151,10 @@
     <t>Landskrona BoIS</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5992113</v>
+        <v>5992115</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,73 +631,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O2">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P2">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
         <v>1.85</v>
       </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>1.533</v>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5992115</v>
+        <v>5992113</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N4">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>1.833</v>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1.85</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5992126</v>
+        <v>5992121</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="N7">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
         <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5992121</v>
+        <v>5992126</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8">
+        <v>2.55</v>
+      </c>
+      <c r="L8">
+        <v>3.4</v>
+      </c>
+      <c r="M8">
+        <v>2.45</v>
+      </c>
+      <c r="N8">
+        <v>2.5</v>
+      </c>
+      <c r="O8">
+        <v>3.3</v>
+      </c>
+      <c r="P8">
+        <v>2.55</v>
+      </c>
+      <c r="Q8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8">
-        <v>1.7</v>
-      </c>
-      <c r="L8">
-        <v>3.5</v>
-      </c>
-      <c r="M8">
-        <v>4.5</v>
-      </c>
-      <c r="N8">
-        <v>1.666</v>
-      </c>
-      <c r="O8">
-        <v>3.5</v>
-      </c>
-      <c r="P8">
-        <v>5</v>
-      </c>
-      <c r="Q8">
-        <v>-0.75</v>
-      </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6478150</v>
+        <v>6474532</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1266,19 +1266,19 @@
         <v>47</v>
       </c>
       <c r="K9">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
         <v>3.1</v>
@@ -1287,22 +1287,22 @@
         <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1311,7 +1311,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1320,7 +1320,7 @@
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6474532</v>
+        <v>6478150</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1355,19 +1355,19 @@
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N10">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
         <v>3.1</v>
@@ -1376,22 +1376,22 @@
         <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1400,7 +1400,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -1409,7 +1409,7 @@
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6480043</v>
+        <v>6474541</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,76 +1429,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>45</v>
       </c>
       <c r="K11">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O11">
         <v>3.4</v>
       </c>
       <c r="P11">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q11">
         <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
         <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6474541</v>
+        <v>6474540</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,55 +1518,55 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L12">
         <v>3.4</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P12">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1575,19 +1575,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>2.1</v>
+        <v>0.75</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC12">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6474540</v>
+        <v>6480043</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,76 +1607,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>46</v>
       </c>
       <c r="K13">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="L13">
+        <v>3.3</v>
+      </c>
+      <c r="M13">
+        <v>2.75</v>
+      </c>
+      <c r="N13">
+        <v>2.3</v>
+      </c>
+      <c r="O13">
         <v>3.4</v>
       </c>
-      <c r="M13">
-        <v>2.1</v>
-      </c>
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <v>3.6</v>
-      </c>
       <c r="P13">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V13">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y13">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB13">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5993416</v>
+        <v>5992129</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,58 +1696,58 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>47</v>
       </c>
       <c r="K14">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="O14">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
-        <v>4.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1756,13 +1756,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5992129</v>
+        <v>5993416</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,58 +1785,58 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
+        <v>4.75</v>
+      </c>
+      <c r="L15">
+        <v>3.5</v>
+      </c>
+      <c r="M15">
+        <v>1.615</v>
+      </c>
+      <c r="N15">
+        <v>5.25</v>
+      </c>
+      <c r="O15">
+        <v>3.75</v>
+      </c>
+      <c r="P15">
         <v>1.5</v>
       </c>
-      <c r="L15">
-        <v>4</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
-      </c>
-      <c r="N15">
-        <v>1.4</v>
-      </c>
-      <c r="O15">
-        <v>4.333</v>
-      </c>
-      <c r="P15">
-        <v>5.75</v>
-      </c>
       <c r="Q15">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
-        <v>0.3999999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1845,13 +1845,13 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5992130</v>
+        <v>5992133</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,58 +1874,58 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N16">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1934,13 +1934,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5992133</v>
+        <v>5992130</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,58 +1963,58 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M17">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N17">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>0.5</v>
+        <v>1.375</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,13 +2023,13 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>2.4</v>
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5992128</v>
+        <v>5992134</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,58 +2230,58 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M20">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>0.5329999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2290,13 +2290,13 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5992134</v>
+        <v>5992128</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,58 +2319,58 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
         <v>34</v>
       </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
       <c r="H21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P21">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2379,13 +2379,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5992135</v>
+        <v>5992136</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,10 +2408,10 @@
         <v>45114.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2420,64 +2420,64 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22">
+        <v>3.4</v>
+      </c>
+      <c r="L22">
+        <v>3.4</v>
+      </c>
+      <c r="M22">
+        <v>1.909</v>
+      </c>
+      <c r="N22">
+        <v>3.3</v>
+      </c>
+      <c r="O22">
+        <v>3.3</v>
+      </c>
+      <c r="P22">
         <v>2.05</v>
       </c>
-      <c r="L22">
-        <v>3.2</v>
-      </c>
-      <c r="M22">
-        <v>3.2</v>
-      </c>
-      <c r="N22">
+      <c r="Q22">
+        <v>0.5</v>
+      </c>
+      <c r="R22">
+        <v>1.825</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>4</v>
-      </c>
-      <c r="P22">
-        <v>3.6</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
+      <c r="V22">
         <v>1.9</v>
       </c>
-      <c r="S22">
-        <v>1.95</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.8</v>
-      </c>
-      <c r="V22">
-        <v>2.05</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5992136</v>
+        <v>5992135</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,10 +2497,10 @@
         <v>45114.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2509,64 +2509,64 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N23">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P23">
+        <v>3.6</v>
+      </c>
+      <c r="Q23">
+        <v>-0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.9</v>
+      </c>
+      <c r="S23">
+        <v>1.95</v>
+      </c>
+      <c r="T23">
+        <v>2.75</v>
+      </c>
+      <c r="U23">
+        <v>1.8</v>
+      </c>
+      <c r="V23">
         <v>2.05</v>
       </c>
-      <c r="Q23">
-        <v>0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.825</v>
-      </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.9</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2589,7 +2589,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>3.5</v>
@@ -2853,7 +2853,7 @@
         <v>45116.5</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
         <v>4.333</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5992140</v>
+        <v>5992137</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N28">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O28">
         <v>3.4</v>
       </c>
       <c r="P28">
+        <v>3.3</v>
+      </c>
+      <c r="Q28">
+        <v>-0.5</v>
+      </c>
+      <c r="R28">
+        <v>2.05</v>
+      </c>
+      <c r="S28">
+        <v>1.8</v>
+      </c>
+      <c r="T28">
         <v>2.25</v>
       </c>
-      <c r="Q28">
-        <v>0.25</v>
-      </c>
-      <c r="R28">
-        <v>1.8</v>
-      </c>
-      <c r="S28">
-        <v>2.05</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA28">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5992137</v>
+        <v>5992140</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O29">
         <v>3.4</v>
       </c>
       <c r="P29">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
+        <v>1.8</v>
+      </c>
+      <c r="S29">
         <v>2.05</v>
       </c>
-      <c r="S29">
-        <v>1.8</v>
-      </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
         <v>1.05</v>
       </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3209,7 +3209,7 @@
         <v>45122.33333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -3298,7 +3298,7 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3399,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>1.909</v>
@@ -3476,7 +3476,7 @@
         <v>45122.5</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
         <v>44</v>
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5992147</v>
+        <v>5992142</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="L35">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P35">
-        <v>2.15</v>
+        <v>11</v>
       </c>
       <c r="Q35">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U35">
+        <v>1.975</v>
+      </c>
+      <c r="V35">
         <v>1.875</v>
       </c>
-      <c r="V35">
-        <v>1.975</v>
-      </c>
       <c r="W35">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
         <v>0.875</v>
-      </c>
-      <c r="AC35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5992142</v>
+        <v>5992147</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,76 +3654,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N36">
-        <v>1.166</v>
+        <v>3</v>
       </c>
       <c r="O36">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="Q36">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>2.5</v>
+      </c>
+      <c r="U36">
+        <v>1.875</v>
+      </c>
+      <c r="V36">
         <v>1.975</v>
       </c>
-      <c r="S36">
-        <v>1.875</v>
-      </c>
-      <c r="T36">
-        <v>3.25</v>
-      </c>
-      <c r="U36">
-        <v>1.975</v>
-      </c>
-      <c r="V36">
-        <v>1.875</v>
-      </c>
       <c r="W36">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X36">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
+        <v>-1</v>
+      </c>
+      <c r="AB36">
         <v>0.875</v>
       </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
       <c r="AC36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,10 +3743,10 @@
         <v>45124.58333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
         <v>2.1</v>
@@ -3844,7 +3844,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>1.7</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5992155</v>
+        <v>5992153</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,76 +3921,76 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>2</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="L39">
         <v>3.25</v>
       </c>
       <c r="M39">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N39">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O39">
         <v>3.3</v>
       </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q39">
         <v>0.25</v>
       </c>
       <c r="R39">
+        <v>2.05</v>
+      </c>
+      <c r="S39">
         <v>1.8</v>
       </c>
-      <c r="S39">
-        <v>2.05</v>
-      </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5992153</v>
+        <v>5992157</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,7 +4010,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4022,61 +4022,61 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K40">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N40">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q40">
         <v>0.25</v>
       </c>
       <c r="R40">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.5249999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA40">
         <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5992157</v>
+        <v>5992155</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K41">
+        <v>3.1</v>
+      </c>
+      <c r="L41">
+        <v>3.25</v>
+      </c>
+      <c r="M41">
+        <v>2.1</v>
+      </c>
+      <c r="N41">
         <v>2.7</v>
       </c>
-      <c r="L41">
+      <c r="O41">
         <v>3.3</v>
       </c>
-      <c r="M41">
-        <v>2.4</v>
-      </c>
-      <c r="N41">
-        <v>3</v>
-      </c>
-      <c r="O41">
-        <v>3.4</v>
-      </c>
       <c r="P41">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q41">
         <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X41">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4191,7 +4191,7 @@
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4289,7 +4289,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>2.875</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5992152</v>
+        <v>5992150</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,55 +4366,55 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L44">
         <v>3.4</v>
       </c>
       <c r="M44">
+        <v>3.3</v>
+      </c>
+      <c r="N44">
+        <v>1.727</v>
+      </c>
+      <c r="O44">
         <v>3.6</v>
       </c>
-      <c r="N44">
-        <v>1.909</v>
-      </c>
-      <c r="O44">
-        <v>3.4</v>
-      </c>
       <c r="P44">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4423,19 +4423,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB44">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5992150</v>
+        <v>5992152</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,56 +4455,56 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L45">
         <v>3.4</v>
       </c>
       <c r="M45">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O45">
+        <v>3.4</v>
+      </c>
+      <c r="P45">
         <v>3.6</v>
       </c>
-      <c r="P45">
-        <v>4.2</v>
-      </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
+        <v>1.975</v>
+      </c>
+      <c r="S45">
+        <v>1.875</v>
+      </c>
+      <c r="T45">
+        <v>2.5</v>
+      </c>
+      <c r="U45">
         <v>2.025</v>
       </c>
-      <c r="S45">
+      <c r="V45">
         <v>1.825</v>
       </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>1.85</v>
-      </c>
-      <c r="V45">
-        <v>2</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
@@ -4512,19 +4512,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4547,7 +4547,7 @@
         <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4633,7 +4633,7 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -4645,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>1.8</v>
@@ -4734,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48">
         <v>2.15</v>
@@ -4814,7 +4814,7 @@
         <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>4</v>
@@ -4900,7 +4900,7 @@
         <v>45137.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>44</v>
@@ -4912,7 +4912,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K50">
         <v>2.1</v>
@@ -4989,7 +4989,7 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5992160</v>
+        <v>5992163</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M52">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N52">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P52">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
+        <v>1.975</v>
+      </c>
+      <c r="S52">
+        <v>1.875</v>
+      </c>
+      <c r="T52">
+        <v>2.25</v>
+      </c>
+      <c r="U52">
         <v>1.925</v>
       </c>
-      <c r="S52">
+      <c r="V52">
         <v>1.925</v>
       </c>
-      <c r="T52">
-        <v>2.75</v>
-      </c>
-      <c r="U52">
-        <v>2</v>
-      </c>
-      <c r="V52">
-        <v>1.85</v>
-      </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5992163</v>
+        <v>5992160</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L53">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
+        <v>1.909</v>
+      </c>
+      <c r="N53">
+        <v>3.6</v>
+      </c>
+      <c r="O53">
         <v>3.5</v>
       </c>
-      <c r="N53">
-        <v>2.2</v>
-      </c>
-      <c r="O53">
-        <v>3.1</v>
-      </c>
       <c r="P53">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA53">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5992168</v>
+        <v>5992170</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,76 +5345,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M55">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="N55">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O55">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P55">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q55">
         <v>0.25</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
         <v>1.85</v>
       </c>
-      <c r="S55">
-        <v>2</v>
-      </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5992170</v>
+        <v>5992168</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M56">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="N56">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P56">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="Q56">
         <v>0.25</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z56">
+        <v>-1</v>
+      </c>
+      <c r="AA56">
         <v>1</v>
       </c>
-      <c r="AA56">
-        <v>-1</v>
-      </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5526,7 +5526,7 @@
         <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K57">
         <v>2.15</v>
@@ -5612,10 +5612,10 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>4.333</v>
@@ -5713,7 +5713,7 @@
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K59">
         <v>1.285</v>
@@ -5790,10 +5790,10 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5802,7 +5802,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K60">
         <v>2.3</v>
@@ -5891,7 +5891,7 @@
         <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -5980,7 +5980,7 @@
         <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>3.5</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5993419</v>
+        <v>5992178</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>46</v>
       </c>
       <c r="K63">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="L63">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="N63">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O63">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q63">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T63">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y63">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5992178</v>
+        <v>5993419</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
         <v>45</v>
       </c>
       <c r="K64">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M64">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="N64">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P64">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q64">
+        <v>-1.75</v>
+      </c>
+      <c r="R64">
+        <v>1.875</v>
+      </c>
+      <c r="S64">
+        <v>1.975</v>
+      </c>
+      <c r="T64">
+        <v>3.25</v>
+      </c>
+      <c r="U64">
+        <v>2.025</v>
+      </c>
+      <c r="V64">
+        <v>1.825</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
+        <v>11</v>
+      </c>
+      <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB64">
         <v>-0.5</v>
       </c>
-      <c r="R64">
-        <v>1.925</v>
-      </c>
-      <c r="S64">
-        <v>1.925</v>
-      </c>
-      <c r="T64">
-        <v>2.5</v>
-      </c>
-      <c r="U64">
-        <v>1.95</v>
-      </c>
-      <c r="V64">
-        <v>1.9</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
-      <c r="X64">
-        <v>2.5</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
-      <c r="Z64">
-        <v>-1</v>
-      </c>
-      <c r="AA64">
-        <v>0.925</v>
-      </c>
-      <c r="AB64">
-        <v>-1</v>
-      </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5992179</v>
+        <v>5992174</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,61 +6324,61 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M66">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N66">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P66">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.95</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
+        <v>1.8</v>
+      </c>
+      <c r="V66">
         <v>2.05</v>
       </c>
-      <c r="S66">
-        <v>1.75</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
-      <c r="U66">
-        <v>1.875</v>
-      </c>
-      <c r="V66">
-        <v>1.975</v>
-      </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X66">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6387,13 +6387,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5992174</v>
+        <v>5992179</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,61 +6413,61 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K67">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L67">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N67">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O67">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q67">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6476,13 +6476,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="AB67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6505,7 +6505,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6514,7 +6514,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>1.727</v>
@@ -6591,10 +6591,10 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6772,7 +6772,7 @@
         <v>41</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5992182</v>
+        <v>5992185</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,13 +6858,13 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6873,25 +6873,25 @@
         <v>47</v>
       </c>
       <c r="K72">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L72">
         <v>3.4</v>
       </c>
       <c r="M72">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N72">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O72">
         <v>3.3</v>
       </c>
       <c r="P72">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
         <v>1.925</v>
@@ -6900,16 +6900,16 @@
         <v>1.925</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6924,10 +6924,10 @@
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5992185</v>
+        <v>5992182</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,13 +6947,13 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6962,25 +6962,25 @@
         <v>47</v>
       </c>
       <c r="K73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
         <v>3.4</v>
       </c>
       <c r="M73">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N73">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O73">
         <v>3.3</v>
       </c>
       <c r="P73">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
         <v>1.925</v>
@@ -6989,16 +6989,16 @@
         <v>1.925</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W73">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7013,10 +7013,10 @@
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7036,7 +7036,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7048,7 +7048,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7128,7 +7128,7 @@
         <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
         <v>33</v>
@@ -7226,7 +7226,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>3.6</v>
@@ -7306,7 +7306,7 @@
         <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7315,7 +7315,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K77">
         <v>2.2</v>
@@ -7392,10 +7392,10 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7404,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K78">
         <v>2.9</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5993421</v>
+        <v>5992192</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K80">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L80">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M80">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N80">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S80">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5992192</v>
+        <v>5993421</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L81">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N81">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R81">
+        <v>1.925</v>
+      </c>
+      <c r="S81">
+        <v>1.925</v>
+      </c>
+      <c r="T81">
+        <v>3</v>
+      </c>
+      <c r="U81">
         <v>2.025</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.825</v>
       </c>
-      <c r="T81">
-        <v>2.5</v>
-      </c>
-      <c r="U81">
-        <v>1.95</v>
-      </c>
-      <c r="V81">
-        <v>1.9</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X81">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.825</v>
-      </c>
-      <c r="AB81">
-        <v>0.95</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5992193</v>
+        <v>5993420</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,49 +7748,49 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
         <v>47</v>
       </c>
       <c r="K82">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N82">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O82">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P82">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
         <v>1.875</v>
@@ -7799,7 +7799,7 @@
         <v>1.975</v>
       </c>
       <c r="W82">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7808,10 +7808,10 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB82">
         <v>0.875</v>
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5993420</v>
+        <v>5992193</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,49 +7837,49 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>47</v>
       </c>
       <c r="K83">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L83">
+        <v>3.6</v>
+      </c>
+      <c r="M83">
+        <v>2.7</v>
+      </c>
+      <c r="N83">
+        <v>1.95</v>
+      </c>
+      <c r="O83">
         <v>3.75</v>
       </c>
-      <c r="M83">
-        <v>3.8</v>
-      </c>
-      <c r="N83">
-        <v>1.75</v>
-      </c>
-      <c r="O83">
-        <v>3.8</v>
-      </c>
       <c r="P83">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
         <v>1.875</v>
@@ -7888,7 +7888,7 @@
         <v>1.975</v>
       </c>
       <c r="W83">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7897,10 +7897,10 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>0.875</v>
@@ -7929,7 +7929,7 @@
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8027,7 +8027,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>2.1</v>
@@ -8107,7 +8107,7 @@
         <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8116,7 +8116,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>2.2</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5992196</v>
+        <v>5992201</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,49 +8193,49 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K87">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M87">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="N87">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P87">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="Q87">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
         <v>1.925</v>
@@ -8244,25 +8244,25 @@
         <v>1.925</v>
       </c>
       <c r="W87">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB87">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5992201</v>
+        <v>5992196</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,49 +8282,49 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K88">
+        <v>3.2</v>
+      </c>
+      <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>2.05</v>
+      </c>
+      <c r="N88">
+        <v>3.75</v>
+      </c>
+      <c r="O88">
+        <v>3.6</v>
+      </c>
+      <c r="P88">
+        <v>1.833</v>
+      </c>
+      <c r="Q88">
+        <v>0.5</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
         <v>1.85</v>
       </c>
-      <c r="L88">
-        <v>3.3</v>
-      </c>
-      <c r="M88">
-        <v>4</v>
-      </c>
-      <c r="N88">
-        <v>1.909</v>
-      </c>
-      <c r="O88">
-        <v>3.1</v>
-      </c>
-      <c r="P88">
-        <v>4</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>1.975</v>
-      </c>
-      <c r="S88">
-        <v>1.875</v>
-      </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
         <v>1.925</v>
@@ -8333,25 +8333,25 @@
         <v>1.925</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X88">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC88">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5992198</v>
+        <v>5992199</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K89">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="N89">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
         <v>2.75</v>
       </c>
       <c r="U89">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z89">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC89">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8472,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K90">
         <v>1.533</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5992199</v>
+        <v>5992198</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,76 +8549,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="N91">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q91">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>43</v>
@@ -8828,7 +8828,7 @@
         <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>2.3</v>
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5992205</v>
+        <v>5992207</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,55 +8905,55 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O95">
         <v>3.8</v>
       </c>
       <c r="P95">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q95">
         <v>-0.75</v>
       </c>
       <c r="R95">
+        <v>1.825</v>
+      </c>
+      <c r="S95">
         <v>2.025</v>
       </c>
-      <c r="S95">
-        <v>1.825</v>
-      </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8968,13 +8968,13 @@
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC95">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5992207</v>
+        <v>5992205</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,55 +8994,55 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N96">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O96">
         <v>3.8</v>
       </c>
       <c r="P96">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q96">
         <v>-0.75</v>
       </c>
       <c r="R96">
+        <v>2.025</v>
+      </c>
+      <c r="S96">
         <v>1.825</v>
       </c>
-      <c r="S96">
-        <v>2.025</v>
-      </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9057,13 +9057,13 @@
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9261,10 +9261,10 @@
         <v>45186.5</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>5</v>
@@ -9350,7 +9350,7 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>44</v>
@@ -9362,7 +9362,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>2.25</v>
@@ -9442,7 +9442,7 @@
         <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9451,7 +9451,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K101">
         <v>2.2</v>
@@ -9620,7 +9620,7 @@
         <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9718,7 +9718,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
         <v>3.5</v>
@@ -9795,7 +9795,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>39</v>
@@ -9884,7 +9884,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
         <v>38</v>
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5992215</v>
+        <v>5992213</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,40 +9973,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>6</v>
+      </c>
+      <c r="J107" t="s">
+        <v>45</v>
+      </c>
+      <c r="K107">
+        <v>6</v>
+      </c>
+      <c r="L107">
+        <v>4.2</v>
+      </c>
+      <c r="M107">
+        <v>1.45</v>
+      </c>
+      <c r="N107">
         <v>5</v>
       </c>
-      <c r="I107">
+      <c r="O107">
+        <v>4.5</v>
+      </c>
+      <c r="P107">
+        <v>1.533</v>
+      </c>
+      <c r="Q107">
         <v>1</v>
-      </c>
-      <c r="J107" t="s">
-        <v>47</v>
-      </c>
-      <c r="K107">
-        <v>2.875</v>
-      </c>
-      <c r="L107">
-        <v>3.3</v>
-      </c>
-      <c r="M107">
-        <v>2.25</v>
-      </c>
-      <c r="N107">
-        <v>3.25</v>
-      </c>
-      <c r="O107">
-        <v>3.4</v>
-      </c>
-      <c r="P107">
-        <v>2.15</v>
-      </c>
-      <c r="Q107">
-        <v>0.25</v>
       </c>
       <c r="R107">
         <v>1.925</v>
@@ -10015,31 +10015,31 @@
         <v>1.925</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W107">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
         <v>0.925</v>
       </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
       <c r="AB107">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5992213</v>
+        <v>5992215</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,40 +10062,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I108">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K108">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="L108">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M108">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="N108">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="O108">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="Q108">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
         <v>1.925</v>
@@ -10104,31 +10104,31 @@
         <v>1.925</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA108">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10154,7 +10154,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10163,7 +10163,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>1.727</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5992222</v>
+        <v>5992220</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K110">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L110">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N110">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O110">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="Q110">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R110">
+        <v>1.9</v>
+      </c>
+      <c r="S110">
         <v>1.95</v>
       </c>
-      <c r="S110">
-        <v>1.9</v>
-      </c>
       <c r="T110">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X110">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10332,7 +10332,7 @@
         <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>4</v>
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5992220</v>
+        <v>5992222</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K112">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M112">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N112">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P112">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R112">
+        <v>1.95</v>
+      </c>
+      <c r="S112">
         <v>1.9</v>
       </c>
-      <c r="S112">
+      <c r="T112">
+        <v>3</v>
+      </c>
+      <c r="U112">
+        <v>1.9</v>
+      </c>
+      <c r="V112">
         <v>1.95</v>
       </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.825</v>
-      </c>
-      <c r="V112">
-        <v>2.025</v>
-      </c>
       <c r="W112">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>45196.59722222222</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
         <v>42</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5992221</v>
+        <v>5992218</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,13 +10596,13 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -10611,61 +10611,61 @@
         <v>47</v>
       </c>
       <c r="K114">
+        <v>2.25</v>
+      </c>
+      <c r="L114">
+        <v>3.3</v>
+      </c>
+      <c r="M114">
+        <v>3.2</v>
+      </c>
+      <c r="N114">
+        <v>2.15</v>
+      </c>
+      <c r="O114">
+        <v>3.3</v>
+      </c>
+      <c r="P114">
+        <v>3.4</v>
+      </c>
+      <c r="Q114">
+        <v>-0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.85</v>
+      </c>
+      <c r="S114">
+        <v>2</v>
+      </c>
+      <c r="T114">
+        <v>2.5</v>
+      </c>
+      <c r="U114">
         <v>1.95</v>
       </c>
-      <c r="L114">
-        <v>3.5</v>
-      </c>
-      <c r="M114">
-        <v>3.8</v>
-      </c>
-      <c r="N114">
-        <v>1.95</v>
-      </c>
-      <c r="O114">
-        <v>3.5</v>
-      </c>
-      <c r="P114">
-        <v>3.8</v>
-      </c>
-      <c r="Q114">
-        <v>-0.5</v>
-      </c>
-      <c r="R114">
-        <v>2.025</v>
-      </c>
-      <c r="S114">
-        <v>1.825</v>
-      </c>
-      <c r="T114">
-        <v>2.75</v>
-      </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
+        <v>1.15</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
         <v>0.95</v>
       </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>1.025</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
-      <c r="AB114">
-        <v>0.4875</v>
-      </c>
       <c r="AC114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5992218</v>
+        <v>5992221</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,13 +10685,13 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -10700,43 +10700,43 @@
         <v>47</v>
       </c>
       <c r="K115">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L115">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O115">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10745,16 +10745,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10786,7 +10786,7 @@
         <v>4</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K116">
         <v>3.6</v>
@@ -10863,10 +10863,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5992228</v>
+        <v>5992231</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,10 +10952,10 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -10964,64 +10964,64 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K118">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L118">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N118">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O118">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
+        <v>1.9</v>
+      </c>
+      <c r="S118">
         <v>1.95</v>
       </c>
-      <c r="S118">
-        <v>1.9</v>
-      </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5992231</v>
+        <v>5992228</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,10 +11130,10 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11142,64 +11142,64 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K120">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M120">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N120">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P120">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R120">
+        <v>1.95</v>
+      </c>
+      <c r="S120">
         <v>1.9</v>
       </c>
-      <c r="S120">
-        <v>1.95</v>
-      </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC120">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5993423</v>
+        <v>5992225</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
         <v>0</v>
       </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
+        <v>3.4</v>
+      </c>
+      <c r="M121">
+        <v>3.3</v>
+      </c>
+      <c r="N121">
+        <v>1.909</v>
+      </c>
+      <c r="O121">
         <v>3.5</v>
       </c>
-      <c r="M121">
-        <v>2.2</v>
-      </c>
-      <c r="N121">
-        <v>4.333</v>
-      </c>
-      <c r="O121">
+      <c r="P121">
         <v>3.8</v>
       </c>
-      <c r="P121">
-        <v>1.75</v>
-      </c>
       <c r="Q121">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S121">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA121">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11320,7 +11320,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K122">
         <v>1.909</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5992225</v>
+        <v>5993423</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
         <v>1</v>
       </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K123">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N123">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="O123">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q123">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T123">
         <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W123">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z123">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11489,7 +11489,7 @@
         <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>4</v>
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5992236</v>
+        <v>5992233</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,40 +11575,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H125">
         <v>3</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>47</v>
       </c>
       <c r="K125">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L125">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M125">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N125">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P125">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R125">
         <v>1.95</v>
@@ -11617,16 +11617,16 @@
         <v>1.9</v>
       </c>
       <c r="T125">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>0.95</v>
+        <v>0.363</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11641,10 +11641,10 @@
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11664,7 +11664,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G126" t="s">
         <v>40</v>
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5992233</v>
+        <v>5992236</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,40 +11753,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H127">
         <v>3</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
         <v>47</v>
       </c>
       <c r="K127">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L127">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M127">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="N127">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="O127">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="Q127">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
         <v>1.95</v>
@@ -11795,16 +11795,16 @@
         <v>1.9</v>
       </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>0.363</v>
+        <v>0.95</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11819,10 +11819,10 @@
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>45206.5</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
         <v>32</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5992235</v>
+        <v>5992239</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,40 +11931,40 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K129">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="N129">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="O129">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P129">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q129">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R129">
         <v>1.8</v>
@@ -11973,13 +11973,13 @@
         <v>2.05</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V129">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11988,7 +11988,7 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="Z129">
         <v>-1</v>
@@ -11997,10 +11997,10 @@
         <v>1.05</v>
       </c>
       <c r="AB129">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5992239</v>
+        <v>5992235</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,40 +12020,40 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M130">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="N130">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R130">
         <v>1.8</v>
@@ -12062,13 +12062,13 @@
         <v>2.05</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -12077,7 +12077,7 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="Z130">
         <v>-1</v>
@@ -12086,10 +12086,10 @@
         <v>1.05</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5992238</v>
+        <v>5992232</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,13 +12109,13 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>2</v>
@@ -12124,25 +12124,25 @@
         <v>46</v>
       </c>
       <c r="K131">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L131">
         <v>3.5</v>
       </c>
       <c r="M131">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N131">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P131">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R131">
         <v>1.9</v>
@@ -12151,34 +12151,34 @@
         <v>1.95</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y131">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA131">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB131">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AC131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5992232</v>
+        <v>5992238</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,13 +12198,13 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>2</v>
@@ -12213,25 +12213,25 @@
         <v>45</v>
       </c>
       <c r="K132">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L132">
         <v>3.5</v>
       </c>
       <c r="M132">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N132">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
         <v>1.9</v>
@@ -12240,34 +12240,34 @@
         <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB132">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12290,7 +12290,7 @@
         <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12388,7 +12388,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
         <v>1.75</v>
@@ -12468,7 +12468,7 @@
         <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12477,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
         <v>3.5</v>
@@ -12557,7 +12557,7 @@
         <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12566,7 +12566,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K136">
         <v>2</v>
@@ -12732,10 +12732,10 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12744,7 +12744,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K138">
         <v>1.85</v>
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5992247</v>
+        <v>5992244</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,49 +12821,49 @@
         <v>45223.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K139">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L139">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M139">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="N139">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P139">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
         <v>1.95</v>
@@ -12872,25 +12872,25 @@
         <v>1.9</v>
       </c>
       <c r="W139">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5992244</v>
+        <v>5992247</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,49 +12910,49 @@
         <v>45223.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N140">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O140">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
         <v>1.95</v>
@@ -12961,25 +12961,25 @@
         <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K141">
         <v>3.5</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5992252</v>
+        <v>5992254</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M142">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N142">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5992254</v>
+        <v>5992249</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,73 +13177,73 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K143">
+        <v>2.1</v>
+      </c>
+      <c r="L143">
+        <v>3.5</v>
+      </c>
+      <c r="M143">
+        <v>3.2</v>
+      </c>
+      <c r="N143">
+        <v>2.375</v>
+      </c>
+      <c r="O143">
+        <v>3.5</v>
+      </c>
+      <c r="P143">
+        <v>2.75</v>
+      </c>
+      <c r="Q143">
+        <v>-0.25</v>
+      </c>
+      <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
+        <v>1.75</v>
+      </c>
+      <c r="T143">
+        <v>2.75</v>
+      </c>
+      <c r="U143">
+        <v>1.95</v>
+      </c>
+      <c r="V143">
+        <v>1.9</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
         <v>2.5</v>
       </c>
-      <c r="L143">
-        <v>3.25</v>
-      </c>
-      <c r="M143">
-        <v>2.7</v>
-      </c>
-      <c r="N143">
-        <v>3</v>
-      </c>
-      <c r="O143">
-        <v>3.2</v>
-      </c>
-      <c r="P143">
-        <v>2.375</v>
-      </c>
-      <c r="Q143">
-        <v>0.25</v>
-      </c>
-      <c r="R143">
-        <v>1.775</v>
-      </c>
-      <c r="S143">
-        <v>2.1</v>
-      </c>
-      <c r="T143">
-        <v>2.5</v>
-      </c>
-      <c r="U143">
-        <v>2.025</v>
-      </c>
-      <c r="V143">
-        <v>1.825</v>
-      </c>
-      <c r="W143">
-        <v>2</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB143">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5992249</v>
+        <v>5992252</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,46 +13266,46 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N144">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O144">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
         <v>2.75</v>
@@ -13320,22 +13320,22 @@
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5992251</v>
+        <v>5992253</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,13 +13355,13 @@
         <v>45228.375</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -13370,43 +13370,43 @@
         <v>47</v>
       </c>
       <c r="K145">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M145">
-        <v>2.15</v>
+        <v>4.6</v>
       </c>
       <c r="N145">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P145">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q145">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S145">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>1.875</v>
+        <v>0.5</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13415,16 +13415,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5992253</v>
+        <v>5992251</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,13 +13444,13 @@
         <v>45228.375</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -13459,43 +13459,43 @@
         <v>47</v>
       </c>
       <c r="K146">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="L146">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>4.6</v>
+        <v>2.15</v>
       </c>
       <c r="N146">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O146">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q146">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U146">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
-        <v>0.5</v>
+        <v>1.875</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13504,16 +13504,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>45228.375</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>30</v>
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K149">
         <v>1.285</v>
@@ -13800,7 +13800,7 @@
         <v>45234.375</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>33</v>
@@ -13812,7 +13812,7 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K150">
         <v>4.75</v>
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5992259</v>
+        <v>5992256</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,13 +13889,13 @@
         <v>45234.375</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -13904,43 +13904,43 @@
         <v>47</v>
       </c>
       <c r="K151">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O151">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
+        <v>1.875</v>
+      </c>
+      <c r="S151">
         <v>1.975</v>
       </c>
-      <c r="S151">
+      <c r="T151">
+        <v>3</v>
+      </c>
+      <c r="U151">
         <v>1.875</v>
       </c>
-      <c r="T151">
-        <v>2.75</v>
-      </c>
-      <c r="U151">
-        <v>1.95</v>
-      </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13949,16 +13949,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
+        <v>0.875</v>
+      </c>
+      <c r="AA151">
+        <v>-1</v>
+      </c>
+      <c r="AB151">
+        <v>-1</v>
+      </c>
+      <c r="AC151">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA151">
-        <v>-1</v>
-      </c>
-      <c r="AB151">
-        <v>-1</v>
-      </c>
-      <c r="AC151">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5992256</v>
+        <v>5992259</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,13 +13978,13 @@
         <v>45234.375</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -13993,43 +13993,43 @@
         <v>47</v>
       </c>
       <c r="K152">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O152">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
         <v>1.875</v>
       </c>
-      <c r="S152">
-        <v>1.975</v>
-      </c>
       <c r="T152">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14038,7 +14038,7 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA152">
         <v>-1</v>
@@ -14047,7 +14047,7 @@
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
         <v>44</v>
@@ -14156,7 +14156,7 @@
         <v>45235.375</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
         <v>30</v>
@@ -14168,7 +14168,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K154">
         <v>6</v>
@@ -14257,7 +14257,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K155">
         <v>2</v>
@@ -14334,11 +14334,11 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F156" t="s">
+        <v>36</v>
+      </c>
+      <c r="G156" t="s">
         <v>37</v>
       </c>
-      <c r="G156" t="s">
-        <v>36</v>
-      </c>
       <c r="H156">
         <v>2</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K156">
         <v>2.5</v>
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5992271</v>
+        <v>5992264</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G157" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>45</v>
+      </c>
+      <c r="K157">
+        <v>2.3</v>
+      </c>
+      <c r="L157">
+        <v>3.6</v>
+      </c>
+      <c r="M157">
+        <v>2.625</v>
+      </c>
+      <c r="N157">
+        <v>1.833</v>
+      </c>
+      <c r="O157">
         <v>4</v>
       </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157" t="s">
-        <v>47</v>
-      </c>
-      <c r="K157">
-        <v>1.333</v>
-      </c>
-      <c r="L157">
-        <v>4.6</v>
-      </c>
-      <c r="M157">
-        <v>8</v>
-      </c>
-      <c r="N157">
-        <v>1.181</v>
-      </c>
-      <c r="O157">
-        <v>6</v>
-      </c>
       <c r="P157">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="Q157">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z157">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB157">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5992270</v>
+        <v>5992271</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,13 +14512,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -14527,43 +14527,43 @@
         <v>47</v>
       </c>
       <c r="K158">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="M158">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="N158">
-        <v>2.5</v>
+        <v>1.181</v>
       </c>
       <c r="O158">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P158">
-        <v>2.55</v>
+        <v>13</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U158">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W158">
-        <v>1.5</v>
+        <v>0.181</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14572,16 +14572,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5992264</v>
+        <v>5992266</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,55 +14601,55 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K159">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="L159">
         <v>3.6</v>
       </c>
       <c r="M159">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="N159">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14658,19 +14658,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>2.5</v>
+        <v>1.15</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5992268</v>
+        <v>5992267</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,76 +14690,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K160">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L160">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N160">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>2.05</v>
+      </c>
+      <c r="S160">
+        <v>1.75</v>
+      </c>
+      <c r="T160">
+        <v>2.75</v>
+      </c>
+      <c r="U160">
+        <v>1.925</v>
+      </c>
+      <c r="V160">
+        <v>1.925</v>
+      </c>
+      <c r="W160">
+        <v>1.7</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
+        <v>-1</v>
+      </c>
+      <c r="Z160">
+        <v>1.05</v>
+      </c>
+      <c r="AA160">
+        <v>-1</v>
+      </c>
+      <c r="AB160">
+        <v>0.4625</v>
+      </c>
+      <c r="AC160">
         <v>-0.5</v>
-      </c>
-      <c r="R160">
-        <v>1.9</v>
-      </c>
-      <c r="S160">
-        <v>1.95</v>
-      </c>
-      <c r="T160">
-        <v>3</v>
-      </c>
-      <c r="U160">
-        <v>1.825</v>
-      </c>
-      <c r="V160">
-        <v>2.025</v>
-      </c>
-      <c r="W160">
-        <v>-1</v>
-      </c>
-      <c r="X160">
-        <v>3</v>
-      </c>
-      <c r="Y160">
-        <v>-1</v>
-      </c>
-      <c r="Z160">
-        <v>-1</v>
-      </c>
-      <c r="AA160">
-        <v>0.95</v>
-      </c>
-      <c r="AB160">
-        <v>-1</v>
-      </c>
-      <c r="AC160">
-        <v>1.025</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5992267</v>
+        <v>5992268</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" t="s">
+        <v>46</v>
+      </c>
+      <c r="K161">
+        <v>2.375</v>
+      </c>
+      <c r="L161">
+        <v>3.7</v>
+      </c>
+      <c r="M161">
+        <v>2.5</v>
+      </c>
+      <c r="N161">
+        <v>1.85</v>
+      </c>
+      <c r="O161">
+        <v>4</v>
+      </c>
+      <c r="P161">
+        <v>3.3</v>
+      </c>
+      <c r="Q161">
+        <v>-0.5</v>
+      </c>
+      <c r="R161">
+        <v>1.9</v>
+      </c>
+      <c r="S161">
+        <v>1.95</v>
+      </c>
+      <c r="T161">
         <v>3</v>
       </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161" t="s">
-        <v>47</v>
-      </c>
-      <c r="K161">
-        <v>2.25</v>
-      </c>
-      <c r="L161">
-        <v>3.5</v>
-      </c>
-      <c r="M161">
-        <v>2.75</v>
-      </c>
-      <c r="N161">
-        <v>2.7</v>
-      </c>
-      <c r="O161">
-        <v>3.4</v>
-      </c>
-      <c r="P161">
-        <v>2.3</v>
-      </c>
-      <c r="Q161">
-        <v>0</v>
-      </c>
-      <c r="R161">
-        <v>2.05</v>
-      </c>
-      <c r="S161">
-        <v>1.75</v>
-      </c>
-      <c r="T161">
-        <v>2.75</v>
-      </c>
       <c r="U161">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W161">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB161">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>42</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H162">
         <v>4</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5992265</v>
+        <v>5992270</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,76 +14957,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
         <v>0</v>
       </c>
-      <c r="I163">
-        <v>2</v>
-      </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K163">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L163">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N163">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="O163">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P163">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q163">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S163">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
+        <v>2.025</v>
+      </c>
+      <c r="V163">
         <v>1.825</v>
       </c>
-      <c r="V163">
-        <v>2.025</v>
-      </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA163">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5992266</v>
+        <v>5992265</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,55 +15046,55 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K164">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M164">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N164">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P164">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q164">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T164">
         <v>3</v>
       </c>
       <c r="U164">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15103,19 +15103,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -103,13 +103,13 @@
     <t>Sweden Superettan</t>
   </si>
   <si>
-    <t>Jonkopings Sodra</t>
-  </si>
-  <si>
     <t>GAIS</t>
   </si>
   <si>
     <t>Vasteras SK</t>
+  </si>
+  <si>
+    <t>Jonkopings Sodra</t>
   </si>
   <si>
     <t>Helsingborg</t>
@@ -118,16 +118,16 @@
     <t>Osters IF</t>
   </si>
   <si>
+    <t>Ostersunds FK</t>
+  </si>
+  <si>
     <t>Orebro SK</t>
   </si>
   <si>
-    <t>Ostersunds FK</t>
+    <t>Skvde AIK</t>
   </si>
   <si>
     <t>Trelleborgs FF</t>
-  </si>
-  <si>
-    <t>Skvde AIK</t>
   </si>
   <si>
     <t>Orgryte IS</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5992115</v>
+        <v>5992112</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,52 +631,52 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="N2">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P2">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -685,19 +685,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.05</v>
+        <v>3.2</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5992112</v>
+        <v>5992113</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,16 +720,16 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>1.533</v>
@@ -738,55 +738,55 @@
         <v>4</v>
       </c>
       <c r="M3">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="N3">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y3">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5992113</v>
+        <v>5992115</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N4">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
         <v>1.85</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5992121</v>
+        <v>5992126</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7">
+        <v>2.55</v>
+      </c>
+      <c r="L7">
+        <v>3.4</v>
+      </c>
+      <c r="M7">
+        <v>2.45</v>
+      </c>
+      <c r="N7">
+        <v>2.5</v>
+      </c>
+      <c r="O7">
+        <v>3.3</v>
+      </c>
+      <c r="P7">
+        <v>2.55</v>
+      </c>
+      <c r="Q7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7">
-        <v>1.7</v>
-      </c>
-      <c r="L7">
-        <v>3.5</v>
-      </c>
-      <c r="M7">
-        <v>4.5</v>
-      </c>
-      <c r="N7">
-        <v>1.666</v>
-      </c>
-      <c r="O7">
-        <v>3.5</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7">
-        <v>-0.75</v>
-      </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
         <v>2.5</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5992126</v>
+        <v>5992121</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="N8">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O8">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6474532</v>
+        <v>6478150</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1266,19 +1266,19 @@
         <v>47</v>
       </c>
       <c r="K9">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N9">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
         <v>3.1</v>
@@ -1287,22 +1287,22 @@
         <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1311,7 +1311,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1320,7 +1320,7 @@
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6478150</v>
+        <v>6474532</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1355,19 +1355,19 @@
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N10">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
         <v>3.1</v>
@@ -1376,22 +1376,22 @@
         <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1400,7 +1400,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -1409,7 +1409,7 @@
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6474541</v>
+        <v>6480043</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,76 +1429,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O11">
         <v>3.4</v>
       </c>
       <c r="P11">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q11">
         <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T11">
         <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y11">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6474540</v>
+        <v>6474541</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,76 +1518,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L12">
         <v>3.4</v>
       </c>
       <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>2.2</v>
+      </c>
+      <c r="O12">
+        <v>3.4</v>
+      </c>
+      <c r="P12">
+        <v>3.1</v>
+      </c>
+      <c r="Q12">
+        <v>-0.25</v>
+      </c>
+      <c r="R12">
+        <v>1.925</v>
+      </c>
+      <c r="S12">
+        <v>1.925</v>
+      </c>
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12">
+        <v>1.875</v>
+      </c>
+      <c r="V12">
+        <v>1.975</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
         <v>2.1</v>
       </c>
-      <c r="N12">
-        <v>4</v>
-      </c>
-      <c r="O12">
-        <v>3.6</v>
-      </c>
-      <c r="P12">
-        <v>1.75</v>
-      </c>
-      <c r="Q12">
-        <v>0.5</v>
-      </c>
-      <c r="R12">
-        <v>2.05</v>
-      </c>
-      <c r="S12">
-        <v>1.8</v>
-      </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
-      <c r="U12">
-        <v>2.025</v>
-      </c>
-      <c r="V12">
-        <v>1.825</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>0.75</v>
-      </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6480043</v>
+        <v>6474540</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,76 +1607,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
         <v>29</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
+        <v>2.1</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>3.6</v>
+      </c>
+      <c r="P13">
+        <v>1.75</v>
+      </c>
+      <c r="Q13">
+        <v>0.5</v>
+      </c>
+      <c r="R13">
+        <v>2.05</v>
+      </c>
+      <c r="S13">
+        <v>1.8</v>
+      </c>
+      <c r="T13">
         <v>2.75</v>
       </c>
-      <c r="N13">
-        <v>2.3</v>
-      </c>
-      <c r="O13">
-        <v>3.4</v>
-      </c>
-      <c r="P13">
-        <v>2.8</v>
-      </c>
-      <c r="Q13">
-        <v>-0.25</v>
-      </c>
-      <c r="R13">
+      <c r="U13">
         <v>2.025</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>1.825</v>
       </c>
-      <c r="T13">
-        <v>2.5</v>
-      </c>
-      <c r="U13">
-        <v>1.85</v>
-      </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
+        <v>0.8</v>
+      </c>
+      <c r="AB13">
+        <v>0.5125</v>
+      </c>
+      <c r="AC13">
         <v>-0.5</v>
-      </c>
-      <c r="AA13">
-        <v>0.4125</v>
-      </c>
-      <c r="AB13">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC13">
-        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,10 +1696,10 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5992133</v>
+        <v>5992130</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,58 +1874,58 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N16">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>0.5</v>
+        <v>1.375</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1934,13 +1934,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5992130</v>
+        <v>5992133</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,58 +1963,58 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L17">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N17">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,13 +2023,13 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2230,7 +2230,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>38</v>
@@ -2319,10 +2319,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5992136</v>
+        <v>5992135</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,10 +2408,10 @@
         <v>45114.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2423,61 +2423,61 @@
         <v>46</v>
       </c>
       <c r="K22">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M22">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N22">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P22">
+        <v>3.6</v>
+      </c>
+      <c r="Q22">
+        <v>-0.5</v>
+      </c>
+      <c r="R22">
+        <v>1.9</v>
+      </c>
+      <c r="S22">
+        <v>1.95</v>
+      </c>
+      <c r="T22">
+        <v>2.75</v>
+      </c>
+      <c r="U22">
+        <v>1.8</v>
+      </c>
+      <c r="V22">
         <v>2.05</v>
       </c>
-      <c r="Q22">
-        <v>0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.825</v>
-      </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.9</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5992135</v>
+        <v>5992136</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,10 +2497,10 @@
         <v>45114.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2512,61 +2512,61 @@
         <v>46</v>
       </c>
       <c r="K23">
+        <v>3.4</v>
+      </c>
+      <c r="L23">
+        <v>3.4</v>
+      </c>
+      <c r="M23">
+        <v>1.909</v>
+      </c>
+      <c r="N23">
+        <v>3.3</v>
+      </c>
+      <c r="O23">
+        <v>3.3</v>
+      </c>
+      <c r="P23">
         <v>2.05</v>
       </c>
-      <c r="L23">
-        <v>3.2</v>
-      </c>
-      <c r="M23">
-        <v>3.2</v>
-      </c>
-      <c r="N23">
+      <c r="Q23">
+        <v>0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.825</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
+        <v>2.5</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="O23">
-        <v>4</v>
-      </c>
-      <c r="P23">
-        <v>3.6</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
+      <c r="V23">
         <v>1.9</v>
       </c>
-      <c r="S23">
-        <v>1.95</v>
-      </c>
-      <c r="T23">
-        <v>2.75</v>
-      </c>
-      <c r="U23">
-        <v>1.8</v>
-      </c>
-      <c r="V23">
-        <v>2.05</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2589,7 +2589,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2853,10 +2853,10 @@
         <v>45116.5</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5992137</v>
+        <v>5992140</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L28">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M28">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O28">
         <v>3.4</v>
       </c>
       <c r="P28">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
+        <v>1.8</v>
+      </c>
+      <c r="S28">
         <v>2.05</v>
       </c>
-      <c r="S28">
-        <v>1.8</v>
-      </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
         <v>1.05</v>
       </c>
-      <c r="AA28">
-        <v>-1</v>
-      </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5992140</v>
+        <v>5992137</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M29">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N29">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O29">
         <v>3.4</v>
       </c>
       <c r="P29">
+        <v>3.3</v>
+      </c>
+      <c r="Q29">
+        <v>-0.5</v>
+      </c>
+      <c r="R29">
+        <v>2.05</v>
+      </c>
+      <c r="S29">
+        <v>1.8</v>
+      </c>
+      <c r="T29">
         <v>2.25</v>
       </c>
-      <c r="Q29">
-        <v>0.25</v>
-      </c>
-      <c r="R29">
-        <v>1.8</v>
-      </c>
-      <c r="S29">
-        <v>2.05</v>
-      </c>
-      <c r="T29">
-        <v>2.5</v>
-      </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA29">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3209,7 +3209,7 @@
         <v>45122.33333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5992144</v>
+        <v>5992143</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,19 +3298,19 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>1.909</v>
@@ -3322,52 +3322,52 @@
         <v>3.6</v>
       </c>
       <c r="N32">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S32">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z32">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB32">
+        <v>0.5125</v>
+      </c>
+      <c r="AC32">
         <v>-0.5</v>
-      </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
-      <c r="AC32">
-        <v>0.925</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5992143</v>
+        <v>5992144</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,19 +3387,19 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>1.909</v>
@@ -3411,52 +3411,52 @@
         <v>3.6</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R33">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S33">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA33">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB33">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>45122.5</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
         <v>44</v>
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5992142</v>
+        <v>5992147</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M35">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N35">
-        <v>1.166</v>
+        <v>3</v>
       </c>
       <c r="O35">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="Q35">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R35">
+        <v>1.9</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
+        <v>2.5</v>
+      </c>
+      <c r="U35">
+        <v>1.875</v>
+      </c>
+      <c r="V35">
         <v>1.975</v>
       </c>
-      <c r="S35">
-        <v>1.875</v>
-      </c>
-      <c r="T35">
-        <v>3.25</v>
-      </c>
-      <c r="U35">
-        <v>1.975</v>
-      </c>
-      <c r="V35">
-        <v>1.875</v>
-      </c>
       <c r="W35">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X35">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA35">
+        <v>-1</v>
+      </c>
+      <c r="AB35">
         <v>0.875</v>
       </c>
-      <c r="AB35">
-        <v>-1</v>
-      </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5992147</v>
+        <v>5992142</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,76 +3654,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="L36">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M36">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="N36">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P36">
-        <v>2.15</v>
+        <v>11</v>
       </c>
       <c r="Q36">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U36">
+        <v>1.975</v>
+      </c>
+      <c r="V36">
         <v>1.875</v>
       </c>
-      <c r="V36">
-        <v>1.975</v>
-      </c>
       <c r="W36">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>0.875</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3743,10 +3743,10 @@
         <v>45124.58333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5992153</v>
+        <v>5992157</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,7 +3921,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -3936,58 +3936,58 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M39">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q39">
         <v>0.25</v>
       </c>
       <c r="R39">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.5249999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA39">
         <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5992157</v>
+        <v>5992153</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,7 +4010,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4025,58 +4025,58 @@
         <v>46</v>
       </c>
       <c r="K40">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="L40">
+        <v>3.25</v>
+      </c>
+      <c r="M40">
+        <v>2.3</v>
+      </c>
+      <c r="N40">
         <v>3.3</v>
       </c>
-      <c r="M40">
-        <v>2.4</v>
-      </c>
-      <c r="N40">
-        <v>3</v>
-      </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P40">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q40">
         <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.45</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA40">
         <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4099,7 +4099,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
         <v>38</v>
@@ -4191,7 +4191,7 @@
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5992150</v>
+        <v>5992152</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,56 +4366,56 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
         <v>45</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
         <v>3.4</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N44">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O44">
+        <v>3.4</v>
+      </c>
+      <c r="P44">
         <v>3.6</v>
       </c>
-      <c r="P44">
-        <v>4.2</v>
-      </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
+        <v>1.975</v>
+      </c>
+      <c r="S44">
+        <v>1.875</v>
+      </c>
+      <c r="T44">
+        <v>2.5</v>
+      </c>
+      <c r="U44">
         <v>2.025</v>
       </c>
-      <c r="S44">
+      <c r="V44">
         <v>1.825</v>
       </c>
-      <c r="T44">
-        <v>2.75</v>
-      </c>
-      <c r="U44">
-        <v>1.85</v>
-      </c>
-      <c r="V44">
-        <v>2</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
@@ -4423,19 +4423,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5992152</v>
+        <v>5992150</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,55 +4455,55 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>45</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L45">
         <v>3.4</v>
       </c>
       <c r="M45">
+        <v>3.3</v>
+      </c>
+      <c r="N45">
+        <v>1.727</v>
+      </c>
+      <c r="O45">
         <v>3.6</v>
       </c>
-      <c r="N45">
-        <v>1.909</v>
-      </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
       <c r="P45">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4512,19 +4512,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB45">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4547,7 +4547,7 @@
         <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4633,7 +4633,7 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5992158</v>
+        <v>5992164</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,40 +4722,40 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P48">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
         <v>2.025</v>
@@ -4764,34 +4764,34 @@
         <v>1.825</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X48">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5992164</v>
+        <v>5992158</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,40 +4811,40 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O49">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P49">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q49">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
         <v>2.025</v>
@@ -4853,34 +4853,34 @@
         <v>1.825</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4900,7 +4900,7 @@
         <v>45137.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
         <v>44</v>
@@ -4989,7 +4989,7 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5167,10 +5167,10 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5992170</v>
+        <v>5992167</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,76 +5345,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M55">
+        <v>3.1</v>
+      </c>
+      <c r="N55">
         <v>2.15</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>3.2</v>
       </c>
-      <c r="O55">
-        <v>3.4</v>
-      </c>
       <c r="P55">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
+        <v>-1</v>
+      </c>
+      <c r="Y55">
         <v>2.2</v>
       </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
-      <c r="Y55">
-        <v>-1</v>
-      </c>
       <c r="Z55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5434,7 +5434,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>41</v>
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5992167</v>
+        <v>5992170</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
         <v>0</v>
       </c>
-      <c r="I57">
+      <c r="J57" t="s">
+        <v>47</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>3.4</v>
+      </c>
+      <c r="M57">
+        <v>2.15</v>
+      </c>
+      <c r="N57">
+        <v>3.2</v>
+      </c>
+      <c r="O57">
+        <v>3.4</v>
+      </c>
+      <c r="P57">
+        <v>2.05</v>
+      </c>
+      <c r="Q57">
+        <v>0.25</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>1.85</v>
+      </c>
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
+        <v>2.025</v>
+      </c>
+      <c r="V57">
+        <v>1.825</v>
+      </c>
+      <c r="W57">
+        <v>2.2</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
+        <v>-1</v>
+      </c>
+      <c r="Z57">
         <v>1</v>
       </c>
-      <c r="J57" t="s">
-        <v>45</v>
-      </c>
-      <c r="K57">
-        <v>2.15</v>
-      </c>
-      <c r="L57">
-        <v>3.3</v>
-      </c>
-      <c r="M57">
-        <v>3.1</v>
-      </c>
-      <c r="N57">
-        <v>2.15</v>
-      </c>
-      <c r="O57">
-        <v>3.2</v>
-      </c>
-      <c r="P57">
-        <v>3.2</v>
-      </c>
-      <c r="Q57">
-        <v>-0.25</v>
-      </c>
-      <c r="R57">
-        <v>1.9</v>
-      </c>
-      <c r="S57">
-        <v>1.95</v>
-      </c>
-      <c r="T57">
-        <v>2.25</v>
-      </c>
-      <c r="U57">
-        <v>1.925</v>
-      </c>
-      <c r="V57">
-        <v>1.925</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
-      <c r="Y57">
-        <v>2.2</v>
-      </c>
-      <c r="Z57">
-        <v>-1</v>
-      </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,10 +5612,10 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         <v>45144.5</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>39</v>
@@ -5790,10 +5790,10 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6057,7 +6057,7 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
         <v>43</v>
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5993419</v>
+        <v>7036546</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>2</v>
-      </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K64">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="L64">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M64">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N64">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O64">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P64">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V64">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC64">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7036546</v>
+        <v>5993419</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,76 +6235,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K65">
+        <v>1.222</v>
+      </c>
+      <c r="L65">
         <v>5</v>
       </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65" t="s">
-        <v>47</v>
-      </c>
-      <c r="K65">
-        <v>1.727</v>
-      </c>
-      <c r="L65">
-        <v>3.8</v>
-      </c>
       <c r="M65">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N65">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="O65">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P65">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q65">
+        <v>-1.75</v>
+      </c>
+      <c r="R65">
+        <v>1.875</v>
+      </c>
+      <c r="S65">
+        <v>1.975</v>
+      </c>
+      <c r="T65">
+        <v>3.25</v>
+      </c>
+      <c r="U65">
+        <v>2.025</v>
+      </c>
+      <c r="V65">
+        <v>1.825</v>
+      </c>
+      <c r="W65">
+        <v>-1</v>
+      </c>
+      <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
+        <v>11</v>
+      </c>
+      <c r="Z65">
+        <v>-1</v>
+      </c>
+      <c r="AA65">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB65">
         <v>-0.5</v>
       </c>
-      <c r="R65">
-        <v>1.85</v>
-      </c>
-      <c r="S65">
-        <v>2</v>
-      </c>
-      <c r="T65">
-        <v>2.5</v>
-      </c>
-      <c r="U65">
-        <v>2.05</v>
-      </c>
-      <c r="V65">
-        <v>1.8</v>
-      </c>
-      <c r="W65">
-        <v>0.8</v>
-      </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
-      <c r="Y65">
-        <v>-1</v>
-      </c>
-      <c r="Z65">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA65">
-        <v>-1</v>
-      </c>
-      <c r="AB65">
-        <v>1.05</v>
-      </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5992174</v>
+        <v>5992179</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,61 +6324,61 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K66">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N66">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O66">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q66">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S66">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6387,13 +6387,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="AB66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5992179</v>
+        <v>5992174</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,61 +6413,61 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N67">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P67">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R67">
+        <v>1.9</v>
+      </c>
+      <c r="S67">
+        <v>1.95</v>
+      </c>
+      <c r="T67">
+        <v>3</v>
+      </c>
+      <c r="U67">
+        <v>1.8</v>
+      </c>
+      <c r="V67">
         <v>2.05</v>
       </c>
-      <c r="S67">
-        <v>1.75</v>
-      </c>
-      <c r="T67">
-        <v>2.75</v>
-      </c>
-      <c r="U67">
-        <v>1.875</v>
-      </c>
-      <c r="V67">
-        <v>1.975</v>
-      </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X67">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6476,13 +6476,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5992173</v>
+        <v>5992175</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,49 +6502,49 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M68">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N68">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="O68">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
         <v>1.975</v>
@@ -6553,25 +6553,25 @@
         <v>1.875</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA68">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5992175</v>
+        <v>5992173</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,49 +6591,49 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69" t="s">
+        <v>45</v>
+      </c>
+      <c r="K69">
+        <v>1.727</v>
+      </c>
+      <c r="L69">
+        <v>3.6</v>
+      </c>
+      <c r="M69">
+        <v>4.2</v>
+      </c>
+      <c r="N69">
+        <v>1.55</v>
+      </c>
+      <c r="O69">
+        <v>4</v>
+      </c>
+      <c r="P69">
+        <v>5.75</v>
+      </c>
+      <c r="Q69">
+        <v>-1</v>
+      </c>
+      <c r="R69">
+        <v>1.975</v>
+      </c>
+      <c r="S69">
+        <v>1.875</v>
+      </c>
+      <c r="T69">
         <v>3</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>47</v>
-      </c>
-      <c r="K69">
-        <v>2</v>
-      </c>
-      <c r="L69">
-        <v>3.25</v>
-      </c>
-      <c r="M69">
-        <v>3.5</v>
-      </c>
-      <c r="N69">
-        <v>1.833</v>
-      </c>
-      <c r="O69">
-        <v>3.4</v>
-      </c>
-      <c r="P69">
-        <v>4.333</v>
-      </c>
-      <c r="Q69">
-        <v>-0.5</v>
-      </c>
-      <c r="R69">
-        <v>1.825</v>
-      </c>
-      <c r="S69">
-        <v>2.025</v>
-      </c>
-      <c r="T69">
-        <v>2.5</v>
       </c>
       <c r="U69">
         <v>1.975</v>
@@ -6642,25 +6642,25 @@
         <v>1.875</v>
       </c>
       <c r="W69">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB69">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5992180</v>
+        <v>5992187</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,13 +6680,13 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s">
         <v>30</v>
       </c>
-      <c r="G70" t="s">
-        <v>43</v>
-      </c>
       <c r="H70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6695,43 +6695,43 @@
         <v>47</v>
       </c>
       <c r="K70">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="L70">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M70">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N70">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O70">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P70">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>0.3999999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6740,16 +6740,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5992187</v>
+        <v>5992180</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,13 +6769,13 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6784,61 +6784,61 @@
         <v>47</v>
       </c>
       <c r="K71">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L71">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M71">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O71">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P71">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q71">
+        <v>-1.25</v>
+      </c>
+      <c r="R71">
+        <v>1.95</v>
+      </c>
+      <c r="S71">
+        <v>1.9</v>
+      </c>
+      <c r="T71">
+        <v>3</v>
+      </c>
+      <c r="U71">
+        <v>2.025</v>
+      </c>
+      <c r="V71">
+        <v>1.825</v>
+      </c>
+      <c r="W71">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
+        <v>-1</v>
+      </c>
+      <c r="Z71">
+        <v>0.95</v>
+      </c>
+      <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
         <v>0</v>
       </c>
-      <c r="R71">
-        <v>2.05</v>
-      </c>
-      <c r="S71">
-        <v>1.8</v>
-      </c>
-      <c r="T71">
-        <v>2.5</v>
-      </c>
-      <c r="U71">
-        <v>1.85</v>
-      </c>
-      <c r="V71">
-        <v>2</v>
-      </c>
-      <c r="W71">
-        <v>1.75</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
-      <c r="Z71">
-        <v>1.05</v>
-      </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
-      <c r="AB71">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6858,7 +6858,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>39</v>
@@ -7036,7 +7036,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7128,7 +7128,7 @@
         <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5992186</v>
+        <v>5992181</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,73 +7214,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K76">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N76">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
+        <v>2</v>
+      </c>
+      <c r="V76">
         <v>1.85</v>
       </c>
-      <c r="V76">
-        <v>2</v>
-      </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y76">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AB76">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5992181</v>
+        <v>5992186</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,73 +7303,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K77">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L77">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="O77">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P77">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T77">
         <v>2.5</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7392,10 +7392,10 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7570,10 +7570,10 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7840,7 +7840,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>3</v>
@@ -7926,10 +7926,10 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8107,7 +8107,7 @@
         <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5992201</v>
+        <v>5992196</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,49 +8193,49 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K87">
+        <v>3.2</v>
+      </c>
+      <c r="L87">
+        <v>3.4</v>
+      </c>
+      <c r="M87">
+        <v>2.05</v>
+      </c>
+      <c r="N87">
+        <v>3.75</v>
+      </c>
+      <c r="O87">
+        <v>3.6</v>
+      </c>
+      <c r="P87">
+        <v>1.833</v>
+      </c>
+      <c r="Q87">
+        <v>0.5</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
         <v>1.85</v>
       </c>
-      <c r="L87">
-        <v>3.3</v>
-      </c>
-      <c r="M87">
-        <v>4</v>
-      </c>
-      <c r="N87">
-        <v>1.909</v>
-      </c>
-      <c r="O87">
-        <v>3.1</v>
-      </c>
-      <c r="P87">
-        <v>4</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.975</v>
-      </c>
-      <c r="S87">
-        <v>1.875</v>
-      </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
         <v>1.925</v>
@@ -8244,25 +8244,25 @@
         <v>1.925</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X87">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC87">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5992196</v>
+        <v>5992201</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,49 +8282,49 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M88">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="N88">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="Q88">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
         <v>1.925</v>
@@ -8333,25 +8333,25 @@
         <v>1.925</v>
       </c>
       <c r="W88">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB88">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5992199</v>
+        <v>5992195</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M89">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="N89">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="O89">
         <v>3.6</v>
       </c>
       <c r="P89">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="Q89">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T89">
         <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y89">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AB89">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5992195</v>
+        <v>5992198</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F90" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" t="s">
         <v>31</v>
       </c>
-      <c r="G90" t="s">
-        <v>42</v>
-      </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N90">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V90">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X90">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5992198</v>
+        <v>5992199</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,76 +8549,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K91">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="N91">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W91">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC91">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
         <v>43</v>
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5992207</v>
+        <v>5992205</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,55 +8905,55 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>46</v>
       </c>
       <c r="K95">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N95">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O95">
         <v>3.8</v>
       </c>
       <c r="P95">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q95">
         <v>-0.75</v>
       </c>
       <c r="R95">
+        <v>2.025</v>
+      </c>
+      <c r="S95">
         <v>1.825</v>
       </c>
-      <c r="S95">
-        <v>2.025</v>
-      </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8968,13 +8968,13 @@
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5992205</v>
+        <v>5992207</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,55 +8994,55 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>46</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N96">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O96">
         <v>3.8</v>
       </c>
       <c r="P96">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q96">
         <v>-0.75</v>
       </c>
       <c r="R96">
+        <v>1.825</v>
+      </c>
+      <c r="S96">
         <v>2.025</v>
       </c>
-      <c r="S96">
-        <v>1.825</v>
-      </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9057,13 +9057,13 @@
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC96">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9083,7 +9083,7 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
         <v>32</v>
@@ -9261,10 +9261,10 @@
         <v>45186.5</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>5</v>
@@ -9350,7 +9350,7 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>44</v>
@@ -9442,7 +9442,7 @@
         <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9620,7 +9620,7 @@
         <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9795,7 +9795,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
         <v>39</v>
@@ -9884,7 +9884,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
         <v>38</v>
@@ -9976,7 +9976,7 @@
         <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10062,10 +10062,10 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>5</v>
@@ -10154,7 +10154,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5992220</v>
+        <v>5992222</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M110">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N110">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P110">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R110">
+        <v>1.95</v>
+      </c>
+      <c r="S110">
         <v>1.9</v>
       </c>
-      <c r="S110">
+      <c r="T110">
+        <v>3</v>
+      </c>
+      <c r="U110">
+        <v>1.9</v>
+      </c>
+      <c r="V110">
         <v>1.95</v>
       </c>
-      <c r="T110">
-        <v>2.75</v>
-      </c>
-      <c r="U110">
-        <v>1.825</v>
-      </c>
-      <c r="V110">
-        <v>2.025</v>
-      </c>
       <c r="W110">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
       <c r="AB110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10332,7 +10332,7 @@
         <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5992222</v>
+        <v>5992220</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K112">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L112">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N112">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O112">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="Q112">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R112">
+        <v>1.9</v>
+      </c>
+      <c r="S112">
         <v>1.95</v>
       </c>
-      <c r="S112">
-        <v>1.9</v>
-      </c>
       <c r="T112">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X112">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>45196.59722222222</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
         <v>42</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5992218</v>
+        <v>5992221</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,13 +10596,13 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -10611,43 +10611,43 @@
         <v>47</v>
       </c>
       <c r="K114">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L114">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M114">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S114">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W114">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10656,16 +10656,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5992221</v>
+        <v>5992218</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,13 +10685,13 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -10700,61 +10700,61 @@
         <v>47</v>
       </c>
       <c r="K115">
+        <v>2.25</v>
+      </c>
+      <c r="L115">
+        <v>3.3</v>
+      </c>
+      <c r="M115">
+        <v>3.2</v>
+      </c>
+      <c r="N115">
+        <v>2.15</v>
+      </c>
+      <c r="O115">
+        <v>3.3</v>
+      </c>
+      <c r="P115">
+        <v>3.4</v>
+      </c>
+      <c r="Q115">
+        <v>-0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
+        <v>2</v>
+      </c>
+      <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
         <v>1.95</v>
       </c>
-      <c r="L115">
-        <v>3.5</v>
-      </c>
-      <c r="M115">
-        <v>3.8</v>
-      </c>
-      <c r="N115">
-        <v>1.95</v>
-      </c>
-      <c r="O115">
-        <v>3.5</v>
-      </c>
-      <c r="P115">
-        <v>3.8</v>
-      </c>
-      <c r="Q115">
-        <v>-0.5</v>
-      </c>
-      <c r="R115">
-        <v>2.025</v>
-      </c>
-      <c r="S115">
-        <v>1.825</v>
-      </c>
-      <c r="T115">
-        <v>2.75</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
+        <v>1.15</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
         <v>0.95</v>
       </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>1.025</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>0.4875</v>
-      </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10777,7 +10777,7 @@
         <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10863,10 +10863,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5992231</v>
+        <v>5992228</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,10 +10952,10 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -10967,61 +10967,61 @@
         <v>46</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M118">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N118">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P118">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
+        <v>1.95</v>
+      </c>
+      <c r="S118">
         <v>1.9</v>
       </c>
-      <c r="S118">
-        <v>1.95</v>
-      </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5992230</v>
+        <v>5992231</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N119">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O119">
         <v>4</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q119">
         <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>1.925</v>
+      </c>
+      <c r="V119">
+        <v>1.925</v>
+      </c>
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
         <v>3</v>
       </c>
-      <c r="U119">
-        <v>1.975</v>
-      </c>
-      <c r="V119">
-        <v>1.875</v>
-      </c>
-      <c r="W119">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5992228</v>
+        <v>5992230</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="L120">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M120">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="N120">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="O120">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P120">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X120">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB120">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11219,7 +11219,7 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
         <v>33</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5992227</v>
+        <v>5992229</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,73 +11308,73 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="L122">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122">
+        <v>3.3</v>
+      </c>
+      <c r="P122">
+        <v>2.3</v>
+      </c>
+      <c r="Q122">
+        <v>0.25</v>
+      </c>
+      <c r="R122">
+        <v>1.825</v>
+      </c>
+      <c r="S122">
+        <v>2.025</v>
+      </c>
+      <c r="T122">
+        <v>2.5</v>
+      </c>
+      <c r="U122">
         <v>1.85</v>
       </c>
-      <c r="O122">
-        <v>3.8</v>
-      </c>
-      <c r="P122">
-        <v>3.75</v>
-      </c>
-      <c r="Q122">
-        <v>-0.5</v>
-      </c>
-      <c r="R122">
-        <v>1.9</v>
-      </c>
-      <c r="S122">
-        <v>1.95</v>
-      </c>
-      <c r="T122">
-        <v>3</v>
-      </c>
-      <c r="U122">
-        <v>1.925</v>
-      </c>
       <c r="V122">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X122">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5993423</v>
+        <v>5992227</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K123">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N123">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="O123">
         <v>3.8</v>
       </c>
       <c r="P123">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q123">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y123">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC123">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5992229</v>
+        <v>5993423</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K124">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="N124">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
+        <v>1.875</v>
+      </c>
+      <c r="S124">
+        <v>1.975</v>
+      </c>
+      <c r="T124">
+        <v>2.75</v>
+      </c>
+      <c r="U124">
         <v>1.825</v>
       </c>
-      <c r="S124">
+      <c r="V124">
         <v>2.025</v>
       </c>
-      <c r="T124">
-        <v>2.5</v>
-      </c>
-      <c r="U124">
-        <v>1.85</v>
-      </c>
-      <c r="V124">
-        <v>2</v>
-      </c>
       <c r="W124">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z124">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11575,10 +11575,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F125" t="s">
+        <v>30</v>
+      </c>
+      <c r="G125" t="s">
         <v>31</v>
-      </c>
-      <c r="G125" t="s">
-        <v>29</v>
       </c>
       <c r="H125">
         <v>3</v>
@@ -11664,7 +11664,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
         <v>40</v>
@@ -11756,7 +11756,7 @@
         <v>33</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11842,7 +11842,7 @@
         <v>45206.5</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
         <v>32</v>
@@ -12020,10 +12020,10 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12287,10 +12287,10 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12468,7 +12468,7 @@
         <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5992241</v>
+        <v>5992246</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136">
         <v>0</v>
       </c>
-      <c r="I136">
-        <v>2</v>
-      </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L136">
         <v>3.6</v>
       </c>
       <c r="M136">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N136">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O136">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q136">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5992246</v>
+        <v>5992241</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,76 +12643,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K137">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L137">
         <v>3.6</v>
       </c>
       <c r="M137">
+        <v>3.5</v>
+      </c>
+      <c r="N137">
+        <v>1.75</v>
+      </c>
+      <c r="O137">
+        <v>3.8</v>
+      </c>
+      <c r="P137">
         <v>4.2</v>
       </c>
-      <c r="N137">
-        <v>1.8</v>
-      </c>
-      <c r="O137">
-        <v>3.6</v>
-      </c>
-      <c r="P137">
-        <v>4</v>
-      </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,10 +12732,10 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12821,7 +12821,7 @@
         <v>45223.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
         <v>39</v>
@@ -13088,10 +13088,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F142" t="s">
+        <v>34</v>
+      </c>
+      <c r="G142" t="s">
         <v>35</v>
-      </c>
-      <c r="G142" t="s">
-        <v>34</v>
       </c>
       <c r="H142">
         <v>4</v>
@@ -13180,7 +13180,7 @@
         <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13266,7 +13266,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
         <v>32</v>
@@ -13444,7 +13444,7 @@
         <v>45228.375</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
         <v>41</v>
@@ -13533,10 +13533,10 @@
         <v>45228.375</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5992262</v>
+        <v>5992259</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13800,76 @@
         <v>45234.375</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K150">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L150">
+        <v>3.6</v>
+      </c>
+      <c r="M150">
+        <v>3.4</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150">
         <v>3.75</v>
       </c>
-      <c r="M150">
-        <v>1.571</v>
-      </c>
-      <c r="N150">
-        <v>4.5</v>
-      </c>
-      <c r="O150">
-        <v>3.5</v>
-      </c>
       <c r="P150">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q150">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T150">
         <v>2.75</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA150">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5992259</v>
+        <v>5992262</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,76 +13978,76 @@
         <v>45234.375</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K152">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="N152">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O152">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z152">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC152">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
         <v>44</v>
@@ -14156,10 +14156,10 @@
         <v>45235.375</v>
       </c>
       <c r="F154" t="s">
+        <v>31</v>
+      </c>
+      <c r="G154" t="s">
         <v>29</v>
-      </c>
-      <c r="G154" t="s">
-        <v>30</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14334,10 +14334,10 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F156" t="s">
+        <v>37</v>
+      </c>
+      <c r="G156" t="s">
         <v>36</v>
-      </c>
-      <c r="G156" t="s">
-        <v>37</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5992264</v>
+        <v>5992269</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H157">
+        <v>4</v>
+      </c>
+      <c r="I157">
         <v>0</v>
       </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M157">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N157">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O157">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P157">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T157">
         <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC157">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5992266</v>
+        <v>5992270</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K159">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L159">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N159">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="O159">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P159">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="Q159">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R159">
+        <v>1.9</v>
+      </c>
+      <c r="S159">
         <v>1.95</v>
       </c>
-      <c r="S159">
-        <v>1.9</v>
-      </c>
       <c r="T159">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA159">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5992267</v>
+        <v>5992265</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,76 +14690,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
         <v>34</v>
       </c>
       <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160" t="s">
+        <v>45</v>
+      </c>
+      <c r="K160">
+        <v>1.533</v>
+      </c>
+      <c r="L160">
+        <v>4.2</v>
+      </c>
+      <c r="M160">
+        <v>5</v>
+      </c>
+      <c r="N160">
+        <v>1.615</v>
+      </c>
+      <c r="O160">
+        <v>3.8</v>
+      </c>
+      <c r="P160">
+        <v>4.75</v>
+      </c>
+      <c r="Q160">
+        <v>-0.75</v>
+      </c>
+      <c r="R160">
+        <v>1.8</v>
+      </c>
+      <c r="S160">
+        <v>2.05</v>
+      </c>
+      <c r="T160">
         <v>3</v>
       </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160" t="s">
-        <v>47</v>
-      </c>
-      <c r="K160">
-        <v>2.25</v>
-      </c>
-      <c r="L160">
-        <v>3.5</v>
-      </c>
-      <c r="M160">
-        <v>2.75</v>
-      </c>
-      <c r="N160">
-        <v>2.7</v>
-      </c>
-      <c r="O160">
-        <v>3.4</v>
-      </c>
-      <c r="P160">
-        <v>2.3</v>
-      </c>
-      <c r="Q160">
-        <v>0</v>
-      </c>
-      <c r="R160">
-        <v>2.05</v>
-      </c>
-      <c r="S160">
-        <v>1.75</v>
-      </c>
-      <c r="T160">
-        <v>2.75</v>
-      </c>
       <c r="U160">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W160">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z160">
+        <v>-1</v>
+      </c>
+      <c r="AA160">
         <v>1.05</v>
       </c>
-      <c r="AA160">
-        <v>-1</v>
-      </c>
       <c r="AB160">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5992268</v>
+        <v>5992266</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K161">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L161">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M161">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N161">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O161">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P161">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R161">
+        <v>1.95</v>
+      </c>
+      <c r="S161">
         <v>1.9</v>
-      </c>
-      <c r="S161">
-        <v>1.95</v>
       </c>
       <c r="T161">
         <v>3</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V161">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC161">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5992269</v>
+        <v>5992267</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,13 +14868,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -14883,43 +14883,43 @@
         <v>47</v>
       </c>
       <c r="K162">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L162">
         <v>3.5</v>
       </c>
       <c r="M162">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N162">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O162">
         <v>3.4</v>
       </c>
       <c r="P162">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q162">
         <v>0</v>
       </c>
       <c r="R162">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S162">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T162">
         <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W162">
-        <v>1.375</v>
+        <v>1.7</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14928,16 +14928,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5992270</v>
+        <v>5992268</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,40 +14957,40 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F163" t="s">
+        <v>40</v>
+      </c>
+      <c r="G163" t="s">
         <v>37</v>
-      </c>
-      <c r="G163" t="s">
-        <v>32</v>
       </c>
       <c r="H163">
         <v>1</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K163">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M163">
         <v>2.5</v>
       </c>
       <c r="N163">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O163">
+        <v>4</v>
+      </c>
+      <c r="P163">
         <v>3.3</v>
       </c>
-      <c r="P163">
-        <v>2.55</v>
-      </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
         <v>1.9</v>
@@ -14999,34 +14999,34 @@
         <v>1.95</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U163">
+        <v>1.825</v>
+      </c>
+      <c r="V163">
         <v>2.025</v>
       </c>
-      <c r="V163">
-        <v>1.825</v>
-      </c>
       <c r="W163">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5992265</v>
+        <v>5992264</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,55 +15046,55 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
         <v>45</v>
       </c>
       <c r="K164">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L164">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N164">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O164">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S164">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T164">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15103,19 +15103,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -103,16 +103,16 @@
     <t>Sweden Superettan</t>
   </si>
   <si>
-    <t>GAIS</t>
+    <t>Helsingborg</t>
   </si>
   <si>
-    <t>Vasteras SK</t>
+    <t>GAIS</t>
   </si>
   <si>
     <t>Jonkopings Sodra</t>
   </si>
   <si>
-    <t>Helsingborg</t>
+    <t>Vasteras SK</t>
   </si>
   <si>
     <t>Osters IF</t>
@@ -124,16 +124,16 @@
     <t>Orebro SK</t>
   </si>
   <si>
+    <t>Trelleborgs FF</t>
+  </si>
+  <si>
     <t>Skvde AIK</t>
   </si>
   <si>
-    <t>Trelleborgs FF</t>
+    <t>GIF Sundsvall</t>
   </si>
   <si>
     <t>Orgryte IS</t>
-  </si>
-  <si>
-    <t>GIF Sundsvall</t>
   </si>
   <si>
     <t>Gefle IF</t>
@@ -151,10 +151,10 @@
     <t>Landskrona BoIS</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5992112</v>
+        <v>5992116</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,73 +631,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L2">
+        <v>3.4</v>
+      </c>
+      <c r="M2">
         <v>4</v>
       </c>
-      <c r="M2">
-        <v>5.75</v>
-      </c>
       <c r="N2">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O2">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q2">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y2">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5992113</v>
+        <v>5992112</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,13 +720,13 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
@@ -738,55 +738,55 @@
         <v>4</v>
       </c>
       <c r="M3">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O3">
+        <v>3.8</v>
+      </c>
+      <c r="P3">
         <v>4.2</v>
       </c>
-      <c r="P3">
-        <v>5.25</v>
-      </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
         <v>3.2</v>
       </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>2.75</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5992116</v>
+        <v>5992113</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -907,49 +907,49 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="N5">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
@@ -958,13 +958,13 @@
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>1.85</v>
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>2.55</v>
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6478150</v>
+        <v>6474532</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1266,19 +1266,19 @@
         <v>47</v>
       </c>
       <c r="K9">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
         <v>3.1</v>
@@ -1287,22 +1287,22 @@
         <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1311,7 +1311,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1320,7 +1320,7 @@
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6474532</v>
+        <v>6478150</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1355,19 +1355,19 @@
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N10">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
         <v>3.1</v>
@@ -1376,22 +1376,22 @@
         <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1400,7 +1400,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -1409,7 +1409,7 @@
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6480043</v>
+        <v>6474540</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,76 +1429,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
       </c>
       <c r="K11">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
+        <v>2.1</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>3.6</v>
+      </c>
+      <c r="P11">
+        <v>1.75</v>
+      </c>
+      <c r="Q11">
+        <v>0.5</v>
+      </c>
+      <c r="R11">
+        <v>2.05</v>
+      </c>
+      <c r="S11">
+        <v>1.8</v>
+      </c>
+      <c r="T11">
         <v>2.75</v>
       </c>
-      <c r="N11">
-        <v>2.3</v>
-      </c>
-      <c r="O11">
-        <v>3.4</v>
-      </c>
-      <c r="P11">
-        <v>2.8</v>
-      </c>
-      <c r="Q11">
-        <v>-0.25</v>
-      </c>
-      <c r="R11">
+      <c r="U11">
         <v>2.025</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <v>1.825</v>
       </c>
-      <c r="T11">
-        <v>2.5</v>
-      </c>
-      <c r="U11">
-        <v>1.85</v>
-      </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
+        <v>0.8</v>
+      </c>
+      <c r="AB11">
+        <v>0.5125</v>
+      </c>
+      <c r="AC11">
         <v>-0.5</v>
-      </c>
-      <c r="AA11">
-        <v>0.4125</v>
-      </c>
-      <c r="AB11">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC11">
-        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1518,7 +1518,7 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>2.2</v>
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6474540</v>
+        <v>6480043</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,76 +1607,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>45</v>
       </c>
       <c r="K13">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="L13">
+        <v>3.3</v>
+      </c>
+      <c r="M13">
+        <v>2.75</v>
+      </c>
+      <c r="N13">
+        <v>2.3</v>
+      </c>
+      <c r="O13">
         <v>3.4</v>
       </c>
-      <c r="M13">
-        <v>2.1</v>
-      </c>
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <v>3.6</v>
-      </c>
       <c r="P13">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V13">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y13">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB13">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,10 +1696,10 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5992130</v>
+        <v>5992133</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,58 +1874,58 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N16">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1934,13 +1934,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5992133</v>
+        <v>5992130</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,58 +1963,58 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M17">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N17">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>0.5</v>
+        <v>1.375</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,13 +2023,13 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2144,7 +2144,7 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>2.4</v>
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5992134</v>
+        <v>5992128</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,58 +2230,58 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L20">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N20">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O20">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P20">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>1.15</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2290,13 +2290,13 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5992128</v>
+        <v>5992134</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,58 +2319,58 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
       <c r="K21">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M21">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>0.5329999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2379,13 +2379,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5992135</v>
+        <v>5992136</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,10 +2408,10 @@
         <v>45114.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2420,64 +2420,64 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
+        <v>3.4</v>
+      </c>
+      <c r="L22">
+        <v>3.4</v>
+      </c>
+      <c r="M22">
+        <v>1.909</v>
+      </c>
+      <c r="N22">
+        <v>3.3</v>
+      </c>
+      <c r="O22">
+        <v>3.3</v>
+      </c>
+      <c r="P22">
         <v>2.05</v>
       </c>
-      <c r="L22">
-        <v>3.2</v>
-      </c>
-      <c r="M22">
-        <v>3.2</v>
-      </c>
-      <c r="N22">
+      <c r="Q22">
+        <v>0.5</v>
+      </c>
+      <c r="R22">
+        <v>1.825</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>4</v>
-      </c>
-      <c r="P22">
-        <v>3.6</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
+      <c r="V22">
         <v>1.9</v>
       </c>
-      <c r="S22">
-        <v>1.95</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.8</v>
-      </c>
-      <c r="V22">
-        <v>2.05</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5992136</v>
+        <v>5992135</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,10 +2497,10 @@
         <v>45114.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2509,64 +2509,64 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N23">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P23">
+        <v>3.6</v>
+      </c>
+      <c r="Q23">
+        <v>-0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.9</v>
+      </c>
+      <c r="S23">
+        <v>1.95</v>
+      </c>
+      <c r="T23">
+        <v>2.75</v>
+      </c>
+      <c r="U23">
+        <v>1.8</v>
+      </c>
+      <c r="V23">
         <v>2.05</v>
       </c>
-      <c r="Q23">
-        <v>0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.825</v>
-      </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.9</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,10 +2586,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
         <v>3.5</v>
@@ -2767,7 +2767,7 @@
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2853,10 +2853,10 @@
         <v>45116.5</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>4.333</v>
@@ -2942,7 +2942,7 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>41</v>
@@ -2954,7 +2954,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28">
         <v>2.5</v>
@@ -3031,7 +3031,7 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -3123,7 +3123,7 @@
         <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3212,7 +3212,7 @@
         <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3298,10 +3298,10 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3310,7 +3310,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>1.909</v>
@@ -3387,7 +3387,7 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>41</v>
@@ -3654,7 +3654,7 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>1.2</v>
@@ -3746,7 +3746,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>2.1</v>
@@ -3844,7 +3844,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38">
         <v>1.7</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5992157</v>
+        <v>5992153</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,10 +3921,10 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3933,61 +3933,61 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="L39">
+        <v>3.25</v>
+      </c>
+      <c r="M39">
+        <v>2.3</v>
+      </c>
+      <c r="N39">
         <v>3.3</v>
       </c>
-      <c r="M39">
-        <v>2.4</v>
-      </c>
-      <c r="N39">
-        <v>3</v>
-      </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q39">
         <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.45</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA39">
         <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5992153</v>
+        <v>5992155</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="L40">
         <v>3.25</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N40">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O40">
         <v>3.3</v>
       </c>
       <c r="P40">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q40">
         <v>0.25</v>
       </c>
       <c r="R40">
+        <v>1.8</v>
+      </c>
+      <c r="S40">
         <v>2.05</v>
       </c>
-      <c r="S40">
-        <v>1.8</v>
-      </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X40">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.5249999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5992155</v>
+        <v>5992157</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M41">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="N41">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O41">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q41">
         <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4289,7 +4289,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43">
         <v>2.875</v>
@@ -4366,10 +4366,10 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4378,7 +4378,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>1.909</v>
@@ -4455,10 +4455,10 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4467,7 +4467,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -4547,7 +4547,7 @@
         <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4636,7 +4636,7 @@
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4645,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>1.8</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5992164</v>
+        <v>5992158</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,40 +4722,40 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N48">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O48">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q48">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
         <v>2.025</v>
@@ -4764,34 +4764,34 @@
         <v>1.825</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5992158</v>
+        <v>5992164</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,40 +4811,40 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O49">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P49">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R49">
         <v>2.025</v>
@@ -4853,34 +4853,34 @@
         <v>1.825</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X49">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4900,7 +4900,7 @@
         <v>45137.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>44</v>
@@ -4912,7 +4912,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K50">
         <v>2.1</v>
@@ -4989,7 +4989,7 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5992163</v>
+        <v>5992160</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L52">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
+        <v>1.909</v>
+      </c>
+      <c r="N52">
+        <v>3.6</v>
+      </c>
+      <c r="O52">
         <v>3.5</v>
       </c>
-      <c r="N52">
-        <v>2.2</v>
-      </c>
-      <c r="O52">
-        <v>3.1</v>
-      </c>
       <c r="P52">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5992160</v>
+        <v>5992163</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
         <v>29</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M53">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N53">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P53">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q53">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
+        <v>1.975</v>
+      </c>
+      <c r="S53">
+        <v>1.875</v>
+      </c>
+      <c r="T53">
+        <v>2.25</v>
+      </c>
+      <c r="U53">
         <v>1.925</v>
       </c>
-      <c r="S53">
+      <c r="V53">
         <v>1.925</v>
       </c>
-      <c r="T53">
-        <v>2.75</v>
-      </c>
-      <c r="U53">
-        <v>2</v>
-      </c>
-      <c r="V53">
-        <v>1.85</v>
-      </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5992167</v>
+        <v>5992168</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,49 +5345,49 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K55">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L55">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M55">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N55">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O55">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P55">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
         <v>1.925</v>
@@ -5402,13 +5402,13 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB55">
         <v>-1</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5992168</v>
+        <v>5992167</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,49 +5434,49 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L56">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M56">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N56">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O56">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P56">
+        <v>3.2</v>
+      </c>
+      <c r="Q56">
+        <v>-0.25</v>
+      </c>
+      <c r="R56">
+        <v>1.9</v>
+      </c>
+      <c r="S56">
+        <v>1.95</v>
+      </c>
+      <c r="T56">
         <v>2.25</v>
-      </c>
-      <c r="Q56">
-        <v>0.25</v>
-      </c>
-      <c r="R56">
-        <v>1.85</v>
-      </c>
-      <c r="S56">
-        <v>2</v>
-      </c>
-      <c r="T56">
-        <v>2.5</v>
       </c>
       <c r="U56">
         <v>1.925</v>
@@ -5491,13 +5491,13 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
         <v>-1</v>
@@ -5612,10 +5612,10 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K58">
         <v>4.333</v>
@@ -5701,10 +5701,10 @@
         <v>45144.5</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5713,7 +5713,7 @@
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>1.285</v>
@@ -5790,7 +5790,7 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5802,7 +5802,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>2.3</v>
@@ -5879,10 +5879,10 @@
         <v>45146.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5891,7 +5891,7 @@
         <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
         <v>2.05</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5980,7 +5980,7 @@
         <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>3.5</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5992178</v>
+        <v>7036546</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L63">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>1.8</v>
+      </c>
+      <c r="O63">
         <v>3.75</v>
       </c>
-      <c r="N63">
-        <v>1.909</v>
-      </c>
-      <c r="O63">
-        <v>3.5</v>
-      </c>
       <c r="P63">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q63">
         <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X63">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7036546</v>
+        <v>5992178</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K64">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L64">
+        <v>3.5</v>
+      </c>
+      <c r="M64">
+        <v>3.75</v>
+      </c>
+      <c r="N64">
+        <v>1.909</v>
+      </c>
+      <c r="O64">
+        <v>3.5</v>
+      </c>
+      <c r="P64">
         <v>3.8</v>
-      </c>
-      <c r="M64">
-        <v>4</v>
-      </c>
-      <c r="N64">
-        <v>1.8</v>
-      </c>
-      <c r="O64">
-        <v>3.75</v>
-      </c>
-      <c r="P64">
-        <v>4</v>
       </c>
       <c r="Q64">
         <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
         <v>2.5</v>
       </c>
       <c r="U64">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB64">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6247,7 +6247,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
         <v>1.222</v>
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5992179</v>
+        <v>5992174</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,61 +6324,61 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M66">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N66">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P66">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.95</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
+        <v>1.8</v>
+      </c>
+      <c r="V66">
         <v>2.05</v>
       </c>
-      <c r="S66">
-        <v>1.75</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
-      <c r="U66">
-        <v>1.875</v>
-      </c>
-      <c r="V66">
-        <v>1.975</v>
-      </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X66">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6387,13 +6387,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5992174</v>
+        <v>5992179</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,61 +6413,61 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K67">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L67">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N67">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O67">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q67">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6476,13 +6476,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="AB67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5992175</v>
+        <v>5992173</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,49 +6502,49 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68" t="s">
+        <v>46</v>
+      </c>
+      <c r="K68">
+        <v>1.727</v>
+      </c>
+      <c r="L68">
+        <v>3.6</v>
+      </c>
+      <c r="M68">
+        <v>4.2</v>
+      </c>
+      <c r="N68">
+        <v>1.55</v>
+      </c>
+      <c r="O68">
+        <v>4</v>
+      </c>
+      <c r="P68">
+        <v>5.75</v>
+      </c>
+      <c r="Q68">
+        <v>-1</v>
+      </c>
+      <c r="R68">
+        <v>1.975</v>
+      </c>
+      <c r="S68">
+        <v>1.875</v>
+      </c>
+      <c r="T68">
         <v>3</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" t="s">
-        <v>47</v>
-      </c>
-      <c r="K68">
-        <v>2</v>
-      </c>
-      <c r="L68">
-        <v>3.25</v>
-      </c>
-      <c r="M68">
-        <v>3.5</v>
-      </c>
-      <c r="N68">
-        <v>1.833</v>
-      </c>
-      <c r="O68">
-        <v>3.4</v>
-      </c>
-      <c r="P68">
-        <v>4.333</v>
-      </c>
-      <c r="Q68">
-        <v>-0.5</v>
-      </c>
-      <c r="R68">
-        <v>1.825</v>
-      </c>
-      <c r="S68">
-        <v>2.025</v>
-      </c>
-      <c r="T68">
-        <v>2.5</v>
       </c>
       <c r="U68">
         <v>1.975</v>
@@ -6553,25 +6553,25 @@
         <v>1.875</v>
       </c>
       <c r="W68">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB68">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5992173</v>
+        <v>5992175</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,49 +6591,49 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K69">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N69">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
         <v>1.975</v>
@@ -6642,25 +6642,25 @@
         <v>1.875</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6683,7 +6683,7 @@
         <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6769,7 +6769,7 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
         <v>43</v>
@@ -6858,10 +6858,10 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7039,7 +7039,7 @@
         <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7048,7 +7048,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5992181</v>
+        <v>5992186</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,73 +7214,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
         <v>46</v>
       </c>
       <c r="K76">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L76">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M76">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N76">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="O76">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P76">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AB76">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5992186</v>
+        <v>5992181</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,73 +7303,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>45</v>
       </c>
       <c r="K77">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N77">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O77">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q77">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T77">
         <v>2.5</v>
       </c>
       <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="V77">
-        <v>2</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y77">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AB77">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7395,7 +7395,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7404,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>2.9</v>
@@ -7573,7 +7573,7 @@
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7582,7 +7582,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>1.95</v>
@@ -7662,7 +7662,7 @@
         <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5992193</v>
+        <v>5992188</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,58 +7837,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H83">
         <v>3</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>47</v>
       </c>
       <c r="K83">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M83">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="N83">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="O83">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P83">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
         <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>0.95</v>
+        <v>0.444</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7897,13 +7897,13 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5992188</v>
+        <v>5992193</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,58 +7926,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>47</v>
       </c>
       <c r="K84">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L84">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="N84">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q84">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T84">
         <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>0.444</v>
+        <v>0.95</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,13 +7986,13 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8015,7 +8015,7 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
         <v>44</v>
@@ -8027,7 +8027,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K85">
         <v>2.1</v>
@@ -8104,7 +8104,7 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
         <v>35</v>
@@ -8116,7 +8116,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K86">
         <v>2.2</v>
@@ -8196,7 +8196,7 @@
         <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>1.85</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5992195</v>
+        <v>5992198</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N89">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S89">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
         <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V89">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X89">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA89">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5992198</v>
+        <v>5992195</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K90">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M90">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N90">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W90">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
         <v>33</v>
@@ -8561,7 +8561,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K91">
         <v>4.75</v>
@@ -8638,7 +8638,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>43</v>
@@ -8727,10 +8727,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8819,7 +8819,7 @@
         <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8828,7 +8828,7 @@
         <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
         <v>2.3</v>
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5992205</v>
+        <v>5992207</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,55 +8905,55 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O95">
         <v>3.8</v>
       </c>
       <c r="P95">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q95">
         <v>-0.75</v>
       </c>
       <c r="R95">
+        <v>1.825</v>
+      </c>
+      <c r="S95">
         <v>2.025</v>
       </c>
-      <c r="S95">
-        <v>1.825</v>
-      </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8968,13 +8968,13 @@
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC95">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5992207</v>
+        <v>5992205</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,55 +8994,55 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N96">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O96">
         <v>3.8</v>
       </c>
       <c r="P96">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q96">
         <v>-0.75</v>
       </c>
       <c r="R96">
+        <v>2.025</v>
+      </c>
+      <c r="S96">
         <v>1.825</v>
       </c>
-      <c r="S96">
-        <v>2.025</v>
-      </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9057,13 +9057,13 @@
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9083,10 +9083,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F97" t="s">
+        <v>30</v>
+      </c>
+      <c r="G97" t="s">
         <v>29</v>
-      </c>
-      <c r="G97" t="s">
-        <v>32</v>
       </c>
       <c r="H97">
         <v>4</v>
@@ -9172,7 +9172,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
         <v>41</v>
@@ -9264,7 +9264,7 @@
         <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>5</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5992203</v>
+        <v>5992206</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,13 +9350,13 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9365,61 +9365,61 @@
         <v>45</v>
       </c>
       <c r="K100">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
         <v>2.875</v>
       </c>
       <c r="N100">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O100">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y100">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA100">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AB100">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5992206</v>
+        <v>5992203</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,13 +9439,13 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9454,61 +9454,61 @@
         <v>46</v>
       </c>
       <c r="K101">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
         <v>2.875</v>
       </c>
       <c r="N101">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z101">
+        <v>-1</v>
+      </c>
+      <c r="AA101">
+        <v>1.05</v>
+      </c>
+      <c r="AB101">
+        <v>0.45</v>
+      </c>
+      <c r="AC101">
         <v>-0.5</v>
-      </c>
-      <c r="AA101">
-        <v>0.4875</v>
-      </c>
-      <c r="AB101">
-        <v>0.875</v>
-      </c>
-      <c r="AC101">
-        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -9718,7 +9718,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>3.5</v>
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5992209</v>
+        <v>5992213</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,40 +9795,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F105" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" t="s">
         <v>30</v>
       </c>
-      <c r="G105" t="s">
-        <v>39</v>
-      </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K105">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L105">
+        <v>4.2</v>
+      </c>
+      <c r="M105">
+        <v>1.45</v>
+      </c>
+      <c r="N105">
         <v>5</v>
       </c>
-      <c r="M105">
-        <v>6.5</v>
-      </c>
-      <c r="N105">
-        <v>1.444</v>
-      </c>
       <c r="O105">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P105">
-        <v>6.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q105">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R105">
         <v>1.925</v>
@@ -9837,34 +9837,34 @@
         <v>1.925</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W105">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z105">
+        <v>-1</v>
+      </c>
+      <c r="AA105">
         <v>0.925</v>
       </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5992211</v>
+        <v>5992215</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,13 +9884,13 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -9899,43 +9899,43 @@
         <v>47</v>
       </c>
       <c r="K106">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="L106">
+        <v>3.3</v>
+      </c>
+      <c r="M106">
+        <v>2.25</v>
+      </c>
+      <c r="N106">
+        <v>3.25</v>
+      </c>
+      <c r="O106">
         <v>3.4</v>
       </c>
-      <c r="M106">
-        <v>2.4</v>
-      </c>
-      <c r="N106">
-        <v>2.7</v>
-      </c>
-      <c r="O106">
-        <v>3.6</v>
-      </c>
       <c r="P106">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
+        <v>1.975</v>
+      </c>
+      <c r="V106">
         <v>1.875</v>
       </c>
-      <c r="V106">
-        <v>1.975</v>
-      </c>
       <c r="W106">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9944,16 +9944,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5992213</v>
+        <v>5992209</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,40 +9973,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107">
         <v>0</v>
       </c>
-      <c r="I107">
-        <v>6</v>
-      </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K107">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L107">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M107">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="N107">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="O107">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P107">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q107">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R107">
         <v>1.925</v>
@@ -10015,34 +10015,34 @@
         <v>1.925</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA107">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5992215</v>
+        <v>5992211</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,13 +10062,13 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -10077,43 +10077,43 @@
         <v>47</v>
       </c>
       <c r="K108">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="L108">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="N108">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="O108">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
+        <v>1.875</v>
+      </c>
+      <c r="V108">
         <v>1.975</v>
       </c>
-      <c r="V108">
-        <v>1.875</v>
-      </c>
       <c r="W108">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10122,16 +10122,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10163,7 +10163,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K109">
         <v>1.727</v>
@@ -10243,7 +10243,7 @@
         <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10252,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>1.444</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5992219</v>
+        <v>5992220</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K111">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="N111">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O111">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q111">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA111">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5992220</v>
+        <v>5992219</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112" t="s">
+        <v>46</v>
+      </c>
+      <c r="K112">
         <v>4</v>
       </c>
-      <c r="I112">
-        <v>2</v>
-      </c>
-      <c r="J112" t="s">
-        <v>47</v>
-      </c>
-      <c r="K112">
-        <v>2.75</v>
-      </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="N112">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P112">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z112">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB112">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5992221</v>
+        <v>5992217</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K114">
+        <v>3.6</v>
+      </c>
+      <c r="L114">
+        <v>3.6</v>
+      </c>
+      <c r="M114">
         <v>1.95</v>
       </c>
-      <c r="L114">
-        <v>3.5</v>
-      </c>
-      <c r="M114">
+      <c r="N114">
+        <v>4.2</v>
+      </c>
+      <c r="O114">
         <v>3.8</v>
       </c>
-      <c r="N114">
-        <v>1.95</v>
-      </c>
-      <c r="O114">
-        <v>3.5</v>
-      </c>
       <c r="P114">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R114">
+        <v>1.825</v>
+      </c>
+      <c r="S114">
         <v>2.025</v>
-      </c>
-      <c r="S114">
-        <v>1.825</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
+        <v>1.875</v>
+      </c>
+      <c r="V114">
         <v>1.975</v>
       </c>
-      <c r="V114">
-        <v>1.875</v>
-      </c>
       <c r="W114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
         <v>1.025</v>
       </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5992218</v>
+        <v>5992221</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,13 +10685,13 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -10700,43 +10700,43 @@
         <v>47</v>
       </c>
       <c r="K115">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L115">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O115">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10745,16 +10745,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5992217</v>
+        <v>5992218</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,73 +10774,73 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H116">
+        <v>5</v>
+      </c>
+      <c r="I116">
         <v>1</v>
       </c>
-      <c r="I116">
-        <v>4</v>
-      </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M116">
+        <v>3.2</v>
+      </c>
+      <c r="N116">
+        <v>2.15</v>
+      </c>
+      <c r="O116">
+        <v>3.3</v>
+      </c>
+      <c r="P116">
+        <v>3.4</v>
+      </c>
+      <c r="Q116">
+        <v>-0.25</v>
+      </c>
+      <c r="R116">
+        <v>1.85</v>
+      </c>
+      <c r="S116">
+        <v>2</v>
+      </c>
+      <c r="T116">
+        <v>2.5</v>
+      </c>
+      <c r="U116">
         <v>1.95</v>
       </c>
-      <c r="N116">
-        <v>4.2</v>
-      </c>
-      <c r="O116">
-        <v>3.8</v>
-      </c>
-      <c r="P116">
-        <v>1.75</v>
-      </c>
-      <c r="Q116">
-        <v>0.75</v>
-      </c>
-      <c r="R116">
-        <v>1.825</v>
-      </c>
-      <c r="S116">
-        <v>2.025</v>
-      </c>
-      <c r="T116">
-        <v>2.75</v>
-      </c>
-      <c r="U116">
-        <v>1.875</v>
-      </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA116">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10863,10 +10863,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5992228</v>
+        <v>5992231</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,10 +10952,10 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -10964,64 +10964,64 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K118">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L118">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="N118">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O118">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
+        <v>1.9</v>
+      </c>
+      <c r="S118">
         <v>1.95</v>
       </c>
-      <c r="S118">
-        <v>1.9</v>
-      </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5992231</v>
+        <v>5992230</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M119">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N119">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O119">
         <v>4</v>
       </c>
       <c r="P119">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
         <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5992230</v>
+        <v>5992228</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K120">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M120">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N120">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W120">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA120">
+        <v>-0</v>
+      </c>
+      <c r="AB120">
         <v>-0.5</v>
       </c>
-      <c r="AB120">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5992225</v>
+        <v>5992227</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M121">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N121">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O121">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q121">
         <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U121">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W121">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5992229</v>
+        <v>5993423</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,76 +11308,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K122">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="N122">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P122">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R122">
+        <v>1.875</v>
+      </c>
+      <c r="S122">
+        <v>1.975</v>
+      </c>
+      <c r="T122">
+        <v>2.75</v>
+      </c>
+      <c r="U122">
         <v>1.825</v>
       </c>
-      <c r="S122">
+      <c r="V122">
         <v>2.025</v>
       </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.85</v>
-      </c>
-      <c r="V122">
-        <v>2</v>
-      </c>
       <c r="W122">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z122">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5992227</v>
+        <v>5992225</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
+        <v>2.1</v>
+      </c>
+      <c r="L123">
+        <v>3.4</v>
+      </c>
+      <c r="M123">
+        <v>3.3</v>
+      </c>
+      <c r="N123">
         <v>1.909</v>
       </c>
-      <c r="L123">
-        <v>3.75</v>
-      </c>
-      <c r="M123">
+      <c r="O123">
+        <v>3.5</v>
+      </c>
+      <c r="P123">
         <v>3.8</v>
-      </c>
-      <c r="N123">
-        <v>1.85</v>
-      </c>
-      <c r="O123">
-        <v>3.8</v>
-      </c>
-      <c r="P123">
-        <v>3.75</v>
       </c>
       <c r="Q123">
         <v>-0.5</v>
       </c>
       <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>1.85</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
         <v>1.9</v>
       </c>
-      <c r="S123">
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="T123">
-        <v>3</v>
-      </c>
-      <c r="U123">
-        <v>1.925</v>
-      </c>
-      <c r="V123">
-        <v>1.925</v>
-      </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X123">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>0.95</v>
-      </c>
-      <c r="AB123">
-        <v>0.925</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5993423</v>
+        <v>5992229</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="N124">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O124">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q124">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5992233</v>
+        <v>5992236</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,40 +11575,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>3</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>47</v>
       </c>
       <c r="K125">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M125">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="N125">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="Q125">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
         <v>1.95</v>
@@ -11617,16 +11617,16 @@
         <v>1.9</v>
       </c>
       <c r="T125">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>0.363</v>
+        <v>0.95</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11641,10 +11641,10 @@
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11664,7 +11664,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G126" t="s">
         <v>40</v>
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5992236</v>
+        <v>5992233</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,40 +11753,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>3</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
         <v>47</v>
       </c>
       <c r="K127">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L127">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M127">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N127">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="O127">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P127">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="Q127">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R127">
         <v>1.95</v>
@@ -11795,16 +11795,16 @@
         <v>1.9</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
-        <v>0.95</v>
+        <v>0.363</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11819,10 +11819,10 @@
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11943,7 +11943,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K129">
         <v>2.45</v>
@@ -12020,10 +12020,10 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12032,7 +12032,7 @@
         <v>6</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K130">
         <v>4.5</v>
@@ -12109,7 +12109,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
         <v>41</v>
@@ -12121,7 +12121,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K131">
         <v>2.25</v>
@@ -12198,7 +12198,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
         <v>42</v>
@@ -12210,7 +12210,7 @@
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K132">
         <v>3</v>
@@ -12287,7 +12287,7 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
         <v>34</v>
@@ -12376,7 +12376,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
         <v>40</v>
@@ -12388,7 +12388,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K134">
         <v>1.75</v>
@@ -12468,7 +12468,7 @@
         <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12477,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
         <v>3.5</v>
@@ -12643,10 +12643,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12655,7 +12655,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K137">
         <v>2</v>
@@ -12735,7 +12735,7 @@
         <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12744,7 +12744,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K138">
         <v>1.85</v>
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5992244</v>
+        <v>5992247</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,49 +12821,49 @@
         <v>45223.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M139">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N139">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O139">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q139">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U139">
         <v>1.95</v>
@@ -12872,25 +12872,25 @@
         <v>1.9</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA139">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5992247</v>
+        <v>5992244</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,49 +12910,49 @@
         <v>45223.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="N140">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
         <v>1.95</v>
@@ -12961,25 +12961,25 @@
         <v>1.9</v>
       </c>
       <c r="W140">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K141">
         <v>3.5</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5992254</v>
+        <v>5992252</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L142">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB142">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K143">
         <v>2.1</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5992252</v>
+        <v>5992254</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,76 +13266,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N144">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X144">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5992253</v>
+        <v>5992251</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,13 +13355,13 @@
         <v>45228.375</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -13370,43 +13370,43 @@
         <v>47</v>
       </c>
       <c r="K145">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="L145">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
-        <v>4.6</v>
+        <v>2.15</v>
       </c>
       <c r="N145">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O145">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
-        <v>0.5</v>
+        <v>1.875</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13415,16 +13415,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5992251</v>
+        <v>5992248</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,58 +13444,58 @@
         <v>45228.375</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H146">
         <v>2</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
         <v>47</v>
       </c>
       <c r="K146">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L146">
         <v>3.6</v>
       </c>
       <c r="M146">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="N146">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O146">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P146">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S146">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W146">
-        <v>1.875</v>
+        <v>1.375</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13504,16 +13504,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC146">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5992248</v>
+        <v>5992253</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,46 +13533,46 @@
         <v>45228.375</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>47</v>
       </c>
       <c r="K147">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M147">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="N147">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P147">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R147">
+        <v>2.025</v>
+      </c>
+      <c r="S147">
         <v>1.825</v>
-      </c>
-      <c r="S147">
-        <v>2.025</v>
       </c>
       <c r="T147">
         <v>2.75</v>
@@ -13584,7 +13584,7 @@
         <v>1.925</v>
       </c>
       <c r="W147">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13593,16 +13593,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13622,10 +13622,10 @@
         <v>45229.625</v>
       </c>
       <c r="F148" t="s">
+        <v>38</v>
+      </c>
+      <c r="G148" t="s">
         <v>39</v>
-      </c>
-      <c r="G148" t="s">
-        <v>38</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K149">
         <v>1.285</v>
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5992259</v>
+        <v>5992262</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13800,76 @@
         <v>45234.375</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K150">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M150">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="N150">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O150">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q150">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R150">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S150">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T150">
         <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z150">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC150">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13889,10 +13889,10 @@
         <v>45234.375</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5992262</v>
+        <v>5992259</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,76 +13978,76 @@
         <v>45234.375</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L152">
+        <v>3.6</v>
+      </c>
+      <c r="M152">
+        <v>3.4</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152">
         <v>3.75</v>
       </c>
-      <c r="M152">
-        <v>1.571</v>
-      </c>
-      <c r="N152">
-        <v>4.5</v>
-      </c>
-      <c r="O152">
-        <v>3.5</v>
-      </c>
       <c r="P152">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q152">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA152">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14159,7 +14159,7 @@
         <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14168,7 +14168,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K154">
         <v>6</v>
@@ -14245,7 +14245,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
         <v>43</v>
@@ -14257,7 +14257,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K155">
         <v>2</v>
@@ -14334,11 +14334,11 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F156" t="s">
+        <v>36</v>
+      </c>
+      <c r="G156" t="s">
         <v>37</v>
       </c>
-      <c r="G156" t="s">
-        <v>36</v>
-      </c>
       <c r="H156">
         <v>2</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K156">
         <v>2.5</v>
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5992269</v>
+        <v>5992270</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,13 +14423,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -14438,43 +14438,43 @@
         <v>47</v>
       </c>
       <c r="K157">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N157">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P157">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q157">
         <v>0</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S157">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T157">
         <v>2.75</v>
       </c>
       <c r="U157">
+        <v>2.025</v>
+      </c>
+      <c r="V157">
         <v>1.825</v>
       </c>
-      <c r="V157">
-        <v>2.025</v>
-      </c>
       <c r="W157">
-        <v>1.375</v>
+        <v>1.5</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14483,16 +14483,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
         <v>0.825</v>
-      </c>
-      <c r="AC157">
-        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5992271</v>
+        <v>5992264</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158" t="s">
+        <v>46</v>
+      </c>
+      <c r="K158">
+        <v>2.3</v>
+      </c>
+      <c r="L158">
+        <v>3.6</v>
+      </c>
+      <c r="M158">
+        <v>2.625</v>
+      </c>
+      <c r="N158">
+        <v>1.833</v>
+      </c>
+      <c r="O158">
         <v>4</v>
       </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158" t="s">
-        <v>47</v>
-      </c>
-      <c r="K158">
-        <v>1.333</v>
-      </c>
-      <c r="L158">
-        <v>4.6</v>
-      </c>
-      <c r="M158">
-        <v>8</v>
-      </c>
-      <c r="N158">
-        <v>1.181</v>
-      </c>
-      <c r="O158">
-        <v>6</v>
-      </c>
       <c r="P158">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="Q158">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T158">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W158">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB158">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5992270</v>
+        <v>5992265</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K159">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M159">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N159">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="O159">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U159">
+        <v>1.825</v>
+      </c>
+      <c r="V159">
         <v>2.025</v>
       </c>
-      <c r="V159">
-        <v>1.825</v>
-      </c>
       <c r="W159">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z159">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB159">
         <v>-1</v>
       </c>
       <c r="AC159">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5992265</v>
+        <v>5992266</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,55 +14690,55 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K160">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="L160">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M160">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N160">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P160">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R160">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S160">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T160">
         <v>3</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V160">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14747,19 +14747,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5992266</v>
+        <v>5992267</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K161">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L161">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M161">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N161">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O161">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q161">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S161">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T161">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U161">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V161">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA161">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AC161">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5992267</v>
+        <v>5992268</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,76 +14868,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162" t="s">
+        <v>45</v>
+      </c>
+      <c r="K162">
+        <v>2.375</v>
+      </c>
+      <c r="L162">
+        <v>3.7</v>
+      </c>
+      <c r="M162">
+        <v>2.5</v>
+      </c>
+      <c r="N162">
+        <v>1.85</v>
+      </c>
+      <c r="O162">
+        <v>4</v>
+      </c>
+      <c r="P162">
+        <v>3.3</v>
+      </c>
+      <c r="Q162">
+        <v>-0.5</v>
+      </c>
+      <c r="R162">
+        <v>1.9</v>
+      </c>
+      <c r="S162">
+        <v>1.95</v>
+      </c>
+      <c r="T162">
         <v>3</v>
       </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162" t="s">
-        <v>47</v>
-      </c>
-      <c r="K162">
-        <v>2.25</v>
-      </c>
-      <c r="L162">
-        <v>3.5</v>
-      </c>
-      <c r="M162">
-        <v>2.75</v>
-      </c>
-      <c r="N162">
-        <v>2.7</v>
-      </c>
-      <c r="O162">
-        <v>3.4</v>
-      </c>
-      <c r="P162">
-        <v>2.3</v>
-      </c>
-      <c r="Q162">
-        <v>0</v>
-      </c>
-      <c r="R162">
-        <v>2.05</v>
-      </c>
-      <c r="S162">
-        <v>1.75</v>
-      </c>
-      <c r="T162">
-        <v>2.75</v>
-      </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V162">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W162">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB162">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5992268</v>
+        <v>5992269</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,49 +14957,49 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K163">
+        <v>2.75</v>
+      </c>
+      <c r="L163">
+        <v>3.5</v>
+      </c>
+      <c r="M163">
+        <v>2.25</v>
+      </c>
+      <c r="N163">
         <v>2.375</v>
       </c>
-      <c r="L163">
-        <v>3.7</v>
-      </c>
-      <c r="M163">
-        <v>2.5</v>
-      </c>
-      <c r="N163">
-        <v>1.85</v>
-      </c>
       <c r="O163">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q163">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
         <v>1.825</v>
@@ -15008,25 +15008,25 @@
         <v>2.025</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X163">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA163">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC163">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5992264</v>
+        <v>5992271</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,76 +15046,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H164">
+        <v>4</v>
+      </c>
+      <c r="I164">
         <v>0</v>
       </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
       <c r="J164" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K164">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="M164">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="N164">
-        <v>1.833</v>
+        <v>1.181</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P164">
+        <v>13</v>
+      </c>
+      <c r="Q164">
+        <v>-2</v>
+      </c>
+      <c r="R164">
+        <v>1.875</v>
+      </c>
+      <c r="S164">
+        <v>1.975</v>
+      </c>
+      <c r="T164">
         <v>3.5</v>
       </c>
-      <c r="Q164">
-        <v>-0.5</v>
-      </c>
-      <c r="R164">
-        <v>1.925</v>
-      </c>
-      <c r="S164">
-        <v>1.925</v>
-      </c>
-      <c r="T164">
-        <v>2.75</v>
-      </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA164">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC164">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -103,16 +103,16 @@
     <t>Sweden Superettan</t>
   </si>
   <si>
-    <t>Helsingborg</t>
+    <t>Vasteras SK</t>
+  </si>
+  <si>
+    <t>Jonkopings Sodra</t>
   </si>
   <si>
     <t>GAIS</t>
   </si>
   <si>
-    <t>Jonkopings Sodra</t>
-  </si>
-  <si>
-    <t>Vasteras SK</t>
+    <t>Helsingborg</t>
   </si>
   <si>
     <t>Osters IF</t>
@@ -124,10 +124,10 @@
     <t>Orebro SK</t>
   </si>
   <si>
-    <t>Trelleborgs FF</t>
+    <t>Skvde AIK</t>
   </si>
   <si>
-    <t>Skvde AIK</t>
+    <t>Trelleborgs FF</t>
   </si>
   <si>
     <t>GIF Sundsvall</t>
@@ -142,10 +142,10 @@
     <t>Utsiktens BK</t>
   </si>
   <si>
-    <t>IK Brage</t>
+    <t>AFC Eskilstuna</t>
   </si>
   <si>
-    <t>AFC Eskilstuna</t>
+    <t>IK Brage</t>
   </si>
   <si>
     <t>Landskrona BoIS</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5992116</v>
+        <v>5992113</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -643,46 +643,46 @@
         <v>45</v>
       </c>
       <c r="K2">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="N2">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R2">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y2">
         <v>-1</v>
@@ -691,13 +691,13 @@
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5992112</v>
+        <v>5992115</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,52 +720,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="N3">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -774,19 +774,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>3.2</v>
+        <v>1.05</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5992115</v>
+        <v>5992112</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,52 +809,52 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="N4">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2.75</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -863,19 +863,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.05</v>
+        <v>3.2</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5992113</v>
+        <v>5992116</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -910,46 +910,46 @@
         <v>45</v>
       </c>
       <c r="K5">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L5">
+        <v>3.4</v>
+      </c>
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>5.25</v>
-      </c>
       <c r="N5">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O5">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.85</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y5">
         <v>-1</v>
@@ -958,13 +958,13 @@
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6474532</v>
+        <v>6478150</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,19 +1266,19 @@
         <v>47</v>
       </c>
       <c r="K9">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N9">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
         <v>3.1</v>
@@ -1287,22 +1287,22 @@
         <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1311,7 +1311,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1320,7 +1320,7 @@
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6478150</v>
+        <v>6474532</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,19 +1355,19 @@
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N10">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
         <v>3.1</v>
@@ -1376,22 +1376,22 @@
         <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1400,7 +1400,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -1409,7 +1409,7 @@
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6474541</v>
+        <v>6480043</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,76 +1518,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O12">
         <v>3.4</v>
       </c>
       <c r="P12">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T12">
         <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6480043</v>
+        <v>6474541</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,76 +1607,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O13">
         <v>3.4</v>
       </c>
       <c r="P13">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q13">
         <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
         <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AB13">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,10 +1696,10 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1963,10 +1963,10 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5992132</v>
+        <v>5992131</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2055,73 +2055,73 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L18">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M18">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N18">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O18">
         <v>3.1</v>
       </c>
       <c r="P18">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q18">
         <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5992131</v>
+        <v>5992132</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,73 +2144,73 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N19">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O19">
         <v>3.1</v>
       </c>
       <c r="P19">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA19">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5992128</v>
+        <v>5992134</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,58 +2230,58 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M20">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>0.5329999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2290,13 +2290,13 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5992134</v>
+        <v>5992128</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,58 +2319,58 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P21">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2379,13 +2379,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2500,7 +2500,7 @@
         <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2589,7 +2589,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2678,7 +2678,7 @@
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2764,7 +2764,7 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
         <v>39</v>
@@ -2853,10 +2853,10 @@
         <v>45116.5</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
         <v>41</v>
@@ -3031,7 +3031,7 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -3123,7 +3123,7 @@
         <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3209,7 +3209,7 @@
         <v>45122.33333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3301,7 +3301,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3387,7 +3387,7 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
         <v>41</v>
@@ -3565,10 +3565,10 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
         <v>43</v>
-      </c>
-      <c r="G35" t="s">
-        <v>42</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3654,7 +3654,7 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
@@ -3746,7 +3746,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5992153</v>
+        <v>5992157</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,10 +3921,10 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3936,58 +3936,58 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M39">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q39">
         <v>0.25</v>
       </c>
       <c r="R39">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.5249999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA39">
         <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5992155</v>
+        <v>5992153</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="L40">
         <v>3.25</v>
       </c>
       <c r="M40">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="N40">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O40">
         <v>3.3</v>
       </c>
       <c r="P40">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q40">
         <v>0.25</v>
       </c>
       <c r="R40">
+        <v>2.05</v>
+      </c>
+      <c r="S40">
         <v>1.8</v>
       </c>
-      <c r="S40">
-        <v>2.05</v>
-      </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5992157</v>
+        <v>5992155</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K41">
+        <v>3.1</v>
+      </c>
+      <c r="L41">
+        <v>3.25</v>
+      </c>
+      <c r="M41">
+        <v>2.1</v>
+      </c>
+      <c r="N41">
         <v>2.7</v>
       </c>
-      <c r="L41">
+      <c r="O41">
         <v>3.3</v>
       </c>
-      <c r="M41">
-        <v>2.4</v>
-      </c>
-      <c r="N41">
-        <v>3</v>
-      </c>
-      <c r="O41">
-        <v>3.4</v>
-      </c>
       <c r="P41">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q41">
         <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X41">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4191,7 +4191,7 @@
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4277,7 +4277,7 @@
         <v>45130.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
         <v>33</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5992152</v>
+        <v>5992150</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,55 +4366,55 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
         <v>29</v>
       </c>
-      <c r="G44" t="s">
-        <v>36</v>
-      </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>46</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L44">
         <v>3.4</v>
       </c>
       <c r="M44">
+        <v>3.3</v>
+      </c>
+      <c r="N44">
+        <v>1.727</v>
+      </c>
+      <c r="O44">
         <v>3.6</v>
       </c>
-      <c r="N44">
-        <v>1.909</v>
-      </c>
-      <c r="O44">
-        <v>3.4</v>
-      </c>
       <c r="P44">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4423,19 +4423,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB44">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5992150</v>
+        <v>5992152</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,56 +4455,56 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
         <v>46</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L45">
         <v>3.4</v>
       </c>
       <c r="M45">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O45">
+        <v>3.4</v>
+      </c>
+      <c r="P45">
         <v>3.6</v>
       </c>
-      <c r="P45">
-        <v>4.2</v>
-      </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
+        <v>1.975</v>
+      </c>
+      <c r="S45">
+        <v>1.875</v>
+      </c>
+      <c r="T45">
+        <v>2.5</v>
+      </c>
+      <c r="U45">
         <v>2.025</v>
       </c>
-      <c r="S45">
+      <c r="V45">
         <v>1.825</v>
       </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>1.85</v>
-      </c>
-      <c r="V45">
-        <v>2</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
@@ -4512,19 +4512,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,10 +4544,10 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5992158</v>
+        <v>5992164</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,40 +4722,40 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P48">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
         <v>2.025</v>
@@ -4764,34 +4764,34 @@
         <v>1.825</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X48">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5992164</v>
+        <v>5992158</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,40 +4811,40 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K49">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O49">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P49">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q49">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
         <v>2.025</v>
@@ -4853,34 +4853,34 @@
         <v>1.825</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4900,7 +4900,7 @@
         <v>45137.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
         <v>44</v>
@@ -4989,7 +4989,7 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5992160</v>
+        <v>5992163</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>45</v>
       </c>
       <c r="K52">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M52">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N52">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P52">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
+        <v>1.975</v>
+      </c>
+      <c r="S52">
+        <v>1.875</v>
+      </c>
+      <c r="T52">
+        <v>2.25</v>
+      </c>
+      <c r="U52">
         <v>1.925</v>
       </c>
-      <c r="S52">
+      <c r="V52">
         <v>1.925</v>
       </c>
-      <c r="T52">
-        <v>2.75</v>
-      </c>
-      <c r="U52">
-        <v>2</v>
-      </c>
-      <c r="V52">
-        <v>1.85</v>
-      </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5992163</v>
+        <v>5992160</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>45</v>
       </c>
       <c r="K53">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L53">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
+        <v>1.909</v>
+      </c>
+      <c r="N53">
+        <v>3.6</v>
+      </c>
+      <c r="O53">
         <v>3.5</v>
       </c>
-      <c r="N53">
-        <v>2.2</v>
-      </c>
-      <c r="O53">
-        <v>3.1</v>
-      </c>
       <c r="P53">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA53">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
         <v>33</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5992168</v>
+        <v>5992167</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,49 +5345,49 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>46</v>
       </c>
       <c r="K55">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M55">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O55">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P55">
+        <v>3.2</v>
+      </c>
+      <c r="Q55">
+        <v>-0.25</v>
+      </c>
+      <c r="R55">
+        <v>1.9</v>
+      </c>
+      <c r="S55">
+        <v>1.95</v>
+      </c>
+      <c r="T55">
         <v>2.25</v>
-      </c>
-      <c r="Q55">
-        <v>0.25</v>
-      </c>
-      <c r="R55">
-        <v>1.85</v>
-      </c>
-      <c r="S55">
-        <v>2</v>
-      </c>
-      <c r="T55">
-        <v>2.5</v>
       </c>
       <c r="U55">
         <v>1.925</v>
@@ -5402,13 +5402,13 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
         <v>-1</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5992167</v>
+        <v>5992168</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,49 +5434,49 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>46</v>
       </c>
       <c r="K56">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L56">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M56">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N56">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O56">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P56">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
         <v>1.925</v>
@@ -5491,13 +5491,13 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB56">
         <v>-1</v>
@@ -5526,7 +5526,7 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5612,10 +5612,10 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         <v>45144.5</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>38</v>
@@ -5790,7 +5790,7 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5879,7 +5879,7 @@
         <v>45146.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -5968,10 +5968,10 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7036546</v>
+        <v>5992178</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K63">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L63">
+        <v>3.5</v>
+      </c>
+      <c r="M63">
+        <v>3.75</v>
+      </c>
+      <c r="N63">
+        <v>1.909</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
         <v>3.8</v>
-      </c>
-      <c r="M63">
-        <v>4</v>
-      </c>
-      <c r="N63">
-        <v>1.8</v>
-      </c>
-      <c r="O63">
-        <v>3.75</v>
-      </c>
-      <c r="P63">
-        <v>4</v>
       </c>
       <c r="Q63">
         <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB63">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5992178</v>
+        <v>7036546</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K64">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>1.8</v>
+      </c>
+      <c r="O64">
         <v>3.75</v>
       </c>
-      <c r="N64">
-        <v>1.909</v>
-      </c>
-      <c r="O64">
-        <v>3.5</v>
-      </c>
       <c r="P64">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q64">
         <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T64">
         <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X64">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA64">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6324,10 +6324,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" t="s">
         <v>32</v>
-      </c>
-      <c r="G66" t="s">
-        <v>29</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6416,7 +6416,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5992173</v>
+        <v>5992175</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,49 +6502,49 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M68">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N68">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="O68">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S68">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
         <v>1.975</v>
@@ -6553,25 +6553,25 @@
         <v>1.875</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA68">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5992175</v>
+        <v>5992173</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,49 +6591,49 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69" t="s">
+        <v>46</v>
+      </c>
+      <c r="K69">
+        <v>1.727</v>
+      </c>
+      <c r="L69">
+        <v>3.6</v>
+      </c>
+      <c r="M69">
+        <v>4.2</v>
+      </c>
+      <c r="N69">
+        <v>1.55</v>
+      </c>
+      <c r="O69">
+        <v>4</v>
+      </c>
+      <c r="P69">
+        <v>5.75</v>
+      </c>
+      <c r="Q69">
+        <v>-1</v>
+      </c>
+      <c r="R69">
+        <v>1.975</v>
+      </c>
+      <c r="S69">
+        <v>1.875</v>
+      </c>
+      <c r="T69">
         <v>3</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>47</v>
-      </c>
-      <c r="K69">
-        <v>2</v>
-      </c>
-      <c r="L69">
-        <v>3.25</v>
-      </c>
-      <c r="M69">
-        <v>3.5</v>
-      </c>
-      <c r="N69">
-        <v>1.833</v>
-      </c>
-      <c r="O69">
-        <v>3.4</v>
-      </c>
-      <c r="P69">
-        <v>4.333</v>
-      </c>
-      <c r="Q69">
-        <v>-0.5</v>
-      </c>
-      <c r="R69">
-        <v>1.825</v>
-      </c>
-      <c r="S69">
-        <v>2.025</v>
-      </c>
-      <c r="T69">
-        <v>2.5</v>
       </c>
       <c r="U69">
         <v>1.975</v>
@@ -6642,25 +6642,25 @@
         <v>1.875</v>
       </c>
       <c r="W69">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB69">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6683,7 +6683,7 @@
         <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6769,10 +6769,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5992185</v>
+        <v>5992182</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,13 +6858,13 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6873,25 +6873,25 @@
         <v>47</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L72">
         <v>3.4</v>
       </c>
       <c r="M72">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N72">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O72">
         <v>3.3</v>
       </c>
       <c r="P72">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
         <v>1.925</v>
@@ -6900,16 +6900,16 @@
         <v>1.925</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W72">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6924,10 +6924,10 @@
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5992182</v>
+        <v>5992185</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,13 +6947,13 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6962,25 +6962,25 @@
         <v>47</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L73">
         <v>3.4</v>
       </c>
       <c r="M73">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N73">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O73">
         <v>3.3</v>
       </c>
       <c r="P73">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
         <v>1.925</v>
@@ -6989,16 +6989,16 @@
         <v>1.925</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7013,10 +7013,10 @@
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7036,10 +7036,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
         <v>33</v>
@@ -7395,7 +7395,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7481,7 +7481,7 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s">
         <v>41</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5992192</v>
+        <v>5993421</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K80">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L80">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N80">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="O80">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R80">
+        <v>1.925</v>
+      </c>
+      <c r="S80">
+        <v>1.925</v>
+      </c>
+      <c r="T80">
+        <v>3</v>
+      </c>
+      <c r="U80">
         <v>2.025</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.825</v>
       </c>
-      <c r="T80">
-        <v>2.5</v>
-      </c>
-      <c r="U80">
-        <v>1.95</v>
-      </c>
-      <c r="V80">
-        <v>1.9</v>
-      </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X80">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>0.825</v>
-      </c>
-      <c r="AB80">
-        <v>0.95</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5993421</v>
+        <v>5992192</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L81">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N81">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O81">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7748,7 +7748,7 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5992188</v>
+        <v>5992193</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,58 +7837,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" t="s">
         <v>30</v>
-      </c>
-      <c r="G83" t="s">
-        <v>37</v>
       </c>
       <c r="H83">
         <v>3</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>47</v>
       </c>
       <c r="K83">
-        <v>1.285</v>
+        <v>2.3</v>
       </c>
       <c r="L83">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="N83">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q83">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
         <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
-        <v>0.444</v>
+        <v>0.95</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7897,13 +7897,13 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5992193</v>
+        <v>5992188</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,58 +7926,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>47</v>
       </c>
       <c r="K84">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M84">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="N84">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="O84">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P84">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>0.95</v>
+        <v>0.444</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,13 +7986,13 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8015,7 +8015,7 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
         <v>44</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5992196</v>
+        <v>5992201</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,49 +8193,49 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M87">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="N87">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P87">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="Q87">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
         <v>1.925</v>
@@ -8244,25 +8244,25 @@
         <v>1.925</v>
       </c>
       <c r="W87">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB87">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5992201</v>
+        <v>5992196</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,49 +8282,49 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K88">
+        <v>3.2</v>
+      </c>
+      <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>2.05</v>
+      </c>
+      <c r="N88">
+        <v>3.75</v>
+      </c>
+      <c r="O88">
+        <v>3.6</v>
+      </c>
+      <c r="P88">
+        <v>1.833</v>
+      </c>
+      <c r="Q88">
+        <v>0.5</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
         <v>1.85</v>
       </c>
-      <c r="L88">
-        <v>3.3</v>
-      </c>
-      <c r="M88">
-        <v>4</v>
-      </c>
-      <c r="N88">
-        <v>1.909</v>
-      </c>
-      <c r="O88">
-        <v>3.1</v>
-      </c>
-      <c r="P88">
-        <v>4</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>1.975</v>
-      </c>
-      <c r="S88">
-        <v>1.875</v>
-      </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
         <v>1.925</v>
@@ -8333,25 +8333,25 @@
         <v>1.925</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X88">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC88">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5992198</v>
+        <v>5992199</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="N89">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
         <v>2.75</v>
       </c>
       <c r="U89">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z89">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC89">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,10 +8460,10 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5992199</v>
+        <v>5992198</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,76 +8549,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="N91">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q91">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,10 +8638,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8727,7 +8727,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>38</v>
@@ -8816,7 +8816,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
         <v>39</v>
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5992207</v>
+        <v>5992205</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,55 +8905,55 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>45</v>
       </c>
       <c r="K95">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N95">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O95">
         <v>3.8</v>
       </c>
       <c r="P95">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q95">
         <v>-0.75</v>
       </c>
       <c r="R95">
+        <v>2.025</v>
+      </c>
+      <c r="S95">
         <v>1.825</v>
       </c>
-      <c r="S95">
-        <v>2.025</v>
-      </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8968,13 +8968,13 @@
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5992205</v>
+        <v>5992207</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,55 +8994,55 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>45</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N96">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O96">
         <v>3.8</v>
       </c>
       <c r="P96">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q96">
         <v>-0.75</v>
       </c>
       <c r="R96">
+        <v>1.825</v>
+      </c>
+      <c r="S96">
         <v>2.025</v>
       </c>
-      <c r="S96">
-        <v>1.825</v>
-      </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9057,13 +9057,13 @@
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC96">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9083,10 +9083,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>4</v>
@@ -9264,7 +9264,7 @@
         <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>5</v>
@@ -9353,7 +9353,7 @@
         <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9439,7 +9439,7 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
         <v>44</v>
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5992212</v>
+        <v>5992214</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
         <v>1</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N102">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O102">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
         <v>1.85</v>
       </c>
-      <c r="S102">
-        <v>2</v>
-      </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5992214</v>
+        <v>5992212</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,58 +9617,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F103" t="s">
+        <v>32</v>
+      </c>
+      <c r="G103" t="s">
         <v>42</v>
       </c>
-      <c r="G103" t="s">
-        <v>35</v>
-      </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N103">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P103">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
+        <v>2</v>
+      </c>
+      <c r="V103">
         <v>1.85</v>
       </c>
-      <c r="T103">
-        <v>2.5</v>
-      </c>
-      <c r="U103">
-        <v>1.875</v>
-      </c>
-      <c r="V103">
-        <v>1.975</v>
-      </c>
       <c r="W103">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5992213</v>
+        <v>5992209</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,40 +9795,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
         <v>0</v>
       </c>
-      <c r="I105">
-        <v>6</v>
-      </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L105">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M105">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="N105">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="O105">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P105">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="Q105">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R105">
         <v>1.925</v>
@@ -9837,34 +9837,34 @@
         <v>1.925</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA105">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5992215</v>
+        <v>5992211</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,13 +9884,13 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -9899,43 +9899,43 @@
         <v>47</v>
       </c>
       <c r="K106">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="L106">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="N106">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="O106">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
+        <v>1.875</v>
+      </c>
+      <c r="V106">
         <v>1.975</v>
       </c>
-      <c r="V106">
-        <v>1.875</v>
-      </c>
       <c r="W106">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9944,16 +9944,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5992209</v>
+        <v>5992213</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,40 +9973,40 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K107">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L107">
+        <v>4.2</v>
+      </c>
+      <c r="M107">
+        <v>1.45</v>
+      </c>
+      <c r="N107">
         <v>5</v>
       </c>
-      <c r="M107">
-        <v>6.5</v>
-      </c>
-      <c r="N107">
-        <v>1.444</v>
-      </c>
       <c r="O107">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P107">
-        <v>6.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q107">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R107">
         <v>1.925</v>
@@ -10015,34 +10015,34 @@
         <v>1.925</v>
       </c>
       <c r="T107">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W107">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
         <v>0.925</v>
       </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5992211</v>
+        <v>5992215</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,13 +10062,13 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -10077,43 +10077,43 @@
         <v>47</v>
       </c>
       <c r="K108">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="L108">
+        <v>3.3</v>
+      </c>
+      <c r="M108">
+        <v>2.25</v>
+      </c>
+      <c r="N108">
+        <v>3.25</v>
+      </c>
+      <c r="O108">
         <v>3.4</v>
       </c>
-      <c r="M108">
-        <v>2.4</v>
-      </c>
-      <c r="N108">
-        <v>2.7</v>
-      </c>
-      <c r="O108">
-        <v>3.6</v>
-      </c>
       <c r="P108">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
+        <v>1.975</v>
+      </c>
+      <c r="V108">
         <v>1.875</v>
       </c>
-      <c r="V108">
-        <v>1.975</v>
-      </c>
       <c r="W108">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10122,16 +10122,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5992222</v>
+        <v>5992219</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,7 +10240,7 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -10249,40 +10249,40 @@
         <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="L110">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="N110">
-        <v>1.444</v>
+        <v>4.75</v>
       </c>
       <c r="O110">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P110">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="Q110">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T110">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
         <v>1.9</v>
@@ -10294,22 +10294,22 @@
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC110">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5992220</v>
+        <v>5992222</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K111">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M111">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N111">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P111">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R111">
+        <v>1.95</v>
+      </c>
+      <c r="S111">
         <v>1.9</v>
       </c>
-      <c r="S111">
+      <c r="T111">
+        <v>3</v>
+      </c>
+      <c r="U111">
+        <v>1.9</v>
+      </c>
+      <c r="V111">
         <v>1.95</v>
       </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
-      <c r="U111">
-        <v>1.825</v>
-      </c>
-      <c r="V111">
-        <v>2.025</v>
-      </c>
       <c r="W111">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
       <c r="AB111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5992219</v>
+        <v>5992220</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="N112">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O112">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q112">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA112">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10510,7 +10510,7 @@
         <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10599,7 +10599,7 @@
         <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10685,10 +10685,10 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10863,10 +10863,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5992231</v>
+        <v>5992230</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M118">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N118">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O118">
         <v>4</v>
       </c>
       <c r="P118">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q118">
         <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X118">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA118">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5992230</v>
+        <v>5992231</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F119" t="s">
+        <v>41</v>
+      </c>
+      <c r="G119" t="s">
         <v>42</v>
       </c>
-      <c r="G119" t="s">
-        <v>37</v>
-      </c>
       <c r="H119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K119">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N119">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O119">
         <v>4</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q119">
         <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>1.925</v>
+      </c>
+      <c r="V119">
+        <v>1.925</v>
+      </c>
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
         <v>3</v>
       </c>
-      <c r="U119">
-        <v>1.975</v>
-      </c>
-      <c r="V119">
-        <v>1.875</v>
-      </c>
-      <c r="W119">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
         <v>34</v>
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5992227</v>
+        <v>5993423</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L121">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M121">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="N121">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="O121">
         <v>3.8</v>
       </c>
       <c r="P121">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q121">
+        <v>0.75</v>
+      </c>
+      <c r="R121">
+        <v>1.875</v>
+      </c>
+      <c r="S121">
+        <v>1.975</v>
+      </c>
+      <c r="T121">
+        <v>2.75</v>
+      </c>
+      <c r="U121">
+        <v>1.825</v>
+      </c>
+      <c r="V121">
+        <v>2.025</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>-1</v>
+      </c>
+      <c r="Y121">
+        <v>0.75</v>
+      </c>
+      <c r="Z121">
         <v>-0.5</v>
       </c>
-      <c r="R121">
-        <v>1.9</v>
-      </c>
-      <c r="S121">
-        <v>1.95</v>
-      </c>
-      <c r="T121">
-        <v>3</v>
-      </c>
-      <c r="U121">
-        <v>1.925</v>
-      </c>
-      <c r="V121">
-        <v>1.925</v>
-      </c>
-      <c r="W121">
-        <v>-1</v>
-      </c>
-      <c r="X121">
-        <v>2.8</v>
-      </c>
-      <c r="Y121">
-        <v>-1</v>
-      </c>
-      <c r="Z121">
-        <v>-1</v>
-      </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5993423</v>
+        <v>5992229</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,76 +11308,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="N122">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O122">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P122">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q122">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V122">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA122">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC122">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5992225</v>
+        <v>5992227</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K123">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N123">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O123">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q123">
         <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W123">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5992229</v>
+        <v>5992225</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,58 +11486,58 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>47</v>
       </c>
       <c r="K124">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L124">
+        <v>3.4</v>
+      </c>
+      <c r="M124">
         <v>3.3</v>
       </c>
-      <c r="M124">
-        <v>2.55</v>
-      </c>
       <c r="N124">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P124">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11664,7 +11664,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
         <v>40</v>
@@ -11753,10 +11753,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11845,7 +11845,7 @@
         <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11931,7 +11931,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G129" t="s">
         <v>44</v>
@@ -12020,10 +12020,10 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12201,7 +12201,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12287,7 +12287,7 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
         <v>34</v>
@@ -12376,7 +12376,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>40</v>
@@ -12468,7 +12468,7 @@
         <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12554,10 +12554,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F136" t="s">
+        <v>43</v>
+      </c>
+      <c r="G136" t="s">
         <v>42</v>
-      </c>
-      <c r="G136" t="s">
-        <v>43</v>
       </c>
       <c r="H136">
         <v>4</v>
@@ -12646,7 +12646,7 @@
         <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12732,10 +12732,10 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5992252</v>
+        <v>5992254</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M142">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N142">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13177,10 +13177,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5992254</v>
+        <v>5992252</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,76 +13266,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K144">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N144">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>45228.375</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
         <v>41</v>
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5992248</v>
+        <v>5992253</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,46 +13444,46 @@
         <v>45228.375</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>47</v>
       </c>
       <c r="K146">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M146">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="N146">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P146">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R146">
+        <v>2.025</v>
+      </c>
+      <c r="S146">
         <v>1.825</v>
-      </c>
-      <c r="S146">
-        <v>2.025</v>
       </c>
       <c r="T146">
         <v>2.75</v>
@@ -13495,7 +13495,7 @@
         <v>1.925</v>
       </c>
       <c r="W146">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13504,16 +13504,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5992253</v>
+        <v>5992248</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,46 +13533,46 @@
         <v>45228.375</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147">
         <v>1</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>47</v>
       </c>
       <c r="K147">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L147">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="N147">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O147">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R147">
+        <v>1.825</v>
+      </c>
+      <c r="S147">
         <v>2.025</v>
-      </c>
-      <c r="S147">
-        <v>1.825</v>
       </c>
       <c r="T147">
         <v>2.75</v>
@@ -13584,7 +13584,7 @@
         <v>1.925</v>
       </c>
       <c r="W147">
-        <v>0.5</v>
+        <v>1.375</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13593,16 +13593,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC147">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5992262</v>
+        <v>5992259</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13800,76 @@
         <v>45234.375</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K150">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="L150">
+        <v>3.6</v>
+      </c>
+      <c r="M150">
+        <v>3.4</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150">
         <v>3.75</v>
       </c>
-      <c r="M150">
-        <v>1.571</v>
-      </c>
-      <c r="N150">
-        <v>4.5</v>
-      </c>
-      <c r="O150">
-        <v>3.5</v>
-      </c>
       <c r="P150">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q150">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S150">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T150">
         <v>2.75</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA150">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5992259</v>
+        <v>5992262</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,76 +13978,76 @@
         <v>45234.375</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K152">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="N152">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O152">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z152">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC152">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14156,10 +14156,10 @@
         <v>45235.375</v>
       </c>
       <c r="F154" t="s">
+        <v>30</v>
+      </c>
+      <c r="G154" t="s">
         <v>31</v>
-      </c>
-      <c r="G154" t="s">
-        <v>30</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14248,7 +14248,7 @@
         <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14334,10 +14334,10 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F156" t="s">
+        <v>37</v>
+      </c>
+      <c r="G156" t="s">
         <v>36</v>
-      </c>
-      <c r="G156" t="s">
-        <v>37</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5992270</v>
+        <v>5992268</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,40 +14423,40 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F157" t="s">
+        <v>40</v>
+      </c>
+      <c r="G157" t="s">
         <v>37</v>
-      </c>
-      <c r="G157" t="s">
-        <v>29</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K157">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L157">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M157">
         <v>2.5</v>
       </c>
       <c r="N157">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O157">
+        <v>4</v>
+      </c>
+      <c r="P157">
         <v>3.3</v>
       </c>
-      <c r="P157">
-        <v>2.55</v>
-      </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
         <v>1.9</v>
@@ -14465,34 +14465,34 @@
         <v>1.95</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U157">
+        <v>1.825</v>
+      </c>
+      <c r="V157">
         <v>2.025</v>
       </c>
-      <c r="V157">
-        <v>1.825</v>
-      </c>
       <c r="W157">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5992264</v>
+        <v>5992269</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F158" t="s">
+        <v>43</v>
+      </c>
+      <c r="G158" t="s">
         <v>30</v>
       </c>
-      <c r="G158" t="s">
-        <v>41</v>
-      </c>
       <c r="H158">
+        <v>4</v>
+      </c>
+      <c r="I158">
         <v>0</v>
       </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K158">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N158">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O158">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P158">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S158">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T158">
         <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA158">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC158">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5992265</v>
+        <v>5992266</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,13 +14601,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
         <v>2</v>
@@ -14616,40 +14616,40 @@
         <v>46</v>
       </c>
       <c r="K159">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="L159">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M159">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N159">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="O159">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S159">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T159">
         <v>3</v>
       </c>
       <c r="U159">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V159">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14658,19 +14658,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5992266</v>
+        <v>5992265</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,13 +14690,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>2</v>
@@ -14705,40 +14705,40 @@
         <v>46</v>
       </c>
       <c r="K160">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="L160">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M160">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N160">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="O160">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S160">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T160">
         <v>3</v>
       </c>
       <c r="U160">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14747,19 +14747,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5992267</v>
+        <v>5992264</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K161">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L161">
+        <v>3.6</v>
+      </c>
+      <c r="M161">
+        <v>2.625</v>
+      </c>
+      <c r="N161">
+        <v>1.833</v>
+      </c>
+      <c r="O161">
+        <v>4</v>
+      </c>
+      <c r="P161">
         <v>3.5</v>
       </c>
-      <c r="M161">
-        <v>2.75</v>
-      </c>
-      <c r="N161">
-        <v>2.7</v>
-      </c>
-      <c r="O161">
-        <v>3.4</v>
-      </c>
-      <c r="P161">
-        <v>2.3</v>
-      </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S161">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V161">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W161">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z161">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB161">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5992268</v>
+        <v>5992270</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,40 +14868,40 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K162">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L162">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
         <v>2.5</v>
       </c>
       <c r="N162">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P162">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R162">
         <v>1.9</v>
@@ -14910,34 +14910,34 @@
         <v>1.95</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
+        <v>2.025</v>
+      </c>
+      <c r="V162">
         <v>1.825</v>
       </c>
-      <c r="V162">
-        <v>2.025</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X162">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA162">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5992269</v>
+        <v>5992271</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,10 +14957,10 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -14972,43 +14972,43 @@
         <v>47</v>
       </c>
       <c r="K163">
-        <v>2.75</v>
+        <v>1.333</v>
       </c>
       <c r="L163">
+        <v>4.6</v>
+      </c>
+      <c r="M163">
+        <v>8</v>
+      </c>
+      <c r="N163">
+        <v>1.181</v>
+      </c>
+      <c r="O163">
+        <v>6</v>
+      </c>
+      <c r="P163">
+        <v>13</v>
+      </c>
+      <c r="Q163">
+        <v>-2</v>
+      </c>
+      <c r="R163">
+        <v>1.875</v>
+      </c>
+      <c r="S163">
+        <v>1.975</v>
+      </c>
+      <c r="T163">
         <v>3.5</v>
       </c>
-      <c r="M163">
-        <v>2.25</v>
-      </c>
-      <c r="N163">
-        <v>2.375</v>
-      </c>
-      <c r="O163">
-        <v>3.4</v>
-      </c>
-      <c r="P163">
-        <v>2.7</v>
-      </c>
-      <c r="Q163">
-        <v>0</v>
-      </c>
-      <c r="R163">
-        <v>1.8</v>
-      </c>
-      <c r="S163">
-        <v>2.05</v>
-      </c>
-      <c r="T163">
-        <v>2.75</v>
-      </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V163">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
-        <v>1.375</v>
+        <v>0.181</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15017,13 +15017,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5992271</v>
+        <v>5992267</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,13 +15046,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -15061,43 +15061,43 @@
         <v>47</v>
       </c>
       <c r="K164">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L164">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="M164">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="N164">
-        <v>1.181</v>
+        <v>2.7</v>
       </c>
       <c r="O164">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="Q164">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S164">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T164">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>0.181</v>
+        <v>1.7</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15106,16 +15106,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -106,13 +106,13 @@
     <t>Vasteras SK</t>
   </si>
   <si>
-    <t>Jonkopings Sodra</t>
+    <t>Helsingborg</t>
   </si>
   <si>
     <t>GAIS</t>
   </si>
   <si>
-    <t>Helsingborg</t>
+    <t>Jonkopings Sodra</t>
   </si>
   <si>
     <t>Osters IF</t>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5992115</v>
+        <v>5992116</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,46 +720,46 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L3">
         <v>3.4</v>
       </c>
       <c r="M3">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -771,22 +771,22 @@
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5992116</v>
+        <v>5992115</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,46 +898,46 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L5">
         <v>3.4</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N5">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
         <v>2</v>
@@ -949,22 +949,22 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1518,10 +1518,10 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
         <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1963,7 +1963,7 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
         <v>37</v>
@@ -2055,7 +2055,7 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5992134</v>
+        <v>5992128</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,58 +2230,58 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L20">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N20">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O20">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P20">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>1.15</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2290,13 +2290,13 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5992128</v>
+        <v>5992134</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,58 +2319,58 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
       <c r="K21">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M21">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>0.5329999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2379,13 +2379,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2500,7 +2500,7 @@
         <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -3031,7 +3031,7 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -3209,7 +3209,7 @@
         <v>45122.33333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5992143</v>
+        <v>5992144</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,19 +3298,19 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>1.909</v>
@@ -3322,52 +3322,52 @@
         <v>3.6</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S32">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5992144</v>
+        <v>5992143</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,19 +3387,19 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
         <v>1.909</v>
@@ -3411,52 +3411,52 @@
         <v>3.6</v>
       </c>
       <c r="N33">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q33">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S33">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z33">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB33">
+        <v>0.5125</v>
+      </c>
+      <c r="AC33">
         <v>-0.5</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
-      <c r="AC33">
-        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5992147</v>
+        <v>5992142</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="L35">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P35">
-        <v>2.15</v>
+        <v>11</v>
       </c>
       <c r="Q35">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U35">
+        <v>1.975</v>
+      </c>
+      <c r="V35">
         <v>1.875</v>
       </c>
-      <c r="V35">
-        <v>1.975</v>
-      </c>
       <c r="W35">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
         <v>0.875</v>
-      </c>
-      <c r="AC35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5992142</v>
+        <v>5992147</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,76 +3654,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N36">
-        <v>1.166</v>
+        <v>3</v>
       </c>
       <c r="O36">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>11</v>
+        <v>2.15</v>
       </c>
       <c r="Q36">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>2.5</v>
+      </c>
+      <c r="U36">
+        <v>1.875</v>
+      </c>
+      <c r="V36">
         <v>1.975</v>
       </c>
-      <c r="S36">
-        <v>1.875</v>
-      </c>
-      <c r="T36">
-        <v>3.25</v>
-      </c>
-      <c r="U36">
-        <v>1.975</v>
-      </c>
-      <c r="V36">
-        <v>1.875</v>
-      </c>
       <c r="W36">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X36">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
+        <v>-1</v>
+      </c>
+      <c r="AB36">
         <v>0.875</v>
       </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
       <c r="AC36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5992157</v>
+        <v>5992153</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,10 +3921,10 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3936,58 +3936,58 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="L39">
+        <v>3.25</v>
+      </c>
+      <c r="M39">
+        <v>2.3</v>
+      </c>
+      <c r="N39">
         <v>3.3</v>
       </c>
-      <c r="M39">
-        <v>2.4</v>
-      </c>
-      <c r="N39">
-        <v>3</v>
-      </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q39">
         <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.45</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA39">
         <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5992153</v>
+        <v>5992157</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,10 +4010,10 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4025,58 +4025,58 @@
         <v>45</v>
       </c>
       <c r="K40">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N40">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q40">
         <v>0.25</v>
       </c>
       <c r="R40">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.5249999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA40">
         <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4191,7 +4191,7 @@
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5992150</v>
+        <v>5992152</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,56 +4366,56 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
         <v>46</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
         <v>3.4</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N44">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O44">
+        <v>3.4</v>
+      </c>
+      <c r="P44">
         <v>3.6</v>
       </c>
-      <c r="P44">
-        <v>4.2</v>
-      </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
+        <v>1.975</v>
+      </c>
+      <c r="S44">
+        <v>1.875</v>
+      </c>
+      <c r="T44">
+        <v>2.5</v>
+      </c>
+      <c r="U44">
         <v>2.025</v>
       </c>
-      <c r="S44">
+      <c r="V44">
         <v>1.825</v>
       </c>
-      <c r="T44">
-        <v>2.75</v>
-      </c>
-      <c r="U44">
-        <v>1.85</v>
-      </c>
-      <c r="V44">
-        <v>2</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
@@ -4423,19 +4423,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5992152</v>
+        <v>5992150</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,55 +4455,55 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>46</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L45">
         <v>3.4</v>
       </c>
       <c r="M45">
+        <v>3.3</v>
+      </c>
+      <c r="N45">
+        <v>1.727</v>
+      </c>
+      <c r="O45">
         <v>3.6</v>
       </c>
-      <c r="N45">
-        <v>1.909</v>
-      </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
       <c r="P45">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4512,19 +4512,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB45">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>4</v>
@@ -5081,7 +5081,7 @@
         <v>41</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5992167</v>
+        <v>5992170</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,76 +5345,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
+      <c r="J55" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>3.4</v>
+      </c>
+      <c r="M55">
+        <v>2.15</v>
+      </c>
+      <c r="N55">
+        <v>3.2</v>
+      </c>
+      <c r="O55">
+        <v>3.4</v>
+      </c>
+      <c r="P55">
+        <v>2.05</v>
+      </c>
+      <c r="Q55">
+        <v>0.25</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>1.85</v>
+      </c>
+      <c r="T55">
+        <v>2.75</v>
+      </c>
+      <c r="U55">
+        <v>2.025</v>
+      </c>
+      <c r="V55">
+        <v>1.825</v>
+      </c>
+      <c r="W55">
+        <v>2.2</v>
+      </c>
+      <c r="X55">
+        <v>-1</v>
+      </c>
+      <c r="Y55">
+        <v>-1</v>
+      </c>
+      <c r="Z55">
         <v>1</v>
       </c>
-      <c r="J55" t="s">
-        <v>46</v>
-      </c>
-      <c r="K55">
-        <v>2.15</v>
-      </c>
-      <c r="L55">
-        <v>3.3</v>
-      </c>
-      <c r="M55">
-        <v>3.1</v>
-      </c>
-      <c r="N55">
-        <v>2.15</v>
-      </c>
-      <c r="O55">
-        <v>3.2</v>
-      </c>
-      <c r="P55">
-        <v>3.2</v>
-      </c>
-      <c r="Q55">
-        <v>-0.25</v>
-      </c>
-      <c r="R55">
-        <v>1.9</v>
-      </c>
-      <c r="S55">
-        <v>1.95</v>
-      </c>
-      <c r="T55">
-        <v>2.25</v>
-      </c>
-      <c r="U55">
-        <v>1.925</v>
-      </c>
-      <c r="V55">
-        <v>1.925</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
-      <c r="Y55">
-        <v>2.2</v>
-      </c>
-      <c r="Z55">
-        <v>-1</v>
-      </c>
       <c r="AA55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5434,7 +5434,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
         <v>41</v>
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5992170</v>
+        <v>5992167</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M57">
+        <v>3.1</v>
+      </c>
+      <c r="N57">
         <v>2.15</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>3.2</v>
       </c>
-      <c r="O57">
-        <v>3.4</v>
-      </c>
       <c r="P57">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
         <v>2.2</v>
       </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
       <c r="Z57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>45146.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5992178</v>
+        <v>7036546</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K63">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L63">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>1.8</v>
+      </c>
+      <c r="O63">
         <v>3.75</v>
       </c>
-      <c r="N63">
-        <v>1.909</v>
-      </c>
-      <c r="O63">
-        <v>3.5</v>
-      </c>
       <c r="P63">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q63">
         <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X63">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7036546</v>
+        <v>5993419</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64" t="s">
+        <v>46</v>
+      </c>
+      <c r="K64">
+        <v>1.222</v>
+      </c>
+      <c r="L64">
         <v>5</v>
       </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64" t="s">
-        <v>47</v>
-      </c>
-      <c r="K64">
-        <v>1.727</v>
-      </c>
-      <c r="L64">
-        <v>3.8</v>
-      </c>
       <c r="M64">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N64">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="O64">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q64">
+        <v>-1.75</v>
+      </c>
+      <c r="R64">
+        <v>1.875</v>
+      </c>
+      <c r="S64">
+        <v>1.975</v>
+      </c>
+      <c r="T64">
+        <v>3.25</v>
+      </c>
+      <c r="U64">
+        <v>2.025</v>
+      </c>
+      <c r="V64">
+        <v>1.825</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
+        <v>11</v>
+      </c>
+      <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB64">
         <v>-0.5</v>
       </c>
-      <c r="R64">
-        <v>1.85</v>
-      </c>
-      <c r="S64">
-        <v>2</v>
-      </c>
-      <c r="T64">
-        <v>2.5</v>
-      </c>
-      <c r="U64">
-        <v>2.05</v>
-      </c>
-      <c r="V64">
-        <v>1.8</v>
-      </c>
-      <c r="W64">
-        <v>0.8</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
-      <c r="Z64">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>1.05</v>
-      </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5993419</v>
+        <v>5992178</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,76 +6235,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="N65">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O65">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q65">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T65">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y65">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5992174</v>
+        <v>5992179</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,61 +6324,61 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K66">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N66">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O66">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q66">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S66">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6387,13 +6387,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="AB66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5992179</v>
+        <v>5992174</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,61 +6413,61 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K67">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N67">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P67">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R67">
+        <v>1.9</v>
+      </c>
+      <c r="S67">
+        <v>1.95</v>
+      </c>
+      <c r="T67">
+        <v>3</v>
+      </c>
+      <c r="U67">
+        <v>1.8</v>
+      </c>
+      <c r="V67">
         <v>2.05</v>
       </c>
-      <c r="S67">
-        <v>1.75</v>
-      </c>
-      <c r="T67">
-        <v>2.75</v>
-      </c>
-      <c r="U67">
-        <v>1.875</v>
-      </c>
-      <c r="V67">
-        <v>1.975</v>
-      </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X67">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6476,13 +6476,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6505,7 +6505,7 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -7036,10 +7036,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F74" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" t="s">
         <v>30</v>
-      </c>
-      <c r="G74" t="s">
-        <v>32</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5993420</v>
+        <v>5992188</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,13 +7748,13 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -7763,43 +7763,43 @@
         <v>47</v>
       </c>
       <c r="K82">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M82">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="N82">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="O82">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P82">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
+        <v>1.825</v>
+      </c>
+      <c r="T82">
+        <v>2.75</v>
+      </c>
+      <c r="U82">
         <v>1.85</v>
       </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.875</v>
-      </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7808,13 +7808,13 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7840,7 +7840,7 @@
         <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>3</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5992188</v>
+        <v>5993420</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,13 +7926,13 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -7941,43 +7941,43 @@
         <v>47</v>
       </c>
       <c r="K84">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="L84">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="N84">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="O84">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,13 +7986,13 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8015,7 +8015,7 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
         <v>44</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5992201</v>
+        <v>5992196</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,49 +8193,49 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K87">
+        <v>3.2</v>
+      </c>
+      <c r="L87">
+        <v>3.4</v>
+      </c>
+      <c r="M87">
+        <v>2.05</v>
+      </c>
+      <c r="N87">
+        <v>3.75</v>
+      </c>
+      <c r="O87">
+        <v>3.6</v>
+      </c>
+      <c r="P87">
+        <v>1.833</v>
+      </c>
+      <c r="Q87">
+        <v>0.5</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
         <v>1.85</v>
       </c>
-      <c r="L87">
-        <v>3.3</v>
-      </c>
-      <c r="M87">
-        <v>4</v>
-      </c>
-      <c r="N87">
-        <v>1.909</v>
-      </c>
-      <c r="O87">
-        <v>3.1</v>
-      </c>
-      <c r="P87">
-        <v>4</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.975</v>
-      </c>
-      <c r="S87">
-        <v>1.875</v>
-      </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
         <v>1.925</v>
@@ -8244,25 +8244,25 @@
         <v>1.925</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X87">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC87">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5992196</v>
+        <v>5992201</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,49 +8282,49 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M88">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="N88">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="Q88">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
         <v>1.925</v>
@@ -8333,25 +8333,25 @@
         <v>1.925</v>
       </c>
       <c r="W88">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB88">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5992195</v>
+        <v>5992198</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N90">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V90">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X90">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5992198</v>
+        <v>5992195</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,76 +8549,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K91">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M91">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N91">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W91">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5992200</v>
+        <v>5992197</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,49 +8638,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
         <v>47</v>
       </c>
       <c r="K92">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N92">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O92">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P92">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q92">
         <v>-0.25</v>
       </c>
       <c r="R92">
+        <v>1.8</v>
+      </c>
+      <c r="S92">
         <v>2.05</v>
       </c>
-      <c r="S92">
-        <v>1.8</v>
-      </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
         <v>1.975</v>
@@ -8689,7 +8689,7 @@
         <v>1.875</v>
       </c>
       <c r="W92">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8698,16 +8698,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5992197</v>
+        <v>5992200</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,49 +8727,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>47</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P93">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q93">
         <v>-0.25</v>
       </c>
       <c r="R93">
+        <v>2.05</v>
+      </c>
+      <c r="S93">
         <v>1.8</v>
       </c>
-      <c r="S93">
-        <v>2.05</v>
-      </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
         <v>1.975</v>
@@ -8778,7 +8778,7 @@
         <v>1.875</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8787,16 +8787,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5992205</v>
+        <v>5992207</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,55 +8905,55 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>45</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O95">
         <v>3.8</v>
       </c>
       <c r="P95">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q95">
         <v>-0.75</v>
       </c>
       <c r="R95">
+        <v>1.825</v>
+      </c>
+      <c r="S95">
         <v>2.025</v>
       </c>
-      <c r="S95">
-        <v>1.825</v>
-      </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8968,13 +8968,13 @@
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC95">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5992207</v>
+        <v>5992205</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,55 +8994,55 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>45</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N96">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O96">
         <v>3.8</v>
       </c>
       <c r="P96">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q96">
         <v>-0.75</v>
       </c>
       <c r="R96">
+        <v>2.025</v>
+      </c>
+      <c r="S96">
         <v>1.825</v>
       </c>
-      <c r="S96">
-        <v>2.025</v>
-      </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9057,13 +9057,13 @@
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9086,7 +9086,7 @@
         <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>4</v>
@@ -9439,7 +9439,7 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
         <v>44</v>
@@ -9617,7 +9617,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
         <v>42</v>
@@ -9884,7 +9884,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
         <v>39</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5992222</v>
+        <v>5992220</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K111">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L111">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="N111">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O111">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
+        <v>1.9</v>
+      </c>
+      <c r="S111">
         <v>1.95</v>
       </c>
-      <c r="S111">
-        <v>1.9</v>
-      </c>
       <c r="T111">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X111">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC111">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5992220</v>
+        <v>5992222</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K112">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M112">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N112">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P112">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R112">
+        <v>1.95</v>
+      </c>
+      <c r="S112">
         <v>1.9</v>
       </c>
-      <c r="S112">
+      <c r="T112">
+        <v>3</v>
+      </c>
+      <c r="U112">
+        <v>1.9</v>
+      </c>
+      <c r="V112">
         <v>1.95</v>
       </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
-      <c r="U112">
-        <v>1.825</v>
-      </c>
-      <c r="V112">
-        <v>2.025</v>
-      </c>
       <c r="W112">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -11130,7 +11130,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
         <v>34</v>
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5993423</v>
+        <v>5992229</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="N121">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P121">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q121">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA121">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5992229</v>
+        <v>5992227</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,73 +11308,73 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K122">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M122">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N122">
+        <v>1.85</v>
+      </c>
+      <c r="O122">
+        <v>3.8</v>
+      </c>
+      <c r="P122">
+        <v>3.75</v>
+      </c>
+      <c r="Q122">
+        <v>-0.5</v>
+      </c>
+      <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
+        <v>1.95</v>
+      </c>
+      <c r="T122">
         <v>3</v>
       </c>
-      <c r="O122">
-        <v>3.3</v>
-      </c>
-      <c r="P122">
-        <v>2.3</v>
-      </c>
-      <c r="Q122">
-        <v>0.25</v>
-      </c>
-      <c r="R122">
-        <v>1.825</v>
-      </c>
-      <c r="S122">
-        <v>2.025</v>
-      </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W122">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5992227</v>
+        <v>5992225</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K123">
+        <v>2.1</v>
+      </c>
+      <c r="L123">
+        <v>3.4</v>
+      </c>
+      <c r="M123">
+        <v>3.3</v>
+      </c>
+      <c r="N123">
         <v>1.909</v>
       </c>
-      <c r="L123">
-        <v>3.75</v>
-      </c>
-      <c r="M123">
+      <c r="O123">
+        <v>3.5</v>
+      </c>
+      <c r="P123">
         <v>3.8</v>
-      </c>
-      <c r="N123">
-        <v>1.85</v>
-      </c>
-      <c r="O123">
-        <v>3.8</v>
-      </c>
-      <c r="P123">
-        <v>3.75</v>
       </c>
       <c r="Q123">
         <v>-0.5</v>
       </c>
       <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>1.85</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
         <v>1.9</v>
       </c>
-      <c r="S123">
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="T123">
-        <v>3</v>
-      </c>
-      <c r="U123">
-        <v>1.925</v>
-      </c>
-      <c r="V123">
-        <v>1.925</v>
-      </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X123">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>0.95</v>
-      </c>
-      <c r="AB123">
-        <v>0.925</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5992225</v>
+        <v>5993423</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
         <v>1</v>
       </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K124">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N124">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="O124">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q124">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
         <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11756,7 +11756,7 @@
         <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11845,7 +11845,7 @@
         <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12376,7 +12376,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
         <v>40</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5992246</v>
+        <v>5992241</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K136">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L136">
         <v>3.6</v>
       </c>
       <c r="M136">
+        <v>3.5</v>
+      </c>
+      <c r="N136">
+        <v>1.75</v>
+      </c>
+      <c r="O136">
+        <v>3.8</v>
+      </c>
+      <c r="P136">
         <v>4.2</v>
       </c>
-      <c r="N136">
-        <v>1.8</v>
-      </c>
-      <c r="O136">
-        <v>3.6</v>
-      </c>
-      <c r="P136">
-        <v>4</v>
-      </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5992241</v>
+        <v>5992246</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,76 +12643,76 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H137">
+        <v>4</v>
+      </c>
+      <c r="I137">
         <v>0</v>
       </c>
-      <c r="I137">
-        <v>2</v>
-      </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L137">
         <v>3.6</v>
       </c>
       <c r="M137">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N137">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O137">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P137">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q137">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA137">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
         <v>36</v>
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5992249</v>
+        <v>5992252</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,46 +13177,46 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
         <v>30</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
         <v>45</v>
       </c>
       <c r="K143">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O143">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
         <v>2.75</v>
@@ -13231,22 +13231,22 @@
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB143">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5992252</v>
+        <v>5992249</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,46 +13266,46 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
         <v>32</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>45</v>
       </c>
       <c r="K144">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
+        <v>3.2</v>
+      </c>
+      <c r="N144">
+        <v>2.375</v>
+      </c>
+      <c r="O144">
+        <v>3.5</v>
+      </c>
+      <c r="P144">
         <v>2.75</v>
       </c>
-      <c r="N144">
-        <v>2.75</v>
-      </c>
-      <c r="O144">
-        <v>3.4</v>
-      </c>
-      <c r="P144">
-        <v>2.4</v>
-      </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T144">
         <v>2.75</v>
@@ -13320,22 +13320,22 @@
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5992251</v>
+        <v>5992248</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,58 +13355,58 @@
         <v>45228.375</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>47</v>
       </c>
       <c r="K145">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L145">
         <v>3.6</v>
       </c>
       <c r="M145">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="N145">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q145">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>1.875</v>
+        <v>1.375</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13415,16 +13415,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC145">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5992253</v>
+        <v>5992251</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,13 +13444,13 @@
         <v>45228.375</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -13459,43 +13459,43 @@
         <v>47</v>
       </c>
       <c r="K146">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="L146">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>4.6</v>
+        <v>2.15</v>
       </c>
       <c r="N146">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O146">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q146">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U146">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
-        <v>0.5</v>
+        <v>1.875</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13504,16 +13504,16 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5992248</v>
+        <v>5992253</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,46 +13533,46 @@
         <v>45228.375</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>47</v>
       </c>
       <c r="K147">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M147">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="N147">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P147">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R147">
+        <v>2.025</v>
+      </c>
+      <c r="S147">
         <v>1.825</v>
-      </c>
-      <c r="S147">
-        <v>2.025</v>
       </c>
       <c r="T147">
         <v>2.75</v>
@@ -13584,7 +13584,7 @@
         <v>1.925</v>
       </c>
       <c r="W147">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13593,16 +13593,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5992259</v>
+        <v>5992262</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13800,76 @@
         <v>45234.375</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K150">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M150">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="N150">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O150">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q150">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R150">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S150">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T150">
         <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z150">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC150">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5992256</v>
+        <v>5992259</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,13 +13889,13 @@
         <v>45234.375</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -13904,43 +13904,43 @@
         <v>47</v>
       </c>
       <c r="K151">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L151">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O151">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P151">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
         <v>1.875</v>
       </c>
-      <c r="S151">
-        <v>1.975</v>
-      </c>
       <c r="T151">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13949,7 +13949,7 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA151">
         <v>-1</v>
@@ -13958,7 +13958,7 @@
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5992262</v>
+        <v>5992256</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,76 +13978,76 @@
         <v>45234.375</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H152">
         <v>1</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M152">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N152">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O152">
         <v>3.5</v>
       </c>
       <c r="P152">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q152">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA152">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>45235.375</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
         <v>31</v>
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5992263</v>
+        <v>5992260</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,76 +14245,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G155" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
         <v>45</v>
       </c>
       <c r="K155">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M155">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="N155">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O155">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P155">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q155">
+        <v>0.25</v>
+      </c>
+      <c r="R155">
+        <v>2.025</v>
+      </c>
+      <c r="S155">
+        <v>1.825</v>
+      </c>
+      <c r="T155">
+        <v>3</v>
+      </c>
+      <c r="U155">
+        <v>1.95</v>
+      </c>
+      <c r="V155">
+        <v>1.9</v>
+      </c>
+      <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
+        <v>2.8</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
+        <v>0.5125</v>
+      </c>
+      <c r="AA155">
         <v>-0.5</v>
       </c>
-      <c r="R155">
-        <v>1.975</v>
-      </c>
-      <c r="S155">
-        <v>1.875</v>
-      </c>
-      <c r="T155">
-        <v>2.75</v>
-      </c>
-      <c r="U155">
-        <v>1.825</v>
-      </c>
-      <c r="V155">
-        <v>2.025</v>
-      </c>
-      <c r="W155">
-        <v>-1</v>
-      </c>
-      <c r="X155">
-        <v>2.4</v>
-      </c>
-      <c r="Y155">
-        <v>-1</v>
-      </c>
-      <c r="Z155">
-        <v>-1</v>
-      </c>
-      <c r="AA155">
-        <v>0.875</v>
-      </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC155">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5992260</v>
+        <v>5992263</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,76 +14334,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
         <v>45</v>
       </c>
       <c r="K156">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N156">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O156">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P156">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="Q156">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
+        <v>1.975</v>
+      </c>
+      <c r="S156">
+        <v>1.875</v>
+      </c>
+      <c r="T156">
+        <v>2.75</v>
+      </c>
+      <c r="U156">
+        <v>1.825</v>
+      </c>
+      <c r="V156">
         <v>2.025</v>
       </c>
-      <c r="S156">
-        <v>1.825</v>
-      </c>
-      <c r="T156">
-        <v>3</v>
-      </c>
-      <c r="U156">
-        <v>1.95</v>
-      </c>
-      <c r="V156">
-        <v>1.9</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB156">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5992268</v>
+        <v>5992264</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K157">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L157">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="N157">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O157">
         <v>4</v>
       </c>
       <c r="P157">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q157">
         <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5992269</v>
+        <v>5992266</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G158" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158" t="s">
+        <v>46</v>
+      </c>
+      <c r="K158">
+        <v>2.8</v>
+      </c>
+      <c r="L158">
+        <v>3.6</v>
+      </c>
+      <c r="M158">
+        <v>2.2</v>
+      </c>
+      <c r="N158">
+        <v>2.875</v>
+      </c>
+      <c r="O158">
+        <v>3.6</v>
+      </c>
+      <c r="P158">
+        <v>2.15</v>
+      </c>
+      <c r="Q158">
+        <v>0.25</v>
+      </c>
+      <c r="R158">
+        <v>1.95</v>
+      </c>
+      <c r="S158">
+        <v>1.9</v>
+      </c>
+      <c r="T158">
+        <v>3</v>
+      </c>
+      <c r="U158">
+        <v>2.05</v>
+      </c>
+      <c r="V158">
+        <v>1.8</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>1.15</v>
+      </c>
+      <c r="Z158">
+        <v>-1</v>
+      </c>
+      <c r="AA158">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB158">
         <v>0</v>
       </c>
-      <c r="J158" t="s">
-        <v>47</v>
-      </c>
-      <c r="K158">
-        <v>2.75</v>
-      </c>
-      <c r="L158">
-        <v>3.5</v>
-      </c>
-      <c r="M158">
-        <v>2.25</v>
-      </c>
-      <c r="N158">
-        <v>2.375</v>
-      </c>
-      <c r="O158">
-        <v>3.4</v>
-      </c>
-      <c r="P158">
-        <v>2.7</v>
-      </c>
-      <c r="Q158">
-        <v>0</v>
-      </c>
-      <c r="R158">
-        <v>1.8</v>
-      </c>
-      <c r="S158">
-        <v>2.05</v>
-      </c>
-      <c r="T158">
-        <v>2.75</v>
-      </c>
-      <c r="U158">
-        <v>1.825</v>
-      </c>
-      <c r="V158">
-        <v>2.025</v>
-      </c>
-      <c r="W158">
-        <v>1.375</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>0.8</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
-      <c r="AB158">
-        <v>0.825</v>
-      </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5992266</v>
+        <v>5992267</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K159">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L159">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M159">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N159">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O159">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P159">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q159">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S159">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA159">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5992265</v>
+        <v>5992268</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,46 +14690,46 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K160">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L160">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M160">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N160">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S160">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T160">
         <v>3</v>
@@ -14744,16 +14744,16 @@
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y160">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB160">
         <v>-1</v>
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5992264</v>
+        <v>5992269</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,76 +14779,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H161">
+        <v>4</v>
+      </c>
+      <c r="I161">
         <v>0</v>
       </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K161">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L161">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M161">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N161">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O161">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S161">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA161">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC161">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>36</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5992267</v>
+        <v>5992265</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,76 +15046,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>2</v>
+      </c>
+      <c r="J164" t="s">
+        <v>46</v>
+      </c>
+      <c r="K164">
+        <v>1.533</v>
+      </c>
+      <c r="L164">
+        <v>4.2</v>
+      </c>
+      <c r="M164">
+        <v>5</v>
+      </c>
+      <c r="N164">
+        <v>1.615</v>
+      </c>
+      <c r="O164">
+        <v>3.8</v>
+      </c>
+      <c r="P164">
+        <v>4.75</v>
+      </c>
+      <c r="Q164">
+        <v>-0.75</v>
+      </c>
+      <c r="R164">
+        <v>1.8</v>
+      </c>
+      <c r="S164">
+        <v>2.05</v>
+      </c>
+      <c r="T164">
         <v>3</v>
       </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164" t="s">
-        <v>47</v>
-      </c>
-      <c r="K164">
-        <v>2.25</v>
-      </c>
-      <c r="L164">
-        <v>3.5</v>
-      </c>
-      <c r="M164">
-        <v>2.75</v>
-      </c>
-      <c r="N164">
-        <v>2.7</v>
-      </c>
-      <c r="O164">
-        <v>3.4</v>
-      </c>
-      <c r="P164">
-        <v>2.3</v>
-      </c>
-      <c r="Q164">
-        <v>0</v>
-      </c>
-      <c r="R164">
-        <v>2.05</v>
-      </c>
-      <c r="S164">
-        <v>1.75</v>
-      </c>
-      <c r="T164">
-        <v>2.75</v>
-      </c>
       <c r="U164">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
         <v>1.05</v>
       </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
       <c r="AB164">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -106,13 +106,13 @@
     <t>Vasteras SK</t>
   </si>
   <si>
+    <t>Jonkopings Sodra</t>
+  </si>
+  <si>
     <t>Helsingborg</t>
   </si>
   <si>
     <t>GAIS</t>
-  </si>
-  <si>
-    <t>Jonkopings Sodra</t>
   </si>
   <si>
     <t>Osters IF</t>
@@ -124,10 +124,10 @@
     <t>Orebro SK</t>
   </si>
   <si>
-    <t>Skvde AIK</t>
+    <t>Trelleborgs FF</t>
   </si>
   <si>
-    <t>Trelleborgs FF</t>
+    <t>Skvde AIK</t>
   </si>
   <si>
     <t>GIF Sundsvall</t>
@@ -142,10 +142,10 @@
     <t>Utsiktens BK</t>
   </si>
   <si>
-    <t>AFC Eskilstuna</t>
+    <t>IK Brage</t>
   </si>
   <si>
-    <t>IK Brage</t>
+    <t>AFC Eskilstuna</t>
   </si>
   <si>
     <t>Landskrona BoIS</t>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5992116</v>
+        <v>5992115</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,46 +720,46 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L3">
         <v>3.4</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N3">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -771,22 +771,22 @@
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5992112</v>
+        <v>5992116</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L4">
+        <v>3.4</v>
+      </c>
+      <c r="M4">
         <v>4</v>
       </c>
-      <c r="M4">
-        <v>5.75</v>
-      </c>
       <c r="N4">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P4">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y4">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5992115</v>
+        <v>5992112</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,52 +898,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="N5">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P5">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -952,19 +952,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.05</v>
+        <v>3.2</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6478150</v>
+        <v>6474532</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1266,19 +1266,19 @@
         <v>47</v>
       </c>
       <c r="K9">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
         <v>3.1</v>
@@ -1287,22 +1287,22 @@
         <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1311,7 +1311,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1320,7 +1320,7 @@
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6474532</v>
+        <v>6478150</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1355,19 +1355,19 @@
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N10">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
         <v>3.1</v>
@@ -1376,22 +1376,22 @@
         <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
         <v>2.5</v>
       </c>
       <c r="U10">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1400,7 +1400,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -1409,7 +1409,7 @@
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6474540</v>
+        <v>6480043</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,76 +1429,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="L11">
+        <v>3.3</v>
+      </c>
+      <c r="M11">
+        <v>2.75</v>
+      </c>
+      <c r="N11">
+        <v>2.3</v>
+      </c>
+      <c r="O11">
         <v>3.4</v>
       </c>
-      <c r="M11">
-        <v>2.1</v>
-      </c>
-      <c r="N11">
-        <v>4</v>
-      </c>
-      <c r="O11">
-        <v>3.6</v>
-      </c>
       <c r="P11">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y11">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB11">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6480043</v>
+        <v>6474540</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,76 +1518,76 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
+        <v>2.1</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>3.6</v>
+      </c>
+      <c r="P12">
+        <v>1.75</v>
+      </c>
+      <c r="Q12">
+        <v>0.5</v>
+      </c>
+      <c r="R12">
+        <v>2.05</v>
+      </c>
+      <c r="S12">
+        <v>1.8</v>
+      </c>
+      <c r="T12">
         <v>2.75</v>
       </c>
-      <c r="N12">
-        <v>2.3</v>
-      </c>
-      <c r="O12">
-        <v>3.4</v>
-      </c>
-      <c r="P12">
-        <v>2.8</v>
-      </c>
-      <c r="Q12">
-        <v>-0.25</v>
-      </c>
-      <c r="R12">
+      <c r="U12">
         <v>2.025</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>1.825</v>
       </c>
-      <c r="T12">
-        <v>2.5</v>
-      </c>
-      <c r="U12">
-        <v>1.85</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <v>0.8</v>
+      </c>
+      <c r="AB12">
+        <v>0.5125</v>
+      </c>
+      <c r="AC12">
         <v>-0.5</v>
-      </c>
-      <c r="AA12">
-        <v>0.4125</v>
-      </c>
-      <c r="AB12">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC12">
-        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5992129</v>
+        <v>5993416</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,58 +1696,58 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>47</v>
       </c>
       <c r="K14">
+        <v>4.75</v>
+      </c>
+      <c r="L14">
+        <v>3.5</v>
+      </c>
+      <c r="M14">
+        <v>1.615</v>
+      </c>
+      <c r="N14">
+        <v>5.25</v>
+      </c>
+      <c r="O14">
+        <v>3.75</v>
+      </c>
+      <c r="P14">
         <v>1.5</v>
       </c>
-      <c r="L14">
-        <v>4</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14">
-        <v>1.4</v>
-      </c>
-      <c r="O14">
-        <v>4.333</v>
-      </c>
-      <c r="P14">
-        <v>5.75</v>
-      </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>0.3999999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1756,13 +1756,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5993416</v>
+        <v>5992129</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,58 +1785,58 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P15">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R15">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
-        <v>4.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1845,13 +1845,13 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1963,10 +1963,10 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5992131</v>
+        <v>5992132</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2055,73 +2055,73 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N18">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O18">
         <v>3.1</v>
       </c>
       <c r="P18">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q18">
         <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5992132</v>
+        <v>5992131</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,73 +2144,73 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L19">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N19">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O19">
         <v>3.1</v>
       </c>
       <c r="P19">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,7 +2230,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5992136</v>
+        <v>5992135</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,10 +2408,10 @@
         <v>45114.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2423,61 +2423,61 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M22">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N22">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P22">
+        <v>3.6</v>
+      </c>
+      <c r="Q22">
+        <v>-0.5</v>
+      </c>
+      <c r="R22">
+        <v>1.9</v>
+      </c>
+      <c r="S22">
+        <v>1.95</v>
+      </c>
+      <c r="T22">
+        <v>2.75</v>
+      </c>
+      <c r="U22">
+        <v>1.8</v>
+      </c>
+      <c r="V22">
         <v>2.05</v>
       </c>
-      <c r="Q22">
-        <v>0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.825</v>
-      </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
-      <c r="V22">
-        <v>1.9</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5992135</v>
+        <v>5992136</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,10 +2497,10 @@
         <v>45114.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2512,61 +2512,61 @@
         <v>45</v>
       </c>
       <c r="K23">
+        <v>3.4</v>
+      </c>
+      <c r="L23">
+        <v>3.4</v>
+      </c>
+      <c r="M23">
+        <v>1.909</v>
+      </c>
+      <c r="N23">
+        <v>3.3</v>
+      </c>
+      <c r="O23">
+        <v>3.3</v>
+      </c>
+      <c r="P23">
         <v>2.05</v>
       </c>
-      <c r="L23">
-        <v>3.2</v>
-      </c>
-      <c r="M23">
-        <v>3.2</v>
-      </c>
-      <c r="N23">
+      <c r="Q23">
+        <v>0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.825</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
+        <v>2.5</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="O23">
-        <v>4</v>
-      </c>
-      <c r="P23">
-        <v>3.6</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
+      <c r="V23">
         <v>1.9</v>
       </c>
-      <c r="S23">
-        <v>1.95</v>
-      </c>
-      <c r="T23">
-        <v>2.75</v>
-      </c>
-      <c r="U23">
-        <v>1.8</v>
-      </c>
-      <c r="V23">
-        <v>2.05</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2678,7 +2678,7 @@
         <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2764,7 +2764,7 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
         <v>39</v>
@@ -2853,10 +2853,10 @@
         <v>45116.5</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>41</v>
@@ -3031,7 +3031,7 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -3123,7 +3123,7 @@
         <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3209,7 +3209,7 @@
         <v>45122.33333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5992144</v>
+        <v>5992143</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,19 +3298,19 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>1.909</v>
@@ -3322,52 +3322,52 @@
         <v>3.6</v>
       </c>
       <c r="N32">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S32">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z32">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB32">
+        <v>0.5125</v>
+      </c>
+      <c r="AC32">
         <v>-0.5</v>
-      </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
-      <c r="AC32">
-        <v>0.925</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5992143</v>
+        <v>5992144</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,19 +3387,19 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>1.909</v>
@@ -3411,52 +3411,52 @@
         <v>3.6</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R33">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S33">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA33">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB33">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3565,7 +3565,7 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -3654,10 +3654,10 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" t="s">
         <v>42</v>
-      </c>
-      <c r="G36" t="s">
-        <v>43</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3746,7 +3746,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5992153</v>
+        <v>5992157</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,10 +3921,10 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3936,58 +3936,58 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M39">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q39">
         <v>0.25</v>
       </c>
       <c r="R39">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.5249999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA39">
         <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5992157</v>
+        <v>5992153</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,10 +4010,10 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4025,58 +4025,58 @@
         <v>45</v>
       </c>
       <c r="K40">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="L40">
+        <v>3.25</v>
+      </c>
+      <c r="M40">
+        <v>2.3</v>
+      </c>
+      <c r="N40">
         <v>3.3</v>
       </c>
-      <c r="M40">
-        <v>2.4</v>
-      </c>
-      <c r="N40">
-        <v>3</v>
-      </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P40">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q40">
         <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.45</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA40">
         <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4099,7 +4099,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -4191,7 +4191,7 @@
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4277,7 +4277,7 @@
         <v>45130.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
         <v>33</v>
@@ -4366,10 +4366,10 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4455,7 +4455,7 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4544,10 +4544,10 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4725,7 +4725,7 @@
         <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>4</v>
@@ -4814,7 +4814,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>45137.33333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>44</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5992163</v>
+        <v>5992160</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>45</v>
       </c>
       <c r="K52">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L52">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
+        <v>1.909</v>
+      </c>
+      <c r="N52">
+        <v>3.6</v>
+      </c>
+      <c r="O52">
         <v>3.5</v>
       </c>
-      <c r="N52">
-        <v>2.2</v>
-      </c>
-      <c r="O52">
-        <v>3.1</v>
-      </c>
       <c r="P52">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5992160</v>
+        <v>5992163</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>45</v>
       </c>
       <c r="K53">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M53">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N53">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P53">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q53">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
+        <v>1.975</v>
+      </c>
+      <c r="S53">
+        <v>1.875</v>
+      </c>
+      <c r="T53">
+        <v>2.25</v>
+      </c>
+      <c r="U53">
         <v>1.925</v>
       </c>
-      <c r="S53">
+      <c r="V53">
         <v>1.925</v>
       </c>
-      <c r="T53">
-        <v>2.75</v>
-      </c>
-      <c r="U53">
-        <v>2</v>
-      </c>
-      <c r="V53">
-        <v>1.85</v>
-      </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
         <v>33</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5992170</v>
+        <v>5992167</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,76 +5345,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M55">
+        <v>3.1</v>
+      </c>
+      <c r="N55">
         <v>2.15</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>3.2</v>
       </c>
-      <c r="O55">
-        <v>3.4</v>
-      </c>
       <c r="P55">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
+        <v>-1</v>
+      </c>
+      <c r="Y55">
         <v>2.2</v>
       </c>
-      <c r="X55">
-        <v>-1</v>
-      </c>
-      <c r="Y55">
-        <v>-1</v>
-      </c>
       <c r="Z55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5434,7 +5434,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
         <v>41</v>
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5992167</v>
+        <v>5992170</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
         <v>0</v>
       </c>
-      <c r="I57">
+      <c r="J57" t="s">
+        <v>47</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>3.4</v>
+      </c>
+      <c r="M57">
+        <v>2.15</v>
+      </c>
+      <c r="N57">
+        <v>3.2</v>
+      </c>
+      <c r="O57">
+        <v>3.4</v>
+      </c>
+      <c r="P57">
+        <v>2.05</v>
+      </c>
+      <c r="Q57">
+        <v>0.25</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>1.85</v>
+      </c>
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
+        <v>2.025</v>
+      </c>
+      <c r="V57">
+        <v>1.825</v>
+      </c>
+      <c r="W57">
+        <v>2.2</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
+        <v>-1</v>
+      </c>
+      <c r="Z57">
         <v>1</v>
       </c>
-      <c r="J57" t="s">
-        <v>46</v>
-      </c>
-      <c r="K57">
-        <v>2.15</v>
-      </c>
-      <c r="L57">
-        <v>3.3</v>
-      </c>
-      <c r="M57">
-        <v>3.1</v>
-      </c>
-      <c r="N57">
-        <v>2.15</v>
-      </c>
-      <c r="O57">
-        <v>3.2</v>
-      </c>
-      <c r="P57">
-        <v>3.2</v>
-      </c>
-      <c r="Q57">
-        <v>-0.25</v>
-      </c>
-      <c r="R57">
-        <v>1.9</v>
-      </c>
-      <c r="S57">
-        <v>1.95</v>
-      </c>
-      <c r="T57">
-        <v>2.25</v>
-      </c>
-      <c r="U57">
-        <v>1.925</v>
-      </c>
-      <c r="V57">
-        <v>1.925</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
-      <c r="Y57">
-        <v>2.2</v>
-      </c>
-      <c r="Z57">
-        <v>-1</v>
-      </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -5701,7 +5701,7 @@
         <v>45144.5</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>38</v>
@@ -5790,7 +5790,7 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5879,7 +5879,7 @@
         <v>45146.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>39</v>
@@ -5968,10 +5968,10 @@
         <v>45150.33333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5993419</v>
+        <v>5992178</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K64">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="L64">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="N64">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O64">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q64">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y64">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5992178</v>
+        <v>5993419</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,76 +6235,76 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M65">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="N65">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P65">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q65">
+        <v>-1.75</v>
+      </c>
+      <c r="R65">
+        <v>1.875</v>
+      </c>
+      <c r="S65">
+        <v>1.975</v>
+      </c>
+      <c r="T65">
+        <v>3.25</v>
+      </c>
+      <c r="U65">
+        <v>2.025</v>
+      </c>
+      <c r="V65">
+        <v>1.825</v>
+      </c>
+      <c r="W65">
+        <v>-1</v>
+      </c>
+      <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
+        <v>11</v>
+      </c>
+      <c r="Z65">
+        <v>-1</v>
+      </c>
+      <c r="AA65">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB65">
         <v>-0.5</v>
       </c>
-      <c r="R65">
-        <v>1.925</v>
-      </c>
-      <c r="S65">
-        <v>1.925</v>
-      </c>
-      <c r="T65">
-        <v>2.5</v>
-      </c>
-      <c r="U65">
-        <v>1.95</v>
-      </c>
-      <c r="V65">
-        <v>1.9</v>
-      </c>
-      <c r="W65">
-        <v>-1</v>
-      </c>
-      <c r="X65">
-        <v>2.5</v>
-      </c>
-      <c r="Y65">
-        <v>-1</v>
-      </c>
-      <c r="Z65">
-        <v>-1</v>
-      </c>
-      <c r="AA65">
-        <v>0.925</v>
-      </c>
-      <c r="AB65">
-        <v>-1</v>
-      </c>
       <c r="AC65">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5992179</v>
+        <v>5992174</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,61 +6324,61 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M66">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N66">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P66">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>1.95</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
+        <v>1.8</v>
+      </c>
+      <c r="V66">
         <v>2.05</v>
       </c>
-      <c r="S66">
-        <v>1.75</v>
-      </c>
-      <c r="T66">
-        <v>2.75</v>
-      </c>
-      <c r="U66">
-        <v>1.875</v>
-      </c>
-      <c r="V66">
-        <v>1.975</v>
-      </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X66">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6387,13 +6387,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5992174</v>
+        <v>5992179</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,61 +6413,61 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K67">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L67">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N67">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="O67">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q67">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6476,13 +6476,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="AB67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5992175</v>
+        <v>5992173</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,49 +6502,49 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68" t="s">
+        <v>46</v>
+      </c>
+      <c r="K68">
+        <v>1.727</v>
+      </c>
+      <c r="L68">
+        <v>3.6</v>
+      </c>
+      <c r="M68">
+        <v>4.2</v>
+      </c>
+      <c r="N68">
+        <v>1.55</v>
+      </c>
+      <c r="O68">
+        <v>4</v>
+      </c>
+      <c r="P68">
+        <v>5.75</v>
+      </c>
+      <c r="Q68">
+        <v>-1</v>
+      </c>
+      <c r="R68">
+        <v>1.975</v>
+      </c>
+      <c r="S68">
+        <v>1.875</v>
+      </c>
+      <c r="T68">
         <v>3</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" t="s">
-        <v>47</v>
-      </c>
-      <c r="K68">
-        <v>2</v>
-      </c>
-      <c r="L68">
-        <v>3.25</v>
-      </c>
-      <c r="M68">
-        <v>3.5</v>
-      </c>
-      <c r="N68">
-        <v>1.833</v>
-      </c>
-      <c r="O68">
-        <v>3.4</v>
-      </c>
-      <c r="P68">
-        <v>4.333</v>
-      </c>
-      <c r="Q68">
-        <v>-0.5</v>
-      </c>
-      <c r="R68">
-        <v>1.825</v>
-      </c>
-      <c r="S68">
-        <v>2.025</v>
-      </c>
-      <c r="T68">
-        <v>2.5</v>
       </c>
       <c r="U68">
         <v>1.975</v>
@@ -6553,25 +6553,25 @@
         <v>1.875</v>
       </c>
       <c r="W68">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB68">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5992173</v>
+        <v>5992175</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,49 +6591,49 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K69">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N69">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
         <v>1.975</v>
@@ -6642,25 +6642,25 @@
         <v>1.875</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6769,10 +6769,10 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5992182</v>
+        <v>5992185</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,13 +6858,13 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6873,25 +6873,25 @@
         <v>47</v>
       </c>
       <c r="K72">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L72">
         <v>3.4</v>
       </c>
       <c r="M72">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N72">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O72">
         <v>3.3</v>
       </c>
       <c r="P72">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
         <v>1.925</v>
@@ -6900,16 +6900,16 @@
         <v>1.925</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6924,10 +6924,10 @@
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5992185</v>
+        <v>5992182</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,13 +6947,13 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6962,25 +6962,25 @@
         <v>47</v>
       </c>
       <c r="K73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
         <v>3.4</v>
       </c>
       <c r="M73">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N73">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O73">
         <v>3.3</v>
       </c>
       <c r="P73">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
         <v>1.925</v>
@@ -6989,16 +6989,16 @@
         <v>1.925</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W73">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7013,10 +7013,10 @@
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7036,10 +7036,10 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5992186</v>
+        <v>5992181</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,73 +7214,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K76">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N76">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S76">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
+        <v>2</v>
+      </c>
+      <c r="V76">
         <v>1.85</v>
       </c>
-      <c r="V76">
-        <v>2</v>
-      </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y76">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AB76">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5992181</v>
+        <v>5992186</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,73 +7303,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L77">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="O77">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P77">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T77">
         <v>2.5</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7481,7 +7481,7 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s">
         <v>41</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5993421</v>
+        <v>5992192</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K80">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L80">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M80">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N80">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S80">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5992192</v>
+        <v>5993421</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L81">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M81">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N81">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="O81">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R81">
+        <v>1.925</v>
+      </c>
+      <c r="S81">
+        <v>1.925</v>
+      </c>
+      <c r="T81">
+        <v>3</v>
+      </c>
+      <c r="U81">
         <v>2.025</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.825</v>
       </c>
-      <c r="T81">
-        <v>2.5</v>
-      </c>
-      <c r="U81">
-        <v>1.95</v>
-      </c>
-      <c r="V81">
-        <v>1.9</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X81">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.825</v>
-      </c>
-      <c r="AB81">
-        <v>0.95</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7748,10 +7748,10 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -7840,7 +7840,7 @@
         <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>3</v>
@@ -7926,7 +7926,7 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
         <v>40</v>
@@ -8015,7 +8015,7 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>44</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5992196</v>
+        <v>5992201</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,49 +8193,49 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M87">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="N87">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P87">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="Q87">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
         <v>1.925</v>
@@ -8244,25 +8244,25 @@
         <v>1.925</v>
       </c>
       <c r="W87">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB87">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5992201</v>
+        <v>5992196</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,49 +8282,49 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K88">
+        <v>3.2</v>
+      </c>
+      <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>2.05</v>
+      </c>
+      <c r="N88">
+        <v>3.75</v>
+      </c>
+      <c r="O88">
+        <v>3.6</v>
+      </c>
+      <c r="P88">
+        <v>1.833</v>
+      </c>
+      <c r="Q88">
+        <v>0.5</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
         <v>1.85</v>
       </c>
-      <c r="L88">
-        <v>3.3</v>
-      </c>
-      <c r="M88">
-        <v>4</v>
-      </c>
-      <c r="N88">
-        <v>1.909</v>
-      </c>
-      <c r="O88">
-        <v>3.1</v>
-      </c>
-      <c r="P88">
-        <v>4</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>1.975</v>
-      </c>
-      <c r="S88">
-        <v>1.875</v>
-      </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
         <v>1.925</v>
@@ -8333,25 +8333,25 @@
         <v>1.925</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X88">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC88">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5992199</v>
+        <v>5992198</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="N89">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q89">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
         <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA89">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5992198</v>
+        <v>5992195</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K90">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M90">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="N90">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W90">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5992195</v>
+        <v>5992199</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,76 +8549,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K91">
-        <v>1.533</v>
+        <v>4.75</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="N91">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="O91">
         <v>3.6</v>
       </c>
       <c r="P91">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R91">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC91">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5992197</v>
+        <v>5992200</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,49 +8638,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
         <v>47</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O92">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P92">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
         <v>-0.25</v>
       </c>
       <c r="R92">
+        <v>2.05</v>
+      </c>
+      <c r="S92">
         <v>1.8</v>
       </c>
-      <c r="S92">
-        <v>2.05</v>
-      </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
         <v>1.975</v>
@@ -8689,7 +8689,7 @@
         <v>1.875</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8698,16 +8698,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5992200</v>
+        <v>5992197</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,49 +8727,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>47</v>
       </c>
       <c r="K93">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N93">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O93">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q93">
         <v>-0.25</v>
       </c>
       <c r="R93">
+        <v>1.8</v>
+      </c>
+      <c r="S93">
         <v>2.05</v>
       </c>
-      <c r="S93">
-        <v>1.8</v>
-      </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
         <v>1.975</v>
@@ -8778,7 +8778,7 @@
         <v>1.875</v>
       </c>
       <c r="W93">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8787,16 +8787,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8816,7 +8816,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
         <v>39</v>
@@ -8994,10 +8994,10 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9083,10 +9083,10 @@
         <v>45186.33333333334</v>
       </c>
       <c r="F97" t="s">
+        <v>32</v>
+      </c>
+      <c r="G97" t="s">
         <v>31</v>
-      </c>
-      <c r="G97" t="s">
-        <v>30</v>
       </c>
       <c r="H97">
         <v>4</v>
@@ -9264,7 +9264,7 @@
         <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>5</v>
@@ -9439,7 +9439,7 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
         <v>44</v>
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5992214</v>
+        <v>5992212</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F102" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" t="s">
         <v>43</v>
       </c>
-      <c r="G102" t="s">
-        <v>35</v>
-      </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N102">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P102">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
+        <v>2</v>
+      </c>
+      <c r="T102">
+        <v>2.75</v>
+      </c>
+      <c r="U102">
+        <v>2</v>
+      </c>
+      <c r="V102">
         <v>1.85</v>
       </c>
-      <c r="T102">
-        <v>2.5</v>
-      </c>
-      <c r="U102">
-        <v>1.875</v>
-      </c>
-      <c r="V102">
-        <v>1.975</v>
-      </c>
       <c r="W102">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5992212</v>
+        <v>5992214</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,58 +9617,58 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
         <v>1</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M103">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N103">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O103">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
         <v>1.85</v>
       </c>
-      <c r="S103">
-        <v>2</v>
-      </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
         <v>39</v>
@@ -9976,7 +9976,7 @@
         <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10062,7 +10062,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
         <v>34</v>
@@ -10154,7 +10154,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5992219</v>
+        <v>5992220</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="N110">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O110">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q110">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA110">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5992220</v>
+        <v>5992222</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K111">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M111">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="N111">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P111">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R111">
+        <v>1.95</v>
+      </c>
+      <c r="S111">
         <v>1.9</v>
       </c>
-      <c r="S111">
+      <c r="T111">
+        <v>3</v>
+      </c>
+      <c r="U111">
+        <v>1.9</v>
+      </c>
+      <c r="V111">
         <v>1.95</v>
       </c>
-      <c r="T111">
-        <v>2.75</v>
-      </c>
-      <c r="U111">
-        <v>1.825</v>
-      </c>
-      <c r="V111">
-        <v>2.025</v>
-      </c>
       <c r="W111">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
       <c r="AB111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5992222</v>
+        <v>5992219</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,49 +10418,49 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K112">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="L112">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="N112">
-        <v>1.444</v>
+        <v>4.75</v>
       </c>
       <c r="O112">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P112">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="Q112">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
         <v>1.9</v>
@@ -10472,22 +10472,22 @@
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC112">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10510,7 +10510,7 @@
         <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5992217</v>
+        <v>5992221</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
         <v>1</v>
       </c>
-      <c r="I114">
-        <v>4</v>
-      </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K114">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M114">
+        <v>3.8</v>
+      </c>
+      <c r="N114">
         <v>1.95</v>
       </c>
-      <c r="N114">
-        <v>4.2</v>
-      </c>
       <c r="O114">
+        <v>3.5</v>
+      </c>
+      <c r="P114">
         <v>3.8</v>
       </c>
-      <c r="P114">
-        <v>1.75</v>
-      </c>
       <c r="Q114">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
+        <v>2.025</v>
+      </c>
+      <c r="S114">
         <v>1.825</v>
-      </c>
-      <c r="S114">
-        <v>2.025</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
         <v>1.875</v>
       </c>
-      <c r="V114">
-        <v>1.975</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA114">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5992221</v>
+        <v>5992218</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,13 +10685,13 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -10700,61 +10700,61 @@
         <v>47</v>
       </c>
       <c r="K115">
+        <v>2.25</v>
+      </c>
+      <c r="L115">
+        <v>3.3</v>
+      </c>
+      <c r="M115">
+        <v>3.2</v>
+      </c>
+      <c r="N115">
+        <v>2.15</v>
+      </c>
+      <c r="O115">
+        <v>3.3</v>
+      </c>
+      <c r="P115">
+        <v>3.4</v>
+      </c>
+      <c r="Q115">
+        <v>-0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
+        <v>2</v>
+      </c>
+      <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
         <v>1.95</v>
       </c>
-      <c r="L115">
-        <v>3.5</v>
-      </c>
-      <c r="M115">
-        <v>3.8</v>
-      </c>
-      <c r="N115">
-        <v>1.95</v>
-      </c>
-      <c r="O115">
-        <v>3.5</v>
-      </c>
-      <c r="P115">
-        <v>3.8</v>
-      </c>
-      <c r="Q115">
-        <v>-0.5</v>
-      </c>
-      <c r="R115">
-        <v>2.025</v>
-      </c>
-      <c r="S115">
-        <v>1.825</v>
-      </c>
-      <c r="T115">
-        <v>2.75</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
+        <v>1.15</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
         <v>0.95</v>
       </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>1.025</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>0.4875</v>
-      </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5992218</v>
+        <v>5992217</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,73 +10774,73 @@
         <v>45197.58333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K116">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="L116">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="N116">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W116">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB116">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10866,7 +10866,7 @@
         <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5992230</v>
+        <v>5992231</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F118" t="s">
+        <v>41</v>
+      </c>
+      <c r="G118" t="s">
         <v>43</v>
       </c>
-      <c r="G118" t="s">
-        <v>36</v>
-      </c>
       <c r="H118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K118">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N118">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O118">
         <v>4</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q118">
         <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>1.925</v>
+      </c>
+      <c r="V118">
+        <v>1.925</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
         <v>3</v>
       </c>
-      <c r="U118">
-        <v>1.975</v>
-      </c>
-      <c r="V118">
-        <v>1.875</v>
-      </c>
-      <c r="W118">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5992231</v>
+        <v>5992230</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M119">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N119">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="O119">
         <v>4</v>
       </c>
       <c r="P119">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
         <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA119">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>45201.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
         <v>34</v>
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5992229</v>
+        <v>5992227</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,73 +11219,73 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K121">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M121">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N121">
+        <v>1.85</v>
+      </c>
+      <c r="O121">
+        <v>3.8</v>
+      </c>
+      <c r="P121">
+        <v>3.75</v>
+      </c>
+      <c r="Q121">
+        <v>-0.5</v>
+      </c>
+      <c r="R121">
+        <v>1.9</v>
+      </c>
+      <c r="S121">
+        <v>1.95</v>
+      </c>
+      <c r="T121">
         <v>3</v>
       </c>
-      <c r="O121">
-        <v>3.3</v>
-      </c>
-      <c r="P121">
-        <v>2.3</v>
-      </c>
-      <c r="Q121">
-        <v>0.25</v>
-      </c>
-      <c r="R121">
-        <v>1.825</v>
-      </c>
-      <c r="S121">
-        <v>2.025</v>
-      </c>
-      <c r="T121">
-        <v>2.5</v>
-      </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W121">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB121">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5992227</v>
+        <v>5992225</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,76 +11308,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K122">
+        <v>2.1</v>
+      </c>
+      <c r="L122">
+        <v>3.4</v>
+      </c>
+      <c r="M122">
+        <v>3.3</v>
+      </c>
+      <c r="N122">
         <v>1.909</v>
       </c>
-      <c r="L122">
-        <v>3.75</v>
-      </c>
-      <c r="M122">
+      <c r="O122">
+        <v>3.5</v>
+      </c>
+      <c r="P122">
         <v>3.8</v>
-      </c>
-      <c r="N122">
-        <v>1.85</v>
-      </c>
-      <c r="O122">
-        <v>3.8</v>
-      </c>
-      <c r="P122">
-        <v>3.75</v>
       </c>
       <c r="Q122">
         <v>-0.5</v>
       </c>
       <c r="R122">
+        <v>2</v>
+      </c>
+      <c r="S122">
+        <v>1.85</v>
+      </c>
+      <c r="T122">
+        <v>2.75</v>
+      </c>
+      <c r="U122">
         <v>1.9</v>
       </c>
-      <c r="S122">
+      <c r="V122">
         <v>1.95</v>
       </c>
-      <c r="T122">
-        <v>3</v>
-      </c>
-      <c r="U122">
-        <v>1.925</v>
-      </c>
-      <c r="V122">
-        <v>1.925</v>
-      </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X122">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA122">
+        <v>-1</v>
+      </c>
+      <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
         <v>0.95</v>
-      </c>
-      <c r="AB122">
-        <v>0.925</v>
-      </c>
-      <c r="AC122">
-        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5992225</v>
+        <v>5992229</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,55 +11400,55 @@
         <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123">
         <v>1</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>47</v>
       </c>
       <c r="K123">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
+        <v>2.55</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123">
         <v>3.3</v>
       </c>
-      <c r="N123">
-        <v>1.909</v>
-      </c>
-      <c r="O123">
-        <v>3.5</v>
-      </c>
       <c r="P123">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q123">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S123">
+        <v>2.025</v>
+      </c>
+      <c r="T123">
+        <v>2.5</v>
+      </c>
+      <c r="U123">
         <v>1.85</v>
       </c>
-      <c r="T123">
-        <v>2.75</v>
-      </c>
-      <c r="U123">
-        <v>1.9</v>
-      </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11457,16 +11457,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5992234</v>
+        <v>5992233</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,10 +11664,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>3</v>
@@ -11679,43 +11679,43 @@
         <v>47</v>
       </c>
       <c r="K126">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L126">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M126">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N126">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P126">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R126">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S126">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
-        <v>0.7</v>
+        <v>0.363</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11724,13 +11724,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5992233</v>
+        <v>5992234</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,10 +11753,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H127">
         <v>3</v>
@@ -11768,43 +11768,43 @@
         <v>47</v>
       </c>
       <c r="K127">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L127">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M127">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N127">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P127">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q127">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U127">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W127">
-        <v>0.363</v>
+        <v>0.7</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11813,13 +11813,13 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11845,7 +11845,7 @@
         <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11931,7 +11931,7 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
         <v>44</v>
@@ -12020,10 +12020,10 @@
         <v>45207.33333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5992232</v>
+        <v>5992238</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,40 +12109,40 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L131">
         <v>3.5</v>
       </c>
       <c r="M131">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N131">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="O131">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
         <v>1.9</v>
@@ -12151,34 +12151,34 @@
         <v>1.95</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB131">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5992238</v>
+        <v>5992232</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,40 +12198,40 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L132">
         <v>3.5</v>
       </c>
       <c r="M132">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N132">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
         <v>1.9</v>
@@ -12240,34 +12240,34 @@
         <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y132">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA132">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB132">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AC132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>45220.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>34</v>
@@ -12376,7 +12376,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>40</v>
@@ -12557,7 +12557,7 @@
         <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12643,10 +12643,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F137" t="s">
+        <v>42</v>
+      </c>
+      <c r="G137" t="s">
         <v>43</v>
-      </c>
-      <c r="G137" t="s">
-        <v>42</v>
       </c>
       <c r="H137">
         <v>4</v>
@@ -12732,10 +12732,10 @@
         <v>45222.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5992254</v>
+        <v>5992252</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L142">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB142">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5992252</v>
+        <v>5992254</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M143">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N143">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X143">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13266,10 +13266,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13358,7 +13358,7 @@
         <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13444,7 +13444,7 @@
         <v>45228.375</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
         <v>41</v>
@@ -13536,7 +13536,7 @@
         <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5992262</v>
+        <v>5992256</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13800,76 @@
         <v>45234.375</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K150">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="L150">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M150">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="N150">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O150">
         <v>3.5</v>
       </c>
       <c r="P150">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q150">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA150">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5992259</v>
+        <v>5992262</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,76 +13889,76 @@
         <v>45234.375</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K151">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M151">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="N151">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O151">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R151">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S151">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T151">
         <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z151">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC151">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5992256</v>
+        <v>5992259</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,13 +13978,13 @@
         <v>45234.375</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -13993,43 +13993,43 @@
         <v>47</v>
       </c>
       <c r="K152">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O152">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
+        <v>1.975</v>
+      </c>
+      <c r="S152">
         <v>1.875</v>
       </c>
-      <c r="S152">
-        <v>1.975</v>
-      </c>
       <c r="T152">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14038,7 +14038,7 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA152">
         <v>-1</v>
@@ -14047,7 +14047,7 @@
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14156,10 +14156,10 @@
         <v>45235.375</v>
       </c>
       <c r="F154" t="s">
+        <v>30</v>
+      </c>
+      <c r="G154" t="s">
         <v>32</v>
-      </c>
-      <c r="G154" t="s">
-        <v>31</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5992260</v>
+        <v>5992263</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,76 +14245,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
         <v>45</v>
       </c>
       <c r="K155">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L155">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M155">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N155">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O155">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P155">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="Q155">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
+        <v>1.975</v>
+      </c>
+      <c r="S155">
+        <v>1.875</v>
+      </c>
+      <c r="T155">
+        <v>2.75</v>
+      </c>
+      <c r="U155">
+        <v>1.825</v>
+      </c>
+      <c r="V155">
         <v>2.025</v>
       </c>
-      <c r="S155">
-        <v>1.825</v>
-      </c>
-      <c r="T155">
-        <v>3</v>
-      </c>
-      <c r="U155">
-        <v>1.95</v>
-      </c>
-      <c r="V155">
-        <v>1.9</v>
-      </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB155">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5992263</v>
+        <v>5992260</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,76 +14334,76 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>45</v>
       </c>
       <c r="K156">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="N156">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P156">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q156">
+        <v>0.25</v>
+      </c>
+      <c r="R156">
+        <v>2.025</v>
+      </c>
+      <c r="S156">
+        <v>1.825</v>
+      </c>
+      <c r="T156">
+        <v>3</v>
+      </c>
+      <c r="U156">
+        <v>1.95</v>
+      </c>
+      <c r="V156">
+        <v>1.9</v>
+      </c>
+      <c r="W156">
+        <v>-1</v>
+      </c>
+      <c r="X156">
+        <v>2.8</v>
+      </c>
+      <c r="Y156">
+        <v>-1</v>
+      </c>
+      <c r="Z156">
+        <v>0.5125</v>
+      </c>
+      <c r="AA156">
         <v>-0.5</v>
       </c>
-      <c r="R156">
-        <v>1.975</v>
-      </c>
-      <c r="S156">
-        <v>1.875</v>
-      </c>
-      <c r="T156">
-        <v>2.75</v>
-      </c>
-      <c r="U156">
-        <v>1.825</v>
-      </c>
-      <c r="V156">
-        <v>2.025</v>
-      </c>
-      <c r="W156">
-        <v>-1</v>
-      </c>
-      <c r="X156">
-        <v>2.4</v>
-      </c>
-      <c r="Y156">
-        <v>-1</v>
-      </c>
-      <c r="Z156">
-        <v>-1</v>
-      </c>
-      <c r="AA156">
-        <v>0.875</v>
-      </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC156">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5992264</v>
+        <v>5992271</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H157">
+        <v>4</v>
+      </c>
+      <c r="I157">
         <v>0</v>
       </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="M157">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="N157">
-        <v>1.833</v>
+        <v>1.181</v>
       </c>
       <c r="O157">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P157">
+        <v>13</v>
+      </c>
+      <c r="Q157">
+        <v>-2</v>
+      </c>
+      <c r="R157">
+        <v>1.875</v>
+      </c>
+      <c r="S157">
+        <v>1.975</v>
+      </c>
+      <c r="T157">
         <v>3.5</v>
       </c>
-      <c r="Q157">
-        <v>-0.5</v>
-      </c>
-      <c r="R157">
-        <v>1.925</v>
-      </c>
-      <c r="S157">
-        <v>1.925</v>
-      </c>
-      <c r="T157">
-        <v>2.75</v>
-      </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA157">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC157">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5992266</v>
+        <v>5992270</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K158">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N158">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="O158">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P158">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="Q158">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
         <v>1.95</v>
       </c>
-      <c r="S158">
-        <v>1.9</v>
-      </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V158">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5992267</v>
+        <v>5992264</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K159">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L159">
+        <v>3.6</v>
+      </c>
+      <c r="M159">
+        <v>2.625</v>
+      </c>
+      <c r="N159">
+        <v>1.833</v>
+      </c>
+      <c r="O159">
+        <v>4</v>
+      </c>
+      <c r="P159">
         <v>3.5</v>
       </c>
-      <c r="M159">
-        <v>2.75</v>
-      </c>
-      <c r="N159">
-        <v>2.7</v>
-      </c>
-      <c r="O159">
-        <v>3.4</v>
-      </c>
-      <c r="P159">
-        <v>2.3</v>
-      </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S159">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T159">
         <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z159">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB159">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5992268</v>
+        <v>5992269</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,49 +14690,49 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K160">
+        <v>2.75</v>
+      </c>
+      <c r="L160">
+        <v>3.5</v>
+      </c>
+      <c r="M160">
+        <v>2.25</v>
+      </c>
+      <c r="N160">
         <v>2.375</v>
       </c>
-      <c r="L160">
-        <v>3.7</v>
-      </c>
-      <c r="M160">
-        <v>2.5</v>
-      </c>
-      <c r="N160">
-        <v>1.85</v>
-      </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S160">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T160">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U160">
         <v>1.825</v>
@@ -14741,25 +14741,25 @@
         <v>2.025</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X160">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC160">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5992269</v>
+        <v>5992268</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14779,49 +14779,49 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" t="s">
+        <v>45</v>
+      </c>
+      <c r="K161">
+        <v>2.375</v>
+      </c>
+      <c r="L161">
+        <v>3.7</v>
+      </c>
+      <c r="M161">
+        <v>2.5</v>
+      </c>
+      <c r="N161">
+        <v>1.85</v>
+      </c>
+      <c r="O161">
         <v>4</v>
       </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161" t="s">
-        <v>47</v>
-      </c>
-      <c r="K161">
-        <v>2.75</v>
-      </c>
-      <c r="L161">
-        <v>3.5</v>
-      </c>
-      <c r="M161">
-        <v>2.25</v>
-      </c>
-      <c r="N161">
-        <v>2.375</v>
-      </c>
-      <c r="O161">
-        <v>3.4</v>
-      </c>
       <c r="P161">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S161">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U161">
         <v>1.825</v>
@@ -14830,25 +14830,25 @@
         <v>2.025</v>
       </c>
       <c r="W161">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5992270</v>
+        <v>5992267</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,13 +14868,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -14883,43 +14883,43 @@
         <v>47</v>
       </c>
       <c r="K162">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L162">
+        <v>3.5</v>
+      </c>
+      <c r="M162">
+        <v>2.75</v>
+      </c>
+      <c r="N162">
+        <v>2.7</v>
+      </c>
+      <c r="O162">
         <v>3.4</v>
       </c>
-      <c r="M162">
-        <v>2.5</v>
-      </c>
-      <c r="N162">
-        <v>2.5</v>
-      </c>
-      <c r="O162">
-        <v>3.3</v>
-      </c>
       <c r="P162">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q162">
         <v>0</v>
       </c>
       <c r="R162">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S162">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T162">
         <v>2.75</v>
       </c>
       <c r="U162">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W162">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14928,16 +14928,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC162">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5992271</v>
+        <v>5992265</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,76 +14957,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K163">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L163">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="M163">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N163">
-        <v>1.181</v>
+        <v>1.615</v>
       </c>
       <c r="O163">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P163">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="Q163">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R163">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S163">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T163">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W163">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z163">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5992265</v>
+        <v>5992266</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,13 +15046,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>2</v>
@@ -15061,40 +15061,40 @@
         <v>46</v>
       </c>
       <c r="K164">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="L164">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N164">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="O164">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S164">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T164">
         <v>3</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V164">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15103,19 +15103,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>3.75</v>
+        <v>1.15</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC164">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden Superettan/Sweden Superettan.xlsx
+++ b/Sweden Superettan/Sweden Superettan.xlsx
@@ -103,13 +103,13 @@
     <t>Sweden Superettan</t>
   </si>
   <si>
-    <t>Vasteras SK</t>
+    <t>Helsingborg</t>
   </si>
   <si>
     <t>Jonkopings Sodra</t>
   </si>
   <si>
-    <t>Helsingborg</t>
+    <t>Vasteras SK</t>
   </si>
   <si>
     <t>GAIS</t>
@@ -118,10 +118,10 @@
     <t>Osters IF</t>
   </si>
   <si>
-    <t>Ostersunds FK</t>
+    <t>Orebro SK</t>
   </si>
   <si>
-    <t>Orebro SK</t>
+    <t>Ostersunds FK</t>
   </si>
   <si>
     <t>Trelleborgs FF</t>
@@ -130,10 +130,10 @@
     <t>Skvde AIK</t>
   </si>
   <si>
-    <t>GIF Sundsvall</t>
+    <t>Orgryte IS</t>
   </si>
   <si>
-    <t>Orgryte IS</t>
+    <t>GIF Sundsvall</t>
   </si>
   <si>
     <t>Gefle IF</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5992113</v>
+        <v>5992116</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -643,46 +643,46 @@
         <v>45</v>
       </c>
       <c r="K2">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="L2">
+        <v>3.4</v>
+      </c>
+      <c r="M2">
         <v>4</v>
       </c>
-      <c r="M2">
-        <v>5.25</v>
-      </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O2">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
         <v>1.85</v>
       </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y2">
         <v>-1</v>
@@ -691,13 +691,13 @@
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5992116</v>
+        <v>5992113</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -821,46 +821,46 @@
         <v>45</v>
       </c>
       <c r="K4">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="N4">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
@@ -869,13 +869,13 @@
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5992126</v>
+        <v>5992121</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="N7">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
         <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5992121</v>
+        <v>5992126</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8">
+        <v>2.55</v>
+      </c>
+      <c r="L8">
+        <v>3.4</v>
+      </c>
+      <c r="M8">
+        <v>2.45</v>
+      </c>
+      <c r="N8">
+        <v>2.5</v>
+      </c>
+      <c r="O8">
+        <v>3.3</v>
+      </c>
+      <c r="P8">
+        <v>2.55</v>
+      </c>
+      <c r="Q8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8">
-        <v>1.7</v>
-      </c>
-      <c r="L8">
-        <v>3.5</v>
-      </c>
-      <c r="M8">
-        <v>4.5</v>
-      </c>
-      <c r="N8">
-        <v>1.666</v>
-      </c>
-      <c r="O8">
-        <v>3.5</v>
-      </c>
-      <c r="P8">
-        <v>5</v>
-      </c>
-      <c r="Q8">
-        <v>-0.75</v>
-      </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>45083.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
         <v>30</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6474540</v>
+        <v>6474541</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L12">
         <v>3.4</v>
       </c>
       <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>2.2</v>
+      </c>
+      <c r="O12">
+        <v>3.4</v>
+      </c>
+      <c r="P12">
+        <v>3.1</v>
+      </c>
+      <c r="Q12">
+        <v>-0.25</v>
+      </c>
+      <c r="R12">
+        <v>1.925</v>
+      </c>
+      <c r="S12">
+        <v>1.925</v>
+      </c>
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12">
+        <v>1.875</v>
+      </c>
+      <c r="V12">
+        <v>1.975</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
         <v>2.1</v>
       </c>
-      <c r="N12">
-        <v>4</v>
-      </c>
-      <c r="O12">
-        <v>3.6</v>
-      </c>
-      <c r="P12">
-        <v>1.75</v>
-      </c>
-      <c r="Q12">
-        <v>0.5</v>
-      </c>
-      <c r="R12">
-        <v>2.05</v>
-      </c>
-      <c r="S12">
-        <v>1.8</v>
-      </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
-      <c r="U12">
-        <v>2.025</v>
-      </c>
-      <c r="V12">
-        <v>1.825</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>0.75</v>
-      </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6474541</v>
+        <v>6474540</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,52 +1610,52 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
         <v>46</v>
       </c>
       <c r="K13">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L13">
         <v>3.4</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N13">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P13">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W13">
         <v>-1</v>
@@ -1664,19 +1664,19 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>2.1</v>
+        <v>0.75</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5993416</v>
+        <v>5992129</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,58 +1696,58 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>47</v>
       </c>
       <c r="K14">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="O14">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
-        <v>4.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1756,13 +1756,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5992129</v>
+        <v>5993416</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,58 +1785,58 @@
         <v>45087.33333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15">
+        <v>4.75</v>
+      </c>
+      <c r="L15">
+        <v>3.5</v>
+      </c>
+      <c r="M15">
+        <v>1.615</v>
+      </c>
+      <c r="N15">
+        <v>5.25</v>
+      </c>
+      <c r="O15">
+        <v>3.75</v>
+      </c>
+      <c r="P15">
         <v>1.5</v>
       </c>
-      <c r="L15">
-        <v>4</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
-      </c>
-      <c r="N15">
-        <v>1.4</v>
-      </c>
-      <c r="O15">
-        <v>4.333</v>
-      </c>
-      <c r="P15">
-        <v>5.75</v>
-      </c>
       <c r="Q15">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
-        <v>0.3999999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1845,13 +1845,13 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5992133</v>
+        <v>5992130</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,58 +1874,58 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
       </c>
       <c r="K16">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N16">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>0.5</v>
+        <v>1.375</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1934,13 +1934,13 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5992130</v>
+        <v>5992133</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,58 +1963,58 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L17">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N17">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2023,13 +2023,13 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2144,7 +2144,7 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5992128</v>
+        <v>5992134</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,58 +2230,58 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M20">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>0.5329999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2290,13 +2290,13 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5992134</v>
+        <v>5992128</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,58 +2319,58 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
         <v>34</v>
       </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
       <c r="H21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P21">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2379,13 +2379,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5992135</v>
+        <v>5992136</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,10 +2408,10 @@
         <v>45114.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2423,61 +2423,61 @@
         <v>45</v>
       </c>
       <c r="K22">
+        <v>3.4</v>
+      </c>
+      <c r="L22">
+        <v>3.4</v>
+      </c>
+      <c r="M22">
+        <v>1.909</v>
+      </c>
+      <c r="N22">
+        <v>3.3</v>
+      </c>
+      <c r="O22">
+        <v>3.3</v>
+      </c>
+      <c r="P22">
         <v>2.05</v>
       </c>
-      <c r="L22">
-        <v>3.2</v>
-      </c>
-      <c r="M22">
-        <v>3.2</v>
-      </c>
-      <c r="N22">
+      <c r="Q22">
+        <v>0.5</v>
+      </c>
+      <c r="R22">
+        <v>1.825</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>4</v>
-      </c>
-      <c r="P22">
-        <v>3.6</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
+      <c r="V22">
         <v>1.9</v>
       </c>
-      <c r="S22">
-        <v>1.95</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.8</v>
-      </c>
-      <c r="V22">
-        <v>2.05</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5992136</v>
+        <v>5992135</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,10 +2497,10 @@
         <v>45114.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2512,61 +2512,61 @@
         <v>45</v>
       </c>
       <c r="K23">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N23">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P23">
+        <v>3.6</v>
+      </c>
+      <c r="Q23">
+        <v>-0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.9</v>
+      </c>
+      <c r="S23">
+        <v>1.95</v>
+      </c>
+      <c r="T23">
+        <v>2.75</v>
+      </c>
+      <c r="U23">
+        <v>1.8</v>
+      </c>
+      <c r="V23">
         <v>2.05</v>
       </c>
-      <c r="Q23">
-        <v>0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.825</v>
-      </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.9</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,10 +2586,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2767,7 +2767,7 @@
         <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5992140</v>
+        <v>5992137</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N28">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O28">
         <v>3.4</v>
       </c>
       <c r="P28">
+        <v>3.3</v>
+      </c>
+      <c r="Q28">
+        <v>-0.5</v>
+      </c>
+      <c r="R28">
+        <v>2.05</v>
+      </c>
+      <c r="S28">
+        <v>1.8</v>
+      </c>
+      <c r="T28">
         <v>2.25</v>
       </c>
-      <c r="Q28">
-        <v>0.25</v>
-      </c>
-      <c r="R28">
-        <v>1.8</v>
-      </c>
-      <c r="S28">
-        <v>2.05</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA28">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5992137</v>
+        <v>5992140</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O29">
         <v>3.4</v>
       </c>
       <c r="P29">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
+        <v>1.8</v>
+      </c>
+      <c r="S29">
         <v>2.05</v>
       </c>
-      <c r="S29">
-        <v>1.8</v>
-      </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
         <v>1.05</v>
       </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3212,7 +3212,7 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3298,10 +3298,10 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3387,7 +3387,7 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>41</v>
@@ -3476,7 +3476,7 @@
         <v>45122.5</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
         <v>44</v>
@@ -3743,7 +3743,7 @@
         <v>45124.58333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>36</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5992157</v>
+        <v>5992153</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,7 +3921,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -3936,58 +3936,58 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="L39">
+        <v>3.25</v>
+      </c>
+      <c r="M39">
+        <v>2.3</v>
+      </c>
+      <c r="N39">
         <v>3.3</v>
       </c>
-      <c r="M39">
-        <v>2.4</v>
-      </c>
-      <c r="N39">
-        <v>3</v>
-      </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q39">
         <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.45</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA39">
         <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5992153</v>
+        <v>5992155</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="L40">
         <v>3.25</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N40">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O40">
         <v>3.3</v>
       </c>
       <c r="P40">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q40">
         <v>0.25</v>
       </c>
       <c r="R40">
+        <v>1.8</v>
+      </c>
+      <c r="S40">
         <v>2.05</v>
       </c>
-      <c r="S40">
-        <v>1.8</v>
-      </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X40">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.5249999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5992155</v>
+        <v>5992157</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M41">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="N41">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O41">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q41">
         <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4366,7 +4366,7 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
         <v>36</v>
@@ -4458,7 +4458,7 @@
         <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4633,10 +4633,10 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5992164</v>
+        <v>5992158</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,40 +4722,40 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N48">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O48">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q48">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
         <v>2.025</v>
@@ -4764,34 +4764,34 @@
         <v>1.825</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5992158</v>
+        <v>5992164</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,40 +4811,40 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O49">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P49">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R49">
         <v>2.025</v>
@@ -4853,34 +4853,34 @@
         <v>1.825</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X49">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4989,7 +4989,7 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5078,7 +5078,7 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
         <v>32</v>
@@ -5170,7 +5170,7 @@
         <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5348,7 +5348,7 @@
         <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5615,7 +5615,7 @@
         <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5793,7 +5793,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5879,10 +5879,10 @@
         <v>45146.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -6146,7 +6146,7 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
         <v>43</v>
@@ -6324,10 +6324,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" t="s">
         <v>29</v>
-      </c>
-      <c r="G66" t="s">
-        <v>31</v>
       </c>
       <c r="H66">
         <v>3</v>
@@ -6413,7 +6413,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
         <v>36</v>
@@ -6502,7 +6502,7 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
         <v>37</v>
@@ -6591,7 +6591,7 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
         <v>30</v>
@@ -6683,7 +6683,7 @@
         <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5992185</v>
+        <v>5992182</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,13 +6858,13 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6873,25 +6873,25 @@
         <v>47</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L72">
         <v>3.4</v>
       </c>
       <c r="M72">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N72">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O72">
         <v>3.3</v>
       </c>
       <c r="P72">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
         <v>1.925</v>
@@ -6900,16 +6900,16 @@
         <v>1.925</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W72">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6924,10 +6924,10 @@
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5992182</v>
+        <v>5992185</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,13 +6947,13 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6962,25 +6962,25 @@
         <v>47</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L73">
         <v>3.4</v>
       </c>
       <c r="M73">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N73">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O73">
         <v>3.3</v>
       </c>
       <c r="P73">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
         <v>1.925</v>
@@ -6989,16 +6989,16 @@
         <v>1.925</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7013,10 +7013,10 @@
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7039,7 +7039,7 @@
         <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7128,7 +7128,7 @@
         <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7214,10 +7214,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7392,10 +7392,10 @@
         <v>45164.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5992192</v>
+        <v>5993421</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K80">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L80">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N80">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="O80">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R80">
+        <v>1.925</v>
+      </c>
+      <c r="S80">
+        <v>1.925</v>
+      </c>
+      <c r="T80">
+        <v>3</v>
+      </c>
+      <c r="U80">
         <v>2.025</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.825</v>
       </c>
-      <c r="T80">
-        <v>2.5</v>
-      </c>
-      <c r="U80">
-        <v>1.95</v>
-      </c>
-      <c r="V80">
-        <v>1.9</v>
-      </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X80">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>0.825</v>
-      </c>
-      <c r="AB80">
-        <v>0.95</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5993421</v>
+        <v>5992192</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L81">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N81">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O81">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5992188</v>
+        <v>5993420</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,13 +7748,13 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -7763,43 +7763,43 @@
         <v>47</v>
       </c>
       <c r="K82">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="L82">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="N82">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P82">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q82">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7808,13 +7808,13 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7837,7 +7837,7 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
         <v>30</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5993420</v>
+        <v>5992188</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,13 +7926,13 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -7941,43 +7941,43 @@
         <v>47</v>
       </c>
       <c r="K84">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M84">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="N84">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P84">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S84">
+        <v>1.825</v>
+      </c>
+      <c r="T84">
+        <v>2.75</v>
+      </c>
+      <c r="U84">
         <v>1.85</v>
       </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
-      <c r="U84">
-        <v>1.875</v>
-      </c>
       <c r="V84">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7986,13 +7986,13 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8015,7 +8015,7 @@
         <v>45167.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
         <v>44</v>
@@ -8104,10 +8104,10 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5992201</v>
+        <v>5992196</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,49 +8193,49 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K87">
+        <v>3.2</v>
+      </c>
+      <c r="L87">
+        <v>3.4</v>
+      </c>
+      <c r="M87">
+        <v>2.05</v>
+      </c>
+      <c r="N87">
+        <v>3.75</v>
+      </c>
+      <c r="O87">
+        <v>3.6</v>
+      </c>
+      <c r="P87">
+        <v>1.833</v>
+      </c>
+      <c r="Q87">
+        <v>0.5</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
         <v>1.85</v>
       </c>
-      <c r="L87">
-        <v>3.3</v>
-      </c>
-      <c r="M87">
-        <v>4</v>
-      </c>
-      <c r="N87">
-        <v>1.909</v>
-      </c>
-      <c r="O87">
-        <v>3.1</v>
-      </c>
-      <c r="P87">
-        <v>4</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.975</v>
-      </c>
-      <c r="S87">
-        <v>1.875</v>
-      </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
         <v>1.925</v>
@@ -8244,25 +8244,25 @@
         <v>1.925</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X87">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC87">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5992196</v>
+        <v>5992201</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,49 +8282,49 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M88">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="N88">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="Q88">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
         <v>1.925</v>
@@ -8333,25 +8333,25 @@
         <v>1.925</v>
       </c>
       <c r="W88">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB88">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5992198</v>
+        <v>5992199</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="N89">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
         <v>2.75</v>
       </c>
       <c r="U89">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z89">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC89">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5992195</v>
+        <v>5992198</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="N90">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V90">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X90">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5992199</v>
+        <v>5992195</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,76 +8549,76 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K91">
-        <v>4.75</v>
+        <v>1.533</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M91">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="N91">
-        <v>4.333</v>
+        <v>1.75</v>
       </c>
       <c r="O91">
         <v>3.6</v>
       </c>
       <c r="P91">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="Q91">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
         <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y91">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5992200</v>
+        <v>5992197</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,49 +8638,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
         <v>47</v>
       </c>
       <c r="K92">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L92">
         <v>3.4</v>
       </c>
       <c r="M92">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N92">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O92">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P92">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q92">
         <v>-0.25</v>
       </c>
       <c r="R92">
+        <v>1.8</v>
+      </c>
+      <c r="S92">
         <v>2.05</v>
       </c>
-      <c r="S92">
-        <v>1.8</v>
-      </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
         <v>1.975</v>
@@ -8689,7 +8689,7 @@
         <v>1.875</v>
       </c>
       <c r="W92">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8698,16 +8698,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5992197</v>
+        <v>5992200</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,49 +8727,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>47</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P93">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q93">
         <v>-0.25</v>
       </c>
       <c r="R93">
+        <v>2.05</v>
+      </c>
+      <c r="S93">
         <v>1.8</v>
       </c>
-      <c r="S93">
-        <v>2.05</v>
-      </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
         <v>1.975</v>
@@ -8778,7 +8778,7 @@
         <v>1.875</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8787,16 +8787,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8819,7 +8819,7 @@
         <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8905,7 +8905,7 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
         <v>40</v>
@@ -9086,7 +9086,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>4</v>
@@ -9172,7 +9172,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
         <v>41</v>
@@ -9261,7 +9261,7 @@
         <v>45186.5</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
         <v>37</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5992206</v>
+        <v>5992203</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9350,76 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
         <v>2.875</v>
       </c>
       <c r="N100">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O100">
-        <